--- a/Workbooks/JA/キュー.xlsx
+++ b/Workbooks/JA/キュー.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97FFE2AE-C50D-4AB3-975D-E483E680A9FE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008BEA19-5D93-4843-B4EC-A22BD889EFE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
     <sheet name="作成" sheetId="1" r:id="rId2"/>
     <sheet name="削除" sheetId="2" r:id="rId3"/>
+    <sheet name="キューアイテムをダウンロード" sheetId="6" r:id="rId4"/>
+    <sheet name="キューアイテムをアップロード" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -65,6 +67,15 @@
   </si>
   <si>
     <t>組織単位ID</t>
+  </si>
+  <si>
+    <t>保存フォルダーパス</t>
+  </si>
+  <si>
+    <t>コミットタイプ</t>
+  </si>
+  <si>
+    <t>キューアイテム一覧のファイルパス</t>
   </si>
 </sst>
 </file>
@@ -106,7 +117,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -233,11 +244,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="5"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -281,13 +303,14 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="32">
     <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -295,7 +318,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
+      <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </left>
@@ -308,6 +331,246 @@
         <bottom style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
       </border>
       <protection locked="1" hidden="0"/>
     </dxf>
@@ -672,6 +935,31 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="solid">
@@ -893,17 +1181,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:H201" headerRowDxfId="22" dataDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:H201" headerRowDxfId="31" dataDxfId="30">
   <autoFilter ref="A1:H201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{F48D04D3-B22E-457E-8F3F-6D0CF14127A6}" name="組織単位ID" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{012AE434-BA00-4CDD-8DBE-8524E276CBF0}" name="組織単位名" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{81F10BAB-541D-4EEA-8F4A-504125FC59D3}" name="キューID" dataDxfId="18"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="キュー名" totalsRowLabel="Total" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="説明" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="一意の参照" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{EA8DF354-2F10-4E45-801A-56D5F80552D8}" name="自動リトライ" dataDxfId="14"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="最大リトライ回数" totalsRowFunction="count" dataDxfId="0"/>
+    <tableColumn id="8" xr3:uid="{F48D04D3-B22E-457E-8F3F-6D0CF14127A6}" name="組織単位ID" dataDxfId="29"/>
+    <tableColumn id="7" xr3:uid="{012AE434-BA00-4CDD-8DBE-8524E276CBF0}" name="組織単位名" dataDxfId="28"/>
+    <tableColumn id="6" xr3:uid="{81F10BAB-541D-4EEA-8F4A-504125FC59D3}" name="キューID" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="キュー名" totalsRowLabel="Total" dataDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="説明" dataDxfId="25"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="一意の参照" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{EA8DF354-2F10-4E45-801A-56D5F80552D8}" name="自動リトライ" dataDxfId="23"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="最大リトライ回数" totalsRowFunction="count" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -913,14 +1201,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H201" totalsRowShown="0">
   <autoFilter ref="A1:H201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{3C3B66B3-BB87-4C07-80BD-579ABFE71137}" name="組織単位名" dataDxfId="13"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="キュー名" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="説明" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{4D652F4A-5125-4BA7-BCE0-BCD13A330E29}" name="一意の参照" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{07A3D78A-00F5-4019-BC61-B83E2CEDEEA5}" name="自動リトライ" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{5CA1824C-85AD-40DB-A0CE-9853C443448E}" name="最大リトライ回数" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="6"/>
+    <tableColumn id="8" xr3:uid="{3C3B66B3-BB87-4C07-80BD-579ABFE71137}" name="組織単位名" dataDxfId="21"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="キュー名" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="説明" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{4D652F4A-5125-4BA7-BCE0-BCD13A330E29}" name="一意の参照" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{07A3D78A-00F5-4019-BC61-B83E2CEDEEA5}" name="自動リトライ" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{5CA1824C-85AD-40DB-A0CE-9853C443448E}" name="最大リトライ回数" dataDxfId="16"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="15"/>
+    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -930,11 +1218,38 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:E201" totalsRowShown="0">
   <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="4" xr3:uid="{2E1B6A8E-85FA-465E-B215-15A8D8C44B57}" name="組織単位ID" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{5CFD4745-18D2-4B9F-9127-E66CA25B38B2}" name="組織単位名" dataDxfId="4"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="キューID" dataDxfId="3"/>
-    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="キュー名" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{2E1B6A8E-85FA-465E-B215-15A8D8C44B57}" name="組織単位ID" dataDxfId="13"/>
+    <tableColumn id="5" xr3:uid="{5CFD4745-18D2-4B9F-9127-E66CA25B38B2}" name="組織単位名" dataDxfId="12"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="キューID" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="キュー名" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BDD2F9DC-3028-471A-A247-2ED5A9AC5566}" name="Table135" displayName="Table135" ref="A1:D201" totalsRowShown="0">
+  <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="4" xr3:uid="{3A524577-2886-46D9-BDC3-73F7E697D198}" name="組織単位名" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{FAB26460-45C9-47D7-93FB-35118D5F4DF0}" name="キュー名" dataDxfId="7"/>
+    <tableColumn id="1" xr3:uid="{C455FEB9-1F4C-4FD2-9BC3-F5CA89B885F6}" name="保存フォルダーパス" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{EDEDFBDB-A6F3-441B-AA68-79FEE4009BFD}" name="結果" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C4F260B6-262D-46C1-B4D1-BCFC6884B63D}" name="Table1356" displayName="Table1356" ref="A1:E201" totalsRowShown="0">
+  <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="5">
+    <tableColumn id="4" xr3:uid="{F1E05E03-DBDF-4491-9EE8-8A6B21F57814}" name="組織単位名" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{E328AFBB-DF63-41AD-B11E-E7642D9A3121}" name="キュー名" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{56CE4921-90D7-421E-9313-6592D86EA9FB}" name="キューアイテム一覧のファイルパス" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{32C7ACF1-5123-4602-B742-646D45AF8932}" name="コミットタイプ" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{835CC962-3DD4-4C84-9423-395F4642CE78}" name="結果" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1205,7 +1520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B90804-4CC2-4F3A-A5A0-B313E9BACDDF}">
   <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -6767,4 +7082,2692 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C90ADFB-39E2-4E0D-925E-4B04454CB397}">
+  <dimension ref="A1:D201"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.90625" customWidth="1"/>
+    <col min="3" max="3" width="22.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.54296875" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="20"/>
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="4"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="4"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="4"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="20"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="4"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="4"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="4"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="4"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="4"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="4"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="4"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="4"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="4"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="4"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="4"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="4"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="4"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="4"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="4"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="4"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="4"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="4"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="4"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="4"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="4"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="4"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="4"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="4"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="4"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="4"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="4"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="4"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="4"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="4"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="4"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="4"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="4"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="4"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="4"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="4"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="4"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="4"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="4"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="4"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="4"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="4"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="4"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="4"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="4"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="4"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="4"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="4"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="4"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="4"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="4"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="4"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="4"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="4"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="10"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="4"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="4"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="4"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="4"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="4"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="10"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="4"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="10"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="4"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="10"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="4"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="10"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="4"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="10"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="4"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="10"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="4"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="4"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="10"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="4"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="10"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="4"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="10"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="4"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="10"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="4"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="10"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="4"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="10"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="4"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" s="10"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="4"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" s="10"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="4"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" s="10"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="4"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" s="10"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="4"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" s="10"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="4"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" s="10"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="4"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" s="10"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="4"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" s="10"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="4"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" s="10"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="4"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" s="10"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="4"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" s="10"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="4"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" s="10"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="4"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" s="10"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="4"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" s="10"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="4"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" s="10"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="4"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" s="10"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="4"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" s="10"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="4"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" s="10"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="4"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" s="10"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="4"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" s="10"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="4"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" s="10"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="4"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" s="10"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="4"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" s="10"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="4"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" s="10"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="4"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" s="10"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="4"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" s="10"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="4"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" s="10"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="4"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" s="10"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="4"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" s="10"/>
+      <c r="B114" s="10"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="4"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" s="10"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="4"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" s="10"/>
+      <c r="B116" s="10"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="4"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" s="10"/>
+      <c r="B117" s="10"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="4"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" s="10"/>
+      <c r="B118" s="10"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="4"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" s="10"/>
+      <c r="B119" s="10"/>
+      <c r="C119" s="12"/>
+      <c r="D119" s="4"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" s="10"/>
+      <c r="B120" s="10"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="4"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" s="10"/>
+      <c r="B121" s="10"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="4"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" s="10"/>
+      <c r="B122" s="10"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="4"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" s="10"/>
+      <c r="B123" s="10"/>
+      <c r="C123" s="12"/>
+      <c r="D123" s="4"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" s="10"/>
+      <c r="B124" s="10"/>
+      <c r="C124" s="12"/>
+      <c r="D124" s="4"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" s="10"/>
+      <c r="B125" s="10"/>
+      <c r="C125" s="12"/>
+      <c r="D125" s="4"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126" s="10"/>
+      <c r="B126" s="10"/>
+      <c r="C126" s="12"/>
+      <c r="D126" s="4"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127" s="10"/>
+      <c r="B127" s="10"/>
+      <c r="C127" s="12"/>
+      <c r="D127" s="4"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128" s="10"/>
+      <c r="B128" s="10"/>
+      <c r="C128" s="12"/>
+      <c r="D128" s="4"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129" s="10"/>
+      <c r="B129" s="10"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="4"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130" s="10"/>
+      <c r="B130" s="10"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="4"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131" s="10"/>
+      <c r="B131" s="10"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="4"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132" s="10"/>
+      <c r="B132" s="10"/>
+      <c r="C132" s="12"/>
+      <c r="D132" s="4"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" s="10"/>
+      <c r="B133" s="10"/>
+      <c r="C133" s="12"/>
+      <c r="D133" s="4"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" s="10"/>
+      <c r="B134" s="10"/>
+      <c r="C134" s="12"/>
+      <c r="D134" s="4"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" s="10"/>
+      <c r="B135" s="10"/>
+      <c r="C135" s="12"/>
+      <c r="D135" s="4"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136" s="10"/>
+      <c r="B136" s="10"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="4"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" s="10"/>
+      <c r="B137" s="10"/>
+      <c r="C137" s="12"/>
+      <c r="D137" s="4"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138" s="10"/>
+      <c r="B138" s="10"/>
+      <c r="C138" s="12"/>
+      <c r="D138" s="4"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139" s="10"/>
+      <c r="B139" s="10"/>
+      <c r="C139" s="12"/>
+      <c r="D139" s="4"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140" s="10"/>
+      <c r="B140" s="10"/>
+      <c r="C140" s="12"/>
+      <c r="D140" s="4"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141" s="10"/>
+      <c r="B141" s="10"/>
+      <c r="C141" s="12"/>
+      <c r="D141" s="4"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142" s="10"/>
+      <c r="B142" s="10"/>
+      <c r="C142" s="12"/>
+      <c r="D142" s="4"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143" s="10"/>
+      <c r="B143" s="10"/>
+      <c r="C143" s="12"/>
+      <c r="D143" s="4"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A144" s="10"/>
+      <c r="B144" s="10"/>
+      <c r="C144" s="12"/>
+      <c r="D144" s="4"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A145" s="10"/>
+      <c r="B145" s="10"/>
+      <c r="C145" s="12"/>
+      <c r="D145" s="4"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A146" s="10"/>
+      <c r="B146" s="10"/>
+      <c r="C146" s="12"/>
+      <c r="D146" s="4"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A147" s="10"/>
+      <c r="B147" s="10"/>
+      <c r="C147" s="12"/>
+      <c r="D147" s="4"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A148" s="10"/>
+      <c r="B148" s="10"/>
+      <c r="C148" s="12"/>
+      <c r="D148" s="4"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A149" s="10"/>
+      <c r="B149" s="10"/>
+      <c r="C149" s="12"/>
+      <c r="D149" s="4"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A150" s="10"/>
+      <c r="B150" s="10"/>
+      <c r="C150" s="12"/>
+      <c r="D150" s="4"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A151" s="10"/>
+      <c r="B151" s="10"/>
+      <c r="C151" s="12"/>
+      <c r="D151" s="4"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A152" s="10"/>
+      <c r="B152" s="10"/>
+      <c r="C152" s="12"/>
+      <c r="D152" s="4"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A153" s="10"/>
+      <c r="B153" s="10"/>
+      <c r="C153" s="12"/>
+      <c r="D153" s="4"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A154" s="10"/>
+      <c r="B154" s="10"/>
+      <c r="C154" s="12"/>
+      <c r="D154" s="4"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A155" s="10"/>
+      <c r="B155" s="10"/>
+      <c r="C155" s="12"/>
+      <c r="D155" s="4"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A156" s="10"/>
+      <c r="B156" s="10"/>
+      <c r="C156" s="12"/>
+      <c r="D156" s="4"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A157" s="10"/>
+      <c r="B157" s="10"/>
+      <c r="C157" s="12"/>
+      <c r="D157" s="4"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A158" s="10"/>
+      <c r="B158" s="10"/>
+      <c r="C158" s="12"/>
+      <c r="D158" s="4"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A159" s="10"/>
+      <c r="B159" s="10"/>
+      <c r="C159" s="12"/>
+      <c r="D159" s="4"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A160" s="10"/>
+      <c r="B160" s="10"/>
+      <c r="C160" s="12"/>
+      <c r="D160" s="4"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A161" s="10"/>
+      <c r="B161" s="10"/>
+      <c r="C161" s="12"/>
+      <c r="D161" s="4"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A162" s="10"/>
+      <c r="B162" s="10"/>
+      <c r="C162" s="12"/>
+      <c r="D162" s="4"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A163" s="10"/>
+      <c r="B163" s="10"/>
+      <c r="C163" s="12"/>
+      <c r="D163" s="4"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A164" s="10"/>
+      <c r="B164" s="10"/>
+      <c r="C164" s="12"/>
+      <c r="D164" s="4"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A165" s="10"/>
+      <c r="B165" s="10"/>
+      <c r="C165" s="12"/>
+      <c r="D165" s="4"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A166" s="10"/>
+      <c r="B166" s="10"/>
+      <c r="C166" s="12"/>
+      <c r="D166" s="4"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A167" s="10"/>
+      <c r="B167" s="10"/>
+      <c r="C167" s="12"/>
+      <c r="D167" s="4"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A168" s="10"/>
+      <c r="B168" s="10"/>
+      <c r="C168" s="12"/>
+      <c r="D168" s="4"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A169" s="10"/>
+      <c r="B169" s="10"/>
+      <c r="C169" s="12"/>
+      <c r="D169" s="4"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A170" s="10"/>
+      <c r="B170" s="10"/>
+      <c r="C170" s="12"/>
+      <c r="D170" s="4"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A171" s="10"/>
+      <c r="B171" s="10"/>
+      <c r="C171" s="12"/>
+      <c r="D171" s="4"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A172" s="10"/>
+      <c r="B172" s="10"/>
+      <c r="C172" s="12"/>
+      <c r="D172" s="4"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A173" s="10"/>
+      <c r="B173" s="10"/>
+      <c r="C173" s="12"/>
+      <c r="D173" s="4"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A174" s="10"/>
+      <c r="B174" s="10"/>
+      <c r="C174" s="12"/>
+      <c r="D174" s="4"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A175" s="10"/>
+      <c r="B175" s="10"/>
+      <c r="C175" s="12"/>
+      <c r="D175" s="4"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A176" s="10"/>
+      <c r="B176" s="10"/>
+      <c r="C176" s="12"/>
+      <c r="D176" s="4"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A177" s="10"/>
+      <c r="B177" s="10"/>
+      <c r="C177" s="12"/>
+      <c r="D177" s="4"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A178" s="10"/>
+      <c r="B178" s="10"/>
+      <c r="C178" s="12"/>
+      <c r="D178" s="4"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A179" s="10"/>
+      <c r="B179" s="10"/>
+      <c r="C179" s="12"/>
+      <c r="D179" s="4"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A180" s="10"/>
+      <c r="B180" s="10"/>
+      <c r="C180" s="12"/>
+      <c r="D180" s="4"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A181" s="10"/>
+      <c r="B181" s="10"/>
+      <c r="C181" s="12"/>
+      <c r="D181" s="4"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A182" s="10"/>
+      <c r="B182" s="10"/>
+      <c r="C182" s="12"/>
+      <c r="D182" s="4"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A183" s="10"/>
+      <c r="B183" s="10"/>
+      <c r="C183" s="12"/>
+      <c r="D183" s="4"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A184" s="10"/>
+      <c r="B184" s="10"/>
+      <c r="C184" s="12"/>
+      <c r="D184" s="4"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A185" s="10"/>
+      <c r="B185" s="10"/>
+      <c r="C185" s="12"/>
+      <c r="D185" s="4"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A186" s="10"/>
+      <c r="B186" s="10"/>
+      <c r="C186" s="12"/>
+      <c r="D186" s="4"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A187" s="10"/>
+      <c r="B187" s="10"/>
+      <c r="C187" s="12"/>
+      <c r="D187" s="4"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A188" s="10"/>
+      <c r="B188" s="10"/>
+      <c r="C188" s="12"/>
+      <c r="D188" s="4"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A189" s="10"/>
+      <c r="B189" s="10"/>
+      <c r="C189" s="12"/>
+      <c r="D189" s="4"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A190" s="10"/>
+      <c r="B190" s="10"/>
+      <c r="C190" s="12"/>
+      <c r="D190" s="4"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A191" s="10"/>
+      <c r="B191" s="10"/>
+      <c r="C191" s="12"/>
+      <c r="D191" s="4"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A192" s="10"/>
+      <c r="B192" s="10"/>
+      <c r="C192" s="12"/>
+      <c r="D192" s="4"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A193" s="10"/>
+      <c r="B193" s="10"/>
+      <c r="C193" s="12"/>
+      <c r="D193" s="4"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A194" s="10"/>
+      <c r="B194" s="10"/>
+      <c r="C194" s="12"/>
+      <c r="D194" s="4"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A195" s="10"/>
+      <c r="B195" s="10"/>
+      <c r="C195" s="12"/>
+      <c r="D195" s="4"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A196" s="10"/>
+      <c r="B196" s="10"/>
+      <c r="C196" s="12"/>
+      <c r="D196" s="4"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A197" s="10"/>
+      <c r="B197" s="10"/>
+      <c r="C197" s="12"/>
+      <c r="D197" s="4"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A198" s="10"/>
+      <c r="B198" s="10"/>
+      <c r="C198" s="12"/>
+      <c r="D198" s="4"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A199" s="10"/>
+      <c r="B199" s="10"/>
+      <c r="C199" s="12"/>
+      <c r="D199" s="4"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A200" s="10"/>
+      <c r="B200" s="10"/>
+      <c r="C200" s="12"/>
+      <c r="D200" s="4"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A201" s="14"/>
+      <c r="B201" s="14"/>
+      <c r="C201" s="15"/>
+      <c r="D201" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D4554F-2298-4CE1-9C9C-35D7C3CF77C6}">
+  <dimension ref="A1:E201"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="20" style="1" customWidth="1"/>
+    <col min="2" max="2" width="22.90625" customWidth="1"/>
+    <col min="3" max="3" width="37.08984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.81640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.453125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" s="24"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="4"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="4"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="4"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="4"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="4"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="20"/>
+      <c r="E10" s="4"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="4"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="4"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" s="10"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" s="10"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="10"/>
+      <c r="B21" s="10"/>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="10"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" s="10"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" s="10"/>
+      <c r="B25" s="10"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="10"/>
+      <c r="B26" s="10"/>
+      <c r="C26" s="12"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="10"/>
+      <c r="B27" s="10"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="10"/>
+      <c r="B30" s="10"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="12"/>
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" s="10"/>
+      <c r="B31" s="10"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" s="10"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="12"/>
+      <c r="D32" s="12"/>
+      <c r="E32" s="4"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="12"/>
+      <c r="D33" s="12"/>
+      <c r="E33" s="4"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" s="10"/>
+      <c r="B34" s="10"/>
+      <c r="C34" s="12"/>
+      <c r="D34" s="12"/>
+      <c r="E34" s="4"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="10"/>
+      <c r="B35" s="10"/>
+      <c r="C35" s="12"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="4"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="10"/>
+      <c r="B36" s="10"/>
+      <c r="C36" s="12"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="10"/>
+      <c r="B37" s="10"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="4"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="10"/>
+      <c r="B38" s="10"/>
+      <c r="C38" s="12"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="4"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="12"/>
+      <c r="D39" s="12"/>
+      <c r="E39" s="4"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="12"/>
+      <c r="D40" s="12"/>
+      <c r="E40" s="4"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="12"/>
+      <c r="D41" s="12"/>
+      <c r="E41" s="4"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="12"/>
+      <c r="D42" s="12"/>
+      <c r="E42" s="4"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="12"/>
+      <c r="D43" s="12"/>
+      <c r="E43" s="4"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="10"/>
+      <c r="B44" s="10"/>
+      <c r="C44" s="12"/>
+      <c r="D44" s="12"/>
+      <c r="E44" s="4"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="10"/>
+      <c r="B45" s="10"/>
+      <c r="C45" s="12"/>
+      <c r="D45" s="12"/>
+      <c r="E45" s="4"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" s="10"/>
+      <c r="B46" s="10"/>
+      <c r="C46" s="12"/>
+      <c r="D46" s="12"/>
+      <c r="E46" s="4"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="10"/>
+      <c r="B47" s="10"/>
+      <c r="C47" s="12"/>
+      <c r="D47" s="12"/>
+      <c r="E47" s="4"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="10"/>
+      <c r="B48" s="10"/>
+      <c r="C48" s="12"/>
+      <c r="D48" s="12"/>
+      <c r="E48" s="4"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="10"/>
+      <c r="B49" s="10"/>
+      <c r="C49" s="12"/>
+      <c r="D49" s="12"/>
+      <c r="E49" s="4"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" s="10"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="12"/>
+      <c r="D50" s="12"/>
+      <c r="E50" s="4"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="10"/>
+      <c r="B51" s="10"/>
+      <c r="C51" s="12"/>
+      <c r="D51" s="12"/>
+      <c r="E51" s="4"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
+      <c r="C52" s="12"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="4"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="10"/>
+      <c r="B53" s="10"/>
+      <c r="C53" s="12"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="4"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="10"/>
+      <c r="B54" s="10"/>
+      <c r="C54" s="12"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="4"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="10"/>
+      <c r="B55" s="10"/>
+      <c r="C55" s="12"/>
+      <c r="D55" s="12"/>
+      <c r="E55" s="4"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="10"/>
+      <c r="B56" s="10"/>
+      <c r="C56" s="12"/>
+      <c r="D56" s="12"/>
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="10"/>
+      <c r="B57" s="10"/>
+      <c r="C57" s="12"/>
+      <c r="D57" s="12"/>
+      <c r="E57" s="4"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" s="10"/>
+      <c r="B58" s="10"/>
+      <c r="C58" s="12"/>
+      <c r="D58" s="12"/>
+      <c r="E58" s="4"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="10"/>
+      <c r="B59" s="10"/>
+      <c r="C59" s="12"/>
+      <c r="D59" s="12"/>
+      <c r="E59" s="4"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="10"/>
+      <c r="B60" s="10"/>
+      <c r="C60" s="12"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="4"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" s="10"/>
+      <c r="B61" s="10"/>
+      <c r="C61" s="12"/>
+      <c r="D61" s="12"/>
+      <c r="E61" s="4"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="10"/>
+      <c r="B62" s="10"/>
+      <c r="C62" s="12"/>
+      <c r="D62" s="12"/>
+      <c r="E62" s="4"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="10"/>
+      <c r="B63" s="10"/>
+      <c r="C63" s="12"/>
+      <c r="D63" s="12"/>
+      <c r="E63" s="4"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" s="10"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="12"/>
+      <c r="D64" s="12"/>
+      <c r="E64" s="4"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" s="10"/>
+      <c r="B65" s="10"/>
+      <c r="C65" s="12"/>
+      <c r="D65" s="12"/>
+      <c r="E65" s="4"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" s="10"/>
+      <c r="B66" s="10"/>
+      <c r="C66" s="12"/>
+      <c r="D66" s="12"/>
+      <c r="E66" s="4"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="10"/>
+      <c r="B67" s="10"/>
+      <c r="C67" s="12"/>
+      <c r="D67" s="12"/>
+      <c r="E67" s="4"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="10"/>
+      <c r="B68" s="10"/>
+      <c r="C68" s="12"/>
+      <c r="D68" s="12"/>
+      <c r="E68" s="4"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="10"/>
+      <c r="B69" s="10"/>
+      <c r="C69" s="12"/>
+      <c r="D69" s="12"/>
+      <c r="E69" s="4"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="10"/>
+      <c r="B70" s="10"/>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="4"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="10"/>
+      <c r="B71" s="10"/>
+      <c r="C71" s="12"/>
+      <c r="D71" s="12"/>
+      <c r="E71" s="4"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="10"/>
+      <c r="B72" s="10"/>
+      <c r="C72" s="12"/>
+      <c r="D72" s="12"/>
+      <c r="E72" s="4"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" s="10"/>
+      <c r="B73" s="10"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="4"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="10"/>
+      <c r="B74" s="10"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="4"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="10"/>
+      <c r="B75" s="10"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="4"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="10"/>
+      <c r="B76" s="10"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="4"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="10"/>
+      <c r="B77" s="10"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="4"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="10"/>
+      <c r="B78" s="10"/>
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="4"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="10"/>
+      <c r="B79" s="10"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="4"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="10"/>
+      <c r="B80" s="10"/>
+      <c r="C80" s="12"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="4"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="10"/>
+      <c r="B81" s="10"/>
+      <c r="C81" s="12"/>
+      <c r="D81" s="12"/>
+      <c r="E81" s="4"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" s="10"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="12"/>
+      <c r="D82" s="12"/>
+      <c r="E82" s="4"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="10"/>
+      <c r="B83" s="10"/>
+      <c r="C83" s="12"/>
+      <c r="D83" s="12"/>
+      <c r="E83" s="4"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" s="10"/>
+      <c r="B84" s="10"/>
+      <c r="C84" s="12"/>
+      <c r="D84" s="12"/>
+      <c r="E84" s="4"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="10"/>
+      <c r="B85" s="10"/>
+      <c r="C85" s="12"/>
+      <c r="D85" s="12"/>
+      <c r="E85" s="4"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" s="10"/>
+      <c r="B86" s="10"/>
+      <c r="C86" s="12"/>
+      <c r="D86" s="12"/>
+      <c r="E86" s="4"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="10"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="12"/>
+      <c r="D87" s="12"/>
+      <c r="E87" s="4"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" s="10"/>
+      <c r="B88" s="10"/>
+      <c r="C88" s="12"/>
+      <c r="D88" s="12"/>
+      <c r="E88" s="4"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" s="10"/>
+      <c r="B89" s="10"/>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12"/>
+      <c r="E89" s="4"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" s="10"/>
+      <c r="B90" s="10"/>
+      <c r="C90" s="12"/>
+      <c r="D90" s="12"/>
+      <c r="E90" s="4"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="10"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="12"/>
+      <c r="D91" s="12"/>
+      <c r="E91" s="4"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="10"/>
+      <c r="B92" s="10"/>
+      <c r="C92" s="12"/>
+      <c r="D92" s="12"/>
+      <c r="E92" s="4"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" s="10"/>
+      <c r="B93" s="10"/>
+      <c r="C93" s="12"/>
+      <c r="D93" s="12"/>
+      <c r="E93" s="4"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" s="10"/>
+      <c r="B94" s="10"/>
+      <c r="C94" s="12"/>
+      <c r="D94" s="12"/>
+      <c r="E94" s="4"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" s="10"/>
+      <c r="B95" s="10"/>
+      <c r="C95" s="12"/>
+      <c r="D95" s="12"/>
+      <c r="E95" s="4"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="10"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="12"/>
+      <c r="D96" s="12"/>
+      <c r="E96" s="4"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="10"/>
+      <c r="B97" s="10"/>
+      <c r="C97" s="12"/>
+      <c r="D97" s="12"/>
+      <c r="E97" s="4"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="10"/>
+      <c r="B98" s="10"/>
+      <c r="C98" s="12"/>
+      <c r="D98" s="12"/>
+      <c r="E98" s="4"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="10"/>
+      <c r="B99" s="10"/>
+      <c r="C99" s="12"/>
+      <c r="D99" s="12"/>
+      <c r="E99" s="4"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" s="10"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="12"/>
+      <c r="D100" s="12"/>
+      <c r="E100" s="4"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" s="10"/>
+      <c r="B101" s="10"/>
+      <c r="C101" s="12"/>
+      <c r="D101" s="12"/>
+      <c r="E101" s="4"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" s="10"/>
+      <c r="B102" s="10"/>
+      <c r="C102" s="12"/>
+      <c r="D102" s="12"/>
+      <c r="E102" s="4"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" s="10"/>
+      <c r="B103" s="10"/>
+      <c r="C103" s="12"/>
+      <c r="D103" s="12"/>
+      <c r="E103" s="4"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" s="10"/>
+      <c r="B104" s="10"/>
+      <c r="C104" s="12"/>
+      <c r="D104" s="12"/>
+      <c r="E104" s="4"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" s="10"/>
+      <c r="B105" s="10"/>
+      <c r="C105" s="12"/>
+      <c r="D105" s="12"/>
+      <c r="E105" s="4"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" s="10"/>
+      <c r="B106" s="10"/>
+      <c r="C106" s="12"/>
+      <c r="D106" s="12"/>
+      <c r="E106" s="4"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" s="10"/>
+      <c r="B107" s="10"/>
+      <c r="C107" s="12"/>
+      <c r="D107" s="12"/>
+      <c r="E107" s="4"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" s="10"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="12"/>
+      <c r="D108" s="12"/>
+      <c r="E108" s="4"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" s="10"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="12"/>
+      <c r="D109" s="12"/>
+      <c r="E109" s="4"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" s="10"/>
+      <c r="B110" s="10"/>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12"/>
+      <c r="E110" s="4"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" s="10"/>
+      <c r="B111" s="10"/>
+      <c r="C111" s="12"/>
+      <c r="D111" s="12"/>
+      <c r="E111" s="4"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" s="10"/>
+      <c r="B112" s="10"/>
+      <c r="C112" s="12"/>
+      <c r="D112" s="12"/>
+      <c r="E112" s="4"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" s="10"/>
+      <c r="B113" s="10"/>
+      <c r="C113" s="12"/>
+      <c r="D113" s="12"/>
+      <c r="E113" s="4"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" s="10"/>
+      <c r="B114" s="10"/>
+      <c r="C114" s="12"/>
+      <c r="D114" s="12"/>
+      <c r="E114" s="4"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" s="10"/>
+      <c r="B115" s="10"/>
+      <c r="C115" s="12"/>
+      <c r="D115" s="12"/>
+      <c r="E115" s="4"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" s="10"/>
+      <c r="B116" s="10"/>
+      <c r="C116" s="12"/>
+      <c r="D116" s="12"/>
+      <c r="E116" s="4"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" s="10"/>
+      <c r="B117" s="10"/>
+      <c r="C117" s="12"/>
+      <c r="D117" s="12"/>
+      <c r="E117" s="4"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" s="10"/>
+      <c r="B118" s="10"/>
+      <c r="C118" s="12"/>
+      <c r="D118" s="12"/>
+      <c r="E118" s="4"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" s="10"/>
+      <c r="B119" s="10"/>
+      <c r="C119" s="12"/>
+      <c r="D119" s="12"/>
+      <c r="E119" s="4"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" s="10"/>
+      <c r="B120" s="10"/>
+      <c r="C120" s="12"/>
+      <c r="D120" s="12"/>
+      <c r="E120" s="4"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" s="10"/>
+      <c r="B121" s="10"/>
+      <c r="C121" s="12"/>
+      <c r="D121" s="12"/>
+      <c r="E121" s="4"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" s="10"/>
+      <c r="B122" s="10"/>
+      <c r="C122" s="12"/>
+      <c r="D122" s="12"/>
+      <c r="E122" s="4"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" s="10"/>
+      <c r="B123" s="10"/>
+      <c r="C123" s="12"/>
+      <c r="D123" s="12"/>
+      <c r="E123" s="4"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" s="10"/>
+      <c r="B124" s="10"/>
+      <c r="C124" s="12"/>
+      <c r="D124" s="12"/>
+      <c r="E124" s="4"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" s="10"/>
+      <c r="B125" s="10"/>
+      <c r="C125" s="12"/>
+      <c r="D125" s="12"/>
+      <c r="E125" s="4"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" s="10"/>
+      <c r="B126" s="10"/>
+      <c r="C126" s="12"/>
+      <c r="D126" s="12"/>
+      <c r="E126" s="4"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" s="10"/>
+      <c r="B127" s="10"/>
+      <c r="C127" s="12"/>
+      <c r="D127" s="12"/>
+      <c r="E127" s="4"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" s="10"/>
+      <c r="B128" s="10"/>
+      <c r="C128" s="12"/>
+      <c r="D128" s="12"/>
+      <c r="E128" s="4"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A129" s="10"/>
+      <c r="B129" s="10"/>
+      <c r="C129" s="12"/>
+      <c r="D129" s="12"/>
+      <c r="E129" s="4"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A130" s="10"/>
+      <c r="B130" s="10"/>
+      <c r="C130" s="12"/>
+      <c r="D130" s="12"/>
+      <c r="E130" s="4"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A131" s="10"/>
+      <c r="B131" s="10"/>
+      <c r="C131" s="12"/>
+      <c r="D131" s="12"/>
+      <c r="E131" s="4"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A132" s="10"/>
+      <c r="B132" s="10"/>
+      <c r="C132" s="12"/>
+      <c r="D132" s="12"/>
+      <c r="E132" s="4"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A133" s="10"/>
+      <c r="B133" s="10"/>
+      <c r="C133" s="12"/>
+      <c r="D133" s="12"/>
+      <c r="E133" s="4"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A134" s="10"/>
+      <c r="B134" s="10"/>
+      <c r="C134" s="12"/>
+      <c r="D134" s="12"/>
+      <c r="E134" s="4"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" s="10"/>
+      <c r="B135" s="10"/>
+      <c r="C135" s="12"/>
+      <c r="D135" s="12"/>
+      <c r="E135" s="4"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" s="10"/>
+      <c r="B136" s="10"/>
+      <c r="C136" s="12"/>
+      <c r="D136" s="12"/>
+      <c r="E136" s="4"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137" s="10"/>
+      <c r="B137" s="10"/>
+      <c r="C137" s="12"/>
+      <c r="D137" s="12"/>
+      <c r="E137" s="4"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" s="10"/>
+      <c r="B138" s="10"/>
+      <c r="C138" s="12"/>
+      <c r="D138" s="12"/>
+      <c r="E138" s="4"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" s="10"/>
+      <c r="B139" s="10"/>
+      <c r="C139" s="12"/>
+      <c r="D139" s="12"/>
+      <c r="E139" s="4"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" s="10"/>
+      <c r="B140" s="10"/>
+      <c r="C140" s="12"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="4"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" s="10"/>
+      <c r="B141" s="10"/>
+      <c r="C141" s="12"/>
+      <c r="D141" s="12"/>
+      <c r="E141" s="4"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" s="10"/>
+      <c r="B142" s="10"/>
+      <c r="C142" s="12"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="4"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" s="10"/>
+      <c r="B143" s="10"/>
+      <c r="C143" s="12"/>
+      <c r="D143" s="12"/>
+      <c r="E143" s="4"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" s="10"/>
+      <c r="B144" s="10"/>
+      <c r="C144" s="12"/>
+      <c r="D144" s="12"/>
+      <c r="E144" s="4"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" s="10"/>
+      <c r="B145" s="10"/>
+      <c r="C145" s="12"/>
+      <c r="D145" s="12"/>
+      <c r="E145" s="4"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" s="10"/>
+      <c r="B146" s="10"/>
+      <c r="C146" s="12"/>
+      <c r="D146" s="12"/>
+      <c r="E146" s="4"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" s="10"/>
+      <c r="B147" s="10"/>
+      <c r="C147" s="12"/>
+      <c r="D147" s="12"/>
+      <c r="E147" s="4"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" s="10"/>
+      <c r="B148" s="10"/>
+      <c r="C148" s="12"/>
+      <c r="D148" s="12"/>
+      <c r="E148" s="4"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" s="10"/>
+      <c r="B149" s="10"/>
+      <c r="C149" s="12"/>
+      <c r="D149" s="12"/>
+      <c r="E149" s="4"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150" s="10"/>
+      <c r="B150" s="10"/>
+      <c r="C150" s="12"/>
+      <c r="D150" s="12"/>
+      <c r="E150" s="4"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151" s="10"/>
+      <c r="B151" s="10"/>
+      <c r="C151" s="12"/>
+      <c r="D151" s="12"/>
+      <c r="E151" s="4"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152" s="10"/>
+      <c r="B152" s="10"/>
+      <c r="C152" s="12"/>
+      <c r="D152" s="12"/>
+      <c r="E152" s="4"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153" s="10"/>
+      <c r="B153" s="10"/>
+      <c r="C153" s="12"/>
+      <c r="D153" s="12"/>
+      <c r="E153" s="4"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154" s="10"/>
+      <c r="B154" s="10"/>
+      <c r="C154" s="12"/>
+      <c r="D154" s="12"/>
+      <c r="E154" s="4"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A155" s="10"/>
+      <c r="B155" s="10"/>
+      <c r="C155" s="12"/>
+      <c r="D155" s="12"/>
+      <c r="E155" s="4"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156" s="10"/>
+      <c r="B156" s="10"/>
+      <c r="C156" s="12"/>
+      <c r="D156" s="12"/>
+      <c r="E156" s="4"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A157" s="10"/>
+      <c r="B157" s="10"/>
+      <c r="C157" s="12"/>
+      <c r="D157" s="12"/>
+      <c r="E157" s="4"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A158" s="10"/>
+      <c r="B158" s="10"/>
+      <c r="C158" s="12"/>
+      <c r="D158" s="12"/>
+      <c r="E158" s="4"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A159" s="10"/>
+      <c r="B159" s="10"/>
+      <c r="C159" s="12"/>
+      <c r="D159" s="12"/>
+      <c r="E159" s="4"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A160" s="10"/>
+      <c r="B160" s="10"/>
+      <c r="C160" s="12"/>
+      <c r="D160" s="12"/>
+      <c r="E160" s="4"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A161" s="10"/>
+      <c r="B161" s="10"/>
+      <c r="C161" s="12"/>
+      <c r="D161" s="12"/>
+      <c r="E161" s="4"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A162" s="10"/>
+      <c r="B162" s="10"/>
+      <c r="C162" s="12"/>
+      <c r="D162" s="12"/>
+      <c r="E162" s="4"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A163" s="10"/>
+      <c r="B163" s="10"/>
+      <c r="C163" s="12"/>
+      <c r="D163" s="12"/>
+      <c r="E163" s="4"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A164" s="10"/>
+      <c r="B164" s="10"/>
+      <c r="C164" s="12"/>
+      <c r="D164" s="12"/>
+      <c r="E164" s="4"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A165" s="10"/>
+      <c r="B165" s="10"/>
+      <c r="C165" s="12"/>
+      <c r="D165" s="12"/>
+      <c r="E165" s="4"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A166" s="10"/>
+      <c r="B166" s="10"/>
+      <c r="C166" s="12"/>
+      <c r="D166" s="12"/>
+      <c r="E166" s="4"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A167" s="10"/>
+      <c r="B167" s="10"/>
+      <c r="C167" s="12"/>
+      <c r="D167" s="12"/>
+      <c r="E167" s="4"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A168" s="10"/>
+      <c r="B168" s="10"/>
+      <c r="C168" s="12"/>
+      <c r="D168" s="12"/>
+      <c r="E168" s="4"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A169" s="10"/>
+      <c r="B169" s="10"/>
+      <c r="C169" s="12"/>
+      <c r="D169" s="12"/>
+      <c r="E169" s="4"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A170" s="10"/>
+      <c r="B170" s="10"/>
+      <c r="C170" s="12"/>
+      <c r="D170" s="12"/>
+      <c r="E170" s="4"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A171" s="10"/>
+      <c r="B171" s="10"/>
+      <c r="C171" s="12"/>
+      <c r="D171" s="12"/>
+      <c r="E171" s="4"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A172" s="10"/>
+      <c r="B172" s="10"/>
+      <c r="C172" s="12"/>
+      <c r="D172" s="12"/>
+      <c r="E172" s="4"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A173" s="10"/>
+      <c r="B173" s="10"/>
+      <c r="C173" s="12"/>
+      <c r="D173" s="12"/>
+      <c r="E173" s="4"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A174" s="10"/>
+      <c r="B174" s="10"/>
+      <c r="C174" s="12"/>
+      <c r="D174" s="12"/>
+      <c r="E174" s="4"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A175" s="10"/>
+      <c r="B175" s="10"/>
+      <c r="C175" s="12"/>
+      <c r="D175" s="12"/>
+      <c r="E175" s="4"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A176" s="10"/>
+      <c r="B176" s="10"/>
+      <c r="C176" s="12"/>
+      <c r="D176" s="12"/>
+      <c r="E176" s="4"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A177" s="10"/>
+      <c r="B177" s="10"/>
+      <c r="C177" s="12"/>
+      <c r="D177" s="12"/>
+      <c r="E177" s="4"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A178" s="10"/>
+      <c r="B178" s="10"/>
+      <c r="C178" s="12"/>
+      <c r="D178" s="12"/>
+      <c r="E178" s="4"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A179" s="10"/>
+      <c r="B179" s="10"/>
+      <c r="C179" s="12"/>
+      <c r="D179" s="12"/>
+      <c r="E179" s="4"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A180" s="10"/>
+      <c r="B180" s="10"/>
+      <c r="C180" s="12"/>
+      <c r="D180" s="12"/>
+      <c r="E180" s="4"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A181" s="10"/>
+      <c r="B181" s="10"/>
+      <c r="C181" s="12"/>
+      <c r="D181" s="12"/>
+      <c r="E181" s="4"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A182" s="10"/>
+      <c r="B182" s="10"/>
+      <c r="C182" s="12"/>
+      <c r="D182" s="12"/>
+      <c r="E182" s="4"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A183" s="10"/>
+      <c r="B183" s="10"/>
+      <c r="C183" s="12"/>
+      <c r="D183" s="12"/>
+      <c r="E183" s="4"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A184" s="10"/>
+      <c r="B184" s="10"/>
+      <c r="C184" s="12"/>
+      <c r="D184" s="12"/>
+      <c r="E184" s="4"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A185" s="10"/>
+      <c r="B185" s="10"/>
+      <c r="C185" s="12"/>
+      <c r="D185" s="12"/>
+      <c r="E185" s="4"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A186" s="10"/>
+      <c r="B186" s="10"/>
+      <c r="C186" s="12"/>
+      <c r="D186" s="12"/>
+      <c r="E186" s="4"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A187" s="10"/>
+      <c r="B187" s="10"/>
+      <c r="C187" s="12"/>
+      <c r="D187" s="12"/>
+      <c r="E187" s="4"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A188" s="10"/>
+      <c r="B188" s="10"/>
+      <c r="C188" s="12"/>
+      <c r="D188" s="12"/>
+      <c r="E188" s="4"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A189" s="10"/>
+      <c r="B189" s="10"/>
+      <c r="C189" s="12"/>
+      <c r="D189" s="12"/>
+      <c r="E189" s="4"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A190" s="10"/>
+      <c r="B190" s="10"/>
+      <c r="C190" s="12"/>
+      <c r="D190" s="12"/>
+      <c r="E190" s="4"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A191" s="10"/>
+      <c r="B191" s="10"/>
+      <c r="C191" s="12"/>
+      <c r="D191" s="12"/>
+      <c r="E191" s="4"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A192" s="10"/>
+      <c r="B192" s="10"/>
+      <c r="C192" s="12"/>
+      <c r="D192" s="12"/>
+      <c r="E192" s="4"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A193" s="10"/>
+      <c r="B193" s="10"/>
+      <c r="C193" s="12"/>
+      <c r="D193" s="12"/>
+      <c r="E193" s="4"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A194" s="10"/>
+      <c r="B194" s="10"/>
+      <c r="C194" s="12"/>
+      <c r="D194" s="12"/>
+      <c r="E194" s="4"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A195" s="10"/>
+      <c r="B195" s="10"/>
+      <c r="C195" s="12"/>
+      <c r="D195" s="12"/>
+      <c r="E195" s="4"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A196" s="10"/>
+      <c r="B196" s="10"/>
+      <c r="C196" s="12"/>
+      <c r="D196" s="12"/>
+      <c r="E196" s="4"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A197" s="10"/>
+      <c r="B197" s="10"/>
+      <c r="C197" s="12"/>
+      <c r="D197" s="12"/>
+      <c r="E197" s="4"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A198" s="10"/>
+      <c r="B198" s="10"/>
+      <c r="C198" s="12"/>
+      <c r="D198" s="12"/>
+      <c r="E198" s="4"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A199" s="10"/>
+      <c r="B199" s="10"/>
+      <c r="C199" s="12"/>
+      <c r="D199" s="12"/>
+      <c r="E199" s="4"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A200" s="10"/>
+      <c r="B200" s="10"/>
+      <c r="C200" s="12"/>
+      <c r="D200" s="12"/>
+      <c r="E200" s="4"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A201" s="14"/>
+      <c r="B201" s="14"/>
+      <c r="C201" s="15"/>
+      <c r="D201" s="15"/>
+      <c r="E201" s="4"/>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{D23BDF94-6E7E-48F3-AB5C-85B0A7ACFDFD}">
+      <formula1>"AllOrNothing,StopOnFirstFailure,ProcessAllIndependently"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Workbooks/JA/キュー.xlsx
+++ b/Workbooks/JA/キュー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{008BEA19-5D93-4843-B4EC-A22BD889EFE1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DA98772-EC10-4324-9FEC-4D15F5BCC94B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -72,10 +72,10 @@
     <t>保存フォルダーパス</t>
   </si>
   <si>
-    <t>コミットタイプ</t>
+    <t>キューアイテム一覧のファイルパス</t>
   </si>
   <si>
-    <t>キューアイテム一覧のファイルパス</t>
+    <t>コミットの種類</t>
   </si>
 </sst>
 </file>
@@ -259,7 +259,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -304,6 +304,8 @@
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1068,13 +1070,14 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="2"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </left>
@@ -1087,12 +1090,6 @@
         <bottom style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1124,13 +1121,14 @@
       </border>
     </dxf>
     <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="2"/>
         </patternFill>
       </fill>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </left>
@@ -1143,12 +1141,6 @@
         <bottom style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </horizontal>
       </border>
     </dxf>
     <dxf>
@@ -1248,7 +1240,7 @@
     <tableColumn id="4" xr3:uid="{F1E05E03-DBDF-4491-9EE8-8A6B21F57814}" name="組織単位名" dataDxfId="4"/>
     <tableColumn id="5" xr3:uid="{E328AFBB-DF63-41AD-B11E-E7642D9A3121}" name="キュー名" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{56CE4921-90D7-421E-9313-6592D86EA9FB}" name="キューアイテム一覧のファイルパス" dataDxfId="2"/>
-    <tableColumn id="1" xr3:uid="{32C7ACF1-5123-4602-B742-646D45AF8932}" name="コミットタイプ" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{32C7ACF1-5123-4602-B742-646D45AF8932}" name="コミットの種類" dataDxfId="1"/>
     <tableColumn id="3" xr3:uid="{835CC962-3DD4-4C84-9423-395F4642CE78}" name="結果" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1520,15 +1512,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B90804-4CC2-4F3A-A5A0-B313E9BACDDF}">
   <dimension ref="A1:H201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="13.26953125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.26953125" style="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.54296875" style="19" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.26953125" style="29" customWidth="1"/>
     <col min="4" max="4" width="24.36328125" customWidth="1"/>
     <col min="5" max="5" width="30" customWidth="1"/>
     <col min="6" max="6" width="13.54296875" bestFit="1" customWidth="1"/>
@@ -1563,9 +1555,9 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="23"/>
+      <c r="A2" s="28"/>
       <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="C2" s="28"/>
       <c r="D2" s="4"/>
       <c r="E2" s="5"/>
       <c r="F2" s="4"/>
@@ -1573,9 +1565,9 @@
       <c r="H2" s="25"/>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="4"/>
+      <c r="A3" s="7"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="4"/>
       <c r="E3" s="5"/>
       <c r="F3" s="4"/>
@@ -1583,9 +1575,9 @@
       <c r="H3" s="25"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="4"/>
+      <c r="A4" s="7"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
+      <c r="C4" s="7"/>
       <c r="D4" s="4"/>
       <c r="E4" s="5"/>
       <c r="F4" s="4"/>
@@ -1593,9 +1585,9 @@
       <c r="H4" s="25"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="4"/>
+      <c r="A5" s="7"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
+      <c r="C5" s="7"/>
       <c r="D5" s="4"/>
       <c r="E5" s="5"/>
       <c r="F5" s="4"/>
@@ -1603,9 +1595,9 @@
       <c r="H5" s="25"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="4"/>
+      <c r="A6" s="7"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
+      <c r="C6" s="7"/>
       <c r="D6" s="4"/>
       <c r="E6" s="5"/>
       <c r="F6" s="4"/>
@@ -1613,9 +1605,9 @@
       <c r="H6" s="25"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="4"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="C7" s="7"/>
       <c r="D7" s="4"/>
       <c r="E7" s="5"/>
       <c r="F7" s="4"/>
@@ -1623,9 +1615,9 @@
       <c r="H7" s="25"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="4"/>
+      <c r="A8" s="7"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="C8" s="7"/>
       <c r="D8" s="4"/>
       <c r="E8" s="5"/>
       <c r="F8" s="4"/>
@@ -1633,9 +1625,9 @@
       <c r="H8" s="25"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="4"/>
+      <c r="A9" s="7"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="C9" s="7"/>
       <c r="D9" s="4"/>
       <c r="E9" s="5"/>
       <c r="F9" s="4"/>
@@ -1643,9 +1635,9 @@
       <c r="H9" s="25"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
+      <c r="A10" s="7"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="C10" s="7"/>
       <c r="D10" s="4"/>
       <c r="E10" s="5"/>
       <c r="F10" s="4"/>
@@ -1653,9 +1645,9 @@
       <c r="H10" s="25"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="4"/>
+      <c r="A11" s="7"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
+      <c r="C11" s="7"/>
       <c r="D11" s="4"/>
       <c r="E11" s="5"/>
       <c r="F11" s="4"/>
@@ -1663,9 +1655,9 @@
       <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="4"/>
+      <c r="A12" s="7"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
+      <c r="C12" s="7"/>
       <c r="D12" s="4"/>
       <c r="E12" s="5"/>
       <c r="F12" s="4"/>
@@ -1673,9 +1665,9 @@
       <c r="H12" s="7"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="4"/>
+      <c r="A13" s="7"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
+      <c r="C13" s="7"/>
       <c r="D13" s="4"/>
       <c r="E13" s="5"/>
       <c r="F13" s="4"/>
@@ -1683,9 +1675,9 @@
       <c r="H13" s="7"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="4"/>
+      <c r="A14" s="7"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
+      <c r="C14" s="7"/>
       <c r="D14" s="4"/>
       <c r="E14" s="5"/>
       <c r="F14" s="4"/>
@@ -1693,9 +1685,9 @@
       <c r="H14" s="7"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="4"/>
+      <c r="A15" s="7"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
+      <c r="C15" s="7"/>
       <c r="D15" s="4"/>
       <c r="E15" s="5"/>
       <c r="F15" s="4"/>
@@ -1703,9 +1695,9 @@
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="4"/>
+      <c r="A16" s="7"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="C16" s="7"/>
       <c r="D16" s="4"/>
       <c r="E16" s="5"/>
       <c r="F16" s="4"/>
@@ -1713,9 +1705,9 @@
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="4"/>
+      <c r="A17" s="7"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="C17" s="7"/>
       <c r="D17" s="4"/>
       <c r="E17" s="5"/>
       <c r="F17" s="4"/>
@@ -1723,9 +1715,9 @@
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="4"/>
+      <c r="A18" s="7"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
+      <c r="C18" s="7"/>
       <c r="D18" s="4"/>
       <c r="E18" s="5"/>
       <c r="F18" s="4"/>
@@ -1733,9 +1725,9 @@
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="4"/>
+      <c r="A19" s="7"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
+      <c r="C19" s="7"/>
       <c r="D19" s="4"/>
       <c r="E19" s="5"/>
       <c r="F19" s="4"/>
@@ -1743,9 +1735,9 @@
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="4"/>
+      <c r="A20" s="7"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
+      <c r="C20" s="7"/>
       <c r="D20" s="4"/>
       <c r="E20" s="5"/>
       <c r="F20" s="4"/>
@@ -1753,9 +1745,9 @@
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="4"/>
+      <c r="A21" s="7"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+      <c r="C21" s="7"/>
       <c r="D21" s="4"/>
       <c r="E21" s="5"/>
       <c r="F21" s="4"/>
@@ -1763,9 +1755,9 @@
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="4"/>
+      <c r="A22" s="7"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
+      <c r="C22" s="7"/>
       <c r="D22" s="4"/>
       <c r="E22" s="5"/>
       <c r="F22" s="4"/>
@@ -1773,9 +1765,9 @@
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="4"/>
+      <c r="A23" s="7"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
+      <c r="C23" s="7"/>
       <c r="D23" s="4"/>
       <c r="E23" s="5"/>
       <c r="F23" s="4"/>
@@ -1783,9 +1775,9 @@
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="4"/>
+      <c r="A24" s="7"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
+      <c r="C24" s="7"/>
       <c r="D24" s="4"/>
       <c r="E24" s="5"/>
       <c r="F24" s="4"/>
@@ -1793,9 +1785,9 @@
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="4"/>
+      <c r="A25" s="7"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="4"/>
       <c r="E25" s="5"/>
       <c r="F25" s="4"/>
@@ -1803,9 +1795,9 @@
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="4"/>
+      <c r="A26" s="7"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
+      <c r="C26" s="7"/>
       <c r="D26" s="4"/>
       <c r="E26" s="5"/>
       <c r="F26" s="4"/>
@@ -1813,9 +1805,9 @@
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="4"/>
+      <c r="A27" s="7"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
+      <c r="C27" s="7"/>
       <c r="D27" s="4"/>
       <c r="E27" s="5"/>
       <c r="F27" s="4"/>
@@ -1823,9 +1815,9 @@
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="4"/>
+      <c r="A28" s="7"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="4"/>
+      <c r="C28" s="7"/>
       <c r="D28" s="4"/>
       <c r="E28" s="5"/>
       <c r="F28" s="4"/>
@@ -1833,9 +1825,9 @@
       <c r="H28" s="6"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="4"/>
+      <c r="A29" s="7"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
+      <c r="C29" s="7"/>
       <c r="D29" s="4"/>
       <c r="E29" s="5"/>
       <c r="F29" s="4"/>
@@ -1843,9 +1835,9 @@
       <c r="H29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="4"/>
+      <c r="A30" s="7"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="4"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
       <c r="F30" s="4"/>
@@ -1853,9 +1845,9 @@
       <c r="H30" s="6"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="4"/>
+      <c r="A31" s="7"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
+      <c r="C31" s="7"/>
       <c r="D31" s="4"/>
       <c r="E31" s="5"/>
       <c r="F31" s="4"/>
@@ -1863,9 +1855,9 @@
       <c r="H31" s="6"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="4"/>
+      <c r="A32" s="7"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
+      <c r="C32" s="7"/>
       <c r="D32" s="4"/>
       <c r="E32" s="5"/>
       <c r="F32" s="4"/>
@@ -1873,9 +1865,9 @@
       <c r="H32" s="6"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="4"/>
+      <c r="A33" s="7"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
+      <c r="C33" s="7"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
       <c r="F33" s="4"/>
@@ -1883,9 +1875,9 @@
       <c r="H33" s="6"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="4"/>
+      <c r="A34" s="7"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
+      <c r="C34" s="7"/>
       <c r="D34" s="4"/>
       <c r="E34" s="5"/>
       <c r="F34" s="4"/>
@@ -1893,9 +1885,9 @@
       <c r="H34" s="6"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="4"/>
+      <c r="A35" s="7"/>
       <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
+      <c r="C35" s="7"/>
       <c r="D35" s="4"/>
       <c r="E35" s="5"/>
       <c r="F35" s="4"/>
@@ -1903,9 +1895,9 @@
       <c r="H35" s="6"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="4"/>
+      <c r="A36" s="7"/>
       <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
+      <c r="C36" s="7"/>
       <c r="D36" s="4"/>
       <c r="E36" s="5"/>
       <c r="F36" s="4"/>
@@ -1913,9 +1905,9 @@
       <c r="H36" s="6"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="4"/>
+      <c r="A37" s="7"/>
       <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
+      <c r="C37" s="7"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
       <c r="F37" s="4"/>
@@ -1923,9 +1915,9 @@
       <c r="H37" s="6"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="4"/>
+      <c r="A38" s="7"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
+      <c r="C38" s="7"/>
       <c r="D38" s="4"/>
       <c r="E38" s="5"/>
       <c r="F38" s="4"/>
@@ -1933,9 +1925,9 @@
       <c r="H38" s="6"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="4"/>
+      <c r="A39" s="7"/>
       <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
+      <c r="C39" s="7"/>
       <c r="D39" s="4"/>
       <c r="E39" s="5"/>
       <c r="F39" s="4"/>
@@ -1943,9 +1935,9 @@
       <c r="H39" s="6"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="4"/>
+      <c r="A40" s="7"/>
       <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
+      <c r="C40" s="7"/>
       <c r="D40" s="4"/>
       <c r="E40" s="5"/>
       <c r="F40" s="4"/>
@@ -1953,9 +1945,9 @@
       <c r="H40" s="6"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="4"/>
+      <c r="A41" s="7"/>
       <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
+      <c r="C41" s="7"/>
       <c r="D41" s="4"/>
       <c r="E41" s="5"/>
       <c r="F41" s="4"/>
@@ -1963,9 +1955,9 @@
       <c r="H41" s="6"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="4"/>
+      <c r="A42" s="7"/>
       <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
+      <c r="C42" s="7"/>
       <c r="D42" s="4"/>
       <c r="E42" s="5"/>
       <c r="F42" s="4"/>
@@ -1973,9 +1965,9 @@
       <c r="H42" s="6"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="4"/>
+      <c r="A43" s="7"/>
       <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
+      <c r="C43" s="7"/>
       <c r="D43" s="4"/>
       <c r="E43" s="5"/>
       <c r="F43" s="4"/>
@@ -1983,9 +1975,9 @@
       <c r="H43" s="6"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="4"/>
+      <c r="A44" s="7"/>
       <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
+      <c r="C44" s="7"/>
       <c r="D44" s="4"/>
       <c r="E44" s="5"/>
       <c r="F44" s="4"/>
@@ -1993,9 +1985,9 @@
       <c r="H44" s="6"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="4"/>
+      <c r="A45" s="7"/>
       <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
+      <c r="C45" s="7"/>
       <c r="D45" s="4"/>
       <c r="E45" s="5"/>
       <c r="F45" s="4"/>
@@ -2003,9 +1995,9 @@
       <c r="H45" s="6"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="4"/>
+      <c r="A46" s="7"/>
       <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
+      <c r="C46" s="7"/>
       <c r="D46" s="4"/>
       <c r="E46" s="5"/>
       <c r="F46" s="4"/>
@@ -2013,9 +2005,9 @@
       <c r="H46" s="6"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="4"/>
+      <c r="A47" s="7"/>
       <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
+      <c r="C47" s="7"/>
       <c r="D47" s="4"/>
       <c r="E47" s="5"/>
       <c r="F47" s="4"/>
@@ -2023,9 +2015,9 @@
       <c r="H47" s="6"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="4"/>
+      <c r="A48" s="7"/>
       <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
+      <c r="C48" s="7"/>
       <c r="D48" s="4"/>
       <c r="E48" s="5"/>
       <c r="F48" s="4"/>
@@ -2033,9 +2025,9 @@
       <c r="H48" s="6"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="4"/>
+      <c r="A49" s="7"/>
       <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
+      <c r="C49" s="7"/>
       <c r="D49" s="4"/>
       <c r="E49" s="5"/>
       <c r="F49" s="4"/>
@@ -2043,9 +2035,9 @@
       <c r="H49" s="6"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="4"/>
+      <c r="A50" s="7"/>
       <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
+      <c r="C50" s="7"/>
       <c r="D50" s="4"/>
       <c r="E50" s="5"/>
       <c r="F50" s="4"/>
@@ -2053,9 +2045,9 @@
       <c r="H50" s="6"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="4"/>
+      <c r="A51" s="7"/>
       <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
+      <c r="C51" s="7"/>
       <c r="D51" s="4"/>
       <c r="E51" s="5"/>
       <c r="F51" s="4"/>
@@ -2063,9 +2055,9 @@
       <c r="H51" s="6"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="4"/>
+      <c r="A52" s="7"/>
       <c r="B52" s="4"/>
-      <c r="C52" s="4"/>
+      <c r="C52" s="7"/>
       <c r="D52" s="4"/>
       <c r="E52" s="5"/>
       <c r="F52" s="4"/>
@@ -2073,9 +2065,9 @@
       <c r="H52" s="6"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="4"/>
+      <c r="A53" s="7"/>
       <c r="B53" s="4"/>
-      <c r="C53" s="4"/>
+      <c r="C53" s="7"/>
       <c r="D53" s="4"/>
       <c r="E53" s="5"/>
       <c r="F53" s="4"/>
@@ -2083,9 +2075,9 @@
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="4"/>
+      <c r="A54" s="7"/>
       <c r="B54" s="4"/>
-      <c r="C54" s="4"/>
+      <c r="C54" s="7"/>
       <c r="D54" s="4"/>
       <c r="E54" s="5"/>
       <c r="F54" s="4"/>
@@ -2093,9 +2085,9 @@
       <c r="H54" s="6"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="4"/>
+      <c r="A55" s="7"/>
       <c r="B55" s="4"/>
-      <c r="C55" s="4"/>
+      <c r="C55" s="7"/>
       <c r="D55" s="4"/>
       <c r="E55" s="5"/>
       <c r="F55" s="4"/>
@@ -2103,9 +2095,9 @@
       <c r="H55" s="6"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56" s="4"/>
+      <c r="A56" s="7"/>
       <c r="B56" s="4"/>
-      <c r="C56" s="4"/>
+      <c r="C56" s="7"/>
       <c r="D56" s="4"/>
       <c r="E56" s="5"/>
       <c r="F56" s="4"/>
@@ -2113,9 +2105,9 @@
       <c r="H56" s="6"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" s="4"/>
+      <c r="A57" s="7"/>
       <c r="B57" s="4"/>
-      <c r="C57" s="4"/>
+      <c r="C57" s="7"/>
       <c r="D57" s="4"/>
       <c r="E57" s="5"/>
       <c r="F57" s="4"/>
@@ -2123,9 +2115,9 @@
       <c r="H57" s="6"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" s="4"/>
+      <c r="A58" s="7"/>
       <c r="B58" s="4"/>
-      <c r="C58" s="4"/>
+      <c r="C58" s="7"/>
       <c r="D58" s="4"/>
       <c r="E58" s="5"/>
       <c r="F58" s="4"/>
@@ -2133,9 +2125,9 @@
       <c r="H58" s="6"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" s="4"/>
+      <c r="A59" s="7"/>
       <c r="B59" s="4"/>
-      <c r="C59" s="4"/>
+      <c r="C59" s="7"/>
       <c r="D59" s="4"/>
       <c r="E59" s="5"/>
       <c r="F59" s="4"/>
@@ -2143,9 +2135,9 @@
       <c r="H59" s="6"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" s="4"/>
+      <c r="A60" s="7"/>
       <c r="B60" s="4"/>
-      <c r="C60" s="4"/>
+      <c r="C60" s="7"/>
       <c r="D60" s="4"/>
       <c r="E60" s="5"/>
       <c r="F60" s="4"/>
@@ -2153,9 +2145,9 @@
       <c r="H60" s="6"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A61" s="4"/>
+      <c r="A61" s="7"/>
       <c r="B61" s="4"/>
-      <c r="C61" s="4"/>
+      <c r="C61" s="7"/>
       <c r="D61" s="4"/>
       <c r="E61" s="5"/>
       <c r="F61" s="4"/>
@@ -2163,9 +2155,9 @@
       <c r="H61" s="6"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A62" s="4"/>
+      <c r="A62" s="7"/>
       <c r="B62" s="4"/>
-      <c r="C62" s="4"/>
+      <c r="C62" s="7"/>
       <c r="D62" s="4"/>
       <c r="E62" s="5"/>
       <c r="F62" s="4"/>
@@ -2173,9 +2165,9 @@
       <c r="H62" s="6"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A63" s="4"/>
+      <c r="A63" s="7"/>
       <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
+      <c r="C63" s="7"/>
       <c r="D63" s="4"/>
       <c r="E63" s="5"/>
       <c r="F63" s="4"/>
@@ -2183,9 +2175,9 @@
       <c r="H63" s="6"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A64" s="4"/>
+      <c r="A64" s="7"/>
       <c r="B64" s="4"/>
-      <c r="C64" s="4"/>
+      <c r="C64" s="7"/>
       <c r="D64" s="4"/>
       <c r="E64" s="5"/>
       <c r="F64" s="4"/>
@@ -2193,9 +2185,9 @@
       <c r="H64" s="6"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A65" s="4"/>
+      <c r="A65" s="7"/>
       <c r="B65" s="4"/>
-      <c r="C65" s="4"/>
+      <c r="C65" s="7"/>
       <c r="D65" s="4"/>
       <c r="E65" s="5"/>
       <c r="F65" s="4"/>
@@ -2203,9 +2195,9 @@
       <c r="H65" s="6"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A66" s="4"/>
+      <c r="A66" s="7"/>
       <c r="B66" s="4"/>
-      <c r="C66" s="4"/>
+      <c r="C66" s="7"/>
       <c r="D66" s="4"/>
       <c r="E66" s="5"/>
       <c r="F66" s="4"/>
@@ -2213,9 +2205,9 @@
       <c r="H66" s="6"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A67" s="4"/>
+      <c r="A67" s="7"/>
       <c r="B67" s="4"/>
-      <c r="C67" s="4"/>
+      <c r="C67" s="7"/>
       <c r="D67" s="4"/>
       <c r="E67" s="5"/>
       <c r="F67" s="4"/>
@@ -2223,9 +2215,9 @@
       <c r="H67" s="6"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A68" s="4"/>
+      <c r="A68" s="7"/>
       <c r="B68" s="4"/>
-      <c r="C68" s="4"/>
+      <c r="C68" s="7"/>
       <c r="D68" s="4"/>
       <c r="E68" s="5"/>
       <c r="F68" s="4"/>
@@ -2233,9 +2225,9 @@
       <c r="H68" s="6"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A69" s="4"/>
+      <c r="A69" s="7"/>
       <c r="B69" s="4"/>
-      <c r="C69" s="4"/>
+      <c r="C69" s="7"/>
       <c r="D69" s="4"/>
       <c r="E69" s="5"/>
       <c r="F69" s="4"/>
@@ -2243,9 +2235,9 @@
       <c r="H69" s="6"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A70" s="4"/>
+      <c r="A70" s="7"/>
       <c r="B70" s="4"/>
-      <c r="C70" s="4"/>
+      <c r="C70" s="7"/>
       <c r="D70" s="4"/>
       <c r="E70" s="5"/>
       <c r="F70" s="4"/>
@@ -2253,9 +2245,9 @@
       <c r="H70" s="6"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A71" s="4"/>
+      <c r="A71" s="7"/>
       <c r="B71" s="4"/>
-      <c r="C71" s="4"/>
+      <c r="C71" s="7"/>
       <c r="D71" s="4"/>
       <c r="E71" s="5"/>
       <c r="F71" s="4"/>
@@ -2263,9 +2255,9 @@
       <c r="H71" s="6"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A72" s="4"/>
+      <c r="A72" s="7"/>
       <c r="B72" s="4"/>
-      <c r="C72" s="4"/>
+      <c r="C72" s="7"/>
       <c r="D72" s="4"/>
       <c r="E72" s="5"/>
       <c r="F72" s="4"/>
@@ -2273,9 +2265,9 @@
       <c r="H72" s="6"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A73" s="4"/>
+      <c r="A73" s="7"/>
       <c r="B73" s="4"/>
-      <c r="C73" s="4"/>
+      <c r="C73" s="7"/>
       <c r="D73" s="4"/>
       <c r="E73" s="5"/>
       <c r="F73" s="4"/>
@@ -2283,9 +2275,9 @@
       <c r="H73" s="6"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A74" s="4"/>
+      <c r="A74" s="7"/>
       <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
+      <c r="C74" s="7"/>
       <c r="D74" s="4"/>
       <c r="E74" s="5"/>
       <c r="F74" s="4"/>
@@ -2293,9 +2285,9 @@
       <c r="H74" s="6"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A75" s="4"/>
+      <c r="A75" s="7"/>
       <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
+      <c r="C75" s="7"/>
       <c r="D75" s="4"/>
       <c r="E75" s="5"/>
       <c r="F75" s="4"/>
@@ -2303,9 +2295,9 @@
       <c r="H75" s="6"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A76" s="4"/>
+      <c r="A76" s="7"/>
       <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
+      <c r="C76" s="7"/>
       <c r="D76" s="4"/>
       <c r="E76" s="5"/>
       <c r="F76" s="4"/>
@@ -2313,9 +2305,9 @@
       <c r="H76" s="6"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A77" s="4"/>
+      <c r="A77" s="7"/>
       <c r="B77" s="4"/>
-      <c r="C77" s="4"/>
+      <c r="C77" s="7"/>
       <c r="D77" s="4"/>
       <c r="E77" s="5"/>
       <c r="F77" s="4"/>
@@ -2323,9 +2315,9 @@
       <c r="H77" s="6"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A78" s="4"/>
+      <c r="A78" s="7"/>
       <c r="B78" s="4"/>
-      <c r="C78" s="4"/>
+      <c r="C78" s="7"/>
       <c r="D78" s="4"/>
       <c r="E78" s="5"/>
       <c r="F78" s="4"/>
@@ -2333,9 +2325,9 @@
       <c r="H78" s="6"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A79" s="4"/>
+      <c r="A79" s="7"/>
       <c r="B79" s="4"/>
-      <c r="C79" s="4"/>
+      <c r="C79" s="7"/>
       <c r="D79" s="4"/>
       <c r="E79" s="5"/>
       <c r="F79" s="4"/>
@@ -2343,9 +2335,9 @@
       <c r="H79" s="6"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A80" s="4"/>
+      <c r="A80" s="7"/>
       <c r="B80" s="4"/>
-      <c r="C80" s="4"/>
+      <c r="C80" s="7"/>
       <c r="D80" s="4"/>
       <c r="E80" s="5"/>
       <c r="F80" s="4"/>
@@ -2353,9 +2345,9 @@
       <c r="H80" s="6"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A81" s="4"/>
+      <c r="A81" s="7"/>
       <c r="B81" s="4"/>
-      <c r="C81" s="4"/>
+      <c r="C81" s="7"/>
       <c r="D81" s="4"/>
       <c r="E81" s="5"/>
       <c r="F81" s="4"/>
@@ -2363,9 +2355,9 @@
       <c r="H81" s="6"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A82" s="4"/>
+      <c r="A82" s="7"/>
       <c r="B82" s="4"/>
-      <c r="C82" s="4"/>
+      <c r="C82" s="7"/>
       <c r="D82" s="4"/>
       <c r="E82" s="5"/>
       <c r="F82" s="4"/>
@@ -2373,9 +2365,9 @@
       <c r="H82" s="6"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A83" s="4"/>
+      <c r="A83" s="7"/>
       <c r="B83" s="4"/>
-      <c r="C83" s="4"/>
+      <c r="C83" s="7"/>
       <c r="D83" s="4"/>
       <c r="E83" s="5"/>
       <c r="F83" s="4"/>
@@ -2383,9 +2375,9 @@
       <c r="H83" s="6"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A84" s="4"/>
+      <c r="A84" s="7"/>
       <c r="B84" s="4"/>
-      <c r="C84" s="4"/>
+      <c r="C84" s="7"/>
       <c r="D84" s="4"/>
       <c r="E84" s="5"/>
       <c r="F84" s="4"/>
@@ -2393,9 +2385,9 @@
       <c r="H84" s="6"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A85" s="4"/>
+      <c r="A85" s="7"/>
       <c r="B85" s="4"/>
-      <c r="C85" s="4"/>
+      <c r="C85" s="7"/>
       <c r="D85" s="4"/>
       <c r="E85" s="5"/>
       <c r="F85" s="4"/>
@@ -2403,9 +2395,9 @@
       <c r="H85" s="6"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A86" s="4"/>
+      <c r="A86" s="7"/>
       <c r="B86" s="4"/>
-      <c r="C86" s="4"/>
+      <c r="C86" s="7"/>
       <c r="D86" s="4"/>
       <c r="E86" s="5"/>
       <c r="F86" s="4"/>
@@ -2413,9 +2405,9 @@
       <c r="H86" s="6"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A87" s="4"/>
+      <c r="A87" s="7"/>
       <c r="B87" s="4"/>
-      <c r="C87" s="4"/>
+      <c r="C87" s="7"/>
       <c r="D87" s="4"/>
       <c r="E87" s="5"/>
       <c r="F87" s="4"/>
@@ -2423,9 +2415,9 @@
       <c r="H87" s="6"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A88" s="4"/>
+      <c r="A88" s="7"/>
       <c r="B88" s="4"/>
-      <c r="C88" s="4"/>
+      <c r="C88" s="7"/>
       <c r="D88" s="4"/>
       <c r="E88" s="5"/>
       <c r="F88" s="4"/>
@@ -2433,9 +2425,9 @@
       <c r="H88" s="6"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A89" s="4"/>
+      <c r="A89" s="7"/>
       <c r="B89" s="4"/>
-      <c r="C89" s="4"/>
+      <c r="C89" s="7"/>
       <c r="D89" s="4"/>
       <c r="E89" s="5"/>
       <c r="F89" s="4"/>
@@ -2443,9 +2435,9 @@
       <c r="H89" s="6"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A90" s="4"/>
+      <c r="A90" s="7"/>
       <c r="B90" s="4"/>
-      <c r="C90" s="4"/>
+      <c r="C90" s="7"/>
       <c r="D90" s="4"/>
       <c r="E90" s="5"/>
       <c r="F90" s="4"/>
@@ -2453,9 +2445,9 @@
       <c r="H90" s="6"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A91" s="4"/>
+      <c r="A91" s="7"/>
       <c r="B91" s="4"/>
-      <c r="C91" s="4"/>
+      <c r="C91" s="7"/>
       <c r="D91" s="4"/>
       <c r="E91" s="5"/>
       <c r="F91" s="4"/>
@@ -2463,9 +2455,9 @@
       <c r="H91" s="6"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A92" s="4"/>
+      <c r="A92" s="7"/>
       <c r="B92" s="4"/>
-      <c r="C92" s="4"/>
+      <c r="C92" s="7"/>
       <c r="D92" s="4"/>
       <c r="E92" s="5"/>
       <c r="F92" s="4"/>
@@ -2473,9 +2465,9 @@
       <c r="H92" s="6"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A93" s="4"/>
+      <c r="A93" s="7"/>
       <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
+      <c r="C93" s="7"/>
       <c r="D93" s="4"/>
       <c r="E93" s="5"/>
       <c r="F93" s="4"/>
@@ -2483,9 +2475,9 @@
       <c r="H93" s="6"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A94" s="4"/>
+      <c r="A94" s="7"/>
       <c r="B94" s="4"/>
-      <c r="C94" s="4"/>
+      <c r="C94" s="7"/>
       <c r="D94" s="4"/>
       <c r="E94" s="5"/>
       <c r="F94" s="4"/>
@@ -2493,9 +2485,9 @@
       <c r="H94" s="6"/>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A95" s="4"/>
+      <c r="A95" s="7"/>
       <c r="B95" s="4"/>
-      <c r="C95" s="4"/>
+      <c r="C95" s="7"/>
       <c r="D95" s="4"/>
       <c r="E95" s="5"/>
       <c r="F95" s="4"/>
@@ -2503,9 +2495,9 @@
       <c r="H95" s="6"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A96" s="4"/>
+      <c r="A96" s="7"/>
       <c r="B96" s="4"/>
-      <c r="C96" s="4"/>
+      <c r="C96" s="7"/>
       <c r="D96" s="4"/>
       <c r="E96" s="5"/>
       <c r="F96" s="4"/>
@@ -2513,9 +2505,9 @@
       <c r="H96" s="6"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A97" s="4"/>
+      <c r="A97" s="7"/>
       <c r="B97" s="4"/>
-      <c r="C97" s="4"/>
+      <c r="C97" s="7"/>
       <c r="D97" s="4"/>
       <c r="E97" s="5"/>
       <c r="F97" s="4"/>
@@ -2523,9 +2515,9 @@
       <c r="H97" s="6"/>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A98" s="4"/>
+      <c r="A98" s="7"/>
       <c r="B98" s="4"/>
-      <c r="C98" s="4"/>
+      <c r="C98" s="7"/>
       <c r="D98" s="4"/>
       <c r="E98" s="5"/>
       <c r="F98" s="4"/>
@@ -2533,9 +2525,9 @@
       <c r="H98" s="6"/>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A99" s="4"/>
+      <c r="A99" s="7"/>
       <c r="B99" s="4"/>
-      <c r="C99" s="4"/>
+      <c r="C99" s="7"/>
       <c r="D99" s="4"/>
       <c r="E99" s="5"/>
       <c r="F99" s="4"/>
@@ -2543,9 +2535,9 @@
       <c r="H99" s="6"/>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A100" s="4"/>
+      <c r="A100" s="7"/>
       <c r="B100" s="4"/>
-      <c r="C100" s="4"/>
+      <c r="C100" s="7"/>
       <c r="D100" s="4"/>
       <c r="E100" s="5"/>
       <c r="F100" s="4"/>
@@ -2553,9 +2545,9 @@
       <c r="H100" s="6"/>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A101" s="4"/>
+      <c r="A101" s="7"/>
       <c r="B101" s="4"/>
-      <c r="C101" s="4"/>
+      <c r="C101" s="7"/>
       <c r="D101" s="4"/>
       <c r="E101" s="5"/>
       <c r="F101" s="4"/>
@@ -2563,9 +2555,9 @@
       <c r="H101" s="6"/>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A102" s="4"/>
+      <c r="A102" s="7"/>
       <c r="B102" s="4"/>
-      <c r="C102" s="4"/>
+      <c r="C102" s="7"/>
       <c r="D102" s="4"/>
       <c r="E102" s="5"/>
       <c r="F102" s="4"/>
@@ -2573,9 +2565,9 @@
       <c r="H102" s="7"/>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A103" s="4"/>
+      <c r="A103" s="7"/>
       <c r="B103" s="4"/>
-      <c r="C103" s="4"/>
+      <c r="C103" s="7"/>
       <c r="D103" s="4"/>
       <c r="E103" s="5"/>
       <c r="F103" s="4"/>
@@ -2583,9 +2575,9 @@
       <c r="H103" s="7"/>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A104" s="4"/>
+      <c r="A104" s="7"/>
       <c r="B104" s="4"/>
-      <c r="C104" s="4"/>
+      <c r="C104" s="7"/>
       <c r="D104" s="4"/>
       <c r="E104" s="5"/>
       <c r="F104" s="4"/>
@@ -2593,9 +2585,9 @@
       <c r="H104" s="7"/>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A105" s="4"/>
+      <c r="A105" s="7"/>
       <c r="B105" s="4"/>
-      <c r="C105" s="4"/>
+      <c r="C105" s="7"/>
       <c r="D105" s="4"/>
       <c r="E105" s="5"/>
       <c r="F105" s="4"/>
@@ -2603,9 +2595,9 @@
       <c r="H105" s="7"/>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A106" s="4"/>
+      <c r="A106" s="7"/>
       <c r="B106" s="4"/>
-      <c r="C106" s="4"/>
+      <c r="C106" s="7"/>
       <c r="D106" s="4"/>
       <c r="E106" s="5"/>
       <c r="F106" s="4"/>
@@ -2613,9 +2605,9 @@
       <c r="H106" s="7"/>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A107" s="4"/>
+      <c r="A107" s="7"/>
       <c r="B107" s="4"/>
-      <c r="C107" s="4"/>
+      <c r="C107" s="7"/>
       <c r="D107" s="4"/>
       <c r="E107" s="5"/>
       <c r="F107" s="4"/>
@@ -2623,9 +2615,9 @@
       <c r="H107" s="7"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A108" s="4"/>
+      <c r="A108" s="7"/>
       <c r="B108" s="4"/>
-      <c r="C108" s="4"/>
+      <c r="C108" s="7"/>
       <c r="D108" s="4"/>
       <c r="E108" s="5"/>
       <c r="F108" s="4"/>
@@ -2633,9 +2625,9 @@
       <c r="H108" s="7"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A109" s="4"/>
+      <c r="A109" s="7"/>
       <c r="B109" s="4"/>
-      <c r="C109" s="4"/>
+      <c r="C109" s="7"/>
       <c r="D109" s="4"/>
       <c r="E109" s="5"/>
       <c r="F109" s="4"/>
@@ -2643,9 +2635,9 @@
       <c r="H109" s="7"/>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A110" s="4"/>
+      <c r="A110" s="7"/>
       <c r="B110" s="4"/>
-      <c r="C110" s="4"/>
+      <c r="C110" s="7"/>
       <c r="D110" s="4"/>
       <c r="E110" s="5"/>
       <c r="F110" s="4"/>
@@ -2653,9 +2645,9 @@
       <c r="H110" s="7"/>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A111" s="4"/>
+      <c r="A111" s="7"/>
       <c r="B111" s="4"/>
-      <c r="C111" s="4"/>
+      <c r="C111" s="7"/>
       <c r="D111" s="4"/>
       <c r="E111" s="5"/>
       <c r="F111" s="4"/>
@@ -2663,9 +2655,9 @@
       <c r="H111" s="7"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A112" s="4"/>
+      <c r="A112" s="7"/>
       <c r="B112" s="4"/>
-      <c r="C112" s="4"/>
+      <c r="C112" s="7"/>
       <c r="D112" s="4"/>
       <c r="E112" s="5"/>
       <c r="F112" s="4"/>
@@ -2673,9 +2665,9 @@
       <c r="H112" s="7"/>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A113" s="4"/>
+      <c r="A113" s="7"/>
       <c r="B113" s="4"/>
-      <c r="C113" s="4"/>
+      <c r="C113" s="7"/>
       <c r="D113" s="4"/>
       <c r="E113" s="5"/>
       <c r="F113" s="4"/>
@@ -2683,9 +2675,9 @@
       <c r="H113" s="7"/>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A114" s="4"/>
+      <c r="A114" s="7"/>
       <c r="B114" s="4"/>
-      <c r="C114" s="4"/>
+      <c r="C114" s="7"/>
       <c r="D114" s="4"/>
       <c r="E114" s="5"/>
       <c r="F114" s="4"/>
@@ -2693,9 +2685,9 @@
       <c r="H114" s="7"/>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A115" s="4"/>
+      <c r="A115" s="7"/>
       <c r="B115" s="4"/>
-      <c r="C115" s="4"/>
+      <c r="C115" s="7"/>
       <c r="D115" s="4"/>
       <c r="E115" s="5"/>
       <c r="F115" s="4"/>
@@ -2703,9 +2695,9 @@
       <c r="H115" s="7"/>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A116" s="4"/>
+      <c r="A116" s="7"/>
       <c r="B116" s="4"/>
-      <c r="C116" s="4"/>
+      <c r="C116" s="7"/>
       <c r="D116" s="4"/>
       <c r="E116" s="5"/>
       <c r="F116" s="4"/>
@@ -2713,9 +2705,9 @@
       <c r="H116" s="7"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A117" s="4"/>
+      <c r="A117" s="7"/>
       <c r="B117" s="4"/>
-      <c r="C117" s="4"/>
+      <c r="C117" s="7"/>
       <c r="D117" s="4"/>
       <c r="E117" s="5"/>
       <c r="F117" s="4"/>
@@ -2723,9 +2715,9 @@
       <c r="H117" s="7"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A118" s="4"/>
+      <c r="A118" s="7"/>
       <c r="B118" s="4"/>
-      <c r="C118" s="4"/>
+      <c r="C118" s="7"/>
       <c r="D118" s="4"/>
       <c r="E118" s="5"/>
       <c r="F118" s="4"/>
@@ -2733,9 +2725,9 @@
       <c r="H118" s="7"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A119" s="4"/>
+      <c r="A119" s="7"/>
       <c r="B119" s="4"/>
-      <c r="C119" s="4"/>
+      <c r="C119" s="7"/>
       <c r="D119" s="4"/>
       <c r="E119" s="5"/>
       <c r="F119" s="4"/>
@@ -2743,9 +2735,9 @@
       <c r="H119" s="7"/>
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A120" s="4"/>
+      <c r="A120" s="7"/>
       <c r="B120" s="4"/>
-      <c r="C120" s="4"/>
+      <c r="C120" s="7"/>
       <c r="D120" s="4"/>
       <c r="E120" s="5"/>
       <c r="F120" s="4"/>
@@ -2753,9 +2745,9 @@
       <c r="H120" s="7"/>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A121" s="4"/>
+      <c r="A121" s="7"/>
       <c r="B121" s="4"/>
-      <c r="C121" s="4"/>
+      <c r="C121" s="7"/>
       <c r="D121" s="4"/>
       <c r="E121" s="5"/>
       <c r="F121" s="4"/>
@@ -2763,9 +2755,9 @@
       <c r="H121" s="7"/>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A122" s="4"/>
+      <c r="A122" s="7"/>
       <c r="B122" s="4"/>
-      <c r="C122" s="4"/>
+      <c r="C122" s="7"/>
       <c r="D122" s="4"/>
       <c r="E122" s="5"/>
       <c r="F122" s="4"/>
@@ -2773,9 +2765,9 @@
       <c r="H122" s="7"/>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A123" s="4"/>
+      <c r="A123" s="7"/>
       <c r="B123" s="4"/>
-      <c r="C123" s="4"/>
+      <c r="C123" s="7"/>
       <c r="D123" s="4"/>
       <c r="E123" s="5"/>
       <c r="F123" s="4"/>
@@ -2783,9 +2775,9 @@
       <c r="H123" s="7"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A124" s="4"/>
+      <c r="A124" s="7"/>
       <c r="B124" s="4"/>
-      <c r="C124" s="4"/>
+      <c r="C124" s="7"/>
       <c r="D124" s="4"/>
       <c r="E124" s="5"/>
       <c r="F124" s="4"/>
@@ -2793,9 +2785,9 @@
       <c r="H124" s="7"/>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A125" s="4"/>
+      <c r="A125" s="7"/>
       <c r="B125" s="4"/>
-      <c r="C125" s="4"/>
+      <c r="C125" s="7"/>
       <c r="D125" s="4"/>
       <c r="E125" s="5"/>
       <c r="F125" s="4"/>
@@ -2803,9 +2795,9 @@
       <c r="H125" s="7"/>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A126" s="4"/>
+      <c r="A126" s="7"/>
       <c r="B126" s="4"/>
-      <c r="C126" s="4"/>
+      <c r="C126" s="7"/>
       <c r="D126" s="4"/>
       <c r="E126" s="5"/>
       <c r="F126" s="4"/>
@@ -2813,9 +2805,9 @@
       <c r="H126" s="7"/>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A127" s="4"/>
+      <c r="A127" s="7"/>
       <c r="B127" s="4"/>
-      <c r="C127" s="4"/>
+      <c r="C127" s="7"/>
       <c r="D127" s="4"/>
       <c r="E127" s="5"/>
       <c r="F127" s="4"/>
@@ -2823,9 +2815,9 @@
       <c r="H127" s="7"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A128" s="4"/>
+      <c r="A128" s="7"/>
       <c r="B128" s="4"/>
-      <c r="C128" s="4"/>
+      <c r="C128" s="7"/>
       <c r="D128" s="4"/>
       <c r="E128" s="5"/>
       <c r="F128" s="4"/>
@@ -2833,9 +2825,9 @@
       <c r="H128" s="7"/>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A129" s="4"/>
+      <c r="A129" s="7"/>
       <c r="B129" s="4"/>
-      <c r="C129" s="4"/>
+      <c r="C129" s="7"/>
       <c r="D129" s="4"/>
       <c r="E129" s="5"/>
       <c r="F129" s="4"/>
@@ -2843,9 +2835,9 @@
       <c r="H129" s="7"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A130" s="4"/>
+      <c r="A130" s="7"/>
       <c r="B130" s="4"/>
-      <c r="C130" s="4"/>
+      <c r="C130" s="7"/>
       <c r="D130" s="4"/>
       <c r="E130" s="5"/>
       <c r="F130" s="4"/>
@@ -2853,9 +2845,9 @@
       <c r="H130" s="7"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A131" s="4"/>
+      <c r="A131" s="7"/>
       <c r="B131" s="4"/>
-      <c r="C131" s="4"/>
+      <c r="C131" s="7"/>
       <c r="D131" s="4"/>
       <c r="E131" s="5"/>
       <c r="F131" s="4"/>
@@ -2863,9 +2855,9 @@
       <c r="H131" s="7"/>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A132" s="4"/>
+      <c r="A132" s="7"/>
       <c r="B132" s="4"/>
-      <c r="C132" s="4"/>
+      <c r="C132" s="7"/>
       <c r="D132" s="4"/>
       <c r="E132" s="5"/>
       <c r="F132" s="4"/>
@@ -2873,9 +2865,9 @@
       <c r="H132" s="7"/>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A133" s="4"/>
+      <c r="A133" s="7"/>
       <c r="B133" s="4"/>
-      <c r="C133" s="4"/>
+      <c r="C133" s="7"/>
       <c r="D133" s="4"/>
       <c r="E133" s="5"/>
       <c r="F133" s="4"/>
@@ -2883,9 +2875,9 @@
       <c r="H133" s="7"/>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A134" s="4"/>
+      <c r="A134" s="7"/>
       <c r="B134" s="4"/>
-      <c r="C134" s="4"/>
+      <c r="C134" s="7"/>
       <c r="D134" s="4"/>
       <c r="E134" s="5"/>
       <c r="F134" s="4"/>
@@ -2893,9 +2885,9 @@
       <c r="H134" s="7"/>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A135" s="4"/>
+      <c r="A135" s="7"/>
       <c r="B135" s="4"/>
-      <c r="C135" s="4"/>
+      <c r="C135" s="7"/>
       <c r="D135" s="4"/>
       <c r="E135" s="5"/>
       <c r="F135" s="4"/>
@@ -2903,9 +2895,9 @@
       <c r="H135" s="7"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A136" s="4"/>
+      <c r="A136" s="7"/>
       <c r="B136" s="4"/>
-      <c r="C136" s="4"/>
+      <c r="C136" s="7"/>
       <c r="D136" s="4"/>
       <c r="E136" s="5"/>
       <c r="F136" s="4"/>
@@ -2913,9 +2905,9 @@
       <c r="H136" s="7"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A137" s="4"/>
+      <c r="A137" s="7"/>
       <c r="B137" s="4"/>
-      <c r="C137" s="4"/>
+      <c r="C137" s="7"/>
       <c r="D137" s="4"/>
       <c r="E137" s="5"/>
       <c r="F137" s="4"/>
@@ -2923,9 +2915,9 @@
       <c r="H137" s="7"/>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A138" s="4"/>
+      <c r="A138" s="7"/>
       <c r="B138" s="4"/>
-      <c r="C138" s="4"/>
+      <c r="C138" s="7"/>
       <c r="D138" s="4"/>
       <c r="E138" s="5"/>
       <c r="F138" s="4"/>
@@ -2933,9 +2925,9 @@
       <c r="H138" s="7"/>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A139" s="4"/>
+      <c r="A139" s="7"/>
       <c r="B139" s="4"/>
-      <c r="C139" s="4"/>
+      <c r="C139" s="7"/>
       <c r="D139" s="4"/>
       <c r="E139" s="5"/>
       <c r="F139" s="4"/>
@@ -2943,9 +2935,9 @@
       <c r="H139" s="7"/>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A140" s="4"/>
+      <c r="A140" s="7"/>
       <c r="B140" s="4"/>
-      <c r="C140" s="4"/>
+      <c r="C140" s="7"/>
       <c r="D140" s="4"/>
       <c r="E140" s="5"/>
       <c r="F140" s="4"/>
@@ -2953,9 +2945,9 @@
       <c r="H140" s="7"/>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A141" s="4"/>
+      <c r="A141" s="7"/>
       <c r="B141" s="4"/>
-      <c r="C141" s="4"/>
+      <c r="C141" s="7"/>
       <c r="D141" s="4"/>
       <c r="E141" s="5"/>
       <c r="F141" s="4"/>
@@ -2963,9 +2955,9 @@
       <c r="H141" s="7"/>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A142" s="4"/>
+      <c r="A142" s="7"/>
       <c r="B142" s="4"/>
-      <c r="C142" s="4"/>
+      <c r="C142" s="7"/>
       <c r="D142" s="4"/>
       <c r="E142" s="5"/>
       <c r="F142" s="4"/>
@@ -2973,9 +2965,9 @@
       <c r="H142" s="7"/>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A143" s="4"/>
+      <c r="A143" s="7"/>
       <c r="B143" s="4"/>
-      <c r="C143" s="4"/>
+      <c r="C143" s="7"/>
       <c r="D143" s="4"/>
       <c r="E143" s="5"/>
       <c r="F143" s="4"/>
@@ -2983,9 +2975,9 @@
       <c r="H143" s="7"/>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A144" s="4"/>
+      <c r="A144" s="7"/>
       <c r="B144" s="4"/>
-      <c r="C144" s="4"/>
+      <c r="C144" s="7"/>
       <c r="D144" s="4"/>
       <c r="E144" s="5"/>
       <c r="F144" s="4"/>
@@ -2993,9 +2985,9 @@
       <c r="H144" s="7"/>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A145" s="4"/>
+      <c r="A145" s="7"/>
       <c r="B145" s="4"/>
-      <c r="C145" s="4"/>
+      <c r="C145" s="7"/>
       <c r="D145" s="4"/>
       <c r="E145" s="5"/>
       <c r="F145" s="4"/>
@@ -3003,9 +2995,9 @@
       <c r="H145" s="7"/>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A146" s="4"/>
+      <c r="A146" s="7"/>
       <c r="B146" s="4"/>
-      <c r="C146" s="4"/>
+      <c r="C146" s="7"/>
       <c r="D146" s="4"/>
       <c r="E146" s="5"/>
       <c r="F146" s="4"/>
@@ -3013,9 +3005,9 @@
       <c r="H146" s="7"/>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A147" s="4"/>
+      <c r="A147" s="7"/>
       <c r="B147" s="4"/>
-      <c r="C147" s="4"/>
+      <c r="C147" s="7"/>
       <c r="D147" s="4"/>
       <c r="E147" s="5"/>
       <c r="F147" s="4"/>
@@ -3023,9 +3015,9 @@
       <c r="H147" s="7"/>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A148" s="4"/>
+      <c r="A148" s="7"/>
       <c r="B148" s="4"/>
-      <c r="C148" s="4"/>
+      <c r="C148" s="7"/>
       <c r="D148" s="4"/>
       <c r="E148" s="5"/>
       <c r="F148" s="4"/>
@@ -3033,9 +3025,9 @@
       <c r="H148" s="7"/>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A149" s="4"/>
+      <c r="A149" s="7"/>
       <c r="B149" s="4"/>
-      <c r="C149" s="4"/>
+      <c r="C149" s="7"/>
       <c r="D149" s="4"/>
       <c r="E149" s="5"/>
       <c r="F149" s="4"/>
@@ -3043,9 +3035,9 @@
       <c r="H149" s="7"/>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A150" s="4"/>
+      <c r="A150" s="7"/>
       <c r="B150" s="4"/>
-      <c r="C150" s="4"/>
+      <c r="C150" s="7"/>
       <c r="D150" s="4"/>
       <c r="E150" s="5"/>
       <c r="F150" s="4"/>
@@ -3053,9 +3045,9 @@
       <c r="H150" s="7"/>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A151" s="4"/>
+      <c r="A151" s="7"/>
       <c r="B151" s="4"/>
-      <c r="C151" s="4"/>
+      <c r="C151" s="7"/>
       <c r="D151" s="4"/>
       <c r="E151" s="5"/>
       <c r="F151" s="4"/>
@@ -3063,9 +3055,9 @@
       <c r="H151" s="7"/>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A152" s="4"/>
+      <c r="A152" s="7"/>
       <c r="B152" s="4"/>
-      <c r="C152" s="4"/>
+      <c r="C152" s="7"/>
       <c r="D152" s="4"/>
       <c r="E152" s="5"/>
       <c r="F152" s="4"/>
@@ -3073,9 +3065,9 @@
       <c r="H152" s="7"/>
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A153" s="4"/>
+      <c r="A153" s="7"/>
       <c r="B153" s="4"/>
-      <c r="C153" s="4"/>
+      <c r="C153" s="7"/>
       <c r="D153" s="4"/>
       <c r="E153" s="5"/>
       <c r="F153" s="4"/>
@@ -3083,9 +3075,9 @@
       <c r="H153" s="7"/>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A154" s="4"/>
+      <c r="A154" s="7"/>
       <c r="B154" s="4"/>
-      <c r="C154" s="4"/>
+      <c r="C154" s="7"/>
       <c r="D154" s="4"/>
       <c r="E154" s="5"/>
       <c r="F154" s="4"/>
@@ -3093,9 +3085,9 @@
       <c r="H154" s="7"/>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A155" s="4"/>
+      <c r="A155" s="7"/>
       <c r="B155" s="4"/>
-      <c r="C155" s="4"/>
+      <c r="C155" s="7"/>
       <c r="D155" s="4"/>
       <c r="E155" s="5"/>
       <c r="F155" s="4"/>
@@ -3103,9 +3095,9 @@
       <c r="H155" s="7"/>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A156" s="4"/>
+      <c r="A156" s="7"/>
       <c r="B156" s="4"/>
-      <c r="C156" s="4"/>
+      <c r="C156" s="7"/>
       <c r="D156" s="4"/>
       <c r="E156" s="5"/>
       <c r="F156" s="4"/>
@@ -3113,9 +3105,9 @@
       <c r="H156" s="7"/>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A157" s="4"/>
+      <c r="A157" s="7"/>
       <c r="B157" s="4"/>
-      <c r="C157" s="4"/>
+      <c r="C157" s="7"/>
       <c r="D157" s="4"/>
       <c r="E157" s="5"/>
       <c r="F157" s="4"/>
@@ -3123,9 +3115,9 @@
       <c r="H157" s="7"/>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A158" s="4"/>
+      <c r="A158" s="7"/>
       <c r="B158" s="4"/>
-      <c r="C158" s="4"/>
+      <c r="C158" s="7"/>
       <c r="D158" s="4"/>
       <c r="E158" s="5"/>
       <c r="F158" s="4"/>
@@ -3133,9 +3125,9 @@
       <c r="H158" s="7"/>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A159" s="4"/>
+      <c r="A159" s="7"/>
       <c r="B159" s="4"/>
-      <c r="C159" s="4"/>
+      <c r="C159" s="7"/>
       <c r="D159" s="4"/>
       <c r="E159" s="5"/>
       <c r="F159" s="4"/>
@@ -3143,9 +3135,9 @@
       <c r="H159" s="7"/>
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A160" s="4"/>
+      <c r="A160" s="7"/>
       <c r="B160" s="4"/>
-      <c r="C160" s="4"/>
+      <c r="C160" s="7"/>
       <c r="D160" s="4"/>
       <c r="E160" s="5"/>
       <c r="F160" s="4"/>
@@ -3153,9 +3145,9 @@
       <c r="H160" s="7"/>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A161" s="4"/>
+      <c r="A161" s="7"/>
       <c r="B161" s="4"/>
-      <c r="C161" s="4"/>
+      <c r="C161" s="7"/>
       <c r="D161" s="4"/>
       <c r="E161" s="5"/>
       <c r="F161" s="4"/>
@@ -3163,9 +3155,9 @@
       <c r="H161" s="7"/>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A162" s="4"/>
+      <c r="A162" s="7"/>
       <c r="B162" s="4"/>
-      <c r="C162" s="4"/>
+      <c r="C162" s="7"/>
       <c r="D162" s="4"/>
       <c r="E162" s="5"/>
       <c r="F162" s="4"/>
@@ -3173,9 +3165,9 @@
       <c r="H162" s="7"/>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A163" s="4"/>
+      <c r="A163" s="7"/>
       <c r="B163" s="4"/>
-      <c r="C163" s="4"/>
+      <c r="C163" s="7"/>
       <c r="D163" s="4"/>
       <c r="E163" s="5"/>
       <c r="F163" s="4"/>
@@ -3183,9 +3175,9 @@
       <c r="H163" s="7"/>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A164" s="4"/>
+      <c r="A164" s="7"/>
       <c r="B164" s="4"/>
-      <c r="C164" s="4"/>
+      <c r="C164" s="7"/>
       <c r="D164" s="4"/>
       <c r="E164" s="5"/>
       <c r="F164" s="4"/>
@@ -3193,9 +3185,9 @@
       <c r="H164" s="7"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A165" s="4"/>
+      <c r="A165" s="7"/>
       <c r="B165" s="4"/>
-      <c r="C165" s="4"/>
+      <c r="C165" s="7"/>
       <c r="D165" s="4"/>
       <c r="E165" s="5"/>
       <c r="F165" s="4"/>
@@ -3203,9 +3195,9 @@
       <c r="H165" s="7"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A166" s="4"/>
+      <c r="A166" s="7"/>
       <c r="B166" s="4"/>
-      <c r="C166" s="4"/>
+      <c r="C166" s="7"/>
       <c r="D166" s="4"/>
       <c r="E166" s="5"/>
       <c r="F166" s="4"/>
@@ -3213,9 +3205,9 @@
       <c r="H166" s="7"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A167" s="4"/>
+      <c r="A167" s="7"/>
       <c r="B167" s="4"/>
-      <c r="C167" s="4"/>
+      <c r="C167" s="7"/>
       <c r="D167" s="4"/>
       <c r="E167" s="5"/>
       <c r="F167" s="4"/>
@@ -3223,9 +3215,9 @@
       <c r="H167" s="7"/>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A168" s="4"/>
+      <c r="A168" s="7"/>
       <c r="B168" s="4"/>
-      <c r="C168" s="4"/>
+      <c r="C168" s="7"/>
       <c r="D168" s="4"/>
       <c r="E168" s="5"/>
       <c r="F168" s="4"/>
@@ -3233,9 +3225,9 @@
       <c r="H168" s="7"/>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A169" s="4"/>
+      <c r="A169" s="7"/>
       <c r="B169" s="4"/>
-      <c r="C169" s="4"/>
+      <c r="C169" s="7"/>
       <c r="D169" s="4"/>
       <c r="E169" s="5"/>
       <c r="F169" s="4"/>
@@ -3243,9 +3235,9 @@
       <c r="H169" s="7"/>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A170" s="4"/>
+      <c r="A170" s="7"/>
       <c r="B170" s="4"/>
-      <c r="C170" s="4"/>
+      <c r="C170" s="7"/>
       <c r="D170" s="4"/>
       <c r="E170" s="5"/>
       <c r="F170" s="4"/>
@@ -3253,9 +3245,9 @@
       <c r="H170" s="7"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A171" s="4"/>
+      <c r="A171" s="7"/>
       <c r="B171" s="4"/>
-      <c r="C171" s="4"/>
+      <c r="C171" s="7"/>
       <c r="D171" s="4"/>
       <c r="E171" s="5"/>
       <c r="F171" s="4"/>
@@ -3263,9 +3255,9 @@
       <c r="H171" s="7"/>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A172" s="4"/>
+      <c r="A172" s="7"/>
       <c r="B172" s="4"/>
-      <c r="C172" s="4"/>
+      <c r="C172" s="7"/>
       <c r="D172" s="4"/>
       <c r="E172" s="5"/>
       <c r="F172" s="4"/>
@@ -3273,9 +3265,9 @@
       <c r="H172" s="7"/>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A173" s="4"/>
+      <c r="A173" s="7"/>
       <c r="B173" s="4"/>
-      <c r="C173" s="4"/>
+      <c r="C173" s="7"/>
       <c r="D173" s="4"/>
       <c r="E173" s="5"/>
       <c r="F173" s="4"/>
@@ -3283,9 +3275,9 @@
       <c r="H173" s="7"/>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A174" s="4"/>
+      <c r="A174" s="7"/>
       <c r="B174" s="4"/>
-      <c r="C174" s="4"/>
+      <c r="C174" s="7"/>
       <c r="D174" s="4"/>
       <c r="E174" s="5"/>
       <c r="F174" s="4"/>
@@ -3293,9 +3285,9 @@
       <c r="H174" s="7"/>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A175" s="4"/>
+      <c r="A175" s="7"/>
       <c r="B175" s="4"/>
-      <c r="C175" s="4"/>
+      <c r="C175" s="7"/>
       <c r="D175" s="4"/>
       <c r="E175" s="5"/>
       <c r="F175" s="4"/>
@@ -3303,9 +3295,9 @@
       <c r="H175" s="7"/>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A176" s="4"/>
+      <c r="A176" s="7"/>
       <c r="B176" s="4"/>
-      <c r="C176" s="4"/>
+      <c r="C176" s="7"/>
       <c r="D176" s="4"/>
       <c r="E176" s="5"/>
       <c r="F176" s="4"/>
@@ -3313,9 +3305,9 @@
       <c r="H176" s="7"/>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A177" s="4"/>
+      <c r="A177" s="7"/>
       <c r="B177" s="4"/>
-      <c r="C177" s="4"/>
+      <c r="C177" s="7"/>
       <c r="D177" s="4"/>
       <c r="E177" s="5"/>
       <c r="F177" s="4"/>
@@ -3323,9 +3315,9 @@
       <c r="H177" s="7"/>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A178" s="4"/>
+      <c r="A178" s="7"/>
       <c r="B178" s="4"/>
-      <c r="C178" s="4"/>
+      <c r="C178" s="7"/>
       <c r="D178" s="4"/>
       <c r="E178" s="5"/>
       <c r="F178" s="4"/>
@@ -3333,9 +3325,9 @@
       <c r="H178" s="7"/>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A179" s="4"/>
+      <c r="A179" s="7"/>
       <c r="B179" s="4"/>
-      <c r="C179" s="4"/>
+      <c r="C179" s="7"/>
       <c r="D179" s="4"/>
       <c r="E179" s="5"/>
       <c r="F179" s="4"/>
@@ -3343,9 +3335,9 @@
       <c r="H179" s="7"/>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A180" s="4"/>
+      <c r="A180" s="7"/>
       <c r="B180" s="4"/>
-      <c r="C180" s="4"/>
+      <c r="C180" s="7"/>
       <c r="D180" s="4"/>
       <c r="E180" s="5"/>
       <c r="F180" s="4"/>
@@ -3353,9 +3345,9 @@
       <c r="H180" s="7"/>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A181" s="4"/>
+      <c r="A181" s="7"/>
       <c r="B181" s="4"/>
-      <c r="C181" s="4"/>
+      <c r="C181" s="7"/>
       <c r="D181" s="4"/>
       <c r="E181" s="5"/>
       <c r="F181" s="4"/>
@@ -3363,9 +3355,9 @@
       <c r="H181" s="7"/>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A182" s="4"/>
+      <c r="A182" s="7"/>
       <c r="B182" s="4"/>
-      <c r="C182" s="4"/>
+      <c r="C182" s="7"/>
       <c r="D182" s="4"/>
       <c r="E182" s="5"/>
       <c r="F182" s="4"/>
@@ -3373,9 +3365,9 @@
       <c r="H182" s="7"/>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A183" s="4"/>
+      <c r="A183" s="7"/>
       <c r="B183" s="4"/>
-      <c r="C183" s="4"/>
+      <c r="C183" s="7"/>
       <c r="D183" s="4"/>
       <c r="E183" s="5"/>
       <c r="F183" s="4"/>
@@ -3383,9 +3375,9 @@
       <c r="H183" s="7"/>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A184" s="4"/>
+      <c r="A184" s="7"/>
       <c r="B184" s="4"/>
-      <c r="C184" s="4"/>
+      <c r="C184" s="7"/>
       <c r="D184" s="4"/>
       <c r="E184" s="5"/>
       <c r="F184" s="4"/>
@@ -3393,9 +3385,9 @@
       <c r="H184" s="7"/>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A185" s="4"/>
+      <c r="A185" s="7"/>
       <c r="B185" s="4"/>
-      <c r="C185" s="4"/>
+      <c r="C185" s="7"/>
       <c r="D185" s="4"/>
       <c r="E185" s="5"/>
       <c r="F185" s="4"/>
@@ -3403,9 +3395,9 @@
       <c r="H185" s="7"/>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A186" s="4"/>
+      <c r="A186" s="7"/>
       <c r="B186" s="4"/>
-      <c r="C186" s="4"/>
+      <c r="C186" s="7"/>
       <c r="D186" s="4"/>
       <c r="E186" s="5"/>
       <c r="F186" s="4"/>
@@ -3413,9 +3405,9 @@
       <c r="H186" s="7"/>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A187" s="4"/>
+      <c r="A187" s="7"/>
       <c r="B187" s="4"/>
-      <c r="C187" s="4"/>
+      <c r="C187" s="7"/>
       <c r="D187" s="4"/>
       <c r="E187" s="5"/>
       <c r="F187" s="4"/>
@@ -3423,9 +3415,9 @@
       <c r="H187" s="7"/>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A188" s="4"/>
+      <c r="A188" s="7"/>
       <c r="B188" s="4"/>
-      <c r="C188" s="4"/>
+      <c r="C188" s="7"/>
       <c r="D188" s="4"/>
       <c r="E188" s="5"/>
       <c r="F188" s="4"/>
@@ -3433,9 +3425,9 @@
       <c r="H188" s="7"/>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A189" s="4"/>
+      <c r="A189" s="7"/>
       <c r="B189" s="4"/>
-      <c r="C189" s="4"/>
+      <c r="C189" s="7"/>
       <c r="D189" s="4"/>
       <c r="E189" s="5"/>
       <c r="F189" s="4"/>
@@ -3443,9 +3435,9 @@
       <c r="H189" s="7"/>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A190" s="4"/>
+      <c r="A190" s="7"/>
       <c r="B190" s="4"/>
-      <c r="C190" s="4"/>
+      <c r="C190" s="7"/>
       <c r="D190" s="4"/>
       <c r="E190" s="5"/>
       <c r="F190" s="4"/>
@@ -3453,9 +3445,9 @@
       <c r="H190" s="7"/>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A191" s="4"/>
+      <c r="A191" s="7"/>
       <c r="B191" s="4"/>
-      <c r="C191" s="4"/>
+      <c r="C191" s="7"/>
       <c r="D191" s="4"/>
       <c r="E191" s="5"/>
       <c r="F191" s="4"/>
@@ -3463,9 +3455,9 @@
       <c r="H191" s="7"/>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A192" s="4"/>
+      <c r="A192" s="7"/>
       <c r="B192" s="4"/>
-      <c r="C192" s="4"/>
+      <c r="C192" s="7"/>
       <c r="D192" s="4"/>
       <c r="E192" s="5"/>
       <c r="F192" s="4"/>
@@ -3473,9 +3465,9 @@
       <c r="H192" s="7"/>
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A193" s="4"/>
+      <c r="A193" s="7"/>
       <c r="B193" s="4"/>
-      <c r="C193" s="4"/>
+      <c r="C193" s="7"/>
       <c r="D193" s="4"/>
       <c r="E193" s="5"/>
       <c r="F193" s="4"/>
@@ -3483,9 +3475,9 @@
       <c r="H193" s="7"/>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A194" s="4"/>
+      <c r="A194" s="7"/>
       <c r="B194" s="4"/>
-      <c r="C194" s="4"/>
+      <c r="C194" s="7"/>
       <c r="D194" s="4"/>
       <c r="E194" s="5"/>
       <c r="F194" s="4"/>
@@ -3493,9 +3485,9 @@
       <c r="H194" s="7"/>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A195" s="4"/>
+      <c r="A195" s="7"/>
       <c r="B195" s="4"/>
-      <c r="C195" s="4"/>
+      <c r="C195" s="7"/>
       <c r="D195" s="4"/>
       <c r="E195" s="5"/>
       <c r="F195" s="4"/>
@@ -3503,9 +3495,9 @@
       <c r="H195" s="7"/>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A196" s="4"/>
+      <c r="A196" s="7"/>
       <c r="B196" s="4"/>
-      <c r="C196" s="4"/>
+      <c r="C196" s="7"/>
       <c r="D196" s="4"/>
       <c r="E196" s="5"/>
       <c r="F196" s="4"/>
@@ -3513,9 +3505,9 @@
       <c r="H196" s="7"/>
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A197" s="4"/>
+      <c r="A197" s="7"/>
       <c r="B197" s="4"/>
-      <c r="C197" s="4"/>
+      <c r="C197" s="7"/>
       <c r="D197" s="4"/>
       <c r="E197" s="5"/>
       <c r="F197" s="4"/>
@@ -3523,9 +3515,9 @@
       <c r="H197" s="7"/>
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A198" s="4"/>
+      <c r="A198" s="7"/>
       <c r="B198" s="4"/>
-      <c r="C198" s="4"/>
+      <c r="C198" s="7"/>
       <c r="D198" s="4"/>
       <c r="E198" s="5"/>
       <c r="F198" s="4"/>
@@ -3533,9 +3525,9 @@
       <c r="H198" s="7"/>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A199" s="4"/>
+      <c r="A199" s="7"/>
       <c r="B199" s="4"/>
-      <c r="C199" s="4"/>
+      <c r="C199" s="7"/>
       <c r="D199" s="8"/>
       <c r="E199" s="18"/>
       <c r="F199" s="8"/>
@@ -3543,9 +3535,9 @@
       <c r="H199" s="9"/>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A200" s="4"/>
+      <c r="A200" s="7"/>
       <c r="B200" s="4"/>
-      <c r="C200" s="4"/>
+      <c r="C200" s="7"/>
       <c r="D200" s="4"/>
       <c r="E200" s="5"/>
       <c r="F200" s="4"/>
@@ -3553,9 +3545,9 @@
       <c r="H200" s="7"/>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A201" s="8"/>
+      <c r="A201" s="9"/>
       <c r="B201" s="8"/>
-      <c r="C201" s="8"/>
+      <c r="C201" s="9"/>
       <c r="D201" s="4"/>
       <c r="E201" s="5"/>
       <c r="F201" s="4"/>
@@ -3563,9 +3555,18 @@
       <c r="H201" s="7"/>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C202:D1048576 F2:G201" xr:uid="{721689B9-07E2-490C-A54C-D0A800BB1707}">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G201 D202:D1048576" xr:uid="{721689B9-07E2-490C-A54C-D0A800BB1707}">
       <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効最大リトライ回数" error="最大リトライ回数は0以上の整数である必要があります。" sqref="H2:H1048576" xr:uid="{1D590346-2439-4A32-9D9C-94EA9E57435C}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効な組織単位ID" error="組織単位IDは0より大きい整数である必要があります。" sqref="A2:A1048576" xr:uid="{43D809FE-B98B-4CC6-A5CB-0C5EC17E0BC8}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なキューID" error="キューIDは0より大きい整数である必要があります。" sqref="C2:C1048576" xr:uid="{4713D8E0-533E-429F-A9E9-AC39D0226E4F}">
+      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5624,12 +5625,15 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F96:F201" xr:uid="{0ADF74F4-F76D-4833-86A4-565D4E438656}">
-      <formula1>"Success,Failure"</formula1>
-    </dataValidation>
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C202:D1048576 D2:E201" xr:uid="{9BB751AA-AB69-4D0A-AA2D-E5870E02057F}">
       <formula1>"Yes,No"</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効な最大リトライ回数" error="最大リトライ回数は0以上の整数である必要があります。" sqref="F2:F1048576" xr:uid="{DE941461-C0C2-45B2-88D0-DB8690718A0E}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なID" error="IDは0より大きい整数である必要があります。" sqref="G2:G1048576" xr:uid="{41AE2B0B-8E0D-4854-B512-D66082834DCF}">
+      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7076,6 +7080,14 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <dataValidations count="2">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効な組織単位ID" error="組織単位IDは0より大きい整数である必要があります。" sqref="A2:A1048576" xr:uid="{C9CF9BBE-F69F-409E-924C-869656D3D16B}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なキューID" error="キューIDは0より大きい整数である必要があります。" sqref="C2:C1048576" xr:uid="{C5113BF0-D8AE-4A80-A12D-F8C0FF64B10B}">
+      <formula1>0</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -8328,7 +8340,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D4554F-2298-4CE1-9C9C-35D7C3CF77C6}">
   <dimension ref="A1:E201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -8349,10 +8361,10 @@
         <v>7</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E1" s="13" t="s">
         <v>1</v>
@@ -9760,7 +9772,7 @@
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576" xr:uid="{D23BDF94-6E7E-48F3-AB5C-85B0A7ACFDFD}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なコミットの種類" error="サポートされているコミットの種類を選択してください。" sqref="D2:D1048576" xr:uid="{D23BDF94-6E7E-48F3-AB5C-85B0A7ACFDFD}">
       <formula1>"AllOrNothing,StopOnFirstFailure,ProcessAllIndependently"</formula1>
     </dataValidation>
   </dataValidations>

--- a/Workbooks/JA/キュー.xlsx
+++ b/Workbooks/JA/キュー.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD96EC7-DDBB-4697-915F-0A96A9D83C89}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1705B9FC-5A23-4267-8D94-52A68D170E1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name="取得" sheetId="4" r:id="rId1"/>
     <sheet name="作成" sheetId="1" r:id="rId2"/>
     <sheet name="削除" sheetId="2" r:id="rId3"/>
-    <sheet name="キューアイテムをダウンロード" sheetId="6" r:id="rId4"/>
-    <sheet name="キューアイテムをアップロード" sheetId="7" r:id="rId5"/>
+    <sheet name="キュー アイテムをダウンロード" sheetId="6" r:id="rId4"/>
+    <sheet name="キュー アイテムをアップロード" sheetId="7" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -332,12 +332,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="41">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -889,24 +883,9 @@
       <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="0" tint="-0.34998626667073579"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -1101,6 +1080,27 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1115,75 +1115,75 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:H201" headerRowDxfId="32" dataDxfId="30" totalsRowDxfId="31">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:H201" headerRowDxfId="40" dataDxfId="39" totalsRowDxfId="38">
   <autoFilter ref="A1:H201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{F48D04D3-B22E-457E-8F3F-6D0CF14127A6}" name="フォルダーID" dataDxfId="40"/>
-    <tableColumn id="7" xr3:uid="{012AE434-BA00-4CDD-8DBE-8524E276CBF0}" name="フォルダー名" dataDxfId="39"/>
-    <tableColumn id="6" xr3:uid="{81F10BAB-541D-4EEA-8F4A-504125FC59D3}" name="キューID" dataDxfId="38"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="キュー名" totalsRowLabel="Total" dataDxfId="37"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="説明" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="一意の参照" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{EA8DF354-2F10-4E45-801A-56D5F80552D8}" name="自動リトライ" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="最大リトライ回数" totalsRowFunction="count" dataDxfId="33"/>
+    <tableColumn id="8" xr3:uid="{F48D04D3-B22E-457E-8F3F-6D0CF14127A6}" name="フォルダーID" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{012AE434-BA00-4CDD-8DBE-8524E276CBF0}" name="フォルダー名" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{81F10BAB-541D-4EEA-8F4A-504125FC59D3}" name="キューID" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="キュー名" totalsRowLabel="Total" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="説明" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="一意の参照" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{EA8DF354-2F10-4E45-801A-56D5F80552D8}" name="自動リトライ" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="最大リトライ回数" totalsRowFunction="count" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H201" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H201" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A1:H201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{3C3B66B3-BB87-4C07-80BD-579ABFE71137}" name="フォルダー名" dataDxfId="29"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="キュー名" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="説明" dataDxfId="27"/>
-    <tableColumn id="6" xr3:uid="{4D652F4A-5125-4BA7-BCE0-BCD13A330E29}" name="一意の参照" dataDxfId="26"/>
-    <tableColumn id="7" xr3:uid="{07A3D78A-00F5-4019-BC61-B83E2CEDEEA5}" name="自動リトライ" dataDxfId="25"/>
-    <tableColumn id="3" xr3:uid="{5CA1824C-85AD-40DB-A0CE-9853C443448E}" name="最大リトライ回数" dataDxfId="24"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{3C3B66B3-BB87-4C07-80BD-579ABFE71137}" name="フォルダー名" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="キュー名" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="説明" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{4D652F4A-5125-4BA7-BCE0-BCD13A330E29}" name="一意の参照" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{07A3D78A-00F5-4019-BC61-B83E2CEDEEA5}" name="自動リトライ" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{5CA1824C-85AD-40DB-A0CE-9853C443448E}" name="最大リトライ回数" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:E201" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:E201" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="4" xr3:uid="{2E1B6A8E-85FA-465E-B215-15A8D8C44B57}" name="フォルダーID" dataDxfId="19"/>
-    <tableColumn id="5" xr3:uid="{5CFD4745-18D2-4B9F-9127-E66CA25B38B2}" name="フォルダー名" dataDxfId="18"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="キューID" dataDxfId="17"/>
-    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="キュー名" dataDxfId="16"/>
-    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="15"/>
+    <tableColumn id="4" xr3:uid="{2E1B6A8E-85FA-465E-B215-15A8D8C44B57}" name="フォルダーID" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{5CFD4745-18D2-4B9F-9127-E66CA25B38B2}" name="フォルダー名" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="キューID" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="キュー名" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BDD2F9DC-3028-471A-A247-2ED5A9AC5566}" name="Table135" displayName="Table135" ref="A1:D201" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BDD2F9DC-3028-471A-A247-2ED5A9AC5566}" name="Table135" displayName="Table135" ref="A1:D201" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
   <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{3A524577-2886-46D9-BDC3-73F7E697D198}" name="フォルダー名" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{FAB26460-45C9-47D7-93FB-35118D5F4DF0}" name="キュー名" dataDxfId="11"/>
-    <tableColumn id="1" xr3:uid="{C455FEB9-1F4C-4FD2-9BC3-F5CA89B885F6}" name="保存フォルダーパス" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{EDEDFBDB-A6F3-441B-AA68-79FEE4009BFD}" name="結果" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{3A524577-2886-46D9-BDC3-73F7E697D198}" name="フォルダー名" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{FAB26460-45C9-47D7-93FB-35118D5F4DF0}" name="キュー名" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{C455FEB9-1F4C-4FD2-9BC3-F5CA89B885F6}" name="保存フォルダーパス" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{EDEDFBDB-A6F3-441B-AA68-79FEE4009BFD}" name="結果" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C4F260B6-262D-46C1-B4D1-BCFC6884B63D}" name="Table1356" displayName="Table1356" ref="A1:E201" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C4F260B6-262D-46C1-B4D1-BCFC6884B63D}" name="Table1356" displayName="Table1356" ref="A1:E201" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="4" xr3:uid="{F1E05E03-DBDF-4491-9EE8-8A6B21F57814}" name="フォルダー名" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{E328AFBB-DF63-41AD-B11E-E7642D9A3121}" name="キュー名" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{56CE4921-90D7-421E-9313-6592D86EA9FB}" name="キューアイテム一覧のファイルパス" dataDxfId="4"/>
-    <tableColumn id="1" xr3:uid="{32C7ACF1-5123-4602-B742-646D45AF8932}" name="コミットの種類" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{835CC962-3DD4-4C84-9423-395F4642CE78}" name="結果" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{F1E05E03-DBDF-4491-9EE8-8A6B21F57814}" name="フォルダー名" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{E328AFBB-DF63-41AD-B11E-E7642D9A3121}" name="キュー名" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{56CE4921-90D7-421E-9313-6592D86EA9FB}" name="キューアイテム一覧のファイルパス" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{32C7ACF1-5123-4602-B742-646D45AF8932}" name="コミットの種類" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{835CC962-3DD4-4C84-9423-395F4642CE78}" name="結果" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>

--- a/Workbooks/JA/キュー.xlsx
+++ b/Workbooks/JA/キュー.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1705B9FC-5A23-4267-8D94-52A68D170E1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C073B30-28F8-47B5-951C-38F2B0994721}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1460,14 +1460,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.453125" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.54296875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13.26953125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="29.08984375" style="10" customWidth="1"/>
-    <col min="5" max="5" width="37.90625" style="10" customWidth="1"/>
-    <col min="6" max="6" width="13.54296875" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.7265625" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20" style="16" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" style="15" customWidth="1"/>
+    <col min="2" max="2" width="25.6328125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="25.6328125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="45.6328125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="25.6328125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="15.6328125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="25.6328125" style="16" customWidth="1"/>
     <col min="9" max="16384" width="8.7265625" style="10"/>
   </cols>
   <sheetData>
@@ -3530,14 +3530,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="18.453125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="19.81640625" style="5" customWidth="1"/>
-    <col min="3" max="3" width="28.36328125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="13.54296875" style="21" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.1796875" style="10" customWidth="1"/>
-    <col min="8" max="8" width="41.36328125" style="10" customWidth="1"/>
+    <col min="1" max="2" width="25.6328125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="45.6328125" style="21" customWidth="1"/>
+    <col min="4" max="4" width="25.6328125" style="21" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="25.6328125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="15.6328125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="45.6328125" style="10" customWidth="1"/>
     <col min="9" max="16384" width="8.7265625" style="10"/>
   </cols>
   <sheetData>
@@ -5598,11 +5597,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.90625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="13.81640625" style="10" customWidth="1"/>
-    <col min="4" max="4" width="24.453125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="46.26953125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="15.6328125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="25.6328125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="15.6328125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="25.6328125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="45.6328125" style="10" customWidth="1"/>
     <col min="6" max="16384" width="8.7265625" style="10"/>
   </cols>
   <sheetData>
@@ -7051,10 +7050,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20" style="5" customWidth="1"/>
-    <col min="2" max="2" width="22.90625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="22.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="48.26953125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="25.6328125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="25.6328125" style="10" customWidth="1"/>
+    <col min="3" max="4" width="45.6328125" style="10" customWidth="1"/>
     <col min="5" max="5" width="11.453125" style="10" customWidth="1"/>
     <col min="6" max="16384" width="8.7265625" style="10"/>
   </cols>
@@ -8292,11 +8290,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="20" style="5" customWidth="1"/>
-    <col min="2" max="2" width="22.90625" style="10" customWidth="1"/>
-    <col min="3" max="3" width="37.08984375" style="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.81640625" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.6328125" style="10" customWidth="1"/>
+    <col min="1" max="1" width="25.6328125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="25.6328125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="45.6328125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="25.6328125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="45.6328125" style="10" customWidth="1"/>
     <col min="6" max="16384" width="8.7265625" style="10"/>
   </cols>
   <sheetData>

--- a/Workbooks/JA/キュー.xlsx
+++ b/Workbooks/JA/キュー.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C073B30-28F8-47B5-951C-38F2B0994721}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966A367A-EE8B-4292-8D8C-650687A7BFC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -1460,13 +1460,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="16.7265625" style="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.6328125" style="5" customWidth="1"/>
     <col min="3" max="3" width="15.6328125" style="15" customWidth="1"/>
     <col min="4" max="4" width="25.6328125" style="10" customWidth="1"/>
     <col min="5" max="5" width="45.6328125" style="10" customWidth="1"/>
     <col min="6" max="6" width="25.6328125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="15.6328125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="17.26953125" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.6328125" style="16" customWidth="1"/>
     <col min="9" max="16384" width="8.7265625" style="10"/>
   </cols>
@@ -3533,7 +3533,7 @@
     <col min="1" max="2" width="25.6328125" style="5" customWidth="1"/>
     <col min="3" max="3" width="45.6328125" style="21" customWidth="1"/>
     <col min="4" max="4" width="25.6328125" style="21" customWidth="1"/>
-    <col min="5" max="5" width="15.6328125" style="5" customWidth="1"/>
+    <col min="5" max="5" width="17.26953125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.6328125" style="10" customWidth="1"/>
     <col min="7" max="7" width="15.6328125" style="10" customWidth="1"/>
     <col min="8" max="8" width="45.6328125" style="10" customWidth="1"/>
@@ -5597,7 +5597,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="15.6328125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="16.7265625" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.6328125" style="10" customWidth="1"/>
     <col min="3" max="3" width="15.6328125" style="10" customWidth="1"/>
     <col min="4" max="4" width="25.6328125" style="10" customWidth="1"/>

--- a/Workbooks/JA/キュー.xlsx
+++ b/Workbooks/JA/キュー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{966A367A-EE8B-4292-8D8C-650687A7BFC8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E359980B-22B7-44A3-B040-9862B7A379BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -117,7 +117,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -220,19 +220,6 @@
     </border>
     <border>
       <left style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.34998626667073579"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color theme="5"/>
       </left>
       <right style="thin">
@@ -259,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -291,12 +278,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -315,7 +296,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -324,7 +305,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1458,20 +1439,20 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" style="15" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6328125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="25.6328125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="45.6328125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="25.6328125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="17.26953125" style="10" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="25.6328125" style="16" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="10"/>
+    <col min="1" max="1" width="16.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="13" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="45.5703125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="25.5703125" style="14" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>11</v>
       </c>
@@ -1497,17 +1478,17 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="11"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="11"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="8"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8"/>
       <c r="B3" s="1"/>
       <c r="C3" s="8"/>
@@ -1517,7 +1498,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8"/>
       <c r="B4" s="1"/>
       <c r="C4" s="8"/>
@@ -1527,7 +1508,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="8"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8"/>
       <c r="B5" s="1"/>
       <c r="C5" s="8"/>
@@ -1537,7 +1518,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="8"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="1"/>
       <c r="C6" s="8"/>
@@ -1547,7 +1528,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="8"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="8"/>
       <c r="B7" s="1"/>
       <c r="C7" s="8"/>
@@ -1557,7 +1538,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="8"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="1"/>
       <c r="C8" s="8"/>
@@ -1567,7 +1548,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="8"/>
       <c r="B9" s="1"/>
       <c r="C9" s="8"/>
@@ -1577,7 +1558,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="8"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="8"/>
       <c r="B10" s="1"/>
       <c r="C10" s="8"/>
@@ -1587,7 +1568,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="8"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="1"/>
       <c r="C11" s="8"/>
@@ -1597,7 +1578,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="8"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="8"/>
       <c r="B12" s="1"/>
       <c r="C12" s="8"/>
@@ -1607,7 +1588,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="8"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="1"/>
       <c r="C13" s="8"/>
@@ -1617,7 +1598,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="1"/>
       <c r="C14" s="8"/>
@@ -1627,7 +1608,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="8"/>
       <c r="B15" s="1"/>
       <c r="C15" s="8"/>
@@ -1635,9 +1616,9 @@
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
-      <c r="H15" s="13"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="8"/>
       <c r="B16" s="1"/>
       <c r="C16" s="8"/>
@@ -1645,9 +1626,9 @@
       <c r="E16" s="1"/>
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
-      <c r="H16" s="13"/>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H16" s="11"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="1"/>
       <c r="C17" s="8"/>
@@ -1655,9 +1636,9 @@
       <c r="E17" s="1"/>
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
-      <c r="H17" s="13"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="1"/>
       <c r="C18" s="8"/>
@@ -1665,9 +1646,9 @@
       <c r="E18" s="1"/>
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
-      <c r="H18" s="13"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H18" s="11"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="1"/>
       <c r="C19" s="8"/>
@@ -1675,9 +1656,9 @@
       <c r="E19" s="1"/>
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
-      <c r="H19" s="13"/>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H19" s="11"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="1"/>
       <c r="C20" s="8"/>
@@ -1685,9 +1666,9 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
-      <c r="H20" s="13"/>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H20" s="11"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="8"/>
       <c r="B21" s="1"/>
       <c r="C21" s="8"/>
@@ -1695,9 +1676,9 @@
       <c r="E21" s="1"/>
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
-      <c r="H21" s="13"/>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H21" s="11"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="1"/>
       <c r="C22" s="8"/>
@@ -1705,9 +1686,9 @@
       <c r="E22" s="1"/>
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
-      <c r="H22" s="13"/>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H22" s="11"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="8"/>
       <c r="B23" s="1"/>
       <c r="C23" s="8"/>
@@ -1715,9 +1696,9 @@
       <c r="E23" s="1"/>
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
-      <c r="H23" s="13"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H23" s="11"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="1"/>
       <c r="C24" s="8"/>
@@ -1725,9 +1706,9 @@
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
-      <c r="H24" s="13"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H24" s="11"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="8"/>
       <c r="B25" s="1"/>
       <c r="C25" s="8"/>
@@ -1735,9 +1716,9 @@
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
-      <c r="H25" s="13"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H25" s="11"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="1"/>
       <c r="C26" s="8"/>
@@ -1745,9 +1726,9 @@
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
-      <c r="H26" s="13"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H26" s="11"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="8"/>
       <c r="B27" s="1"/>
       <c r="C27" s="8"/>
@@ -1755,9 +1736,9 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
-      <c r="H27" s="13"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H27" s="11"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="1"/>
       <c r="C28" s="8"/>
@@ -1765,9 +1746,9 @@
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
       <c r="G28" s="1"/>
-      <c r="H28" s="13"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H28" s="11"/>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="8"/>
       <c r="B29" s="1"/>
       <c r="C29" s="8"/>
@@ -1775,9 +1756,9 @@
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
       <c r="G29" s="1"/>
-      <c r="H29" s="13"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H29" s="11"/>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="8"/>
       <c r="B30" s="1"/>
       <c r="C30" s="8"/>
@@ -1785,9 +1766,9 @@
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
       <c r="G30" s="1"/>
-      <c r="H30" s="13"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H30" s="11"/>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="1"/>
       <c r="C31" s="8"/>
@@ -1795,9 +1776,9 @@
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
       <c r="G31" s="1"/>
-      <c r="H31" s="13"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H31" s="11"/>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="8"/>
       <c r="B32" s="1"/>
       <c r="C32" s="8"/>
@@ -1805,9 +1786,9 @@
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
-      <c r="H32" s="13"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H32" s="11"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="1"/>
       <c r="C33" s="8"/>
@@ -1815,9 +1796,9 @@
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
       <c r="G33" s="1"/>
-      <c r="H33" s="13"/>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H33" s="11"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="8"/>
       <c r="B34" s="1"/>
       <c r="C34" s="8"/>
@@ -1825,9 +1806,9 @@
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
       <c r="G34" s="1"/>
-      <c r="H34" s="13"/>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H34" s="11"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="1"/>
       <c r="C35" s="8"/>
@@ -1835,9 +1816,9 @@
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
-      <c r="H35" s="13"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H35" s="11"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="8"/>
       <c r="B36" s="1"/>
       <c r="C36" s="8"/>
@@ -1845,9 +1826,9 @@
       <c r="E36" s="1"/>
       <c r="F36" s="1"/>
       <c r="G36" s="1"/>
-      <c r="H36" s="13"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H36" s="11"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="1"/>
       <c r="C37" s="8"/>
@@ -1855,9 +1836,9 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1"/>
-      <c r="H37" s="13"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H37" s="11"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="8"/>
       <c r="B38" s="1"/>
       <c r="C38" s="8"/>
@@ -1865,9 +1846,9 @@
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
       <c r="G38" s="1"/>
-      <c r="H38" s="13"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H38" s="11"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="1"/>
       <c r="C39" s="8"/>
@@ -1875,9 +1856,9 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="1"/>
-      <c r="H39" s="13"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H39" s="11"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="8"/>
       <c r="B40" s="1"/>
       <c r="C40" s="8"/>
@@ -1885,9 +1866,9 @@
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
       <c r="G40" s="1"/>
-      <c r="H40" s="13"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H40" s="11"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="8"/>
       <c r="B41" s="1"/>
       <c r="C41" s="8"/>
@@ -1895,9 +1876,9 @@
       <c r="E41" s="1"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
-      <c r="H41" s="13"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H41" s="11"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="1"/>
       <c r="C42" s="8"/>
@@ -1905,9 +1886,9 @@
       <c r="E42" s="1"/>
       <c r="F42" s="1"/>
       <c r="G42" s="1"/>
-      <c r="H42" s="13"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H42" s="11"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="8"/>
       <c r="B43" s="1"/>
       <c r="C43" s="8"/>
@@ -1915,9 +1896,9 @@
       <c r="E43" s="1"/>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
-      <c r="H43" s="13"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H43" s="11"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="1"/>
       <c r="C44" s="8"/>
@@ -1925,9 +1906,9 @@
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1"/>
-      <c r="H44" s="13"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H44" s="11"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="8"/>
       <c r="B45" s="1"/>
       <c r="C45" s="8"/>
@@ -1935,9 +1916,9 @@
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1"/>
-      <c r="H45" s="13"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H45" s="11"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="1"/>
       <c r="C46" s="8"/>
@@ -1945,9 +1926,9 @@
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1"/>
-      <c r="H46" s="13"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H46" s="11"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="8"/>
       <c r="B47" s="1"/>
       <c r="C47" s="8"/>
@@ -1955,9 +1936,9 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1"/>
-      <c r="H47" s="13"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H47" s="11"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="1"/>
       <c r="C48" s="8"/>
@@ -1965,9 +1946,9 @@
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1"/>
-      <c r="H48" s="13"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H48" s="11"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="8"/>
       <c r="B49" s="1"/>
       <c r="C49" s="8"/>
@@ -1975,9 +1956,9 @@
       <c r="E49" s="1"/>
       <c r="F49" s="1"/>
       <c r="G49" s="1"/>
-      <c r="H49" s="13"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H49" s="11"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="8"/>
       <c r="B50" s="1"/>
       <c r="C50" s="8"/>
@@ -1985,9 +1966,9 @@
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
       <c r="G50" s="1"/>
-      <c r="H50" s="13"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H50" s="11"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="8"/>
       <c r="B51" s="1"/>
       <c r="C51" s="8"/>
@@ -1995,9 +1976,9 @@
       <c r="E51" s="1"/>
       <c r="F51" s="1"/>
       <c r="G51" s="1"/>
-      <c r="H51" s="13"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H51" s="11"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="8"/>
       <c r="B52" s="1"/>
       <c r="C52" s="8"/>
@@ -2005,9 +1986,9 @@
       <c r="E52" s="1"/>
       <c r="F52" s="1"/>
       <c r="G52" s="1"/>
-      <c r="H52" s="13"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H52" s="11"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="8"/>
       <c r="B53" s="1"/>
       <c r="C53" s="8"/>
@@ -2015,9 +1996,9 @@
       <c r="E53" s="1"/>
       <c r="F53" s="1"/>
       <c r="G53" s="1"/>
-      <c r="H53" s="13"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H53" s="11"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="8"/>
       <c r="B54" s="1"/>
       <c r="C54" s="8"/>
@@ -2025,9 +2006,9 @@
       <c r="E54" s="1"/>
       <c r="F54" s="1"/>
       <c r="G54" s="1"/>
-      <c r="H54" s="13"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H54" s="11"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="8"/>
       <c r="B55" s="1"/>
       <c r="C55" s="8"/>
@@ -2035,9 +2016,9 @@
       <c r="E55" s="1"/>
       <c r="F55" s="1"/>
       <c r="G55" s="1"/>
-      <c r="H55" s="13"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H55" s="11"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="8"/>
       <c r="B56" s="1"/>
       <c r="C56" s="8"/>
@@ -2045,9 +2026,9 @@
       <c r="E56" s="1"/>
       <c r="F56" s="1"/>
       <c r="G56" s="1"/>
-      <c r="H56" s="13"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H56" s="11"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="8"/>
       <c r="B57" s="1"/>
       <c r="C57" s="8"/>
@@ -2055,9 +2036,9 @@
       <c r="E57" s="1"/>
       <c r="F57" s="1"/>
       <c r="G57" s="1"/>
-      <c r="H57" s="13"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H57" s="11"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="8"/>
       <c r="B58" s="1"/>
       <c r="C58" s="8"/>
@@ -2065,9 +2046,9 @@
       <c r="E58" s="1"/>
       <c r="F58" s="1"/>
       <c r="G58" s="1"/>
-      <c r="H58" s="13"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H58" s="11"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="8"/>
       <c r="B59" s="1"/>
       <c r="C59" s="8"/>
@@ -2075,9 +2056,9 @@
       <c r="E59" s="1"/>
       <c r="F59" s="1"/>
       <c r="G59" s="1"/>
-      <c r="H59" s="13"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H59" s="11"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="8"/>
       <c r="B60" s="1"/>
       <c r="C60" s="8"/>
@@ -2085,9 +2066,9 @@
       <c r="E60" s="1"/>
       <c r="F60" s="1"/>
       <c r="G60" s="1"/>
-      <c r="H60" s="13"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H60" s="11"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="8"/>
       <c r="B61" s="1"/>
       <c r="C61" s="8"/>
@@ -2095,9 +2076,9 @@
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1"/>
-      <c r="H61" s="13"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H61" s="11"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="8"/>
       <c r="B62" s="1"/>
       <c r="C62" s="8"/>
@@ -2105,9 +2086,9 @@
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
       <c r="G62" s="1"/>
-      <c r="H62" s="13"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H62" s="11"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="8"/>
       <c r="B63" s="1"/>
       <c r="C63" s="8"/>
@@ -2115,9 +2096,9 @@
       <c r="E63" s="1"/>
       <c r="F63" s="1"/>
       <c r="G63" s="1"/>
-      <c r="H63" s="13"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H63" s="11"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="8"/>
       <c r="B64" s="1"/>
       <c r="C64" s="8"/>
@@ -2125,9 +2106,9 @@
       <c r="E64" s="1"/>
       <c r="F64" s="1"/>
       <c r="G64" s="1"/>
-      <c r="H64" s="13"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H64" s="11"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="8"/>
       <c r="B65" s="1"/>
       <c r="C65" s="8"/>
@@ -2135,9 +2116,9 @@
       <c r="E65" s="1"/>
       <c r="F65" s="1"/>
       <c r="G65" s="1"/>
-      <c r="H65" s="13"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H65" s="11"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="8"/>
       <c r="B66" s="1"/>
       <c r="C66" s="8"/>
@@ -2145,9 +2126,9 @@
       <c r="E66" s="1"/>
       <c r="F66" s="1"/>
       <c r="G66" s="1"/>
-      <c r="H66" s="13"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H66" s="11"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="8"/>
       <c r="B67" s="1"/>
       <c r="C67" s="8"/>
@@ -2155,9 +2136,9 @@
       <c r="E67" s="1"/>
       <c r="F67" s="1"/>
       <c r="G67" s="1"/>
-      <c r="H67" s="13"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H67" s="11"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="8"/>
       <c r="B68" s="1"/>
       <c r="C68" s="8"/>
@@ -2165,9 +2146,9 @@
       <c r="E68" s="1"/>
       <c r="F68" s="1"/>
       <c r="G68" s="1"/>
-      <c r="H68" s="13"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H68" s="11"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="8"/>
       <c r="B69" s="1"/>
       <c r="C69" s="8"/>
@@ -2175,9 +2156,9 @@
       <c r="E69" s="1"/>
       <c r="F69" s="1"/>
       <c r="G69" s="1"/>
-      <c r="H69" s="13"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H69" s="11"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="8"/>
       <c r="B70" s="1"/>
       <c r="C70" s="8"/>
@@ -2185,9 +2166,9 @@
       <c r="E70" s="1"/>
       <c r="F70" s="1"/>
       <c r="G70" s="1"/>
-      <c r="H70" s="13"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H70" s="11"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="8"/>
       <c r="B71" s="1"/>
       <c r="C71" s="8"/>
@@ -2195,9 +2176,9 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1"/>
-      <c r="H71" s="13"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H71" s="11"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="8"/>
       <c r="B72" s="1"/>
       <c r="C72" s="8"/>
@@ -2205,9 +2186,9 @@
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1"/>
-      <c r="H72" s="13"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H72" s="11"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="8"/>
       <c r="B73" s="1"/>
       <c r="C73" s="8"/>
@@ -2215,9 +2196,9 @@
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
       <c r="G73" s="1"/>
-      <c r="H73" s="13"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H73" s="11"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="8"/>
       <c r="B74" s="1"/>
       <c r="C74" s="8"/>
@@ -2225,9 +2206,9 @@
       <c r="E74" s="1"/>
       <c r="F74" s="1"/>
       <c r="G74" s="1"/>
-      <c r="H74" s="13"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H74" s="11"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="8"/>
       <c r="B75" s="1"/>
       <c r="C75" s="8"/>
@@ -2235,9 +2216,9 @@
       <c r="E75" s="1"/>
       <c r="F75" s="1"/>
       <c r="G75" s="1"/>
-      <c r="H75" s="13"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H75" s="11"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="8"/>
       <c r="B76" s="1"/>
       <c r="C76" s="8"/>
@@ -2245,9 +2226,9 @@
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
       <c r="G76" s="1"/>
-      <c r="H76" s="13"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H76" s="11"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="8"/>
       <c r="B77" s="1"/>
       <c r="C77" s="8"/>
@@ -2255,9 +2236,9 @@
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
       <c r="G77" s="1"/>
-      <c r="H77" s="13"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H77" s="11"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="8"/>
       <c r="B78" s="1"/>
       <c r="C78" s="8"/>
@@ -2265,9 +2246,9 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1"/>
-      <c r="H78" s="13"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H78" s="11"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="8"/>
       <c r="B79" s="1"/>
       <c r="C79" s="8"/>
@@ -2275,9 +2256,9 @@
       <c r="E79" s="1"/>
       <c r="F79" s="1"/>
       <c r="G79" s="1"/>
-      <c r="H79" s="13"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H79" s="11"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="8"/>
       <c r="B80" s="1"/>
       <c r="C80" s="8"/>
@@ -2285,9 +2266,9 @@
       <c r="E80" s="1"/>
       <c r="F80" s="1"/>
       <c r="G80" s="1"/>
-      <c r="H80" s="13"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H80" s="11"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="8"/>
       <c r="B81" s="1"/>
       <c r="C81" s="8"/>
@@ -2295,9 +2276,9 @@
       <c r="E81" s="1"/>
       <c r="F81" s="1"/>
       <c r="G81" s="1"/>
-      <c r="H81" s="13"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H81" s="11"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="8"/>
       <c r="B82" s="1"/>
       <c r="C82" s="8"/>
@@ -2305,9 +2286,9 @@
       <c r="E82" s="1"/>
       <c r="F82" s="1"/>
       <c r="G82" s="1"/>
-      <c r="H82" s="13"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H82" s="11"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="8"/>
       <c r="B83" s="1"/>
       <c r="C83" s="8"/>
@@ -2315,9 +2296,9 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="1"/>
-      <c r="H83" s="13"/>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H83" s="11"/>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="8"/>
       <c r="B84" s="1"/>
       <c r="C84" s="8"/>
@@ -2325,9 +2306,9 @@
       <c r="E84" s="1"/>
       <c r="F84" s="1"/>
       <c r="G84" s="1"/>
-      <c r="H84" s="13"/>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H84" s="11"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="8"/>
       <c r="B85" s="1"/>
       <c r="C85" s="8"/>
@@ -2335,9 +2316,9 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1"/>
-      <c r="H85" s="13"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H85" s="11"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="8"/>
       <c r="B86" s="1"/>
       <c r="C86" s="8"/>
@@ -2345,9 +2326,9 @@
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
       <c r="G86" s="1"/>
-      <c r="H86" s="13"/>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H86" s="11"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="8"/>
       <c r="B87" s="1"/>
       <c r="C87" s="8"/>
@@ -2355,9 +2336,9 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1"/>
-      <c r="H87" s="13"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H87" s="11"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="8"/>
       <c r="B88" s="1"/>
       <c r="C88" s="8"/>
@@ -2365,9 +2346,9 @@
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1"/>
-      <c r="H88" s="13"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H88" s="11"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="8"/>
       <c r="B89" s="1"/>
       <c r="C89" s="8"/>
@@ -2375,9 +2356,9 @@
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
       <c r="G89" s="1"/>
-      <c r="H89" s="13"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H89" s="11"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="8"/>
       <c r="B90" s="1"/>
       <c r="C90" s="8"/>
@@ -2385,9 +2366,9 @@
       <c r="E90" s="1"/>
       <c r="F90" s="1"/>
       <c r="G90" s="1"/>
-      <c r="H90" s="13"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H90" s="11"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="8"/>
       <c r="B91" s="1"/>
       <c r="C91" s="8"/>
@@ -2395,9 +2376,9 @@
       <c r="E91" s="1"/>
       <c r="F91" s="1"/>
       <c r="G91" s="1"/>
-      <c r="H91" s="13"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H91" s="11"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="8"/>
       <c r="B92" s="1"/>
       <c r="C92" s="8"/>
@@ -2405,9 +2386,9 @@
       <c r="E92" s="1"/>
       <c r="F92" s="1"/>
       <c r="G92" s="1"/>
-      <c r="H92" s="13"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H92" s="11"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="8"/>
       <c r="B93" s="1"/>
       <c r="C93" s="8"/>
@@ -2415,9 +2396,9 @@
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
       <c r="G93" s="1"/>
-      <c r="H93" s="13"/>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H93" s="11"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="8"/>
       <c r="B94" s="1"/>
       <c r="C94" s="8"/>
@@ -2425,9 +2406,9 @@
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
       <c r="G94" s="1"/>
-      <c r="H94" s="13"/>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H94" s="11"/>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="8"/>
       <c r="B95" s="1"/>
       <c r="C95" s="8"/>
@@ -2435,9 +2416,9 @@
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
       <c r="G95" s="1"/>
-      <c r="H95" s="13"/>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H95" s="11"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="8"/>
       <c r="B96" s="1"/>
       <c r="C96" s="8"/>
@@ -2445,9 +2426,9 @@
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
-      <c r="H96" s="13"/>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H96" s="11"/>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="8"/>
       <c r="B97" s="1"/>
       <c r="C97" s="8"/>
@@ -2455,9 +2436,9 @@
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
       <c r="G97" s="1"/>
-      <c r="H97" s="13"/>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H97" s="11"/>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="8"/>
       <c r="B98" s="1"/>
       <c r="C98" s="8"/>
@@ -2465,9 +2446,9 @@
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
       <c r="G98" s="1"/>
-      <c r="H98" s="13"/>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H98" s="11"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="8"/>
       <c r="B99" s="1"/>
       <c r="C99" s="8"/>
@@ -2475,9 +2456,9 @@
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1"/>
-      <c r="H99" s="13"/>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H99" s="11"/>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="8"/>
       <c r="B100" s="1"/>
       <c r="C100" s="8"/>
@@ -2485,9 +2466,9 @@
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
       <c r="G100" s="1"/>
-      <c r="H100" s="13"/>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H100" s="11"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="8"/>
       <c r="B101" s="1"/>
       <c r="C101" s="8"/>
@@ -2495,9 +2476,9 @@
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
       <c r="G101" s="1"/>
-      <c r="H101" s="13"/>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H101" s="11"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="8"/>
       <c r="B102" s="1"/>
       <c r="C102" s="8"/>
@@ -2507,7 +2488,7 @@
       <c r="G102" s="1"/>
       <c r="H102" s="8"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="8"/>
       <c r="B103" s="1"/>
       <c r="C103" s="8"/>
@@ -2517,7 +2498,7 @@
       <c r="G103" s="1"/>
       <c r="H103" s="8"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="8"/>
       <c r="B104" s="1"/>
       <c r="C104" s="8"/>
@@ -2527,7 +2508,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="8"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="8"/>
       <c r="B105" s="1"/>
       <c r="C105" s="8"/>
@@ -2537,7 +2518,7 @@
       <c r="G105" s="1"/>
       <c r="H105" s="8"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="8"/>
       <c r="B106" s="1"/>
       <c r="C106" s="8"/>
@@ -2547,7 +2528,7 @@
       <c r="G106" s="1"/>
       <c r="H106" s="8"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="8"/>
       <c r="B107" s="1"/>
       <c r="C107" s="8"/>
@@ -2557,7 +2538,7 @@
       <c r="G107" s="1"/>
       <c r="H107" s="8"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="8"/>
       <c r="B108" s="1"/>
       <c r="C108" s="8"/>
@@ -2567,7 +2548,7 @@
       <c r="G108" s="1"/>
       <c r="H108" s="8"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="8"/>
       <c r="B109" s="1"/>
       <c r="C109" s="8"/>
@@ -2577,7 +2558,7 @@
       <c r="G109" s="1"/>
       <c r="H109" s="8"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="8"/>
       <c r="B110" s="1"/>
       <c r="C110" s="8"/>
@@ -2587,7 +2568,7 @@
       <c r="G110" s="1"/>
       <c r="H110" s="8"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="8"/>
       <c r="B111" s="1"/>
       <c r="C111" s="8"/>
@@ -2597,7 +2578,7 @@
       <c r="G111" s="1"/>
       <c r="H111" s="8"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="8"/>
       <c r="B112" s="1"/>
       <c r="C112" s="8"/>
@@ -2607,7 +2588,7 @@
       <c r="G112" s="1"/>
       <c r="H112" s="8"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="8"/>
       <c r="B113" s="1"/>
       <c r="C113" s="8"/>
@@ -2617,7 +2598,7 @@
       <c r="G113" s="1"/>
       <c r="H113" s="8"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="8"/>
       <c r="B114" s="1"/>
       <c r="C114" s="8"/>
@@ -2627,7 +2608,7 @@
       <c r="G114" s="1"/>
       <c r="H114" s="8"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="8"/>
       <c r="B115" s="1"/>
       <c r="C115" s="8"/>
@@ -2637,7 +2618,7 @@
       <c r="G115" s="1"/>
       <c r="H115" s="8"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="8"/>
       <c r="B116" s="1"/>
       <c r="C116" s="8"/>
@@ -2647,7 +2628,7 @@
       <c r="G116" s="1"/>
       <c r="H116" s="8"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="8"/>
       <c r="B117" s="1"/>
       <c r="C117" s="8"/>
@@ -2657,7 +2638,7 @@
       <c r="G117" s="1"/>
       <c r="H117" s="8"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="8"/>
       <c r="B118" s="1"/>
       <c r="C118" s="8"/>
@@ -2667,7 +2648,7 @@
       <c r="G118" s="1"/>
       <c r="H118" s="8"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="8"/>
       <c r="B119" s="1"/>
       <c r="C119" s="8"/>
@@ -2677,7 +2658,7 @@
       <c r="G119" s="1"/>
       <c r="H119" s="8"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="8"/>
       <c r="B120" s="1"/>
       <c r="C120" s="8"/>
@@ -2687,7 +2668,7 @@
       <c r="G120" s="1"/>
       <c r="H120" s="8"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="8"/>
       <c r="B121" s="1"/>
       <c r="C121" s="8"/>
@@ -2697,7 +2678,7 @@
       <c r="G121" s="1"/>
       <c r="H121" s="8"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="8"/>
       <c r="B122" s="1"/>
       <c r="C122" s="8"/>
@@ -2707,7 +2688,7 @@
       <c r="G122" s="1"/>
       <c r="H122" s="8"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="8"/>
       <c r="B123" s="1"/>
       <c r="C123" s="8"/>
@@ -2717,7 +2698,7 @@
       <c r="G123" s="1"/>
       <c r="H123" s="8"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="8"/>
       <c r="B124" s="1"/>
       <c r="C124" s="8"/>
@@ -2727,7 +2708,7 @@
       <c r="G124" s="1"/>
       <c r="H124" s="8"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="8"/>
       <c r="B125" s="1"/>
       <c r="C125" s="8"/>
@@ -2737,7 +2718,7 @@
       <c r="G125" s="1"/>
       <c r="H125" s="8"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="8"/>
       <c r="B126" s="1"/>
       <c r="C126" s="8"/>
@@ -2747,7 +2728,7 @@
       <c r="G126" s="1"/>
       <c r="H126" s="8"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="8"/>
       <c r="B127" s="1"/>
       <c r="C127" s="8"/>
@@ -2757,7 +2738,7 @@
       <c r="G127" s="1"/>
       <c r="H127" s="8"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="8"/>
       <c r="B128" s="1"/>
       <c r="C128" s="8"/>
@@ -2767,7 +2748,7 @@
       <c r="G128" s="1"/>
       <c r="H128" s="8"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="8"/>
       <c r="B129" s="1"/>
       <c r="C129" s="8"/>
@@ -2777,7 +2758,7 @@
       <c r="G129" s="1"/>
       <c r="H129" s="8"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="8"/>
       <c r="B130" s="1"/>
       <c r="C130" s="8"/>
@@ -2787,7 +2768,7 @@
       <c r="G130" s="1"/>
       <c r="H130" s="8"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="8"/>
       <c r="B131" s="1"/>
       <c r="C131" s="8"/>
@@ -2797,7 +2778,7 @@
       <c r="G131" s="1"/>
       <c r="H131" s="8"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="8"/>
       <c r="B132" s="1"/>
       <c r="C132" s="8"/>
@@ -2807,7 +2788,7 @@
       <c r="G132" s="1"/>
       <c r="H132" s="8"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="8"/>
       <c r="B133" s="1"/>
       <c r="C133" s="8"/>
@@ -2817,7 +2798,7 @@
       <c r="G133" s="1"/>
       <c r="H133" s="8"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="8"/>
       <c r="B134" s="1"/>
       <c r="C134" s="8"/>
@@ -2827,7 +2808,7 @@
       <c r="G134" s="1"/>
       <c r="H134" s="8"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="8"/>
       <c r="B135" s="1"/>
       <c r="C135" s="8"/>
@@ -2837,7 +2818,7 @@
       <c r="G135" s="1"/>
       <c r="H135" s="8"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="8"/>
       <c r="B136" s="1"/>
       <c r="C136" s="8"/>
@@ -2847,7 +2828,7 @@
       <c r="G136" s="1"/>
       <c r="H136" s="8"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="8"/>
       <c r="B137" s="1"/>
       <c r="C137" s="8"/>
@@ -2857,7 +2838,7 @@
       <c r="G137" s="1"/>
       <c r="H137" s="8"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="8"/>
       <c r="B138" s="1"/>
       <c r="C138" s="8"/>
@@ -2867,7 +2848,7 @@
       <c r="G138" s="1"/>
       <c r="H138" s="8"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="8"/>
       <c r="B139" s="1"/>
       <c r="C139" s="8"/>
@@ -2877,7 +2858,7 @@
       <c r="G139" s="1"/>
       <c r="H139" s="8"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="8"/>
       <c r="B140" s="1"/>
       <c r="C140" s="8"/>
@@ -2887,7 +2868,7 @@
       <c r="G140" s="1"/>
       <c r="H140" s="8"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="8"/>
       <c r="B141" s="1"/>
       <c r="C141" s="8"/>
@@ -2897,7 +2878,7 @@
       <c r="G141" s="1"/>
       <c r="H141" s="8"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="8"/>
       <c r="B142" s="1"/>
       <c r="C142" s="8"/>
@@ -2907,7 +2888,7 @@
       <c r="G142" s="1"/>
       <c r="H142" s="8"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="8"/>
       <c r="B143" s="1"/>
       <c r="C143" s="8"/>
@@ -2917,7 +2898,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="8"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="8"/>
       <c r="B144" s="1"/>
       <c r="C144" s="8"/>
@@ -2927,7 +2908,7 @@
       <c r="G144" s="1"/>
       <c r="H144" s="8"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="8"/>
       <c r="B145" s="1"/>
       <c r="C145" s="8"/>
@@ -2937,7 +2918,7 @@
       <c r="G145" s="1"/>
       <c r="H145" s="8"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="8"/>
       <c r="B146" s="1"/>
       <c r="C146" s="8"/>
@@ -2947,7 +2928,7 @@
       <c r="G146" s="1"/>
       <c r="H146" s="8"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="8"/>
       <c r="B147" s="1"/>
       <c r="C147" s="8"/>
@@ -2957,7 +2938,7 @@
       <c r="G147" s="1"/>
       <c r="H147" s="8"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="8"/>
       <c r="B148" s="1"/>
       <c r="C148" s="8"/>
@@ -2967,7 +2948,7 @@
       <c r="G148" s="1"/>
       <c r="H148" s="8"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="8"/>
       <c r="B149" s="1"/>
       <c r="C149" s="8"/>
@@ -2977,7 +2958,7 @@
       <c r="G149" s="1"/>
       <c r="H149" s="8"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="8"/>
       <c r="B150" s="1"/>
       <c r="C150" s="8"/>
@@ -2987,7 +2968,7 @@
       <c r="G150" s="1"/>
       <c r="H150" s="8"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="8"/>
       <c r="B151" s="1"/>
       <c r="C151" s="8"/>
@@ -2997,7 +2978,7 @@
       <c r="G151" s="1"/>
       <c r="H151" s="8"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="8"/>
       <c r="B152" s="1"/>
       <c r="C152" s="8"/>
@@ -3007,7 +2988,7 @@
       <c r="G152" s="1"/>
       <c r="H152" s="8"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="8"/>
       <c r="B153" s="1"/>
       <c r="C153" s="8"/>
@@ -3017,7 +2998,7 @@
       <c r="G153" s="1"/>
       <c r="H153" s="8"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="8"/>
       <c r="B154" s="1"/>
       <c r="C154" s="8"/>
@@ -3027,7 +3008,7 @@
       <c r="G154" s="1"/>
       <c r="H154" s="8"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="8"/>
       <c r="B155" s="1"/>
       <c r="C155" s="8"/>
@@ -3037,7 +3018,7 @@
       <c r="G155" s="1"/>
       <c r="H155" s="8"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="8"/>
       <c r="B156" s="1"/>
       <c r="C156" s="8"/>
@@ -3047,7 +3028,7 @@
       <c r="G156" s="1"/>
       <c r="H156" s="8"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="8"/>
       <c r="B157" s="1"/>
       <c r="C157" s="8"/>
@@ -3057,7 +3038,7 @@
       <c r="G157" s="1"/>
       <c r="H157" s="8"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="8"/>
       <c r="B158" s="1"/>
       <c r="C158" s="8"/>
@@ -3067,7 +3048,7 @@
       <c r="G158" s="1"/>
       <c r="H158" s="8"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="8"/>
       <c r="B159" s="1"/>
       <c r="C159" s="8"/>
@@ -3077,7 +3058,7 @@
       <c r="G159" s="1"/>
       <c r="H159" s="8"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="8"/>
       <c r="B160" s="1"/>
       <c r="C160" s="8"/>
@@ -3087,7 +3068,7 @@
       <c r="G160" s="1"/>
       <c r="H160" s="8"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="8"/>
       <c r="B161" s="1"/>
       <c r="C161" s="8"/>
@@ -3097,7 +3078,7 @@
       <c r="G161" s="1"/>
       <c r="H161" s="8"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="8"/>
       <c r="B162" s="1"/>
       <c r="C162" s="8"/>
@@ -3107,7 +3088,7 @@
       <c r="G162" s="1"/>
       <c r="H162" s="8"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="8"/>
       <c r="B163" s="1"/>
       <c r="C163" s="8"/>
@@ -3117,7 +3098,7 @@
       <c r="G163" s="1"/>
       <c r="H163" s="8"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="8"/>
       <c r="B164" s="1"/>
       <c r="C164" s="8"/>
@@ -3127,7 +3108,7 @@
       <c r="G164" s="1"/>
       <c r="H164" s="8"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="8"/>
       <c r="B165" s="1"/>
       <c r="C165" s="8"/>
@@ -3137,7 +3118,7 @@
       <c r="G165" s="1"/>
       <c r="H165" s="8"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="8"/>
       <c r="B166" s="1"/>
       <c r="C166" s="8"/>
@@ -3147,7 +3128,7 @@
       <c r="G166" s="1"/>
       <c r="H166" s="8"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="8"/>
       <c r="B167" s="1"/>
       <c r="C167" s="8"/>
@@ -3157,7 +3138,7 @@
       <c r="G167" s="1"/>
       <c r="H167" s="8"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="8"/>
       <c r="B168" s="1"/>
       <c r="C168" s="8"/>
@@ -3167,7 +3148,7 @@
       <c r="G168" s="1"/>
       <c r="H168" s="8"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="8"/>
       <c r="B169" s="1"/>
       <c r="C169" s="8"/>
@@ -3177,7 +3158,7 @@
       <c r="G169" s="1"/>
       <c r="H169" s="8"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="8"/>
       <c r="B170" s="1"/>
       <c r="C170" s="8"/>
@@ -3187,7 +3168,7 @@
       <c r="G170" s="1"/>
       <c r="H170" s="8"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="8"/>
       <c r="B171" s="1"/>
       <c r="C171" s="8"/>
@@ -3197,7 +3178,7 @@
       <c r="G171" s="1"/>
       <c r="H171" s="8"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="8"/>
       <c r="B172" s="1"/>
       <c r="C172" s="8"/>
@@ -3207,7 +3188,7 @@
       <c r="G172" s="1"/>
       <c r="H172" s="8"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="8"/>
       <c r="B173" s="1"/>
       <c r="C173" s="8"/>
@@ -3217,7 +3198,7 @@
       <c r="G173" s="1"/>
       <c r="H173" s="8"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="8"/>
       <c r="B174" s="1"/>
       <c r="C174" s="8"/>
@@ -3227,7 +3208,7 @@
       <c r="G174" s="1"/>
       <c r="H174" s="8"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="8"/>
       <c r="B175" s="1"/>
       <c r="C175" s="8"/>
@@ -3237,7 +3218,7 @@
       <c r="G175" s="1"/>
       <c r="H175" s="8"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="8"/>
       <c r="B176" s="1"/>
       <c r="C176" s="8"/>
@@ -3247,7 +3228,7 @@
       <c r="G176" s="1"/>
       <c r="H176" s="8"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="8"/>
       <c r="B177" s="1"/>
       <c r="C177" s="8"/>
@@ -3257,7 +3238,7 @@
       <c r="G177" s="1"/>
       <c r="H177" s="8"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="8"/>
       <c r="B178" s="1"/>
       <c r="C178" s="8"/>
@@ -3267,7 +3248,7 @@
       <c r="G178" s="1"/>
       <c r="H178" s="8"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="8"/>
       <c r="B179" s="1"/>
       <c r="C179" s="8"/>
@@ -3277,7 +3258,7 @@
       <c r="G179" s="1"/>
       <c r="H179" s="8"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="8"/>
       <c r="B180" s="1"/>
       <c r="C180" s="8"/>
@@ -3287,7 +3268,7 @@
       <c r="G180" s="1"/>
       <c r="H180" s="8"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="8"/>
       <c r="B181" s="1"/>
       <c r="C181" s="8"/>
@@ -3297,7 +3278,7 @@
       <c r="G181" s="1"/>
       <c r="H181" s="8"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="8"/>
       <c r="B182" s="1"/>
       <c r="C182" s="8"/>
@@ -3307,7 +3288,7 @@
       <c r="G182" s="1"/>
       <c r="H182" s="8"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="8"/>
       <c r="B183" s="1"/>
       <c r="C183" s="8"/>
@@ -3317,7 +3298,7 @@
       <c r="G183" s="1"/>
       <c r="H183" s="8"/>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="8"/>
       <c r="B184" s="1"/>
       <c r="C184" s="8"/>
@@ -3327,7 +3308,7 @@
       <c r="G184" s="1"/>
       <c r="H184" s="8"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="8"/>
       <c r="B185" s="1"/>
       <c r="C185" s="8"/>
@@ -3337,7 +3318,7 @@
       <c r="G185" s="1"/>
       <c r="H185" s="8"/>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="8"/>
       <c r="B186" s="1"/>
       <c r="C186" s="8"/>
@@ -3347,7 +3328,7 @@
       <c r="G186" s="1"/>
       <c r="H186" s="8"/>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="8"/>
       <c r="B187" s="1"/>
       <c r="C187" s="8"/>
@@ -3357,7 +3338,7 @@
       <c r="G187" s="1"/>
       <c r="H187" s="8"/>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="8"/>
       <c r="B188" s="1"/>
       <c r="C188" s="8"/>
@@ -3367,7 +3348,7 @@
       <c r="G188" s="1"/>
       <c r="H188" s="8"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="8"/>
       <c r="B189" s="1"/>
       <c r="C189" s="8"/>
@@ -3377,7 +3358,7 @@
       <c r="G189" s="1"/>
       <c r="H189" s="8"/>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="8"/>
       <c r="B190" s="1"/>
       <c r="C190" s="8"/>
@@ -3387,7 +3368,7 @@
       <c r="G190" s="1"/>
       <c r="H190" s="8"/>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="8"/>
       <c r="B191" s="1"/>
       <c r="C191" s="8"/>
@@ -3397,7 +3378,7 @@
       <c r="G191" s="1"/>
       <c r="H191" s="8"/>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="8"/>
       <c r="B192" s="1"/>
       <c r="C192" s="8"/>
@@ -3407,7 +3388,7 @@
       <c r="G192" s="1"/>
       <c r="H192" s="8"/>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="8"/>
       <c r="B193" s="1"/>
       <c r="C193" s="8"/>
@@ -3417,7 +3398,7 @@
       <c r="G193" s="1"/>
       <c r="H193" s="8"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="8"/>
       <c r="B194" s="1"/>
       <c r="C194" s="8"/>
@@ -3427,7 +3408,7 @@
       <c r="G194" s="1"/>
       <c r="H194" s="8"/>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="8"/>
       <c r="B195" s="1"/>
       <c r="C195" s="8"/>
@@ -3437,7 +3418,7 @@
       <c r="G195" s="1"/>
       <c r="H195" s="8"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="8"/>
       <c r="B196" s="1"/>
       <c r="C196" s="8"/>
@@ -3447,7 +3428,7 @@
       <c r="G196" s="1"/>
       <c r="H196" s="8"/>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="8"/>
       <c r="B197" s="1"/>
       <c r="C197" s="8"/>
@@ -3457,7 +3438,7 @@
       <c r="G197" s="1"/>
       <c r="H197" s="8"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="8"/>
       <c r="B198" s="1"/>
       <c r="C198" s="8"/>
@@ -3467,7 +3448,7 @@
       <c r="G198" s="1"/>
       <c r="H198" s="8"/>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="8"/>
       <c r="B199" s="1"/>
       <c r="C199" s="8"/>
@@ -3475,9 +3456,9 @@
       <c r="E199" s="4"/>
       <c r="F199" s="4"/>
       <c r="G199" s="4"/>
-      <c r="H199" s="14"/>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="H199" s="12"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="8"/>
       <c r="B200" s="1"/>
       <c r="C200" s="8"/>
@@ -3487,10 +3468,10 @@
       <c r="G200" s="1"/>
       <c r="H200" s="8"/>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A201" s="14"/>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" s="12"/>
       <c r="B201" s="4"/>
-      <c r="C201" s="14"/>
+      <c r="C201" s="12"/>
       <c r="D201" s="1"/>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
@@ -3528,19 +3509,19 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="25.6328125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="45.6328125" style="21" customWidth="1"/>
-    <col min="4" max="4" width="25.6328125" style="21" customWidth="1"/>
-    <col min="5" max="5" width="17.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.6328125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="15.6328125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="45.6328125" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="8.7265625" style="10"/>
+    <col min="1" max="2" width="25.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.5703125" style="10" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="45.5703125" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="8.7109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -3559,15 +3540,15 @@
       <c r="F1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="19"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
       <c r="B2" s="2"/>
       <c r="C2" s="6"/>
       <c r="D2" s="2"/>
@@ -3576,7 +3557,7 @@
       <c r="G2" s="1"/>
       <c r="H2" s="3"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="6"/>
@@ -3586,7 +3567,7 @@
       <c r="G3" s="1"/>
       <c r="H3" s="3"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="6"/>
@@ -3596,7 +3577,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="3"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="6"/>
@@ -3606,7 +3587,7 @@
       <c r="G5" s="1"/>
       <c r="H5" s="3"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="6"/>
@@ -3616,7 +3597,7 @@
       <c r="G6" s="1"/>
       <c r="H6" s="3"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="6"/>
@@ -3626,7 +3607,7 @@
       <c r="G7" s="1"/>
       <c r="H7" s="3"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="6"/>
@@ -3636,7 +3617,7 @@
       <c r="G8" s="1"/>
       <c r="H8" s="3"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="6"/>
@@ -3646,7 +3627,7 @@
       <c r="G9" s="1"/>
       <c r="H9" s="3"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="6"/>
@@ -3656,7 +3637,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="3"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="6"/>
@@ -3666,7 +3647,7 @@
       <c r="G11" s="1"/>
       <c r="H11" s="3"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="6"/>
@@ -3676,7 +3657,7 @@
       <c r="G12" s="1"/>
       <c r="H12" s="3"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="6"/>
@@ -3686,7 +3667,7 @@
       <c r="G13" s="1"/>
       <c r="H13" s="3"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="6"/>
@@ -3696,7 +3677,7 @@
       <c r="G14" s="1"/>
       <c r="H14" s="3"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="6"/>
@@ -3706,7 +3687,7 @@
       <c r="G15" s="1"/>
       <c r="H15" s="3"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="6"/>
@@ -3716,7 +3697,7 @@
       <c r="G16" s="1"/>
       <c r="H16" s="3"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="6"/>
@@ -3726,7 +3707,7 @@
       <c r="G17" s="1"/>
       <c r="H17" s="3"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="6"/>
@@ -3736,7 +3717,7 @@
       <c r="G18" s="1"/>
       <c r="H18" s="3"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="6"/>
@@ -3746,7 +3727,7 @@
       <c r="G19" s="1"/>
       <c r="H19" s="3"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="6"/>
@@ -3756,7 +3737,7 @@
       <c r="G20" s="1"/>
       <c r="H20" s="3"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="6"/>
@@ -3766,7 +3747,7 @@
       <c r="G21" s="1"/>
       <c r="H21" s="3"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="6"/>
@@ -3776,7 +3757,7 @@
       <c r="G22" s="1"/>
       <c r="H22" s="3"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="6"/>
@@ -3786,7 +3767,7 @@
       <c r="G23" s="1"/>
       <c r="H23" s="3"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="6"/>
@@ -3796,7 +3777,7 @@
       <c r="G24" s="1"/>
       <c r="H24" s="3"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="6"/>
@@ -3806,7 +3787,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="3"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="6"/>
@@ -3816,7 +3797,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="3"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="6"/>
@@ -3826,7 +3807,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="3"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="6"/>
@@ -3836,7 +3817,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="3"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="6"/>
@@ -3846,7 +3827,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="3"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="6"/>
@@ -3856,7 +3837,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="3"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="6"/>
@@ -3866,7 +3847,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="3"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="6"/>
@@ -3876,7 +3857,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="3"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="6"/>
@@ -3886,7 +3867,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="3"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="6"/>
@@ -3896,7 +3877,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="3"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="6"/>
@@ -3906,7 +3887,7 @@
       <c r="G35" s="1"/>
       <c r="H35" s="3"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="6"/>
@@ -3916,7 +3897,7 @@
       <c r="G36" s="1"/>
       <c r="H36" s="3"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="6"/>
@@ -3926,7 +3907,7 @@
       <c r="G37" s="1"/>
       <c r="H37" s="3"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="6"/>
@@ -3936,7 +3917,7 @@
       <c r="G38" s="1"/>
       <c r="H38" s="3"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="6"/>
@@ -3946,7 +3927,7 @@
       <c r="G39" s="1"/>
       <c r="H39" s="3"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="6"/>
@@ -3956,7 +3937,7 @@
       <c r="G40" s="1"/>
       <c r="H40" s="3"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="6"/>
@@ -3966,7 +3947,7 @@
       <c r="G41" s="1"/>
       <c r="H41" s="3"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="6"/>
@@ -3976,7 +3957,7 @@
       <c r="G42" s="1"/>
       <c r="H42" s="3"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="6"/>
@@ -3986,7 +3967,7 @@
       <c r="G43" s="1"/>
       <c r="H43" s="3"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="6"/>
@@ -3996,7 +3977,7 @@
       <c r="G44" s="1"/>
       <c r="H44" s="3"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="6"/>
@@ -4006,7 +3987,7 @@
       <c r="G45" s="1"/>
       <c r="H45" s="3"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="6"/>
@@ -4016,7 +3997,7 @@
       <c r="G46" s="1"/>
       <c r="H46" s="3"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="6"/>
@@ -4026,7 +4007,7 @@
       <c r="G47" s="1"/>
       <c r="H47" s="3"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="6"/>
@@ -4036,7 +4017,7 @@
       <c r="G48" s="1"/>
       <c r="H48" s="3"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="6"/>
@@ -4046,7 +4027,7 @@
       <c r="G49" s="1"/>
       <c r="H49" s="3"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="6"/>
@@ -4056,7 +4037,7 @@
       <c r="G50" s="1"/>
       <c r="H50" s="3"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="6"/>
@@ -4066,7 +4047,7 @@
       <c r="G51" s="1"/>
       <c r="H51" s="3"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="6"/>
@@ -4076,7 +4057,7 @@
       <c r="G52" s="1"/>
       <c r="H52" s="3"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="6"/>
@@ -4086,7 +4067,7 @@
       <c r="G53" s="1"/>
       <c r="H53" s="3"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="6"/>
@@ -4096,7 +4077,7 @@
       <c r="G54" s="1"/>
       <c r="H54" s="3"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="6"/>
@@ -4106,7 +4087,7 @@
       <c r="G55" s="1"/>
       <c r="H55" s="3"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="6"/>
@@ -4116,7 +4097,7 @@
       <c r="G56" s="1"/>
       <c r="H56" s="3"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="6"/>
@@ -4126,7 +4107,7 @@
       <c r="G57" s="1"/>
       <c r="H57" s="3"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="6"/>
@@ -4136,7 +4117,7 @@
       <c r="G58" s="1"/>
       <c r="H58" s="3"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="6"/>
@@ -4146,7 +4127,7 @@
       <c r="G59" s="1"/>
       <c r="H59" s="3"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="6"/>
@@ -4156,7 +4137,7 @@
       <c r="G60" s="1"/>
       <c r="H60" s="3"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="6"/>
@@ -4166,7 +4147,7 @@
       <c r="G61" s="1"/>
       <c r="H61" s="3"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="6"/>
@@ -4176,7 +4157,7 @@
       <c r="G62" s="1"/>
       <c r="H62" s="3"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="6"/>
@@ -4186,7 +4167,7 @@
       <c r="G63" s="1"/>
       <c r="H63" s="3"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="6"/>
@@ -4196,7 +4177,7 @@
       <c r="G64" s="1"/>
       <c r="H64" s="3"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="6"/>
@@ -4206,7 +4187,7 @@
       <c r="G65" s="1"/>
       <c r="H65" s="3"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="6"/>
@@ -4216,7 +4197,7 @@
       <c r="G66" s="1"/>
       <c r="H66" s="3"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="6"/>
@@ -4226,7 +4207,7 @@
       <c r="G67" s="1"/>
       <c r="H67" s="3"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="6"/>
@@ -4236,7 +4217,7 @@
       <c r="G68" s="1"/>
       <c r="H68" s="3"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="6"/>
@@ -4246,7 +4227,7 @@
       <c r="G69" s="1"/>
       <c r="H69" s="3"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="6"/>
@@ -4256,7 +4237,7 @@
       <c r="G70" s="1"/>
       <c r="H70" s="3"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="6"/>
@@ -4266,7 +4247,7 @@
       <c r="G71" s="1"/>
       <c r="H71" s="3"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="6"/>
@@ -4276,7 +4257,7 @@
       <c r="G72" s="1"/>
       <c r="H72" s="3"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="6"/>
@@ -4286,7 +4267,7 @@
       <c r="G73" s="1"/>
       <c r="H73" s="3"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="6"/>
@@ -4296,7 +4277,7 @@
       <c r="G74" s="1"/>
       <c r="H74" s="3"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="6"/>
@@ -4306,7 +4287,7 @@
       <c r="G75" s="1"/>
       <c r="H75" s="3"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="6"/>
@@ -4316,7 +4297,7 @@
       <c r="G76" s="1"/>
       <c r="H76" s="3"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="6"/>
@@ -4326,7 +4307,7 @@
       <c r="G77" s="1"/>
       <c r="H77" s="3"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="6"/>
@@ -4336,7 +4317,7 @@
       <c r="G78" s="1"/>
       <c r="H78" s="3"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="6"/>
@@ -4346,7 +4327,7 @@
       <c r="G79" s="1"/>
       <c r="H79" s="3"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="6"/>
@@ -4356,7 +4337,7 @@
       <c r="G80" s="1"/>
       <c r="H80" s="3"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="6"/>
@@ -4366,7 +4347,7 @@
       <c r="G81" s="1"/>
       <c r="H81" s="3"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="6"/>
@@ -4376,7 +4357,7 @@
       <c r="G82" s="1"/>
       <c r="H82" s="3"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="6"/>
@@ -4386,7 +4367,7 @@
       <c r="G83" s="1"/>
       <c r="H83" s="3"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="6"/>
@@ -4396,7 +4377,7 @@
       <c r="G84" s="1"/>
       <c r="H84" s="3"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="6"/>
@@ -4406,7 +4387,7 @@
       <c r="G85" s="1"/>
       <c r="H85" s="3"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="6"/>
@@ -4416,7 +4397,7 @@
       <c r="G86" s="1"/>
       <c r="H86" s="3"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="6"/>
@@ -4426,7 +4407,7 @@
       <c r="G87" s="1"/>
       <c r="H87" s="3"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="6"/>
@@ -4436,7 +4417,7 @@
       <c r="G88" s="1"/>
       <c r="H88" s="3"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="6"/>
@@ -4446,7 +4427,7 @@
       <c r="G89" s="1"/>
       <c r="H89" s="3"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="6"/>
@@ -4456,7 +4437,7 @@
       <c r="G90" s="1"/>
       <c r="H90" s="3"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="6"/>
@@ -4466,7 +4447,7 @@
       <c r="G91" s="1"/>
       <c r="H91" s="3"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="6"/>
@@ -4476,7 +4457,7 @@
       <c r="G92" s="1"/>
       <c r="H92" s="3"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="6"/>
@@ -4486,7 +4467,7 @@
       <c r="G93" s="1"/>
       <c r="H93" s="3"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="6"/>
@@ -4496,7 +4477,7 @@
       <c r="G94" s="1"/>
       <c r="H94" s="3"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="6"/>
@@ -4506,7 +4487,7 @@
       <c r="G95" s="1"/>
       <c r="H95" s="3"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="6"/>
@@ -4516,7 +4497,7 @@
       <c r="G96" s="1"/>
       <c r="H96" s="3"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="6"/>
@@ -4526,7 +4507,7 @@
       <c r="G97" s="1"/>
       <c r="H97" s="3"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="6"/>
@@ -4536,7 +4517,7 @@
       <c r="G98" s="1"/>
       <c r="H98" s="3"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="6"/>
@@ -4546,7 +4527,7 @@
       <c r="G99" s="1"/>
       <c r="H99" s="3"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="6"/>
@@ -4556,7 +4537,7 @@
       <c r="G100" s="1"/>
       <c r="H100" s="3"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="6"/>
@@ -4566,7 +4547,7 @@
       <c r="G101" s="1"/>
       <c r="H101" s="3"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="6"/>
@@ -4576,7 +4557,7 @@
       <c r="G102" s="1"/>
       <c r="H102" s="3"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="6"/>
@@ -4586,7 +4567,7 @@
       <c r="G103" s="1"/>
       <c r="H103" s="3"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="6"/>
@@ -4596,7 +4577,7 @@
       <c r="G104" s="1"/>
       <c r="H104" s="3"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="6"/>
@@ -4606,7 +4587,7 @@
       <c r="G105" s="1"/>
       <c r="H105" s="3"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="6"/>
@@ -4616,7 +4597,7 @@
       <c r="G106" s="1"/>
       <c r="H106" s="3"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="6"/>
@@ -4626,7 +4607,7 @@
       <c r="G107" s="1"/>
       <c r="H107" s="3"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="6"/>
@@ -4636,7 +4617,7 @@
       <c r="G108" s="1"/>
       <c r="H108" s="3"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="6"/>
@@ -4646,7 +4627,7 @@
       <c r="G109" s="1"/>
       <c r="H109" s="3"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="6"/>
@@ -4656,7 +4637,7 @@
       <c r="G110" s="1"/>
       <c r="H110" s="3"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="6"/>
@@ -4666,7 +4647,7 @@
       <c r="G111" s="1"/>
       <c r="H111" s="3"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="6"/>
@@ -4676,7 +4657,7 @@
       <c r="G112" s="1"/>
       <c r="H112" s="3"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="6"/>
@@ -4686,7 +4667,7 @@
       <c r="G113" s="1"/>
       <c r="H113" s="3"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="6"/>
@@ -4696,7 +4677,7 @@
       <c r="G114" s="1"/>
       <c r="H114" s="3"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="6"/>
@@ -4706,7 +4687,7 @@
       <c r="G115" s="1"/>
       <c r="H115" s="3"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="6"/>
@@ -4716,7 +4697,7 @@
       <c r="G116" s="1"/>
       <c r="H116" s="3"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="6"/>
@@ -4726,7 +4707,7 @@
       <c r="G117" s="1"/>
       <c r="H117" s="3"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="6"/>
@@ -4736,7 +4717,7 @@
       <c r="G118" s="1"/>
       <c r="H118" s="3"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="6"/>
@@ -4746,7 +4727,7 @@
       <c r="G119" s="1"/>
       <c r="H119" s="3"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="6"/>
@@ -4756,7 +4737,7 @@
       <c r="G120" s="1"/>
       <c r="H120" s="3"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="6"/>
@@ -4766,7 +4747,7 @@
       <c r="G121" s="1"/>
       <c r="H121" s="3"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="6"/>
@@ -4776,7 +4757,7 @@
       <c r="G122" s="1"/>
       <c r="H122" s="3"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="6"/>
@@ -4786,7 +4767,7 @@
       <c r="G123" s="1"/>
       <c r="H123" s="3"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="6"/>
@@ -4796,7 +4777,7 @@
       <c r="G124" s="1"/>
       <c r="H124" s="3"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="6"/>
@@ -4806,7 +4787,7 @@
       <c r="G125" s="1"/>
       <c r="H125" s="3"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="6"/>
@@ -4816,7 +4797,7 @@
       <c r="G126" s="1"/>
       <c r="H126" s="3"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="6"/>
@@ -4826,7 +4807,7 @@
       <c r="G127" s="1"/>
       <c r="H127" s="3"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="6"/>
@@ -4836,7 +4817,7 @@
       <c r="G128" s="1"/>
       <c r="H128" s="3"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="6"/>
@@ -4846,7 +4827,7 @@
       <c r="G129" s="1"/>
       <c r="H129" s="3"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="6"/>
@@ -4856,7 +4837,7 @@
       <c r="G130" s="1"/>
       <c r="H130" s="3"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="6"/>
@@ -4866,7 +4847,7 @@
       <c r="G131" s="1"/>
       <c r="H131" s="3"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="6"/>
@@ -4876,7 +4857,7 @@
       <c r="G132" s="1"/>
       <c r="H132" s="3"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="6"/>
@@ -4886,7 +4867,7 @@
       <c r="G133" s="1"/>
       <c r="H133" s="3"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="6"/>
@@ -4896,7 +4877,7 @@
       <c r="G134" s="1"/>
       <c r="H134" s="3"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="6"/>
@@ -4906,7 +4887,7 @@
       <c r="G135" s="1"/>
       <c r="H135" s="3"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="6"/>
@@ -4916,7 +4897,7 @@
       <c r="G136" s="1"/>
       <c r="H136" s="3"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="6"/>
@@ -4926,7 +4907,7 @@
       <c r="G137" s="1"/>
       <c r="H137" s="3"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="6"/>
@@ -4936,7 +4917,7 @@
       <c r="G138" s="1"/>
       <c r="H138" s="3"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="6"/>
@@ -4946,7 +4927,7 @@
       <c r="G139" s="1"/>
       <c r="H139" s="3"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="6"/>
@@ -4956,7 +4937,7 @@
       <c r="G140" s="1"/>
       <c r="H140" s="3"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="6"/>
@@ -4966,7 +4947,7 @@
       <c r="G141" s="1"/>
       <c r="H141" s="3"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="6"/>
@@ -4976,7 +4957,7 @@
       <c r="G142" s="1"/>
       <c r="H142" s="3"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="6"/>
@@ -4986,7 +4967,7 @@
       <c r="G143" s="1"/>
       <c r="H143" s="3"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="6"/>
@@ -4996,7 +4977,7 @@
       <c r="G144" s="1"/>
       <c r="H144" s="3"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="6"/>
@@ -5006,7 +4987,7 @@
       <c r="G145" s="1"/>
       <c r="H145" s="3"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="6"/>
@@ -5016,7 +4997,7 @@
       <c r="G146" s="1"/>
       <c r="H146" s="3"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="6"/>
@@ -5026,7 +5007,7 @@
       <c r="G147" s="1"/>
       <c r="H147" s="3"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="6"/>
@@ -5036,7 +5017,7 @@
       <c r="G148" s="1"/>
       <c r="H148" s="3"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="6"/>
@@ -5046,7 +5027,7 @@
       <c r="G149" s="1"/>
       <c r="H149" s="3"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="6"/>
@@ -5056,7 +5037,7 @@
       <c r="G150" s="1"/>
       <c r="H150" s="3"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="6"/>
@@ -5066,7 +5047,7 @@
       <c r="G151" s="1"/>
       <c r="H151" s="3"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="6"/>
@@ -5076,7 +5057,7 @@
       <c r="G152" s="1"/>
       <c r="H152" s="3"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="6"/>
@@ -5086,7 +5067,7 @@
       <c r="G153" s="1"/>
       <c r="H153" s="3"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="6"/>
@@ -5096,7 +5077,7 @@
       <c r="G154" s="1"/>
       <c r="H154" s="3"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="6"/>
@@ -5106,7 +5087,7 @@
       <c r="G155" s="1"/>
       <c r="H155" s="3"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="6"/>
@@ -5116,7 +5097,7 @@
       <c r="G156" s="1"/>
       <c r="H156" s="3"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="6"/>
@@ -5126,7 +5107,7 @@
       <c r="G157" s="1"/>
       <c r="H157" s="3"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="6"/>
@@ -5136,7 +5117,7 @@
       <c r="G158" s="1"/>
       <c r="H158" s="3"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="6"/>
@@ -5146,7 +5127,7 @@
       <c r="G159" s="1"/>
       <c r="H159" s="3"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="6"/>
@@ -5156,7 +5137,7 @@
       <c r="G160" s="1"/>
       <c r="H160" s="3"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="6"/>
@@ -5166,7 +5147,7 @@
       <c r="G161" s="1"/>
       <c r="H161" s="3"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="6"/>
@@ -5176,7 +5157,7 @@
       <c r="G162" s="1"/>
       <c r="H162" s="3"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="6"/>
@@ -5186,7 +5167,7 @@
       <c r="G163" s="1"/>
       <c r="H163" s="3"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="6"/>
@@ -5196,7 +5177,7 @@
       <c r="G164" s="1"/>
       <c r="H164" s="3"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="6"/>
@@ -5206,7 +5187,7 @@
       <c r="G165" s="1"/>
       <c r="H165" s="3"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="6"/>
@@ -5216,7 +5197,7 @@
       <c r="G166" s="1"/>
       <c r="H166" s="3"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="6"/>
@@ -5226,7 +5207,7 @@
       <c r="G167" s="1"/>
       <c r="H167" s="3"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="6"/>
@@ -5236,7 +5217,7 @@
       <c r="G168" s="1"/>
       <c r="H168" s="3"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="6"/>
@@ -5246,7 +5227,7 @@
       <c r="G169" s="1"/>
       <c r="H169" s="3"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="6"/>
@@ -5256,7 +5237,7 @@
       <c r="G170" s="1"/>
       <c r="H170" s="3"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="6"/>
@@ -5266,7 +5247,7 @@
       <c r="G171" s="1"/>
       <c r="H171" s="3"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="6"/>
@@ -5276,7 +5257,7 @@
       <c r="G172" s="1"/>
       <c r="H172" s="3"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="6"/>
@@ -5286,7 +5267,7 @@
       <c r="G173" s="1"/>
       <c r="H173" s="3"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="6"/>
@@ -5296,7 +5277,7 @@
       <c r="G174" s="1"/>
       <c r="H174" s="3"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="6"/>
@@ -5306,7 +5287,7 @@
       <c r="G175" s="1"/>
       <c r="H175" s="3"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="6"/>
@@ -5316,7 +5297,7 @@
       <c r="G176" s="1"/>
       <c r="H176" s="3"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="6"/>
@@ -5326,7 +5307,7 @@
       <c r="G177" s="1"/>
       <c r="H177" s="3"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="6"/>
@@ -5336,7 +5317,7 @@
       <c r="G178" s="1"/>
       <c r="H178" s="3"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="6"/>
@@ -5346,7 +5327,7 @@
       <c r="G179" s="1"/>
       <c r="H179" s="3"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="6"/>
@@ -5356,7 +5337,7 @@
       <c r="G180" s="1"/>
       <c r="H180" s="3"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="6"/>
@@ -5366,7 +5347,7 @@
       <c r="G181" s="1"/>
       <c r="H181" s="3"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="6"/>
@@ -5376,7 +5357,7 @@
       <c r="G182" s="1"/>
       <c r="H182" s="3"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="6"/>
@@ -5386,7 +5367,7 @@
       <c r="G183" s="1"/>
       <c r="H183" s="3"/>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="6"/>
@@ -5396,7 +5377,7 @@
       <c r="G184" s="1"/>
       <c r="H184" s="3"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="6"/>
@@ -5406,7 +5387,7 @@
       <c r="G185" s="1"/>
       <c r="H185" s="3"/>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="6"/>
@@ -5416,7 +5397,7 @@
       <c r="G186" s="1"/>
       <c r="H186" s="3"/>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="6"/>
@@ -5426,7 +5407,7 @@
       <c r="G187" s="1"/>
       <c r="H187" s="3"/>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="6"/>
@@ -5436,7 +5417,7 @@
       <c r="G188" s="1"/>
       <c r="H188" s="3"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="6"/>
@@ -5446,7 +5427,7 @@
       <c r="G189" s="1"/>
       <c r="H189" s="3"/>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="6"/>
@@ -5456,7 +5437,7 @@
       <c r="G190" s="1"/>
       <c r="H190" s="3"/>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="6"/>
@@ -5466,7 +5447,7 @@
       <c r="G191" s="1"/>
       <c r="H191" s="3"/>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="6"/>
@@ -5476,7 +5457,7 @@
       <c r="G192" s="1"/>
       <c r="H192" s="3"/>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="6"/>
@@ -5486,7 +5467,7 @@
       <c r="G193" s="1"/>
       <c r="H193" s="3"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="6"/>
@@ -5496,7 +5477,7 @@
       <c r="G194" s="1"/>
       <c r="H194" s="3"/>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="6"/>
@@ -5506,7 +5487,7 @@
       <c r="G195" s="1"/>
       <c r="H195" s="3"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="6"/>
@@ -5516,7 +5497,7 @@
       <c r="G196" s="1"/>
       <c r="H196" s="3"/>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="6"/>
@@ -5526,7 +5507,7 @@
       <c r="G197" s="1"/>
       <c r="H197" s="3"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="6"/>
@@ -5536,7 +5517,7 @@
       <c r="G198" s="1"/>
       <c r="H198" s="3"/>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="6"/>
@@ -5546,7 +5527,7 @@
       <c r="G199" s="1"/>
       <c r="H199" s="3"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="6"/>
@@ -5556,12 +5537,12 @@
       <c r="G200" s="1"/>
       <c r="H200" s="3"/>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A201" s="20"/>
-      <c r="B201" s="20"/>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" s="18"/>
+      <c r="B201" s="18"/>
       <c r="C201" s="7"/>
-      <c r="D201" s="20"/>
-      <c r="E201" s="20"/>
+      <c r="D201" s="18"/>
+      <c r="E201" s="18"/>
       <c r="F201" s="7"/>
       <c r="G201" s="1"/>
       <c r="H201" s="3"/>
@@ -5595,17 +5576,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.6328125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="15.6328125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="25.6328125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="45.6328125" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="10"/>
+    <col min="1" max="1" width="16.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="15.5703125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="45.5703125" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>11</v>
       </c>
@@ -5618,1407 +5599,1407 @@
       <c r="D1" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="2"/>
       <c r="D2" s="6"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="6"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
       <c r="D4" s="6"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
       <c r="D5" s="6"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="6"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="6"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="6"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
       <c r="D9" s="6"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="6"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="6"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="6"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="6"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
       <c r="D14" s="6"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="6"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="6"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
       <c r="D17" s="6"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
       <c r="D18" s="6"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
       <c r="D19" s="6"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="6"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="6"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="6"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="6"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
       <c r="D24" s="6"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
       <c r="D25" s="6"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
       <c r="D26" s="6"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
       <c r="D27" s="6"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="6"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
       <c r="D29" s="6"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="6"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
       <c r="D31" s="6"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
       <c r="D32" s="6"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
       <c r="D33" s="6"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
       <c r="D34" s="6"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
       <c r="D35" s="6"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
       <c r="D36" s="6"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
       <c r="D37" s="6"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
       <c r="D38" s="6"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
       <c r="D39" s="6"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="6"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="6"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="6"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="6"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="6"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="6"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="6"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="6"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="6"/>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="6"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="6"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="6"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
       <c r="D52" s="6"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="2"/>
       <c r="D53" s="6"/>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="2"/>
       <c r="D54" s="6"/>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="2"/>
       <c r="D55" s="6"/>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="2"/>
       <c r="D56" s="6"/>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
       <c r="D57" s="6"/>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="2"/>
       <c r="D58" s="6"/>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="2"/>
       <c r="D59" s="6"/>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="2"/>
       <c r="D60" s="6"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
       <c r="D61" s="6"/>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
       <c r="D62" s="6"/>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="2"/>
       <c r="D63" s="6"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
       <c r="D64" s="6"/>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="2"/>
       <c r="D65" s="6"/>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="2"/>
       <c r="D66" s="6"/>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="2"/>
       <c r="D67" s="6"/>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="6"/>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="2"/>
       <c r="D69" s="6"/>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="2"/>
       <c r="D70" s="6"/>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="2"/>
       <c r="D71" s="6"/>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="2"/>
       <c r="D72" s="6"/>
       <c r="E72" s="1"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="2"/>
       <c r="D73" s="6"/>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
       <c r="D74" s="6"/>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
       <c r="D75" s="6"/>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="2"/>
       <c r="D76" s="6"/>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
       <c r="D77" s="6"/>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="2"/>
       <c r="D78" s="6"/>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="2"/>
       <c r="D79" s="6"/>
       <c r="E79" s="1"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="2"/>
       <c r="D80" s="6"/>
       <c r="E80" s="1"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="2"/>
       <c r="D81" s="2"/>
       <c r="E81" s="1"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="2"/>
       <c r="D82" s="2"/>
       <c r="E82" s="1"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
       <c r="E84" s="1"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
       <c r="E85" s="1"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
       <c r="E86" s="1"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
       <c r="E87" s="1"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="1"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="1"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="1"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="1"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="1"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="1"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="1"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="1"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="E96" s="1"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="2"/>
       <c r="D97" s="2"/>
       <c r="E97" s="1"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="2"/>
       <c r="D98" s="2"/>
       <c r="E98" s="1"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="2"/>
       <c r="D99" s="2"/>
       <c r="E99" s="1"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="2"/>
       <c r="D100" s="2"/>
       <c r="E100" s="1"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
       <c r="E101" s="1"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="E102" s="1"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="2"/>
       <c r="D103" s="2"/>
       <c r="E103" s="1"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="2"/>
       <c r="D104" s="2"/>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="2"/>
       <c r="D105" s="2"/>
       <c r="E105" s="1"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
       <c r="E106" s="1"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
       <c r="E107" s="1"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
       <c r="E108" s="1"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
       <c r="E109" s="1"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
       <c r="E110" s="1"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
       <c r="E111" s="1"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="2"/>
       <c r="D112" s="2"/>
       <c r="E112" s="1"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="2"/>
       <c r="D113" s="2"/>
       <c r="E113" s="1"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="2"/>
       <c r="D114" s="2"/>
       <c r="E114" s="1"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="2"/>
       <c r="D115" s="2"/>
       <c r="E115" s="1"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="2"/>
       <c r="D116" s="2"/>
       <c r="E116" s="1"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="2"/>
       <c r="D117" s="2"/>
       <c r="E117" s="1"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="2"/>
       <c r="D118" s="2"/>
       <c r="E118" s="1"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
       <c r="D119" s="2"/>
       <c r="E119" s="1"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="2"/>
       <c r="D120" s="2"/>
       <c r="E120" s="1"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="2"/>
       <c r="D121" s="2"/>
       <c r="E121" s="1"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="2"/>
       <c r="D122" s="2"/>
       <c r="E122" s="1"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="2"/>
       <c r="D123" s="2"/>
       <c r="E123" s="1"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
       <c r="E124" s="1"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
       <c r="D125" s="2"/>
       <c r="E125" s="1"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="2"/>
       <c r="D126" s="2"/>
       <c r="E126" s="1"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="2"/>
       <c r="D127" s="2"/>
       <c r="E127" s="1"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="2"/>
       <c r="D128" s="2"/>
       <c r="E128" s="1"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="2"/>
       <c r="D129" s="2"/>
       <c r="E129" s="1"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="2"/>
       <c r="D130" s="2"/>
       <c r="E130" s="1"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="2"/>
       <c r="D131" s="2"/>
       <c r="E131" s="1"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
       <c r="D132" s="2"/>
       <c r="E132" s="1"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="1"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
       <c r="E134" s="1"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="2"/>
       <c r="D135" s="2"/>
       <c r="E135" s="1"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="2"/>
       <c r="D136" s="2"/>
       <c r="E136" s="1"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="2"/>
       <c r="D137" s="2"/>
       <c r="E137" s="1"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
       <c r="E138" s="1"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="2"/>
       <c r="D139" s="2"/>
       <c r="E139" s="1"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="2"/>
       <c r="D140" s="2"/>
       <c r="E140" s="1"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="2"/>
       <c r="D141" s="2"/>
       <c r="E141" s="1"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="2"/>
       <c r="D142" s="2"/>
       <c r="E142" s="1"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="2"/>
       <c r="D143" s="2"/>
       <c r="E143" s="1"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="2"/>
       <c r="D144" s="2"/>
       <c r="E144" s="1"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="2"/>
       <c r="D145" s="2"/>
       <c r="E145" s="1"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="2"/>
       <c r="D146" s="2"/>
       <c r="E146" s="1"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="2"/>
       <c r="D147" s="2"/>
       <c r="E147" s="1"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="2"/>
       <c r="D148" s="2"/>
       <c r="E148" s="1"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="1"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="2"/>
       <c r="D150" s="2"/>
       <c r="E150" s="1"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="2"/>
       <c r="D151" s="2"/>
       <c r="E151" s="1"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="2"/>
       <c r="D152" s="2"/>
       <c r="E152" s="1"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="2"/>
       <c r="D153" s="2"/>
       <c r="E153" s="1"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="2"/>
       <c r="D154" s="2"/>
       <c r="E154" s="1"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="2"/>
       <c r="D155" s="2"/>
       <c r="E155" s="1"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="2"/>
       <c r="D156" s="2"/>
       <c r="E156" s="1"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="2"/>
       <c r="D157" s="2"/>
       <c r="E157" s="1"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="2"/>
       <c r="D158" s="2"/>
       <c r="E158" s="1"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="2"/>
       <c r="D159" s="2"/>
       <c r="E159" s="1"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="2"/>
       <c r="D160" s="2"/>
       <c r="E160" s="1"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="2"/>
       <c r="D161" s="2"/>
       <c r="E161" s="1"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" s="2"/>
       <c r="E162" s="1"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="2"/>
       <c r="D163" s="2"/>
       <c r="E163" s="1"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="2"/>
       <c r="D164" s="2"/>
       <c r="E164" s="1"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="2"/>
       <c r="D165" s="2"/>
       <c r="E165" s="1"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="2"/>
       <c r="D166" s="2"/>
       <c r="E166" s="1"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="2"/>
       <c r="D167" s="2"/>
       <c r="E167" s="1"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="2"/>
       <c r="D168" s="2"/>
       <c r="E168" s="1"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="2"/>
       <c r="D169" s="2"/>
       <c r="E169" s="1"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="2"/>
       <c r="D170" s="2"/>
       <c r="E170" s="1"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
       <c r="D171" s="2"/>
       <c r="E171" s="1"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="2"/>
       <c r="D172" s="2"/>
       <c r="E172" s="1"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="2"/>
       <c r="D173" s="2"/>
       <c r="E173" s="1"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="2"/>
       <c r="D174" s="2"/>
       <c r="E174" s="1"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="2"/>
       <c r="D175" s="2"/>
       <c r="E175" s="1"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="2"/>
       <c r="D176" s="2"/>
       <c r="E176" s="1"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="2"/>
       <c r="D177" s="2"/>
       <c r="E177" s="1"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="2"/>
       <c r="D178" s="2"/>
       <c r="E178" s="1"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="2"/>
       <c r="D179" s="2"/>
       <c r="E179" s="1"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="2"/>
       <c r="D180" s="2"/>
       <c r="E180" s="1"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="2"/>
       <c r="D181" s="2"/>
       <c r="E181" s="1"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="2"/>
       <c r="D182" s="2"/>
       <c r="E182" s="1"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="2"/>
       <c r="D183" s="2"/>
       <c r="E183" s="1"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="2"/>
       <c r="D184" s="2"/>
       <c r="E184" s="1"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="2"/>
       <c r="D185" s="2"/>
       <c r="E185" s="1"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="2"/>
       <c r="D186" s="2"/>
       <c r="E186" s="1"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="2"/>
       <c r="D187" s="2"/>
       <c r="E187" s="1"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
       <c r="E188" s="1"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
       <c r="E189" s="1"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="2"/>
       <c r="D190" s="2"/>
       <c r="E190" s="1"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="2"/>
       <c r="D191" s="2"/>
       <c r="E191" s="1"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="2"/>
       <c r="D192" s="2"/>
       <c r="E192" s="1"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="2"/>
       <c r="D193" s="2"/>
       <c r="E193" s="1"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="2"/>
       <c r="D194" s="2"/>
       <c r="E194" s="1"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="2"/>
       <c r="D195" s="2"/>
       <c r="E195" s="1"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="2"/>
       <c r="D196" s="2"/>
       <c r="E196" s="1"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="2"/>
       <c r="D197" s="2"/>
       <c r="E197" s="1"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="2"/>
       <c r="D198" s="2"/>
       <c r="E198" s="1"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="2"/>
       <c r="D199" s="2"/>
       <c r="E199" s="1"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="2"/>
       <c r="D200" s="2"/>
       <c r="E200" s="1"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A201" s="20"/>
-      <c r="B201" s="20"/>
-      <c r="C201" s="20"/>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="18"/>
+      <c r="B201" s="18"/>
+      <c r="C201" s="18"/>
       <c r="D201" s="7"/>
       <c r="E201" s="1"/>
     </row>
@@ -7048,16 +7029,16 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6328125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="25.6328125" style="10" customWidth="1"/>
-    <col min="3" max="4" width="45.6328125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="11.453125" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="10"/>
+    <col min="1" max="1" width="25.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="10" customWidth="1"/>
+    <col min="3" max="4" width="45.5703125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -7067,1207 +7048,1207 @@
       <c r="C1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
       <c r="C2" s="6"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="6"/>
       <c r="D3" s="1"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="6"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="6"/>
       <c r="D5" s="1"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="6"/>
       <c r="D6" s="1"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="6"/>
       <c r="D7" s="1"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="6"/>
       <c r="D8" s="1"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="6"/>
       <c r="D9" s="1"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="6"/>
       <c r="D10" s="1"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="6"/>
       <c r="D11" s="1"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="6"/>
       <c r="D12" s="1"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="6"/>
       <c r="D13" s="1"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="6"/>
       <c r="D14" s="1"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="6"/>
       <c r="D15" s="1"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="6"/>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="6"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="6"/>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="6"/>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="6"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="6"/>
       <c r="D21" s="1"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="6"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="6"/>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="6"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="6"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="6"/>
       <c r="D26" s="1"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="6"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="6"/>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="6"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="6"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="6"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="6"/>
       <c r="D32" s="1"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="6"/>
       <c r="D33" s="1"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="6"/>
       <c r="D34" s="1"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="6"/>
       <c r="D35" s="1"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="6"/>
       <c r="D36" s="1"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="6"/>
       <c r="D37" s="1"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="6"/>
       <c r="D38" s="1"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="6"/>
       <c r="D39" s="1"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="6"/>
       <c r="D40" s="1"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="6"/>
       <c r="D41" s="1"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="6"/>
       <c r="D42" s="1"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="6"/>
       <c r="D43" s="1"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="6"/>
       <c r="D44" s="1"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="6"/>
       <c r="D45" s="1"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="6"/>
       <c r="D46" s="1"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="6"/>
       <c r="D47" s="1"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="6"/>
       <c r="D48" s="1"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="6"/>
       <c r="D49" s="1"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="6"/>
       <c r="D50" s="1"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="6"/>
       <c r="D51" s="1"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="6"/>
       <c r="D52" s="1"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="6"/>
       <c r="D53" s="1"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="6"/>
       <c r="D54" s="1"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="6"/>
       <c r="D55" s="1"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="6"/>
       <c r="D56" s="1"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="6"/>
       <c r="D57" s="1"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="6"/>
       <c r="D58" s="1"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="6"/>
       <c r="D59" s="1"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="6"/>
       <c r="D60" s="1"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="6"/>
       <c r="D61" s="1"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="6"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="6"/>
       <c r="D63" s="1"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="6"/>
       <c r="D64" s="1"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="6"/>
       <c r="D65" s="1"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="6"/>
       <c r="D66" s="1"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="6"/>
       <c r="D67" s="1"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="6"/>
       <c r="D68" s="1"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="6"/>
       <c r="D69" s="1"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="6"/>
       <c r="D70" s="1"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="6"/>
       <c r="D71" s="1"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="6"/>
       <c r="D72" s="1"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="6"/>
       <c r="D73" s="1"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="6"/>
       <c r="D74" s="1"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="6"/>
       <c r="D75" s="1"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="6"/>
       <c r="D76" s="1"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="6"/>
       <c r="D77" s="1"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="6"/>
       <c r="D78" s="1"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="6"/>
       <c r="D79" s="1"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="6"/>
       <c r="D80" s="1"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="6"/>
       <c r="D81" s="1"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="6"/>
       <c r="D82" s="1"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="6"/>
       <c r="D83" s="1"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="6"/>
       <c r="D84" s="1"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="6"/>
       <c r="D85" s="1"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="6"/>
       <c r="D86" s="1"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="6"/>
       <c r="D87" s="1"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="6"/>
       <c r="D88" s="1"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="6"/>
       <c r="D89" s="1"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="6"/>
       <c r="D90" s="1"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="6"/>
       <c r="D91" s="1"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="6"/>
       <c r="D92" s="1"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="6"/>
       <c r="D93" s="1"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="6"/>
       <c r="D94" s="1"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="6"/>
       <c r="D95" s="1"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="6"/>
       <c r="D96" s="1"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="6"/>
       <c r="D97" s="1"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="6"/>
       <c r="D98" s="1"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="6"/>
       <c r="D99" s="1"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="6"/>
       <c r="D100" s="1"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="6"/>
       <c r="D101" s="1"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="6"/>
       <c r="D102" s="1"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="6"/>
       <c r="D103" s="1"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="6"/>
       <c r="D104" s="1"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="6"/>
       <c r="D105" s="1"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="6"/>
       <c r="D106" s="1"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="6"/>
       <c r="D107" s="1"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="6"/>
       <c r="D108" s="1"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="6"/>
       <c r="D109" s="1"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="6"/>
       <c r="D110" s="1"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="6"/>
       <c r="D111" s="1"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="6"/>
       <c r="D112" s="1"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="6"/>
       <c r="D113" s="1"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="6"/>
       <c r="D114" s="1"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="6"/>
       <c r="D115" s="1"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="6"/>
       <c r="D116" s="1"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="6"/>
       <c r="D117" s="1"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="6"/>
       <c r="D118" s="1"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="6"/>
       <c r="D119" s="1"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="6"/>
       <c r="D120" s="1"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="6"/>
       <c r="D121" s="1"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="6"/>
       <c r="D122" s="1"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="6"/>
       <c r="D123" s="1"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="6"/>
       <c r="D124" s="1"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="6"/>
       <c r="D125" s="1"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="6"/>
       <c r="D126" s="1"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="6"/>
       <c r="D127" s="1"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="6"/>
       <c r="D128" s="1"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="6"/>
       <c r="D129" s="1"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="6"/>
       <c r="D130" s="1"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="6"/>
       <c r="D131" s="1"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="6"/>
       <c r="D132" s="1"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="6"/>
       <c r="D133" s="1"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="6"/>
       <c r="D134" s="1"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="6"/>
       <c r="D135" s="1"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="6"/>
       <c r="D136" s="1"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="6"/>
       <c r="D137" s="1"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="6"/>
       <c r="D138" s="1"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="6"/>
       <c r="D139" s="1"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="6"/>
       <c r="D140" s="1"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="6"/>
       <c r="D141" s="1"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="6"/>
       <c r="D142" s="1"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="6"/>
       <c r="D143" s="1"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="6"/>
       <c r="D144" s="1"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="6"/>
       <c r="D145" s="1"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="6"/>
       <c r="D146" s="1"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="6"/>
       <c r="D147" s="1"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="6"/>
       <c r="D148" s="1"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="6"/>
       <c r="D149" s="1"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="6"/>
       <c r="D150" s="1"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="6"/>
       <c r="D151" s="1"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="6"/>
       <c r="D152" s="1"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="6"/>
       <c r="D153" s="1"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="6"/>
       <c r="D154" s="1"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="6"/>
       <c r="D155" s="1"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="6"/>
       <c r="D156" s="1"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="6"/>
       <c r="D157" s="1"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="6"/>
       <c r="D158" s="1"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="6"/>
       <c r="D159" s="1"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="6"/>
       <c r="D160" s="1"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="6"/>
       <c r="D161" s="1"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="6"/>
       <c r="D162" s="1"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="6"/>
       <c r="D163" s="1"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="6"/>
       <c r="D164" s="1"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="6"/>
       <c r="D165" s="1"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="6"/>
       <c r="D166" s="1"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="6"/>
       <c r="D167" s="1"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="6"/>
       <c r="D168" s="1"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="6"/>
       <c r="D169" s="1"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="6"/>
       <c r="D170" s="1"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="6"/>
       <c r="D171" s="1"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="6"/>
       <c r="D172" s="1"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="6"/>
       <c r="D173" s="1"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="6"/>
       <c r="D174" s="1"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="6"/>
       <c r="D175" s="1"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="6"/>
       <c r="D176" s="1"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="6"/>
       <c r="D177" s="1"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="6"/>
       <c r="D178" s="1"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="6"/>
       <c r="D179" s="1"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="6"/>
       <c r="D180" s="1"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="6"/>
       <c r="D181" s="1"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="6"/>
       <c r="D182" s="1"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="6"/>
       <c r="D183" s="1"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="6"/>
       <c r="D184" s="1"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="6"/>
       <c r="D185" s="1"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="6"/>
       <c r="D186" s="1"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="6"/>
       <c r="D187" s="1"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="6"/>
       <c r="D188" s="1"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="6"/>
       <c r="D189" s="1"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="6"/>
       <c r="D190" s="1"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="6"/>
       <c r="D191" s="1"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="6"/>
       <c r="D192" s="1"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="6"/>
       <c r="D193" s="1"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="6"/>
       <c r="D194" s="1"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="6"/>
       <c r="D195" s="1"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="6"/>
       <c r="D196" s="1"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="6"/>
       <c r="D197" s="1"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="6"/>
       <c r="D198" s="1"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="6"/>
       <c r="D199" s="1"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="6"/>
       <c r="D200" s="1"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A201" s="20"/>
-      <c r="B201" s="20"/>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="18"/>
+      <c r="B201" s="18"/>
       <c r="C201" s="7"/>
       <c r="D201" s="1"/>
     </row>
@@ -8288,17 +8269,17 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.6328125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="25.6328125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="45.6328125" style="10" customWidth="1"/>
-    <col min="4" max="4" width="25.6328125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="45.6328125" style="10" customWidth="1"/>
-    <col min="6" max="16384" width="8.7265625" style="10"/>
+    <col min="1" max="1" width="25.5703125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" style="10" customWidth="1"/>
+    <col min="4" max="4" width="25.5703125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="45.5703125" style="10" customWidth="1"/>
+    <col min="6" max="16384" width="8.7109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>12</v>
       </c>
@@ -8311,1406 +8292,1406 @@
       <c r="D1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A2" s="19"/>
-      <c r="B2" s="19"/>
-      <c r="C2" s="22"/>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="17"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="20"/>
       <c r="D2" s="6"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="6"/>
       <c r="D3" s="6"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="6"/>
       <c r="D4" s="6"/>
       <c r="E4" s="1"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="6"/>
       <c r="D5" s="6"/>
       <c r="E5" s="1"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="6"/>
       <c r="D6" s="6"/>
       <c r="E6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="1"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="1"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="1"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
       <c r="E10" s="1"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="6"/>
       <c r="D11" s="6"/>
       <c r="E11" s="1"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="6"/>
       <c r="D12" s="6"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="6"/>
       <c r="D15" s="6"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="6"/>
       <c r="D17" s="6"/>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
       <c r="E19" s="1"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="6"/>
       <c r="D21" s="6"/>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="6"/>
       <c r="D23" s="6"/>
       <c r="E23" s="1"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
       <c r="E26" s="1"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="6"/>
       <c r="D27" s="6"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="6"/>
       <c r="D29" s="6"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="6"/>
       <c r="D30" s="6"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
       <c r="E31" s="1"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="6"/>
       <c r="D32" s="6"/>
       <c r="E32" s="1"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6"/>
       <c r="E33" s="1"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="1"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="6"/>
       <c r="D35" s="6"/>
       <c r="E35" s="1"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="1"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
       <c r="E38" s="1"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="6"/>
       <c r="D39" s="6"/>
       <c r="E39" s="1"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
       <c r="E40" s="1"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="6"/>
       <c r="D41" s="6"/>
       <c r="E41" s="1"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="1"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
       <c r="E45" s="1"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="1"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="1"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
       <c r="E48" s="1"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
       <c r="E49" s="1"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
       <c r="E50" s="1"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
       <c r="E51" s="1"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="1"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="6"/>
       <c r="D53" s="6"/>
       <c r="E53" s="1"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="6"/>
       <c r="D54" s="6"/>
       <c r="E54" s="1"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="1"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
       <c r="E56" s="1"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
       <c r="E57" s="1"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="1"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="6"/>
       <c r="D59" s="6"/>
       <c r="E59" s="1"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
       <c r="E60" s="1"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="6"/>
       <c r="D61" s="6"/>
       <c r="E61" s="1"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="6"/>
       <c r="D62" s="6"/>
       <c r="E62" s="1"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
       <c r="E63" s="1"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="6"/>
       <c r="D64" s="6"/>
       <c r="E64" s="1"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="6"/>
       <c r="D65" s="6"/>
       <c r="E65" s="1"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
       <c r="E66" s="1"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="6"/>
       <c r="D67" s="6"/>
       <c r="E67" s="1"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
       <c r="E68" s="1"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="6"/>
       <c r="D69" s="6"/>
       <c r="E69" s="1"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="6"/>
       <c r="D70" s="6"/>
       <c r="E70" s="1"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="6"/>
       <c r="D71" s="6"/>
       <c r="E71" s="1"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
       <c r="E72" s="1"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
       <c r="E73" s="1"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
       <c r="E74" s="1"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="6"/>
       <c r="D75" s="6"/>
       <c r="E75" s="1"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="6"/>
       <c r="D76" s="6"/>
       <c r="E76" s="1"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="6"/>
       <c r="D77" s="6"/>
       <c r="E77" s="1"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="6"/>
       <c r="D78" s="6"/>
       <c r="E78" s="1"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="6"/>
       <c r="D79" s="6"/>
       <c r="E79" s="1"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="6"/>
       <c r="D80" s="6"/>
       <c r="E80" s="1"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="6"/>
       <c r="D81" s="6"/>
       <c r="E81" s="1"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="6"/>
       <c r="D82" s="6"/>
       <c r="E82" s="1"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="6"/>
       <c r="D83" s="6"/>
       <c r="E83" s="1"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="6"/>
       <c r="D84" s="6"/>
       <c r="E84" s="1"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="6"/>
       <c r="D85" s="6"/>
       <c r="E85" s="1"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="6"/>
       <c r="D86" s="6"/>
       <c r="E86" s="1"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="6"/>
       <c r="D87" s="6"/>
       <c r="E87" s="1"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="6"/>
       <c r="D88" s="6"/>
       <c r="E88" s="1"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="6"/>
       <c r="D89" s="6"/>
       <c r="E89" s="1"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="1"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="6"/>
       <c r="D91" s="6"/>
       <c r="E91" s="1"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="6"/>
       <c r="D92" s="6"/>
       <c r="E92" s="1"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="6"/>
       <c r="D93" s="6"/>
       <c r="E93" s="1"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="6"/>
       <c r="D94" s="6"/>
       <c r="E94" s="1"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="6"/>
       <c r="D95" s="6"/>
       <c r="E95" s="1"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="6"/>
       <c r="D96" s="6"/>
       <c r="E96" s="1"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="6"/>
       <c r="D97" s="6"/>
       <c r="E97" s="1"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="6"/>
       <c r="D98" s="6"/>
       <c r="E98" s="1"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="6"/>
       <c r="D99" s="6"/>
       <c r="E99" s="1"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="6"/>
       <c r="D100" s="6"/>
       <c r="E100" s="1"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="6"/>
       <c r="D101" s="6"/>
       <c r="E101" s="1"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="6"/>
       <c r="D102" s="6"/>
       <c r="E102" s="1"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="6"/>
       <c r="D103" s="6"/>
       <c r="E103" s="1"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="6"/>
       <c r="D104" s="6"/>
       <c r="E104" s="1"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="6"/>
       <c r="D105" s="6"/>
       <c r="E105" s="1"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="6"/>
       <c r="D106" s="6"/>
       <c r="E106" s="1"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="6"/>
       <c r="D107" s="6"/>
       <c r="E107" s="1"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="6"/>
       <c r="D108" s="6"/>
       <c r="E108" s="1"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="6"/>
       <c r="D109" s="6"/>
       <c r="E109" s="1"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="6"/>
       <c r="D110" s="6"/>
       <c r="E110" s="1"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="6"/>
       <c r="D111" s="6"/>
       <c r="E111" s="1"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="6"/>
       <c r="D112" s="6"/>
       <c r="E112" s="1"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="6"/>
       <c r="D113" s="6"/>
       <c r="E113" s="1"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="6"/>
       <c r="D114" s="6"/>
       <c r="E114" s="1"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="6"/>
       <c r="D115" s="6"/>
       <c r="E115" s="1"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="6"/>
       <c r="D116" s="6"/>
       <c r="E116" s="1"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="6"/>
       <c r="D117" s="6"/>
       <c r="E117" s="1"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="6"/>
       <c r="D118" s="6"/>
       <c r="E118" s="1"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="6"/>
       <c r="D119" s="6"/>
       <c r="E119" s="1"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
       <c r="E120" s="1"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="6"/>
       <c r="D121" s="6"/>
       <c r="E121" s="1"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="6"/>
       <c r="D122" s="6"/>
       <c r="E122" s="1"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="6"/>
       <c r="D123" s="6"/>
       <c r="E123" s="1"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="6"/>
       <c r="D124" s="6"/>
       <c r="E124" s="1"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="6"/>
       <c r="D125" s="6"/>
       <c r="E125" s="1"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="6"/>
       <c r="D126" s="6"/>
       <c r="E126" s="1"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="6"/>
       <c r="D127" s="6"/>
       <c r="E127" s="1"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="6"/>
       <c r="D128" s="6"/>
       <c r="E128" s="1"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="6"/>
       <c r="D129" s="6"/>
       <c r="E129" s="1"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="6"/>
       <c r="D130" s="6"/>
       <c r="E130" s="1"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="6"/>
       <c r="D131" s="6"/>
       <c r="E131" s="1"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="6"/>
       <c r="D132" s="6"/>
       <c r="E132" s="1"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="6"/>
       <c r="D133" s="6"/>
       <c r="E133" s="1"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="6"/>
       <c r="D134" s="6"/>
       <c r="E134" s="1"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="6"/>
       <c r="D135" s="6"/>
       <c r="E135" s="1"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
       <c r="E136" s="1"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
       <c r="E137" s="1"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="6"/>
       <c r="D138" s="6"/>
       <c r="E138" s="1"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
       <c r="E139" s="1"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
       <c r="E140" s="1"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="6"/>
       <c r="D141" s="6"/>
       <c r="E141" s="1"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="6"/>
       <c r="D142" s="6"/>
       <c r="E142" s="1"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="6"/>
       <c r="D143" s="6"/>
       <c r="E143" s="1"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="6"/>
       <c r="D144" s="6"/>
       <c r="E144" s="1"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="6"/>
       <c r="D145" s="6"/>
       <c r="E145" s="1"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="6"/>
       <c r="D146" s="6"/>
       <c r="E146" s="1"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="6"/>
       <c r="D147" s="6"/>
       <c r="E147" s="1"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="6"/>
       <c r="D148" s="6"/>
       <c r="E148" s="1"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="6"/>
       <c r="D149" s="6"/>
       <c r="E149" s="1"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="6"/>
       <c r="D150" s="6"/>
       <c r="E150" s="1"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="6"/>
       <c r="D151" s="6"/>
       <c r="E151" s="1"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="6"/>
       <c r="D152" s="6"/>
       <c r="E152" s="1"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="6"/>
       <c r="D153" s="6"/>
       <c r="E153" s="1"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="6"/>
       <c r="D154" s="6"/>
       <c r="E154" s="1"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="6"/>
       <c r="D155" s="6"/>
       <c r="E155" s="1"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="6"/>
       <c r="D156" s="6"/>
       <c r="E156" s="1"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="6"/>
       <c r="D157" s="6"/>
       <c r="E157" s="1"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="6"/>
       <c r="D158" s="6"/>
       <c r="E158" s="1"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="6"/>
       <c r="D159" s="6"/>
       <c r="E159" s="1"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="6"/>
       <c r="D160" s="6"/>
       <c r="E160" s="1"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="6"/>
       <c r="D161" s="6"/>
       <c r="E161" s="1"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="6"/>
       <c r="D162" s="6"/>
       <c r="E162" s="1"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="6"/>
       <c r="D163" s="6"/>
       <c r="E163" s="1"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="6"/>
       <c r="D164" s="6"/>
       <c r="E164" s="1"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="6"/>
       <c r="D165" s="6"/>
       <c r="E165" s="1"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="6"/>
       <c r="D166" s="6"/>
       <c r="E166" s="1"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="6"/>
       <c r="D167" s="6"/>
       <c r="E167" s="1"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="6"/>
       <c r="D168" s="6"/>
       <c r="E168" s="1"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="6"/>
       <c r="D169" s="6"/>
       <c r="E169" s="1"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="6"/>
       <c r="D170" s="6"/>
       <c r="E170" s="1"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="6"/>
       <c r="D171" s="6"/>
       <c r="E171" s="1"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="6"/>
       <c r="D172" s="6"/>
       <c r="E172" s="1"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="6"/>
       <c r="D173" s="6"/>
       <c r="E173" s="1"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="6"/>
       <c r="D174" s="6"/>
       <c r="E174" s="1"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="6"/>
       <c r="D175" s="6"/>
       <c r="E175" s="1"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="6"/>
       <c r="D176" s="6"/>
       <c r="E176" s="1"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="6"/>
       <c r="D177" s="6"/>
       <c r="E177" s="1"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="6"/>
       <c r="D178" s="6"/>
       <c r="E178" s="1"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="6"/>
       <c r="D179" s="6"/>
       <c r="E179" s="1"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="6"/>
       <c r="D180" s="6"/>
       <c r="E180" s="1"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="6"/>
       <c r="D181" s="6"/>
       <c r="E181" s="1"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="6"/>
       <c r="D182" s="6"/>
       <c r="E182" s="1"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="6"/>
       <c r="D183" s="6"/>
       <c r="E183" s="1"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="6"/>
       <c r="D184" s="6"/>
       <c r="E184" s="1"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="6"/>
       <c r="D185" s="6"/>
       <c r="E185" s="1"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="6"/>
       <c r="D186" s="6"/>
       <c r="E186" s="1"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="6"/>
       <c r="D187" s="6"/>
       <c r="E187" s="1"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="6"/>
       <c r="D188" s="6"/>
       <c r="E188" s="1"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="6"/>
       <c r="D189" s="6"/>
       <c r="E189" s="1"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="6"/>
       <c r="D190" s="6"/>
       <c r="E190" s="1"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="6"/>
       <c r="D191" s="6"/>
       <c r="E191" s="1"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="6"/>
       <c r="D192" s="6"/>
       <c r="E192" s="1"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="6"/>
       <c r="D193" s="6"/>
       <c r="E193" s="1"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="6"/>
       <c r="D194" s="6"/>
       <c r="E194" s="1"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="6"/>
       <c r="D195" s="6"/>
       <c r="E195" s="1"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="6"/>
       <c r="D196" s="6"/>
       <c r="E196" s="1"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="6"/>
       <c r="D197" s="6"/>
       <c r="E197" s="1"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="6"/>
       <c r="D198" s="6"/>
       <c r="E198" s="1"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="6"/>
       <c r="D199" s="6"/>
       <c r="E199" s="1"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="6"/>
       <c r="D200" s="6"/>
       <c r="E200" s="1"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A201" s="20"/>
-      <c r="B201" s="20"/>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="18"/>
+      <c r="B201" s="18"/>
       <c r="C201" s="7"/>
       <c r="D201" s="7"/>
       <c r="E201" s="1"/>

--- a/Workbooks/JA/キュー.xlsx
+++ b/Workbooks/JA/キュー.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E359980B-22B7-44A3-B040-9862B7A379BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83980BD7-D16C-453F-8530-B7E94E5CAA05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -66,9 +66,6 @@
     <t>保存フォルダーパス</t>
   </si>
   <si>
-    <t>キューアイテム一覧のファイルパス</t>
-  </si>
-  <si>
     <t>コミットの種類</t>
   </si>
   <si>
@@ -76,6 +73,12 @@
   </si>
   <si>
     <t>フォルダー名</t>
+  </si>
+  <si>
+    <t>事前にダウンロードされたキューアイテム一覧のファイルパス</t>
+  </si>
+  <si>
+    <t>ダウンロードされたキューアイテム一覧のパス</t>
   </si>
 </sst>
 </file>
@@ -312,7 +315,34 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="41">
+  <dxfs count="42">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -1096,75 +1126,76 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:H201" headerRowDxfId="40" dataDxfId="39" totalsRowDxfId="38">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:H201" headerRowDxfId="41" dataDxfId="40" totalsRowDxfId="39">
   <autoFilter ref="A1:H201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{F48D04D3-B22E-457E-8F3F-6D0CF14127A6}" name="フォルダーID" dataDxfId="37"/>
-    <tableColumn id="7" xr3:uid="{012AE434-BA00-4CDD-8DBE-8524E276CBF0}" name="フォルダー名" dataDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{81F10BAB-541D-4EEA-8F4A-504125FC59D3}" name="キューID" dataDxfId="35"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="キュー名" totalsRowLabel="Total" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="説明" dataDxfId="33"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="一意の参照" dataDxfId="32"/>
-    <tableColumn id="3" xr3:uid="{EA8DF354-2F10-4E45-801A-56D5F80552D8}" name="自動リトライ" dataDxfId="31"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="最大リトライ回数" totalsRowFunction="count" dataDxfId="30"/>
+    <tableColumn id="8" xr3:uid="{F48D04D3-B22E-457E-8F3F-6D0CF14127A6}" name="フォルダーID" dataDxfId="38"/>
+    <tableColumn id="7" xr3:uid="{012AE434-BA00-4CDD-8DBE-8524E276CBF0}" name="フォルダー名" dataDxfId="37"/>
+    <tableColumn id="6" xr3:uid="{81F10BAB-541D-4EEA-8F4A-504125FC59D3}" name="キューID" dataDxfId="36"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="キュー名" totalsRowLabel="Total" dataDxfId="35"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="説明" dataDxfId="34"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="一意の参照" dataDxfId="33"/>
+    <tableColumn id="3" xr3:uid="{EA8DF354-2F10-4E45-801A-56D5F80552D8}" name="自動リトライ" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="最大リトライ回数" totalsRowFunction="count" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H201" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H201" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="A1:H201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{3C3B66B3-BB87-4C07-80BD-579ABFE71137}" name="フォルダー名" dataDxfId="27"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="キュー名" dataDxfId="26"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="説明" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{4D652F4A-5125-4BA7-BCE0-BCD13A330E29}" name="一意の参照" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{07A3D78A-00F5-4019-BC61-B83E2CEDEEA5}" name="自動リトライ" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{5CA1824C-85AD-40DB-A0CE-9853C443448E}" name="最大リトライ回数" dataDxfId="22"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{3C3B66B3-BB87-4C07-80BD-579ABFE71137}" name="フォルダー名" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="キュー名" dataDxfId="27"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="説明" dataDxfId="26"/>
+    <tableColumn id="6" xr3:uid="{4D652F4A-5125-4BA7-BCE0-BCD13A330E29}" name="一意の参照" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{07A3D78A-00F5-4019-BC61-B83E2CEDEEA5}" name="自動リトライ" dataDxfId="24"/>
+    <tableColumn id="3" xr3:uid="{5CA1824C-85AD-40DB-A0CE-9853C443448E}" name="最大リトライ回数" dataDxfId="23"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="21"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:E201" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:E201" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="4" xr3:uid="{2E1B6A8E-85FA-465E-B215-15A8D8C44B57}" name="フォルダーID" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{5CFD4745-18D2-4B9F-9127-E66CA25B38B2}" name="フォルダー名" dataDxfId="16"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="キューID" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="キュー名" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{2E1B6A8E-85FA-465E-B215-15A8D8C44B57}" name="フォルダーID" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{5CFD4745-18D2-4B9F-9127-E66CA25B38B2}" name="フォルダー名" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="キューID" dataDxfId="16"/>
+    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="キュー名" dataDxfId="15"/>
+    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BDD2F9DC-3028-471A-A247-2ED5A9AC5566}" name="Table135" displayName="Table135" ref="A1:D201" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
-  <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{3A524577-2886-46D9-BDC3-73F7E697D198}" name="フォルダー名" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{FAB26460-45C9-47D7-93FB-35118D5F4DF0}" name="キュー名" dataDxfId="9"/>
-    <tableColumn id="1" xr3:uid="{C455FEB9-1F4C-4FD2-9BC3-F5CA89B885F6}" name="保存フォルダーパス" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{EDEDFBDB-A6F3-441B-AA68-79FEE4009BFD}" name="結果" dataDxfId="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BDD2F9DC-3028-471A-A247-2ED5A9AC5566}" name="Table135" displayName="Table135" ref="A1:E201" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="5">
+    <tableColumn id="4" xr3:uid="{3A524577-2886-46D9-BDC3-73F7E697D198}" name="フォルダー名" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{FAB26460-45C9-47D7-93FB-35118D5F4DF0}" name="キュー名" dataDxfId="10"/>
+    <tableColumn id="1" xr3:uid="{C455FEB9-1F4C-4FD2-9BC3-F5CA89B885F6}" name="保存フォルダーパス" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{EDEDFBDB-A6F3-441B-AA68-79FEE4009BFD}" name="ダウンロードされたキューアイテム一覧のパス" dataDxfId="8"/>
+    <tableColumn id="6" xr3:uid="{AED7CCA4-E5E0-43C7-A24D-A208C619EBF2}" name="結果" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C4F260B6-262D-46C1-B4D1-BCFC6884B63D}" name="Table1356" displayName="Table1356" ref="A1:E201" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C4F260B6-262D-46C1-B4D1-BCFC6884B63D}" name="Table1356" displayName="Table1356" ref="A1:E201" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="4" xr3:uid="{F1E05E03-DBDF-4491-9EE8-8A6B21F57814}" name="フォルダー名" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{E328AFBB-DF63-41AD-B11E-E7642D9A3121}" name="キュー名" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{56CE4921-90D7-421E-9313-6592D86EA9FB}" name="キューアイテム一覧のファイルパス" dataDxfId="2"/>
-    <tableColumn id="1" xr3:uid="{32C7ACF1-5123-4602-B742-646D45AF8932}" name="コミットの種類" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{835CC962-3DD4-4C84-9423-395F4642CE78}" name="結果" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{F1E05E03-DBDF-4491-9EE8-8A6B21F57814}" name="フォルダー名" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{E328AFBB-DF63-41AD-B11E-E7642D9A3121}" name="キュー名" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{56CE4921-90D7-421E-9313-6592D86EA9FB}" name="事前にダウンロードされたキューアイテム一覧のファイルパス" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{32C7ACF1-5123-4602-B742-646D45AF8932}" name="コミットの種類" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{835CC962-3DD4-4C84-9423-395F4642CE78}" name="結果" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1441,23 +1472,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.7109375" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.42578125" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" style="5" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" style="13" customWidth="1"/>
     <col min="4" max="4" width="25.5703125" style="10" customWidth="1"/>
     <col min="5" max="5" width="45.5703125" style="10" customWidth="1"/>
     <col min="6" max="6" width="25.5703125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="17.28515625" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.5703125" style="14" customWidth="1"/>
     <col min="9" max="16384" width="8.7109375" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>7</v>
@@ -3514,7 +3545,7 @@
     <col min="1" max="2" width="25.5703125" style="5" customWidth="1"/>
     <col min="3" max="3" width="45.5703125" style="19" customWidth="1"/>
     <col min="4" max="4" width="25.5703125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.5703125" style="10" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" style="10" customWidth="1"/>
     <col min="8" max="8" width="45.5703125" style="10" customWidth="1"/>
@@ -3523,7 +3554,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -5588,10 +5619,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>7</v>
@@ -7023,7 +7054,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C90ADFB-39E2-4E0D-925E-4B04454CB397}">
-  <dimension ref="A1:D201"/>
+  <dimension ref="A1:E201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -7033,14 +7064,14 @@
   <cols>
     <col min="1" max="1" width="25.5703125" style="5" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" style="10" customWidth="1"/>
-    <col min="3" max="4" width="45.5703125" style="10" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" style="10" customWidth="1"/>
+    <col min="4" max="5" width="55.42578125" style="10" customWidth="1"/>
     <col min="6" max="16384" width="8.7109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -7049,1208 +7080,1411 @@
         <v>8</v>
       </c>
       <c r="D1" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="6"/>
       <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="6"/>
       <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="6"/>
       <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="6"/>
       <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="6"/>
       <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="6"/>
       <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="6"/>
       <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="6"/>
       <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="6"/>
       <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="6"/>
       <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="6"/>
       <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="6"/>
       <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="6"/>
       <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="6"/>
       <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="6"/>
       <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="6"/>
       <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="6"/>
       <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="6"/>
       <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="6"/>
       <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="6"/>
       <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="6"/>
       <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="6"/>
       <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="6"/>
       <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="6"/>
       <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="6"/>
       <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="6"/>
       <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="6"/>
       <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="6"/>
       <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="6"/>
       <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="6"/>
       <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="6"/>
       <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="6"/>
       <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="6"/>
       <c r="D34" s="1"/>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="6"/>
       <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="6"/>
       <c r="D36" s="1"/>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="6"/>
       <c r="D37" s="1"/>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="6"/>
       <c r="D38" s="1"/>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="6"/>
       <c r="D39" s="1"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="6"/>
       <c r="D40" s="1"/>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="6"/>
       <c r="D41" s="1"/>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="6"/>
       <c r="D42" s="1"/>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="6"/>
       <c r="D43" s="1"/>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="6"/>
       <c r="D44" s="1"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="6"/>
       <c r="D45" s="1"/>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E45" s="1"/>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="6"/>
       <c r="D46" s="1"/>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" s="1"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="6"/>
       <c r="D47" s="1"/>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E47" s="1"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="6"/>
       <c r="D48" s="1"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="1"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="6"/>
       <c r="D49" s="1"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="1"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="6"/>
       <c r="D50" s="1"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="1"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="6"/>
       <c r="D51" s="1"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="6"/>
       <c r="D52" s="1"/>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="1"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="6"/>
       <c r="D53" s="1"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="1"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="6"/>
       <c r="D54" s="1"/>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="1"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="6"/>
       <c r="D55" s="1"/>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="1"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="6"/>
       <c r="D56" s="1"/>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="1"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="6"/>
       <c r="D57" s="1"/>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="1"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="6"/>
       <c r="D58" s="1"/>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="1"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="6"/>
       <c r="D59" s="1"/>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="1"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="6"/>
       <c r="D60" s="1"/>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="1"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="6"/>
       <c r="D61" s="1"/>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="6"/>
       <c r="D62" s="1"/>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="6"/>
       <c r="D63" s="1"/>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="6"/>
       <c r="D64" s="1"/>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="6"/>
       <c r="D65" s="1"/>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="6"/>
       <c r="D66" s="1"/>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="6"/>
       <c r="D67" s="1"/>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="6"/>
       <c r="D68" s="1"/>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="6"/>
       <c r="D69" s="1"/>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="6"/>
       <c r="D70" s="1"/>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="6"/>
       <c r="D71" s="1"/>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="6"/>
       <c r="D72" s="1"/>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="6"/>
       <c r="D73" s="1"/>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="6"/>
       <c r="D74" s="1"/>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="6"/>
       <c r="D75" s="1"/>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="6"/>
       <c r="D76" s="1"/>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="6"/>
       <c r="D77" s="1"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="6"/>
       <c r="D78" s="1"/>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="6"/>
       <c r="D79" s="1"/>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="6"/>
       <c r="D80" s="1"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="6"/>
       <c r="D81" s="1"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="6"/>
       <c r="D82" s="1"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="6"/>
       <c r="D83" s="1"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="6"/>
       <c r="D84" s="1"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="6"/>
       <c r="D85" s="1"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="6"/>
       <c r="D86" s="1"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="6"/>
       <c r="D87" s="1"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="6"/>
       <c r="D88" s="1"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="6"/>
       <c r="D89" s="1"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="6"/>
       <c r="D90" s="1"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="6"/>
       <c r="D91" s="1"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="6"/>
       <c r="D92" s="1"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" s="1"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="6"/>
       <c r="D93" s="1"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="6"/>
       <c r="D94" s="1"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="6"/>
       <c r="D95" s="1"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="6"/>
       <c r="D96" s="1"/>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="6"/>
       <c r="D97" s="1"/>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="6"/>
       <c r="D98" s="1"/>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="6"/>
       <c r="D99" s="1"/>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="6"/>
       <c r="D100" s="1"/>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="6"/>
       <c r="D101" s="1"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101" s="1"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="6"/>
       <c r="D102" s="1"/>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102" s="1"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="6"/>
       <c r="D103" s="1"/>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103" s="1"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="6"/>
       <c r="D104" s="1"/>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104" s="1"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="6"/>
       <c r="D105" s="1"/>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105" s="1"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="6"/>
       <c r="D106" s="1"/>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106" s="1"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="6"/>
       <c r="D107" s="1"/>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107" s="1"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="6"/>
       <c r="D108" s="1"/>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108" s="1"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="6"/>
       <c r="D109" s="1"/>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109" s="1"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="6"/>
       <c r="D110" s="1"/>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110" s="1"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="6"/>
       <c r="D111" s="1"/>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111" s="1"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="6"/>
       <c r="D112" s="1"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112" s="1"/>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="6"/>
       <c r="D113" s="1"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113" s="1"/>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="6"/>
       <c r="D114" s="1"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114" s="1"/>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="6"/>
       <c r="D115" s="1"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115" s="1"/>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="6"/>
       <c r="D116" s="1"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116" s="1"/>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="6"/>
       <c r="D117" s="1"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117" s="1"/>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="6"/>
       <c r="D118" s="1"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118" s="1"/>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="6"/>
       <c r="D119" s="1"/>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119" s="1"/>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="6"/>
       <c r="D120" s="1"/>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120" s="1"/>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="6"/>
       <c r="D121" s="1"/>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121" s="1"/>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="6"/>
       <c r="D122" s="1"/>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122" s="1"/>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="6"/>
       <c r="D123" s="1"/>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123" s="1"/>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="6"/>
       <c r="D124" s="1"/>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124" s="1"/>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="6"/>
       <c r="D125" s="1"/>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125" s="1"/>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="6"/>
       <c r="D126" s="1"/>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126" s="1"/>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="6"/>
       <c r="D127" s="1"/>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127" s="1"/>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="6"/>
       <c r="D128" s="1"/>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128" s="1"/>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="6"/>
       <c r="D129" s="1"/>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129" s="1"/>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="6"/>
       <c r="D130" s="1"/>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130" s="1"/>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="6"/>
       <c r="D131" s="1"/>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131" s="1"/>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="6"/>
       <c r="D132" s="1"/>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132" s="1"/>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="6"/>
       <c r="D133" s="1"/>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133" s="1"/>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="6"/>
       <c r="D134" s="1"/>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134" s="1"/>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="6"/>
       <c r="D135" s="1"/>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135" s="1"/>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="6"/>
       <c r="D136" s="1"/>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136" s="1"/>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="6"/>
       <c r="D137" s="1"/>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137" s="1"/>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="6"/>
       <c r="D138" s="1"/>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138" s="1"/>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="6"/>
       <c r="D139" s="1"/>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139" s="1"/>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="6"/>
       <c r="D140" s="1"/>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140" s="1"/>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="6"/>
       <c r="D141" s="1"/>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E141" s="1"/>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="6"/>
       <c r="D142" s="1"/>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E142" s="1"/>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="6"/>
       <c r="D143" s="1"/>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E143" s="1"/>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="6"/>
       <c r="D144" s="1"/>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E144" s="1"/>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="6"/>
       <c r="D145" s="1"/>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E145" s="1"/>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="6"/>
       <c r="D146" s="1"/>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E146" s="1"/>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="6"/>
       <c r="D147" s="1"/>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E147" s="1"/>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="6"/>
       <c r="D148" s="1"/>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E148" s="1"/>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="6"/>
       <c r="D149" s="1"/>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E149" s="1"/>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="6"/>
       <c r="D150" s="1"/>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E150" s="1"/>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="6"/>
       <c r="D151" s="1"/>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E151" s="1"/>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="6"/>
       <c r="D152" s="1"/>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E152" s="1"/>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="6"/>
       <c r="D153" s="1"/>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E153" s="1"/>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="6"/>
       <c r="D154" s="1"/>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E154" s="1"/>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="6"/>
       <c r="D155" s="1"/>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E155" s="1"/>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="6"/>
       <c r="D156" s="1"/>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E156" s="1"/>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="6"/>
       <c r="D157" s="1"/>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E157" s="1"/>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="6"/>
       <c r="D158" s="1"/>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E158" s="1"/>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="6"/>
       <c r="D159" s="1"/>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E159" s="1"/>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="6"/>
       <c r="D160" s="1"/>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E160" s="1"/>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="6"/>
       <c r="D161" s="1"/>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E161" s="1"/>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="6"/>
       <c r="D162" s="1"/>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E162" s="1"/>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="6"/>
       <c r="D163" s="1"/>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E163" s="1"/>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="6"/>
       <c r="D164" s="1"/>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E164" s="1"/>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="6"/>
       <c r="D165" s="1"/>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E165" s="1"/>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="6"/>
       <c r="D166" s="1"/>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E166" s="1"/>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="6"/>
       <c r="D167" s="1"/>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E167" s="1"/>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="6"/>
       <c r="D168" s="1"/>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E168" s="1"/>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="6"/>
       <c r="D169" s="1"/>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E169" s="1"/>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="6"/>
       <c r="D170" s="1"/>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E170" s="1"/>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="6"/>
       <c r="D171" s="1"/>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E171" s="1"/>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="6"/>
       <c r="D172" s="1"/>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E172" s="1"/>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="6"/>
       <c r="D173" s="1"/>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E173" s="1"/>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="6"/>
       <c r="D174" s="1"/>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E174" s="1"/>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="6"/>
       <c r="D175" s="1"/>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E175" s="1"/>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="6"/>
       <c r="D176" s="1"/>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E176" s="1"/>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="6"/>
       <c r="D177" s="1"/>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E177" s="1"/>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="6"/>
       <c r="D178" s="1"/>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E178" s="1"/>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="6"/>
       <c r="D179" s="1"/>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E179" s="1"/>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="6"/>
       <c r="D180" s="1"/>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E180" s="1"/>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="6"/>
       <c r="D181" s="1"/>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E181" s="1"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="6"/>
       <c r="D182" s="1"/>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E182" s="1"/>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="6"/>
       <c r="D183" s="1"/>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E183" s="1"/>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="6"/>
       <c r="D184" s="1"/>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E184" s="1"/>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="6"/>
       <c r="D185" s="1"/>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E185" s="1"/>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="6"/>
       <c r="D186" s="1"/>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E186" s="1"/>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="6"/>
       <c r="D187" s="1"/>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E187" s="1"/>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="6"/>
       <c r="D188" s="1"/>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E188" s="1"/>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="6"/>
       <c r="D189" s="1"/>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E189" s="1"/>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="6"/>
       <c r="D190" s="1"/>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E190" s="1"/>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="6"/>
       <c r="D191" s="1"/>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E191" s="1"/>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="6"/>
       <c r="D192" s="1"/>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E192" s="1"/>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="6"/>
       <c r="D193" s="1"/>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E193" s="1"/>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="6"/>
       <c r="D194" s="1"/>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E194" s="1"/>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="6"/>
       <c r="D195" s="1"/>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E195" s="1"/>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="6"/>
       <c r="D196" s="1"/>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E196" s="1"/>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="6"/>
       <c r="D197" s="1"/>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E197" s="1"/>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="6"/>
       <c r="D198" s="1"/>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E198" s="1"/>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="6"/>
       <c r="D199" s="1"/>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E199" s="1"/>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="6"/>
       <c r="D200" s="1"/>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E200" s="1"/>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="18"/>
       <c r="B201" s="18"/>
       <c r="C201" s="7"/>
       <c r="D201" s="1"/>
+      <c r="E201" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8273,7 +8507,7 @@
   <cols>
     <col min="1" max="1" width="25.5703125" style="5" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="45.5703125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="75" style="10" customWidth="1"/>
     <col min="4" max="4" width="25.5703125" style="10" customWidth="1"/>
     <col min="5" max="5" width="45.5703125" style="10" customWidth="1"/>
     <col min="6" max="16384" width="8.7109375" style="10"/>
@@ -8281,16 +8515,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>1</v>

--- a/Workbooks/JA/キュー.xlsx
+++ b/Workbooks/JA/キュー.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23231"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83980BD7-D16C-453F-8530-B7E94E5CAA05}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E359980B-22B7-44A3-B040-9862B7A379BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="13">
   <si>
     <t>ID</t>
   </si>
@@ -66,6 +66,9 @@
     <t>保存フォルダーパス</t>
   </si>
   <si>
+    <t>キューアイテム一覧のファイルパス</t>
+  </si>
+  <si>
     <t>コミットの種類</t>
   </si>
   <si>
@@ -73,12 +76,6 @@
   </si>
   <si>
     <t>フォルダー名</t>
-  </si>
-  <si>
-    <t>事前にダウンロードされたキューアイテム一覧のファイルパス</t>
-  </si>
-  <si>
-    <t>ダウンロードされたキューアイテム一覧のパス</t>
   </si>
 </sst>
 </file>
@@ -315,34 +312,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="42">
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
+  <dxfs count="41">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -1126,76 +1096,75 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:H201" headerRowDxfId="41" dataDxfId="40" totalsRowDxfId="39">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:H201" headerRowDxfId="40" dataDxfId="39" totalsRowDxfId="38">
   <autoFilter ref="A1:H201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{F48D04D3-B22E-457E-8F3F-6D0CF14127A6}" name="フォルダーID" dataDxfId="38"/>
-    <tableColumn id="7" xr3:uid="{012AE434-BA00-4CDD-8DBE-8524E276CBF0}" name="フォルダー名" dataDxfId="37"/>
-    <tableColumn id="6" xr3:uid="{81F10BAB-541D-4EEA-8F4A-504125FC59D3}" name="キューID" dataDxfId="36"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="キュー名" totalsRowLabel="Total" dataDxfId="35"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="説明" dataDxfId="34"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="一意の参照" dataDxfId="33"/>
-    <tableColumn id="3" xr3:uid="{EA8DF354-2F10-4E45-801A-56D5F80552D8}" name="自動リトライ" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="最大リトライ回数" totalsRowFunction="count" dataDxfId="31"/>
+    <tableColumn id="8" xr3:uid="{F48D04D3-B22E-457E-8F3F-6D0CF14127A6}" name="フォルダーID" dataDxfId="37"/>
+    <tableColumn id="7" xr3:uid="{012AE434-BA00-4CDD-8DBE-8524E276CBF0}" name="フォルダー名" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{81F10BAB-541D-4EEA-8F4A-504125FC59D3}" name="キューID" dataDxfId="35"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="キュー名" totalsRowLabel="Total" dataDxfId="34"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="説明" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="一意の参照" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{EA8DF354-2F10-4E45-801A-56D5F80552D8}" name="自動リトライ" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="最大リトライ回数" totalsRowFunction="count" dataDxfId="30"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H201" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H201" totalsRowShown="0" headerRowDxfId="29" dataDxfId="28">
   <autoFilter ref="A1:H201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{3C3B66B3-BB87-4C07-80BD-579ABFE71137}" name="フォルダー名" dataDxfId="28"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="キュー名" dataDxfId="27"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="説明" dataDxfId="26"/>
-    <tableColumn id="6" xr3:uid="{4D652F4A-5125-4BA7-BCE0-BCD13A330E29}" name="一意の参照" dataDxfId="25"/>
-    <tableColumn id="7" xr3:uid="{07A3D78A-00F5-4019-BC61-B83E2CEDEEA5}" name="自動リトライ" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{5CA1824C-85AD-40DB-A0CE-9853C443448E}" name="最大リトライ回数" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="21"/>
+    <tableColumn id="8" xr3:uid="{3C3B66B3-BB87-4C07-80BD-579ABFE71137}" name="フォルダー名" dataDxfId="27"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="キュー名" dataDxfId="26"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="説明" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{4D652F4A-5125-4BA7-BCE0-BCD13A330E29}" name="一意の参照" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{07A3D78A-00F5-4019-BC61-B83E2CEDEEA5}" name="自動リトライ" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{5CA1824C-85AD-40DB-A0CE-9853C443448E}" name="最大リトライ回数" dataDxfId="22"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="20"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:E201" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:E201" totalsRowShown="0" headerRowDxfId="19" dataDxfId="18">
   <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="4" xr3:uid="{2E1B6A8E-85FA-465E-B215-15A8D8C44B57}" name="フォルダーID" dataDxfId="18"/>
-    <tableColumn id="5" xr3:uid="{5CFD4745-18D2-4B9F-9127-E66CA25B38B2}" name="フォルダー名" dataDxfId="17"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="キューID" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="キュー名" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="14"/>
+    <tableColumn id="4" xr3:uid="{2E1B6A8E-85FA-465E-B215-15A8D8C44B57}" name="フォルダーID" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{5CFD4745-18D2-4B9F-9127-E66CA25B38B2}" name="フォルダー名" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="キューID" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="キュー名" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BDD2F9DC-3028-471A-A247-2ED5A9AC5566}" name="Table135" displayName="Table135" ref="A1:E201" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <tableColumns count="5">
-    <tableColumn id="4" xr3:uid="{3A524577-2886-46D9-BDC3-73F7E697D198}" name="フォルダー名" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{FAB26460-45C9-47D7-93FB-35118D5F4DF0}" name="キュー名" dataDxfId="10"/>
-    <tableColumn id="1" xr3:uid="{C455FEB9-1F4C-4FD2-9BC3-F5CA89B885F6}" name="保存フォルダーパス" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{EDEDFBDB-A6F3-441B-AA68-79FEE4009BFD}" name="ダウンロードされたキューアイテム一覧のパス" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{AED7CCA4-E5E0-43C7-A24D-A208C619EBF2}" name="結果" dataDxfId="0"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BDD2F9DC-3028-471A-A247-2ED5A9AC5566}" name="Table135" displayName="Table135" ref="A1:D201" totalsRowShown="0" headerRowDxfId="12" dataDxfId="11">
+  <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="4" xr3:uid="{3A524577-2886-46D9-BDC3-73F7E697D198}" name="フォルダー名" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{FAB26460-45C9-47D7-93FB-35118D5F4DF0}" name="キュー名" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{C455FEB9-1F4C-4FD2-9BC3-F5CA89B885F6}" name="保存フォルダーパス" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{EDEDFBDB-A6F3-441B-AA68-79FEE4009BFD}" name="結果" dataDxfId="7"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C4F260B6-262D-46C1-B4D1-BCFC6884B63D}" name="Table1356" displayName="Table1356" ref="A1:E201" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{C4F260B6-262D-46C1-B4D1-BCFC6884B63D}" name="Table1356" displayName="Table1356" ref="A1:E201" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="4" xr3:uid="{F1E05E03-DBDF-4491-9EE8-8A6B21F57814}" name="フォルダー名" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{E328AFBB-DF63-41AD-B11E-E7642D9A3121}" name="キュー名" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{56CE4921-90D7-421E-9313-6592D86EA9FB}" name="事前にダウンロードされたキューアイテム一覧のファイルパス" dataDxfId="3"/>
-    <tableColumn id="1" xr3:uid="{32C7ACF1-5123-4602-B742-646D45AF8932}" name="コミットの種類" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{835CC962-3DD4-4C84-9423-395F4642CE78}" name="結果" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{F1E05E03-DBDF-4491-9EE8-8A6B21F57814}" name="フォルダー名" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{E328AFBB-DF63-41AD-B11E-E7642D9A3121}" name="キュー名" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{56CE4921-90D7-421E-9313-6592D86EA9FB}" name="キューアイテム一覧のファイルパス" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{32C7ACF1-5123-4602-B742-646D45AF8932}" name="コミットの種類" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{835CC962-3DD4-4C84-9423-395F4642CE78}" name="結果" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1472,23 +1441,23 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.7109375" style="13" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" style="5" customWidth="1"/>
     <col min="3" max="3" width="15.5703125" style="13" customWidth="1"/>
     <col min="4" max="4" width="25.5703125" style="10" customWidth="1"/>
     <col min="5" max="5" width="45.5703125" style="10" customWidth="1"/>
     <col min="6" max="6" width="25.5703125" style="10" customWidth="1"/>
-    <col min="7" max="7" width="18" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="10" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="25.5703125" style="14" customWidth="1"/>
     <col min="9" max="16384" width="8.7109375" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>7</v>
@@ -3545,7 +3514,7 @@
     <col min="1" max="2" width="25.5703125" style="5" customWidth="1"/>
     <col min="3" max="3" width="45.5703125" style="19" customWidth="1"/>
     <col min="4" max="4" width="25.5703125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="18" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="25.5703125" style="10" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" style="10" customWidth="1"/>
     <col min="8" max="8" width="45.5703125" style="10" customWidth="1"/>
@@ -3554,7 +3523,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -5619,10 +5588,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>7</v>
@@ -7054,7 +7023,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C90ADFB-39E2-4E0D-925E-4B04454CB397}">
-  <dimension ref="A1:E201"/>
+  <dimension ref="A1:D201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -7064,14 +7033,14 @@
   <cols>
     <col min="1" max="1" width="25.5703125" style="5" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="45.5703125" style="10" customWidth="1"/>
-    <col min="4" max="5" width="55.42578125" style="10" customWidth="1"/>
+    <col min="3" max="4" width="45.5703125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="10" customWidth="1"/>
     <col min="6" max="16384" width="8.7109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>6</v>
@@ -7080,1411 +7049,1208 @@
         <v>8</v>
       </c>
       <c r="D1" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E1" s="15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="17"/>
       <c r="B2" s="17"/>
       <c r="C2" s="6"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="6"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="6"/>
       <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="6"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="6"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="6"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="6"/>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="6"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="6"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="6"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="6"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="6"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="6"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="6"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="C16" s="6"/>
       <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2"/>
       <c r="B17" s="2"/>
       <c r="C17" s="6"/>
       <c r="D17" s="1"/>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2"/>
       <c r="B18" s="2"/>
       <c r="C18" s="6"/>
       <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2"/>
       <c r="B19" s="2"/>
       <c r="C19" s="6"/>
       <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2"/>
       <c r="B20" s="2"/>
       <c r="C20" s="6"/>
       <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2"/>
       <c r="B21" s="2"/>
       <c r="C21" s="6"/>
       <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2"/>
       <c r="B22" s="2"/>
       <c r="C22" s="6"/>
       <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2"/>
       <c r="B23" s="2"/>
       <c r="C23" s="6"/>
       <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2"/>
       <c r="B24" s="2"/>
       <c r="C24" s="6"/>
       <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
       <c r="B25" s="2"/>
       <c r="C25" s="6"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2"/>
       <c r="B26" s="2"/>
       <c r="C26" s="6"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2"/>
       <c r="B27" s="2"/>
       <c r="C27" s="6"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="6"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2"/>
       <c r="B29" s="2"/>
       <c r="C29" s="6"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2"/>
       <c r="B30" s="2"/>
       <c r="C30" s="6"/>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2"/>
       <c r="B31" s="2"/>
       <c r="C31" s="6"/>
       <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2"/>
       <c r="B32" s="2"/>
       <c r="C32" s="6"/>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2"/>
       <c r="B33" s="2"/>
       <c r="C33" s="6"/>
       <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
       <c r="B34" s="2"/>
       <c r="C34" s="6"/>
       <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2"/>
       <c r="B35" s="2"/>
       <c r="C35" s="6"/>
       <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2"/>
       <c r="B36" s="2"/>
       <c r="C36" s="6"/>
       <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
       <c r="C37" s="6"/>
       <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2"/>
       <c r="B38" s="2"/>
       <c r="C38" s="6"/>
       <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2"/>
       <c r="B39" s="2"/>
       <c r="C39" s="6"/>
       <c r="D39" s="1"/>
-      <c r="E39" s="1"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2"/>
       <c r="B40" s="2"/>
       <c r="C40" s="6"/>
       <c r="D40" s="1"/>
-      <c r="E40" s="1"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
       <c r="B41" s="2"/>
       <c r="C41" s="6"/>
       <c r="D41" s="1"/>
-      <c r="E41" s="1"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2"/>
       <c r="B42" s="2"/>
       <c r="C42" s="6"/>
       <c r="D42" s="1"/>
-      <c r="E42" s="1"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2"/>
       <c r="B43" s="2"/>
       <c r="C43" s="6"/>
       <c r="D43" s="1"/>
-      <c r="E43" s="1"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2"/>
       <c r="B44" s="2"/>
       <c r="C44" s="6"/>
       <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="2"/>
       <c r="C45" s="6"/>
       <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2"/>
       <c r="B46" s="2"/>
       <c r="C46" s="6"/>
       <c r="D46" s="1"/>
-      <c r="E46" s="1"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2"/>
       <c r="B47" s="2"/>
       <c r="C47" s="6"/>
       <c r="D47" s="1"/>
-      <c r="E47" s="1"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2"/>
       <c r="B48" s="2"/>
       <c r="C48" s="6"/>
       <c r="D48" s="1"/>
-      <c r="E48" s="1"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2"/>
       <c r="B49" s="2"/>
       <c r="C49" s="6"/>
       <c r="D49" s="1"/>
-      <c r="E49" s="1"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2"/>
       <c r="B50" s="2"/>
       <c r="C50" s="6"/>
       <c r="D50" s="1"/>
-      <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2"/>
       <c r="B51" s="2"/>
       <c r="C51" s="6"/>
       <c r="D51" s="1"/>
-      <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2"/>
       <c r="B52" s="2"/>
       <c r="C52" s="6"/>
       <c r="D52" s="1"/>
-      <c r="E52" s="1"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2"/>
       <c r="B53" s="2"/>
       <c r="C53" s="6"/>
       <c r="D53" s="1"/>
-      <c r="E53" s="1"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2"/>
       <c r="B54" s="2"/>
       <c r="C54" s="6"/>
       <c r="D54" s="1"/>
-      <c r="E54" s="1"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2"/>
       <c r="B55" s="2"/>
       <c r="C55" s="6"/>
       <c r="D55" s="1"/>
-      <c r="E55" s="1"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2"/>
       <c r="B56" s="2"/>
       <c r="C56" s="6"/>
       <c r="D56" s="1"/>
-      <c r="E56" s="1"/>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="6"/>
       <c r="D57" s="1"/>
-      <c r="E57" s="1"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2"/>
       <c r="B58" s="2"/>
       <c r="C58" s="6"/>
       <c r="D58" s="1"/>
-      <c r="E58" s="1"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2"/>
       <c r="B59" s="2"/>
       <c r="C59" s="6"/>
       <c r="D59" s="1"/>
-      <c r="E59" s="1"/>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2"/>
       <c r="B60" s="2"/>
       <c r="C60" s="6"/>
       <c r="D60" s="1"/>
-      <c r="E60" s="1"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="6"/>
       <c r="D61" s="1"/>
-      <c r="E61" s="1"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2"/>
       <c r="B62" s="2"/>
       <c r="C62" s="6"/>
       <c r="D62" s="1"/>
-      <c r="E62" s="1"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2"/>
       <c r="B63" s="2"/>
       <c r="C63" s="6"/>
       <c r="D63" s="1"/>
-      <c r="E63" s="1"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2"/>
       <c r="B64" s="2"/>
       <c r="C64" s="6"/>
       <c r="D64" s="1"/>
-      <c r="E64" s="1"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2"/>
       <c r="B65" s="2"/>
       <c r="C65" s="6"/>
       <c r="D65" s="1"/>
-      <c r="E65" s="1"/>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="2"/>
       <c r="B66" s="2"/>
       <c r="C66" s="6"/>
       <c r="D66" s="1"/>
-      <c r="E66" s="1"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="2"/>
       <c r="B67" s="2"/>
       <c r="C67" s="6"/>
       <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="2"/>
       <c r="B68" s="2"/>
       <c r="C68" s="6"/>
       <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="2"/>
       <c r="B69" s="2"/>
       <c r="C69" s="6"/>
       <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2"/>
       <c r="B70" s="2"/>
       <c r="C70" s="6"/>
       <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2"/>
       <c r="B71" s="2"/>
       <c r="C71" s="6"/>
       <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2"/>
       <c r="B72" s="2"/>
       <c r="C72" s="6"/>
       <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2"/>
       <c r="B73" s="2"/>
       <c r="C73" s="6"/>
       <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="6"/>
       <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="2"/>
       <c r="B75" s="2"/>
       <c r="C75" s="6"/>
       <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="2"/>
       <c r="B76" s="2"/>
       <c r="C76" s="6"/>
       <c r="D76" s="1"/>
-      <c r="E76" s="1"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="2"/>
       <c r="B77" s="2"/>
       <c r="C77" s="6"/>
       <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="2"/>
       <c r="B78" s="2"/>
       <c r="C78" s="6"/>
       <c r="D78" s="1"/>
-      <c r="E78" s="1"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2"/>
       <c r="B79" s="2"/>
       <c r="C79" s="6"/>
       <c r="D79" s="1"/>
-      <c r="E79" s="1"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2"/>
       <c r="B80" s="2"/>
       <c r="C80" s="6"/>
       <c r="D80" s="1"/>
-      <c r="E80" s="1"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2"/>
       <c r="B81" s="2"/>
       <c r="C81" s="6"/>
       <c r="D81" s="1"/>
-      <c r="E81" s="1"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2"/>
       <c r="B82" s="2"/>
       <c r="C82" s="6"/>
       <c r="D82" s="1"/>
-      <c r="E82" s="1"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2"/>
       <c r="B83" s="2"/>
       <c r="C83" s="6"/>
       <c r="D83" s="1"/>
-      <c r="E83" s="1"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2"/>
       <c r="B84" s="2"/>
       <c r="C84" s="6"/>
       <c r="D84" s="1"/>
-      <c r="E84" s="1"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2"/>
       <c r="B85" s="2"/>
       <c r="C85" s="6"/>
       <c r="D85" s="1"/>
-      <c r="E85" s="1"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2"/>
       <c r="B86" s="2"/>
       <c r="C86" s="6"/>
       <c r="D86" s="1"/>
-      <c r="E86" s="1"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2"/>
       <c r="B87" s="2"/>
       <c r="C87" s="6"/>
       <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2"/>
       <c r="B88" s="2"/>
       <c r="C88" s="6"/>
       <c r="D88" s="1"/>
-      <c r="E88" s="1"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2"/>
       <c r="B89" s="2"/>
       <c r="C89" s="6"/>
       <c r="D89" s="1"/>
-      <c r="E89" s="1"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2"/>
       <c r="B90" s="2"/>
       <c r="C90" s="6"/>
       <c r="D90" s="1"/>
-      <c r="E90" s="1"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="2"/>
       <c r="B91" s="2"/>
       <c r="C91" s="6"/>
       <c r="D91" s="1"/>
-      <c r="E91" s="1"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="2"/>
       <c r="B92" s="2"/>
       <c r="C92" s="6"/>
       <c r="D92" s="1"/>
-      <c r="E92" s="1"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="2"/>
       <c r="B93" s="2"/>
       <c r="C93" s="6"/>
       <c r="D93" s="1"/>
-      <c r="E93" s="1"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="2"/>
       <c r="B94" s="2"/>
       <c r="C94" s="6"/>
       <c r="D94" s="1"/>
-      <c r="E94" s="1"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="2"/>
       <c r="B95" s="2"/>
       <c r="C95" s="6"/>
       <c r="D95" s="1"/>
-      <c r="E95" s="1"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="2"/>
       <c r="B96" s="2"/>
       <c r="C96" s="6"/>
       <c r="D96" s="1"/>
-      <c r="E96" s="1"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="2"/>
       <c r="B97" s="2"/>
       <c r="C97" s="6"/>
       <c r="D97" s="1"/>
-      <c r="E97" s="1"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="2"/>
       <c r="B98" s="2"/>
       <c r="C98" s="6"/>
       <c r="D98" s="1"/>
-      <c r="E98" s="1"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="2"/>
       <c r="B99" s="2"/>
       <c r="C99" s="6"/>
       <c r="D99" s="1"/>
-      <c r="E99" s="1"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="2"/>
       <c r="B100" s="2"/>
       <c r="C100" s="6"/>
       <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="2"/>
       <c r="B101" s="2"/>
       <c r="C101" s="6"/>
       <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="2"/>
       <c r="B102" s="2"/>
       <c r="C102" s="6"/>
       <c r="D102" s="1"/>
-      <c r="E102" s="1"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="2"/>
       <c r="B103" s="2"/>
       <c r="C103" s="6"/>
       <c r="D103" s="1"/>
-      <c r="E103" s="1"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="2"/>
       <c r="B104" s="2"/>
       <c r="C104" s="6"/>
       <c r="D104" s="1"/>
-      <c r="E104" s="1"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="2"/>
       <c r="B105" s="2"/>
       <c r="C105" s="6"/>
       <c r="D105" s="1"/>
-      <c r="E105" s="1"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="2"/>
       <c r="B106" s="2"/>
       <c r="C106" s="6"/>
       <c r="D106" s="1"/>
-      <c r="E106" s="1"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="2"/>
       <c r="B107" s="2"/>
       <c r="C107" s="6"/>
       <c r="D107" s="1"/>
-      <c r="E107" s="1"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="2"/>
       <c r="B108" s="2"/>
       <c r="C108" s="6"/>
       <c r="D108" s="1"/>
-      <c r="E108" s="1"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="2"/>
       <c r="B109" s="2"/>
       <c r="C109" s="6"/>
       <c r="D109" s="1"/>
-      <c r="E109" s="1"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="2"/>
       <c r="B110" s="2"/>
       <c r="C110" s="6"/>
       <c r="D110" s="1"/>
-      <c r="E110" s="1"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="2"/>
       <c r="B111" s="2"/>
       <c r="C111" s="6"/>
       <c r="D111" s="1"/>
-      <c r="E111" s="1"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="2"/>
       <c r="B112" s="2"/>
       <c r="C112" s="6"/>
       <c r="D112" s="1"/>
-      <c r="E112" s="1"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="2"/>
       <c r="B113" s="2"/>
       <c r="C113" s="6"/>
       <c r="D113" s="1"/>
-      <c r="E113" s="1"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="2"/>
       <c r="B114" s="2"/>
       <c r="C114" s="6"/>
       <c r="D114" s="1"/>
-      <c r="E114" s="1"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="2"/>
       <c r="B115" s="2"/>
       <c r="C115" s="6"/>
       <c r="D115" s="1"/>
-      <c r="E115" s="1"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="2"/>
       <c r="B116" s="2"/>
       <c r="C116" s="6"/>
       <c r="D116" s="1"/>
-      <c r="E116" s="1"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="2"/>
       <c r="B117" s="2"/>
       <c r="C117" s="6"/>
       <c r="D117" s="1"/>
-      <c r="E117" s="1"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="2"/>
       <c r="B118" s="2"/>
       <c r="C118" s="6"/>
       <c r="D118" s="1"/>
-      <c r="E118" s="1"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="2"/>
       <c r="B119" s="2"/>
       <c r="C119" s="6"/>
       <c r="D119" s="1"/>
-      <c r="E119" s="1"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="2"/>
       <c r="B120" s="2"/>
       <c r="C120" s="6"/>
       <c r="D120" s="1"/>
-      <c r="E120" s="1"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="2"/>
       <c r="B121" s="2"/>
       <c r="C121" s="6"/>
       <c r="D121" s="1"/>
-      <c r="E121" s="1"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="2"/>
       <c r="B122" s="2"/>
       <c r="C122" s="6"/>
       <c r="D122" s="1"/>
-      <c r="E122" s="1"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="2"/>
       <c r="B123" s="2"/>
       <c r="C123" s="6"/>
       <c r="D123" s="1"/>
-      <c r="E123" s="1"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="2"/>
       <c r="B124" s="2"/>
       <c r="C124" s="6"/>
       <c r="D124" s="1"/>
-      <c r="E124" s="1"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="6"/>
       <c r="D125" s="1"/>
-      <c r="E125" s="1"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="2"/>
       <c r="B126" s="2"/>
       <c r="C126" s="6"/>
       <c r="D126" s="1"/>
-      <c r="E126" s="1"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A127" s="2"/>
       <c r="B127" s="2"/>
       <c r="C127" s="6"/>
       <c r="D127" s="1"/>
-      <c r="E127" s="1"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A128" s="2"/>
       <c r="B128" s="2"/>
       <c r="C128" s="6"/>
       <c r="D128" s="1"/>
-      <c r="E128" s="1"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A129" s="2"/>
       <c r="B129" s="2"/>
       <c r="C129" s="6"/>
       <c r="D129" s="1"/>
-      <c r="E129" s="1"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A130" s="2"/>
       <c r="B130" s="2"/>
       <c r="C130" s="6"/>
       <c r="D130" s="1"/>
-      <c r="E130" s="1"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A131" s="2"/>
       <c r="B131" s="2"/>
       <c r="C131" s="6"/>
       <c r="D131" s="1"/>
-      <c r="E131" s="1"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="6"/>
       <c r="D132" s="1"/>
-      <c r="E132" s="1"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A133" s="2"/>
       <c r="B133" s="2"/>
       <c r="C133" s="6"/>
       <c r="D133" s="1"/>
-      <c r="E133" s="1"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A134" s="2"/>
       <c r="B134" s="2"/>
       <c r="C134" s="6"/>
       <c r="D134" s="1"/>
-      <c r="E134" s="1"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A135" s="2"/>
       <c r="B135" s="2"/>
       <c r="C135" s="6"/>
       <c r="D135" s="1"/>
-      <c r="E135" s="1"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A136" s="2"/>
       <c r="B136" s="2"/>
       <c r="C136" s="6"/>
       <c r="D136" s="1"/>
-      <c r="E136" s="1"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A137" s="2"/>
       <c r="B137" s="2"/>
       <c r="C137" s="6"/>
       <c r="D137" s="1"/>
-      <c r="E137" s="1"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A138" s="2"/>
       <c r="B138" s="2"/>
       <c r="C138" s="6"/>
       <c r="D138" s="1"/>
-      <c r="E138" s="1"/>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A139" s="2"/>
       <c r="B139" s="2"/>
       <c r="C139" s="6"/>
       <c r="D139" s="1"/>
-      <c r="E139" s="1"/>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A140" s="2"/>
       <c r="B140" s="2"/>
       <c r="C140" s="6"/>
       <c r="D140" s="1"/>
-      <c r="E140" s="1"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A141" s="2"/>
       <c r="B141" s="2"/>
       <c r="C141" s="6"/>
       <c r="D141" s="1"/>
-      <c r="E141" s="1"/>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A142" s="2"/>
       <c r="B142" s="2"/>
       <c r="C142" s="6"/>
       <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A143" s="2"/>
       <c r="B143" s="2"/>
       <c r="C143" s="6"/>
       <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A144" s="2"/>
       <c r="B144" s="2"/>
       <c r="C144" s="6"/>
       <c r="D144" s="1"/>
-      <c r="E144" s="1"/>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A145" s="2"/>
       <c r="B145" s="2"/>
       <c r="C145" s="6"/>
       <c r="D145" s="1"/>
-      <c r="E145" s="1"/>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A146" s="2"/>
       <c r="B146" s="2"/>
       <c r="C146" s="6"/>
       <c r="D146" s="1"/>
-      <c r="E146" s="1"/>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A147" s="2"/>
       <c r="B147" s="2"/>
       <c r="C147" s="6"/>
       <c r="D147" s="1"/>
-      <c r="E147" s="1"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A148" s="2"/>
       <c r="B148" s="2"/>
       <c r="C148" s="6"/>
       <c r="D148" s="1"/>
-      <c r="E148" s="1"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A149" s="2"/>
       <c r="B149" s="2"/>
       <c r="C149" s="6"/>
       <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A150" s="2"/>
       <c r="B150" s="2"/>
       <c r="C150" s="6"/>
       <c r="D150" s="1"/>
-      <c r="E150" s="1"/>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A151" s="2"/>
       <c r="B151" s="2"/>
       <c r="C151" s="6"/>
       <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A152" s="2"/>
       <c r="B152" s="2"/>
       <c r="C152" s="6"/>
       <c r="D152" s="1"/>
-      <c r="E152" s="1"/>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A153" s="2"/>
       <c r="B153" s="2"/>
       <c r="C153" s="6"/>
       <c r="D153" s="1"/>
-      <c r="E153" s="1"/>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A154" s="2"/>
       <c r="B154" s="2"/>
       <c r="C154" s="6"/>
       <c r="D154" s="1"/>
-      <c r="E154" s="1"/>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A155" s="2"/>
       <c r="B155" s="2"/>
       <c r="C155" s="6"/>
       <c r="D155" s="1"/>
-      <c r="E155" s="1"/>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A156" s="2"/>
       <c r="B156" s="2"/>
       <c r="C156" s="6"/>
       <c r="D156" s="1"/>
-      <c r="E156" s="1"/>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A157" s="2"/>
       <c r="B157" s="2"/>
       <c r="C157" s="6"/>
       <c r="D157" s="1"/>
-      <c r="E157" s="1"/>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A158" s="2"/>
       <c r="B158" s="2"/>
       <c r="C158" s="6"/>
       <c r="D158" s="1"/>
-      <c r="E158" s="1"/>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A159" s="2"/>
       <c r="B159" s="2"/>
       <c r="C159" s="6"/>
       <c r="D159" s="1"/>
-      <c r="E159" s="1"/>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A160" s="2"/>
       <c r="B160" s="2"/>
       <c r="C160" s="6"/>
       <c r="D160" s="1"/>
-      <c r="E160" s="1"/>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A161" s="2"/>
       <c r="B161" s="2"/>
       <c r="C161" s="6"/>
       <c r="D161" s="1"/>
-      <c r="E161" s="1"/>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A162" s="2"/>
       <c r="B162" s="2"/>
       <c r="C162" s="6"/>
       <c r="D162" s="1"/>
-      <c r="E162" s="1"/>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A163" s="2"/>
       <c r="B163" s="2"/>
       <c r="C163" s="6"/>
       <c r="D163" s="1"/>
-      <c r="E163" s="1"/>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A164" s="2"/>
       <c r="B164" s="2"/>
       <c r="C164" s="6"/>
       <c r="D164" s="1"/>
-      <c r="E164" s="1"/>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A165" s="2"/>
       <c r="B165" s="2"/>
       <c r="C165" s="6"/>
       <c r="D165" s="1"/>
-      <c r="E165" s="1"/>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A166" s="2"/>
       <c r="B166" s="2"/>
       <c r="C166" s="6"/>
       <c r="D166" s="1"/>
-      <c r="E166" s="1"/>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A167" s="2"/>
       <c r="B167" s="2"/>
       <c r="C167" s="6"/>
       <c r="D167" s="1"/>
-      <c r="E167" s="1"/>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A168" s="2"/>
       <c r="B168" s="2"/>
       <c r="C168" s="6"/>
       <c r="D168" s="1"/>
-      <c r="E168" s="1"/>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A169" s="2"/>
       <c r="B169" s="2"/>
       <c r="C169" s="6"/>
       <c r="D169" s="1"/>
-      <c r="E169" s="1"/>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A170" s="2"/>
       <c r="B170" s="2"/>
       <c r="C170" s="6"/>
       <c r="D170" s="1"/>
-      <c r="E170" s="1"/>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="6"/>
       <c r="D171" s="1"/>
-      <c r="E171" s="1"/>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A172" s="2"/>
       <c r="B172" s="2"/>
       <c r="C172" s="6"/>
       <c r="D172" s="1"/>
-      <c r="E172" s="1"/>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A173" s="2"/>
       <c r="B173" s="2"/>
       <c r="C173" s="6"/>
       <c r="D173" s="1"/>
-      <c r="E173" s="1"/>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A174" s="2"/>
       <c r="B174" s="2"/>
       <c r="C174" s="6"/>
       <c r="D174" s="1"/>
-      <c r="E174" s="1"/>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A175" s="2"/>
       <c r="B175" s="2"/>
       <c r="C175" s="6"/>
       <c r="D175" s="1"/>
-      <c r="E175" s="1"/>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A176" s="2"/>
       <c r="B176" s="2"/>
       <c r="C176" s="6"/>
       <c r="D176" s="1"/>
-      <c r="E176" s="1"/>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A177" s="2"/>
       <c r="B177" s="2"/>
       <c r="C177" s="6"/>
       <c r="D177" s="1"/>
-      <c r="E177" s="1"/>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2"/>
       <c r="B178" s="2"/>
       <c r="C178" s="6"/>
       <c r="D178" s="1"/>
-      <c r="E178" s="1"/>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2"/>
       <c r="B179" s="2"/>
       <c r="C179" s="6"/>
       <c r="D179" s="1"/>
-      <c r="E179" s="1"/>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2"/>
       <c r="B180" s="2"/>
       <c r="C180" s="6"/>
       <c r="D180" s="1"/>
-      <c r="E180" s="1"/>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2"/>
       <c r="B181" s="2"/>
       <c r="C181" s="6"/>
       <c r="D181" s="1"/>
-      <c r="E181" s="1"/>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2"/>
       <c r="B182" s="2"/>
       <c r="C182" s="6"/>
       <c r="D182" s="1"/>
-      <c r="E182" s="1"/>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2"/>
       <c r="B183" s="2"/>
       <c r="C183" s="6"/>
       <c r="D183" s="1"/>
-      <c r="E183" s="1"/>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2"/>
       <c r="B184" s="2"/>
       <c r="C184" s="6"/>
       <c r="D184" s="1"/>
-      <c r="E184" s="1"/>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2"/>
       <c r="B185" s="2"/>
       <c r="C185" s="6"/>
       <c r="D185" s="1"/>
-      <c r="E185" s="1"/>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2"/>
       <c r="B186" s="2"/>
       <c r="C186" s="6"/>
       <c r="D186" s="1"/>
-      <c r="E186" s="1"/>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2"/>
       <c r="B187" s="2"/>
       <c r="C187" s="6"/>
       <c r="D187" s="1"/>
-      <c r="E187" s="1"/>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2"/>
       <c r="B188" s="2"/>
       <c r="C188" s="6"/>
       <c r="D188" s="1"/>
-      <c r="E188" s="1"/>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2"/>
       <c r="B189" s="2"/>
       <c r="C189" s="6"/>
       <c r="D189" s="1"/>
-      <c r="E189" s="1"/>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2"/>
       <c r="B190" s="2"/>
       <c r="C190" s="6"/>
       <c r="D190" s="1"/>
-      <c r="E190" s="1"/>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2"/>
       <c r="B191" s="2"/>
       <c r="C191" s="6"/>
       <c r="D191" s="1"/>
-      <c r="E191" s="1"/>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="2"/>
       <c r="B192" s="2"/>
       <c r="C192" s="6"/>
       <c r="D192" s="1"/>
-      <c r="E192" s="1"/>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="2"/>
       <c r="B193" s="2"/>
       <c r="C193" s="6"/>
       <c r="D193" s="1"/>
-      <c r="E193" s="1"/>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="2"/>
       <c r="B194" s="2"/>
       <c r="C194" s="6"/>
       <c r="D194" s="1"/>
-      <c r="E194" s="1"/>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="2"/>
       <c r="B195" s="2"/>
       <c r="C195" s="6"/>
       <c r="D195" s="1"/>
-      <c r="E195" s="1"/>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="2"/>
       <c r="B196" s="2"/>
       <c r="C196" s="6"/>
       <c r="D196" s="1"/>
-      <c r="E196" s="1"/>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="2"/>
       <c r="B197" s="2"/>
       <c r="C197" s="6"/>
       <c r="D197" s="1"/>
-      <c r="E197" s="1"/>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="2"/>
       <c r="B198" s="2"/>
       <c r="C198" s="6"/>
       <c r="D198" s="1"/>
-      <c r="E198" s="1"/>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="2"/>
       <c r="B199" s="2"/>
       <c r="C199" s="6"/>
       <c r="D199" s="1"/>
-      <c r="E199" s="1"/>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="2"/>
       <c r="B200" s="2"/>
       <c r="C200" s="6"/>
       <c r="D200" s="1"/>
-      <c r="E200" s="1"/>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="18"/>
       <c r="B201" s="18"/>
       <c r="C201" s="7"/>
       <c r="D201" s="1"/>
-      <c r="E201" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8507,7 +8273,7 @@
   <cols>
     <col min="1" max="1" width="25.5703125" style="5" customWidth="1"/>
     <col min="2" max="2" width="25.5703125" style="10" customWidth="1"/>
-    <col min="3" max="3" width="75" style="10" customWidth="1"/>
+    <col min="3" max="3" width="45.5703125" style="10" customWidth="1"/>
     <col min="4" max="4" width="25.5703125" style="10" customWidth="1"/>
     <col min="5" max="5" width="45.5703125" style="10" customWidth="1"/>
     <col min="6" max="16384" width="8.7109375" style="10"/>
@@ -8515,16 +8281,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E1" s="15" t="s">
         <v>1</v>

--- a/Workbooks/JA/キュー.xlsx
+++ b/Workbooks/JA/キュー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17DF6A49-365D-4C04-BBE7-D5E66C644E77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601E869F-900B-4F82-A6E3-5C767229CCB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="1880" windowWidth="29640" windowHeight="15630" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="63030" yWindow="690" windowWidth="28800" windowHeight="11265" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/キュー.xlsx
+++ b/Workbooks/JA/キュー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{601E869F-900B-4F82-A6E3-5C767229CCB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B334CC-00F5-4D9F-8537-96F77374592B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="63030" yWindow="690" windowWidth="28800" windowHeight="11265" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4940" yWindow="4940" windowWidth="28800" windowHeight="15460" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -1534,6 +1534,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B90804-4CC2-4F3A-A5A0-B313E9BACDDF}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3604,6 +3605,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:H201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5670,6 +5672,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A7D921-E601-49D8-BBF5-CB56640085F5}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7122,6 +7125,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82E987D8-7C5C-43B6-8BCE-4DEE40D0A7B1}">
+  <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:D201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -8361,6 +8365,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D578035-D73C-4A6A-820B-64D1D259E97E}">
+  <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/Workbooks/JA/キュー.xlsx
+++ b/Workbooks/JA/キュー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B334CC-00F5-4D9F-8537-96F77374592B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8698491C-92A2-4284-9F71-69038A4677FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="4940" windowWidth="28800" windowHeight="15460" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="61575" yWindow="1260" windowWidth="23640" windowHeight="12630" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/キュー.xlsx
+++ b/Workbooks/JA/キュー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8698491C-92A2-4284-9F71-69038A4677FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0503F0F8-A982-4CF9-873D-CD9F15DB866E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="61575" yWindow="1260" windowWidth="23640" windowHeight="12630" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Workbooks/JA/キュー.xlsx
+++ b/Workbooks/JA/キュー.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0503F0F8-A982-4CF9-873D-CD9F15DB866E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3761060-962C-41D3-9A84-3A93D0B73210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61575" yWindow="1260" windowWidth="23640" windowHeight="12630" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60075" yWindow="1200" windowWidth="35190" windowHeight="12660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/キュー.xlsx
+++ b/Workbooks/JA/キュー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3761060-962C-41D3-9A84-3A93D0B73210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D9E6B7-C385-4899-A207-C81A6699C310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60075" yWindow="1200" windowWidth="35190" windowHeight="12660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Workbooks/JA/キュー.xlsx
+++ b/Workbooks/JA/キュー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83D9E6B7-C385-4899-A207-C81A6699C310}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77716699-B673-41E8-AD93-7C041485100E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60075" yWindow="1200" windowWidth="35190" windowHeight="12660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60585" yWindow="1710" windowWidth="35190" windowHeight="12660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/キュー.xlsx
+++ b/Workbooks/JA/キュー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77716699-B673-41E8-AD93-7C041485100E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360380C8-4805-41EB-ACE4-DCE54389A2C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60585" yWindow="1710" windowWidth="35190" windowHeight="12660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60075" yWindow="1200" windowWidth="35190" windowHeight="12660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/キュー.xlsx
+++ b/Workbooks/JA/キュー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{360380C8-4805-41EB-ACE4-DCE54389A2C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B415CD03-E0A1-435D-B1CC-B32C624E108E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60075" yWindow="1200" windowWidth="35190" windowHeight="12660" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/キュー.xlsx
+++ b/Workbooks/JA/キュー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B415CD03-E0A1-435D-B1CC-B32C624E108E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AEE5C4-252D-4C20-928D-AFCE57F25E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="10690" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/キュー.xlsx
+++ b/Workbooks/JA/キュー.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8AEE5C4-252D-4C20-928D-AFCE57F25E8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2065C92-A05A-40FB-94E9-BC6F90419669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="10690" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8550" yWindow="2430" windowWidth="28800" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -1541,7 +1541,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.75" style="18" customWidth="1"/>
@@ -1553,7 +1553,7 @@
     <col min="8" max="8" width="25.75" style="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -1579,7 +1579,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -1589,7 +1589,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="23"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="4"/>
@@ -1599,7 +1599,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="23"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="4"/>
@@ -1609,7 +1609,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="23"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="4"/>
@@ -1619,7 +1619,7 @@
       <c r="G5" s="4"/>
       <c r="H5" s="23"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="4"/>
@@ -1629,7 +1629,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="23"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="4"/>
@@ -1639,7 +1639,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="23"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="4"/>
@@ -1649,7 +1649,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="23"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="4"/>
@@ -1659,7 +1659,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="23"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="4"/>
@@ -1669,7 +1669,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="23"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="4"/>
       <c r="B11" s="5"/>
       <c r="C11" s="4"/>
@@ -1679,7 +1679,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="7"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="4"/>
       <c r="B12" s="5"/>
       <c r="C12" s="4"/>
@@ -1689,7 +1689,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="7"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="4"/>
       <c r="B13" s="5"/>
       <c r="C13" s="4"/>
@@ -1699,7 +1699,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="7"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="4"/>
       <c r="B14" s="5"/>
       <c r="C14" s="4"/>
@@ -1709,7 +1709,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="7"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="4"/>
       <c r="B15" s="5"/>
       <c r="C15" s="4"/>
@@ -1719,7 +1719,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="6"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="4"/>
       <c r="B16" s="5"/>
       <c r="C16" s="4"/>
@@ -1729,7 +1729,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="6"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="4"/>
       <c r="B17" s="5"/>
       <c r="C17" s="4"/>
@@ -1739,7 +1739,7 @@
       <c r="G17" s="4"/>
       <c r="H17" s="6"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="4"/>
       <c r="B18" s="5"/>
       <c r="C18" s="4"/>
@@ -1749,7 +1749,7 @@
       <c r="G18" s="4"/>
       <c r="H18" s="6"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="4"/>
       <c r="B19" s="5"/>
       <c r="C19" s="4"/>
@@ -1759,7 +1759,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="4"/>
       <c r="B20" s="5"/>
       <c r="C20" s="4"/>
@@ -1769,7 +1769,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="6"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="4"/>
       <c r="B21" s="5"/>
       <c r="C21" s="4"/>
@@ -1779,7 +1779,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="6"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="4"/>
       <c r="B22" s="5"/>
       <c r="C22" s="4"/>
@@ -1789,7 +1789,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="6"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="4"/>
       <c r="B23" s="5"/>
       <c r="C23" s="4"/>
@@ -1799,7 +1799,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="6"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="4"/>
       <c r="B24" s="5"/>
       <c r="C24" s="4"/>
@@ -1809,7 +1809,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="6"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="4"/>
       <c r="B25" s="5"/>
       <c r="C25" s="4"/>
@@ -1819,7 +1819,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="6"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="4"/>
       <c r="B26" s="5"/>
       <c r="C26" s="4"/>
@@ -1829,7 +1829,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="6"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="4"/>
       <c r="B27" s="5"/>
       <c r="C27" s="4"/>
@@ -1839,7 +1839,7 @@
       <c r="G27" s="4"/>
       <c r="H27" s="6"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="4"/>
       <c r="B28" s="5"/>
       <c r="C28" s="4"/>
@@ -1849,7 +1849,7 @@
       <c r="G28" s="4"/>
       <c r="H28" s="6"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="4"/>
       <c r="B29" s="5"/>
       <c r="C29" s="4"/>
@@ -1859,7 +1859,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="6"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="4"/>
       <c r="B30" s="5"/>
       <c r="C30" s="4"/>
@@ -1869,7 +1869,7 @@
       <c r="G30" s="4"/>
       <c r="H30" s="6"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="4"/>
       <c r="B31" s="5"/>
       <c r="C31" s="4"/>
@@ -1879,7 +1879,7 @@
       <c r="G31" s="4"/>
       <c r="H31" s="6"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="4"/>
       <c r="B32" s="5"/>
       <c r="C32" s="4"/>
@@ -1889,7 +1889,7 @@
       <c r="G32" s="4"/>
       <c r="H32" s="6"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="4"/>
       <c r="B33" s="5"/>
       <c r="C33" s="4"/>
@@ -1899,7 +1899,7 @@
       <c r="G33" s="4"/>
       <c r="H33" s="6"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="4"/>
@@ -1909,7 +1909,7 @@
       <c r="G34" s="4"/>
       <c r="H34" s="6"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="4"/>
       <c r="B35" s="5"/>
       <c r="C35" s="4"/>
@@ -1919,7 +1919,7 @@
       <c r="G35" s="4"/>
       <c r="H35" s="6"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="4"/>
       <c r="B36" s="5"/>
       <c r="C36" s="4"/>
@@ -1929,7 +1929,7 @@
       <c r="G36" s="4"/>
       <c r="H36" s="6"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="4"/>
@@ -1939,7 +1939,7 @@
       <c r="G37" s="4"/>
       <c r="H37" s="6"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="4"/>
       <c r="B38" s="5"/>
       <c r="C38" s="4"/>
@@ -1949,7 +1949,7 @@
       <c r="G38" s="4"/>
       <c r="H38" s="6"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="4"/>
       <c r="B39" s="5"/>
       <c r="C39" s="4"/>
@@ -1959,7 +1959,7 @@
       <c r="G39" s="4"/>
       <c r="H39" s="6"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="4"/>
       <c r="B40" s="5"/>
       <c r="C40" s="4"/>
@@ -1969,7 +1969,7 @@
       <c r="G40" s="4"/>
       <c r="H40" s="6"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="4"/>
       <c r="B41" s="5"/>
       <c r="C41" s="4"/>
@@ -1979,7 +1979,7 @@
       <c r="G41" s="4"/>
       <c r="H41" s="6"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="4"/>
       <c r="B42" s="5"/>
       <c r="C42" s="4"/>
@@ -1989,7 +1989,7 @@
       <c r="G42" s="4"/>
       <c r="H42" s="6"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="4"/>
       <c r="B43" s="5"/>
       <c r="C43" s="4"/>
@@ -1999,7 +1999,7 @@
       <c r="G43" s="4"/>
       <c r="H43" s="6"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="4"/>
       <c r="B44" s="5"/>
       <c r="C44" s="4"/>
@@ -2009,7 +2009,7 @@
       <c r="G44" s="4"/>
       <c r="H44" s="6"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="4"/>
       <c r="B45" s="5"/>
       <c r="C45" s="4"/>
@@ -2019,7 +2019,7 @@
       <c r="G45" s="4"/>
       <c r="H45" s="6"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="4"/>
       <c r="B46" s="5"/>
       <c r="C46" s="4"/>
@@ -2029,7 +2029,7 @@
       <c r="G46" s="4"/>
       <c r="H46" s="6"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="4"/>
       <c r="B47" s="5"/>
       <c r="C47" s="4"/>
@@ -2039,7 +2039,7 @@
       <c r="G47" s="4"/>
       <c r="H47" s="6"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="4"/>
       <c r="B48" s="5"/>
       <c r="C48" s="4"/>
@@ -2049,7 +2049,7 @@
       <c r="G48" s="4"/>
       <c r="H48" s="6"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="4"/>
       <c r="B49" s="5"/>
       <c r="C49" s="4"/>
@@ -2059,7 +2059,7 @@
       <c r="G49" s="4"/>
       <c r="H49" s="6"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" s="4"/>
       <c r="B50" s="5"/>
       <c r="C50" s="4"/>
@@ -2069,7 +2069,7 @@
       <c r="G50" s="4"/>
       <c r="H50" s="6"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" s="4"/>
       <c r="B51" s="5"/>
       <c r="C51" s="4"/>
@@ -2079,7 +2079,7 @@
       <c r="G51" s="4"/>
       <c r="H51" s="6"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="4"/>
       <c r="B52" s="5"/>
       <c r="C52" s="4"/>
@@ -2089,7 +2089,7 @@
       <c r="G52" s="4"/>
       <c r="H52" s="6"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="4"/>
       <c r="B53" s="5"/>
       <c r="C53" s="4"/>
@@ -2099,7 +2099,7 @@
       <c r="G53" s="4"/>
       <c r="H53" s="6"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" s="4"/>
       <c r="B54" s="5"/>
       <c r="C54" s="4"/>
@@ -2109,7 +2109,7 @@
       <c r="G54" s="4"/>
       <c r="H54" s="6"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" s="4"/>
       <c r="B55" s="5"/>
       <c r="C55" s="4"/>
@@ -2119,7 +2119,7 @@
       <c r="G55" s="4"/>
       <c r="H55" s="6"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" s="4"/>
       <c r="B56" s="5"/>
       <c r="C56" s="4"/>
@@ -2129,7 +2129,7 @@
       <c r="G56" s="4"/>
       <c r="H56" s="6"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" s="4"/>
       <c r="B57" s="5"/>
       <c r="C57" s="4"/>
@@ -2139,7 +2139,7 @@
       <c r="G57" s="4"/>
       <c r="H57" s="6"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" s="4"/>
       <c r="B58" s="5"/>
       <c r="C58" s="4"/>
@@ -2149,7 +2149,7 @@
       <c r="G58" s="4"/>
       <c r="H58" s="6"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59" s="4"/>
       <c r="B59" s="5"/>
       <c r="C59" s="4"/>
@@ -2159,7 +2159,7 @@
       <c r="G59" s="4"/>
       <c r="H59" s="6"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60" s="4"/>
       <c r="B60" s="5"/>
       <c r="C60" s="4"/>
@@ -2169,7 +2169,7 @@
       <c r="G60" s="4"/>
       <c r="H60" s="6"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" s="4"/>
       <c r="B61" s="5"/>
       <c r="C61" s="4"/>
@@ -2179,7 +2179,7 @@
       <c r="G61" s="4"/>
       <c r="H61" s="6"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" s="4"/>
       <c r="B62" s="5"/>
       <c r="C62" s="4"/>
@@ -2189,7 +2189,7 @@
       <c r="G62" s="4"/>
       <c r="H62" s="6"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" s="4"/>
       <c r="B63" s="5"/>
       <c r="C63" s="4"/>
@@ -2199,7 +2199,7 @@
       <c r="G63" s="4"/>
       <c r="H63" s="6"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" s="4"/>
       <c r="B64" s="5"/>
       <c r="C64" s="4"/>
@@ -2209,7 +2209,7 @@
       <c r="G64" s="4"/>
       <c r="H64" s="6"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" s="4"/>
       <c r="B65" s="5"/>
       <c r="C65" s="4"/>
@@ -2219,7 +2219,7 @@
       <c r="G65" s="4"/>
       <c r="H65" s="6"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66" s="4"/>
       <c r="B66" s="5"/>
       <c r="C66" s="4"/>
@@ -2229,7 +2229,7 @@
       <c r="G66" s="4"/>
       <c r="H66" s="6"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67" s="4"/>
       <c r="B67" s="5"/>
       <c r="C67" s="4"/>
@@ -2239,7 +2239,7 @@
       <c r="G67" s="4"/>
       <c r="H67" s="6"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68" s="4"/>
       <c r="B68" s="5"/>
       <c r="C68" s="4"/>
@@ -2249,7 +2249,7 @@
       <c r="G68" s="4"/>
       <c r="H68" s="6"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69" s="4"/>
       <c r="B69" s="5"/>
       <c r="C69" s="4"/>
@@ -2259,7 +2259,7 @@
       <c r="G69" s="4"/>
       <c r="H69" s="6"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70" s="4"/>
       <c r="B70" s="5"/>
       <c r="C70" s="4"/>
@@ -2269,7 +2269,7 @@
       <c r="G70" s="4"/>
       <c r="H70" s="6"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71" s="4"/>
       <c r="B71" s="5"/>
       <c r="C71" s="4"/>
@@ -2279,7 +2279,7 @@
       <c r="G71" s="4"/>
       <c r="H71" s="6"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72" s="4"/>
       <c r="B72" s="5"/>
       <c r="C72" s="4"/>
@@ -2289,7 +2289,7 @@
       <c r="G72" s="4"/>
       <c r="H72" s="6"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73" s="4"/>
       <c r="B73" s="5"/>
       <c r="C73" s="4"/>
@@ -2299,7 +2299,7 @@
       <c r="G73" s="4"/>
       <c r="H73" s="6"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" s="4"/>
       <c r="B74" s="5"/>
       <c r="C74" s="4"/>
@@ -2309,7 +2309,7 @@
       <c r="G74" s="4"/>
       <c r="H74" s="6"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75" s="4"/>
       <c r="B75" s="5"/>
       <c r="C75" s="4"/>
@@ -2319,7 +2319,7 @@
       <c r="G75" s="4"/>
       <c r="H75" s="6"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76" s="4"/>
       <c r="B76" s="5"/>
       <c r="C76" s="4"/>
@@ -2329,7 +2329,7 @@
       <c r="G76" s="4"/>
       <c r="H76" s="6"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77" s="4"/>
       <c r="B77" s="5"/>
       <c r="C77" s="4"/>
@@ -2339,7 +2339,7 @@
       <c r="G77" s="4"/>
       <c r="H77" s="6"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78" s="4"/>
       <c r="B78" s="5"/>
       <c r="C78" s="4"/>
@@ -2349,7 +2349,7 @@
       <c r="G78" s="4"/>
       <c r="H78" s="6"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79" s="4"/>
       <c r="B79" s="5"/>
       <c r="C79" s="4"/>
@@ -2359,7 +2359,7 @@
       <c r="G79" s="4"/>
       <c r="H79" s="6"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80" s="4"/>
       <c r="B80" s="5"/>
       <c r="C80" s="4"/>
@@ -2369,7 +2369,7 @@
       <c r="G80" s="4"/>
       <c r="H80" s="6"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81" s="4"/>
       <c r="B81" s="5"/>
       <c r="C81" s="4"/>
@@ -2379,7 +2379,7 @@
       <c r="G81" s="4"/>
       <c r="H81" s="6"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82" s="4"/>
       <c r="B82" s="5"/>
       <c r="C82" s="4"/>
@@ -2389,7 +2389,7 @@
       <c r="G82" s="4"/>
       <c r="H82" s="6"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83" s="4"/>
       <c r="B83" s="5"/>
       <c r="C83" s="4"/>
@@ -2399,7 +2399,7 @@
       <c r="G83" s="4"/>
       <c r="H83" s="6"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84" s="4"/>
       <c r="B84" s="5"/>
       <c r="C84" s="4"/>
@@ -2409,7 +2409,7 @@
       <c r="G84" s="4"/>
       <c r="H84" s="6"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85" s="4"/>
       <c r="B85" s="5"/>
       <c r="C85" s="4"/>
@@ -2419,7 +2419,7 @@
       <c r="G85" s="4"/>
       <c r="H85" s="6"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86" s="4"/>
       <c r="B86" s="5"/>
       <c r="C86" s="4"/>
@@ -2429,7 +2429,7 @@
       <c r="G86" s="4"/>
       <c r="H86" s="6"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87" s="4"/>
       <c r="B87" s="5"/>
       <c r="C87" s="4"/>
@@ -2439,7 +2439,7 @@
       <c r="G87" s="4"/>
       <c r="H87" s="6"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A88" s="4"/>
       <c r="B88" s="5"/>
       <c r="C88" s="4"/>
@@ -2449,7 +2449,7 @@
       <c r="G88" s="4"/>
       <c r="H88" s="6"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A89" s="4"/>
       <c r="B89" s="5"/>
       <c r="C89" s="4"/>
@@ -2459,7 +2459,7 @@
       <c r="G89" s="4"/>
       <c r="H89" s="6"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90" s="4"/>
       <c r="B90" s="5"/>
       <c r="C90" s="4"/>
@@ -2469,7 +2469,7 @@
       <c r="G90" s="4"/>
       <c r="H90" s="6"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91" s="4"/>
       <c r="B91" s="5"/>
       <c r="C91" s="4"/>
@@ -2479,7 +2479,7 @@
       <c r="G91" s="4"/>
       <c r="H91" s="6"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92" s="4"/>
       <c r="B92" s="5"/>
       <c r="C92" s="4"/>
@@ -2489,7 +2489,7 @@
       <c r="G92" s="4"/>
       <c r="H92" s="6"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93" s="4"/>
       <c r="B93" s="5"/>
       <c r="C93" s="4"/>
@@ -2499,7 +2499,7 @@
       <c r="G93" s="4"/>
       <c r="H93" s="6"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94" s="4"/>
       <c r="B94" s="5"/>
       <c r="C94" s="4"/>
@@ -2509,7 +2509,7 @@
       <c r="G94" s="4"/>
       <c r="H94" s="6"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95" s="4"/>
       <c r="B95" s="5"/>
       <c r="C95" s="4"/>
@@ -2519,7 +2519,7 @@
       <c r="G95" s="4"/>
       <c r="H95" s="6"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96" s="4"/>
       <c r="B96" s="5"/>
       <c r="C96" s="4"/>
@@ -2529,7 +2529,7 @@
       <c r="G96" s="4"/>
       <c r="H96" s="6"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A97" s="4"/>
       <c r="B97" s="5"/>
       <c r="C97" s="4"/>
@@ -2539,7 +2539,7 @@
       <c r="G97" s="4"/>
       <c r="H97" s="6"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A98" s="4"/>
       <c r="B98" s="5"/>
       <c r="C98" s="4"/>
@@ -2549,7 +2549,7 @@
       <c r="G98" s="4"/>
       <c r="H98" s="6"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A99" s="4"/>
       <c r="B99" s="5"/>
       <c r="C99" s="4"/>
@@ -2559,7 +2559,7 @@
       <c r="G99" s="4"/>
       <c r="H99" s="6"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A100" s="4"/>
       <c r="B100" s="5"/>
       <c r="C100" s="4"/>
@@ -2569,7 +2569,7 @@
       <c r="G100" s="4"/>
       <c r="H100" s="6"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A101" s="4"/>
       <c r="B101" s="5"/>
       <c r="C101" s="4"/>
@@ -2579,7 +2579,7 @@
       <c r="G101" s="4"/>
       <c r="H101" s="6"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A102" s="4"/>
       <c r="B102" s="5"/>
       <c r="C102" s="4"/>
@@ -2589,7 +2589,7 @@
       <c r="G102" s="4"/>
       <c r="H102" s="7"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A103" s="4"/>
       <c r="B103" s="5"/>
       <c r="C103" s="4"/>
@@ -2599,7 +2599,7 @@
       <c r="G103" s="4"/>
       <c r="H103" s="7"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A104" s="4"/>
       <c r="B104" s="5"/>
       <c r="C104" s="4"/>
@@ -2609,7 +2609,7 @@
       <c r="G104" s="4"/>
       <c r="H104" s="7"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A105" s="4"/>
       <c r="B105" s="5"/>
       <c r="C105" s="4"/>
@@ -2619,7 +2619,7 @@
       <c r="G105" s="4"/>
       <c r="H105" s="7"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A106" s="4"/>
       <c r="B106" s="5"/>
       <c r="C106" s="4"/>
@@ -2629,7 +2629,7 @@
       <c r="G106" s="4"/>
       <c r="H106" s="7"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A107" s="4"/>
       <c r="B107" s="5"/>
       <c r="C107" s="4"/>
@@ -2639,7 +2639,7 @@
       <c r="G107" s="4"/>
       <c r="H107" s="7"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A108" s="4"/>
       <c r="B108" s="5"/>
       <c r="C108" s="4"/>
@@ -2649,7 +2649,7 @@
       <c r="G108" s="4"/>
       <c r="H108" s="7"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A109" s="4"/>
       <c r="B109" s="5"/>
       <c r="C109" s="4"/>
@@ -2659,7 +2659,7 @@
       <c r="G109" s="4"/>
       <c r="H109" s="7"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A110" s="4"/>
       <c r="B110" s="5"/>
       <c r="C110" s="4"/>
@@ -2669,7 +2669,7 @@
       <c r="G110" s="4"/>
       <c r="H110" s="7"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A111" s="4"/>
       <c r="B111" s="5"/>
       <c r="C111" s="4"/>
@@ -2679,7 +2679,7 @@
       <c r="G111" s="4"/>
       <c r="H111" s="7"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A112" s="4"/>
       <c r="B112" s="5"/>
       <c r="C112" s="4"/>
@@ -2689,7 +2689,7 @@
       <c r="G112" s="4"/>
       <c r="H112" s="7"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A113" s="4"/>
       <c r="B113" s="5"/>
       <c r="C113" s="4"/>
@@ -2699,7 +2699,7 @@
       <c r="G113" s="4"/>
       <c r="H113" s="7"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A114" s="4"/>
       <c r="B114" s="5"/>
       <c r="C114" s="4"/>
@@ -2709,7 +2709,7 @@
       <c r="G114" s="4"/>
       <c r="H114" s="7"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A115" s="4"/>
       <c r="B115" s="5"/>
       <c r="C115" s="4"/>
@@ -2719,7 +2719,7 @@
       <c r="G115" s="4"/>
       <c r="H115" s="7"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A116" s="4"/>
       <c r="B116" s="5"/>
       <c r="C116" s="4"/>
@@ -2729,7 +2729,7 @@
       <c r="G116" s="4"/>
       <c r="H116" s="7"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A117" s="4"/>
       <c r="B117" s="5"/>
       <c r="C117" s="4"/>
@@ -2739,7 +2739,7 @@
       <c r="G117" s="4"/>
       <c r="H117" s="7"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A118" s="4"/>
       <c r="B118" s="5"/>
       <c r="C118" s="4"/>
@@ -2749,7 +2749,7 @@
       <c r="G118" s="4"/>
       <c r="H118" s="7"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A119" s="4"/>
       <c r="B119" s="5"/>
       <c r="C119" s="4"/>
@@ -2759,7 +2759,7 @@
       <c r="G119" s="4"/>
       <c r="H119" s="7"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A120" s="4"/>
       <c r="B120" s="5"/>
       <c r="C120" s="4"/>
@@ -2769,7 +2769,7 @@
       <c r="G120" s="4"/>
       <c r="H120" s="7"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A121" s="4"/>
       <c r="B121" s="5"/>
       <c r="C121" s="4"/>
@@ -2779,7 +2779,7 @@
       <c r="G121" s="4"/>
       <c r="H121" s="7"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A122" s="4"/>
       <c r="B122" s="5"/>
       <c r="C122" s="4"/>
@@ -2789,7 +2789,7 @@
       <c r="G122" s="4"/>
       <c r="H122" s="7"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A123" s="4"/>
       <c r="B123" s="5"/>
       <c r="C123" s="4"/>
@@ -2799,7 +2799,7 @@
       <c r="G123" s="4"/>
       <c r="H123" s="7"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A124" s="4"/>
       <c r="B124" s="5"/>
       <c r="C124" s="4"/>
@@ -2809,7 +2809,7 @@
       <c r="G124" s="4"/>
       <c r="H124" s="7"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A125" s="4"/>
       <c r="B125" s="5"/>
       <c r="C125" s="4"/>
@@ -2819,7 +2819,7 @@
       <c r="G125" s="4"/>
       <c r="H125" s="7"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A126" s="4"/>
       <c r="B126" s="5"/>
       <c r="C126" s="4"/>
@@ -2829,7 +2829,7 @@
       <c r="G126" s="4"/>
       <c r="H126" s="7"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A127" s="4"/>
       <c r="B127" s="5"/>
       <c r="C127" s="4"/>
@@ -2839,7 +2839,7 @@
       <c r="G127" s="4"/>
       <c r="H127" s="7"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A128" s="4"/>
       <c r="B128" s="5"/>
       <c r="C128" s="4"/>
@@ -2849,7 +2849,7 @@
       <c r="G128" s="4"/>
       <c r="H128" s="7"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A129" s="4"/>
       <c r="B129" s="5"/>
       <c r="C129" s="4"/>
@@ -2859,7 +2859,7 @@
       <c r="G129" s="4"/>
       <c r="H129" s="7"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A130" s="4"/>
       <c r="B130" s="5"/>
       <c r="C130" s="4"/>
@@ -2869,7 +2869,7 @@
       <c r="G130" s="4"/>
       <c r="H130" s="7"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A131" s="4"/>
       <c r="B131" s="5"/>
       <c r="C131" s="4"/>
@@ -2879,7 +2879,7 @@
       <c r="G131" s="4"/>
       <c r="H131" s="7"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A132" s="4"/>
       <c r="B132" s="5"/>
       <c r="C132" s="4"/>
@@ -2889,7 +2889,7 @@
       <c r="G132" s="4"/>
       <c r="H132" s="7"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A133" s="4"/>
       <c r="B133" s="5"/>
       <c r="C133" s="4"/>
@@ -2899,7 +2899,7 @@
       <c r="G133" s="4"/>
       <c r="H133" s="7"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A134" s="4"/>
       <c r="B134" s="5"/>
       <c r="C134" s="4"/>
@@ -2909,7 +2909,7 @@
       <c r="G134" s="4"/>
       <c r="H134" s="7"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A135" s="4"/>
       <c r="B135" s="5"/>
       <c r="C135" s="4"/>
@@ -2919,7 +2919,7 @@
       <c r="G135" s="4"/>
       <c r="H135" s="7"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A136" s="4"/>
       <c r="B136" s="5"/>
       <c r="C136" s="4"/>
@@ -2929,7 +2929,7 @@
       <c r="G136" s="4"/>
       <c r="H136" s="7"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A137" s="4"/>
       <c r="B137" s="5"/>
       <c r="C137" s="4"/>
@@ -2939,7 +2939,7 @@
       <c r="G137" s="4"/>
       <c r="H137" s="7"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A138" s="4"/>
       <c r="B138" s="5"/>
       <c r="C138" s="4"/>
@@ -2949,7 +2949,7 @@
       <c r="G138" s="4"/>
       <c r="H138" s="7"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A139" s="4"/>
       <c r="B139" s="5"/>
       <c r="C139" s="4"/>
@@ -2959,7 +2959,7 @@
       <c r="G139" s="4"/>
       <c r="H139" s="7"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A140" s="4"/>
       <c r="B140" s="5"/>
       <c r="C140" s="4"/>
@@ -2969,7 +2969,7 @@
       <c r="G140" s="4"/>
       <c r="H140" s="7"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A141" s="4"/>
       <c r="B141" s="5"/>
       <c r="C141" s="4"/>
@@ -2979,7 +2979,7 @@
       <c r="G141" s="4"/>
       <c r="H141" s="7"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A142" s="4"/>
       <c r="B142" s="5"/>
       <c r="C142" s="4"/>
@@ -2989,7 +2989,7 @@
       <c r="G142" s="4"/>
       <c r="H142" s="7"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A143" s="4"/>
       <c r="B143" s="5"/>
       <c r="C143" s="4"/>
@@ -2999,7 +2999,7 @@
       <c r="G143" s="4"/>
       <c r="H143" s="7"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A144" s="4"/>
       <c r="B144" s="5"/>
       <c r="C144" s="4"/>
@@ -3009,7 +3009,7 @@
       <c r="G144" s="4"/>
       <c r="H144" s="7"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A145" s="4"/>
       <c r="B145" s="5"/>
       <c r="C145" s="4"/>
@@ -3019,7 +3019,7 @@
       <c r="G145" s="4"/>
       <c r="H145" s="7"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A146" s="4"/>
       <c r="B146" s="5"/>
       <c r="C146" s="4"/>
@@ -3029,7 +3029,7 @@
       <c r="G146" s="4"/>
       <c r="H146" s="7"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A147" s="4"/>
       <c r="B147" s="5"/>
       <c r="C147" s="4"/>
@@ -3039,7 +3039,7 @@
       <c r="G147" s="4"/>
       <c r="H147" s="7"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A148" s="4"/>
       <c r="B148" s="5"/>
       <c r="C148" s="4"/>
@@ -3049,7 +3049,7 @@
       <c r="G148" s="4"/>
       <c r="H148" s="7"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A149" s="4"/>
       <c r="B149" s="5"/>
       <c r="C149" s="4"/>
@@ -3059,7 +3059,7 @@
       <c r="G149" s="4"/>
       <c r="H149" s="7"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A150" s="4"/>
       <c r="B150" s="5"/>
       <c r="C150" s="4"/>
@@ -3069,7 +3069,7 @@
       <c r="G150" s="4"/>
       <c r="H150" s="7"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A151" s="4"/>
       <c r="B151" s="5"/>
       <c r="C151" s="4"/>
@@ -3079,7 +3079,7 @@
       <c r="G151" s="4"/>
       <c r="H151" s="7"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A152" s="4"/>
       <c r="B152" s="5"/>
       <c r="C152" s="4"/>
@@ -3089,7 +3089,7 @@
       <c r="G152" s="4"/>
       <c r="H152" s="7"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A153" s="4"/>
       <c r="B153" s="5"/>
       <c r="C153" s="4"/>
@@ -3099,7 +3099,7 @@
       <c r="G153" s="4"/>
       <c r="H153" s="7"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A154" s="4"/>
       <c r="B154" s="5"/>
       <c r="C154" s="4"/>
@@ -3109,7 +3109,7 @@
       <c r="G154" s="4"/>
       <c r="H154" s="7"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A155" s="4"/>
       <c r="B155" s="5"/>
       <c r="C155" s="4"/>
@@ -3119,7 +3119,7 @@
       <c r="G155" s="4"/>
       <c r="H155" s="7"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A156" s="4"/>
       <c r="B156" s="5"/>
       <c r="C156" s="4"/>
@@ -3129,7 +3129,7 @@
       <c r="G156" s="4"/>
       <c r="H156" s="7"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A157" s="4"/>
       <c r="B157" s="5"/>
       <c r="C157" s="4"/>
@@ -3139,7 +3139,7 @@
       <c r="G157" s="4"/>
       <c r="H157" s="7"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A158" s="4"/>
       <c r="B158" s="5"/>
       <c r="C158" s="4"/>
@@ -3149,7 +3149,7 @@
       <c r="G158" s="4"/>
       <c r="H158" s="7"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A159" s="4"/>
       <c r="B159" s="5"/>
       <c r="C159" s="4"/>
@@ -3159,7 +3159,7 @@
       <c r="G159" s="4"/>
       <c r="H159" s="7"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A160" s="4"/>
       <c r="B160" s="5"/>
       <c r="C160" s="4"/>
@@ -3169,7 +3169,7 @@
       <c r="G160" s="4"/>
       <c r="H160" s="7"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A161" s="4"/>
       <c r="B161" s="5"/>
       <c r="C161" s="4"/>
@@ -3179,7 +3179,7 @@
       <c r="G161" s="4"/>
       <c r="H161" s="7"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A162" s="4"/>
       <c r="B162" s="5"/>
       <c r="C162" s="4"/>
@@ -3189,7 +3189,7 @@
       <c r="G162" s="4"/>
       <c r="H162" s="7"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A163" s="4"/>
       <c r="B163" s="5"/>
       <c r="C163" s="4"/>
@@ -3199,7 +3199,7 @@
       <c r="G163" s="4"/>
       <c r="H163" s="7"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A164" s="4"/>
       <c r="B164" s="5"/>
       <c r="C164" s="4"/>
@@ -3209,7 +3209,7 @@
       <c r="G164" s="4"/>
       <c r="H164" s="7"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A165" s="4"/>
       <c r="B165" s="5"/>
       <c r="C165" s="4"/>
@@ -3219,7 +3219,7 @@
       <c r="G165" s="4"/>
       <c r="H165" s="7"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A166" s="4"/>
       <c r="B166" s="5"/>
       <c r="C166" s="4"/>
@@ -3229,7 +3229,7 @@
       <c r="G166" s="4"/>
       <c r="H166" s="7"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A167" s="4"/>
       <c r="B167" s="5"/>
       <c r="C167" s="4"/>
@@ -3239,7 +3239,7 @@
       <c r="G167" s="4"/>
       <c r="H167" s="7"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A168" s="4"/>
       <c r="B168" s="5"/>
       <c r="C168" s="4"/>
@@ -3249,7 +3249,7 @@
       <c r="G168" s="4"/>
       <c r="H168" s="7"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A169" s="4"/>
       <c r="B169" s="5"/>
       <c r="C169" s="4"/>
@@ -3259,7 +3259,7 @@
       <c r="G169" s="4"/>
       <c r="H169" s="7"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A170" s="4"/>
       <c r="B170" s="5"/>
       <c r="C170" s="4"/>
@@ -3269,7 +3269,7 @@
       <c r="G170" s="4"/>
       <c r="H170" s="7"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A171" s="4"/>
       <c r="B171" s="5"/>
       <c r="C171" s="4"/>
@@ -3279,7 +3279,7 @@
       <c r="G171" s="4"/>
       <c r="H171" s="7"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A172" s="4"/>
       <c r="B172" s="5"/>
       <c r="C172" s="4"/>
@@ -3289,7 +3289,7 @@
       <c r="G172" s="4"/>
       <c r="H172" s="7"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A173" s="4"/>
       <c r="B173" s="5"/>
       <c r="C173" s="4"/>
@@ -3299,7 +3299,7 @@
       <c r="G173" s="4"/>
       <c r="H173" s="7"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A174" s="4"/>
       <c r="B174" s="5"/>
       <c r="C174" s="4"/>
@@ -3309,7 +3309,7 @@
       <c r="G174" s="4"/>
       <c r="H174" s="7"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A175" s="4"/>
       <c r="B175" s="5"/>
       <c r="C175" s="4"/>
@@ -3319,7 +3319,7 @@
       <c r="G175" s="4"/>
       <c r="H175" s="7"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A176" s="4"/>
       <c r="B176" s="5"/>
       <c r="C176" s="4"/>
@@ -3329,7 +3329,7 @@
       <c r="G176" s="4"/>
       <c r="H176" s="7"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A177" s="4"/>
       <c r="B177" s="5"/>
       <c r="C177" s="4"/>
@@ -3339,7 +3339,7 @@
       <c r="G177" s="4"/>
       <c r="H177" s="7"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A178" s="4"/>
       <c r="B178" s="5"/>
       <c r="C178" s="4"/>
@@ -3349,7 +3349,7 @@
       <c r="G178" s="4"/>
       <c r="H178" s="7"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A179" s="4"/>
       <c r="B179" s="5"/>
       <c r="C179" s="4"/>
@@ -3359,7 +3359,7 @@
       <c r="G179" s="4"/>
       <c r="H179" s="7"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A180" s="4"/>
       <c r="B180" s="5"/>
       <c r="C180" s="4"/>
@@ -3369,7 +3369,7 @@
       <c r="G180" s="4"/>
       <c r="H180" s="7"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A181" s="4"/>
       <c r="B181" s="5"/>
       <c r="C181" s="4"/>
@@ -3379,7 +3379,7 @@
       <c r="G181" s="4"/>
       <c r="H181" s="7"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A182" s="4"/>
       <c r="B182" s="5"/>
       <c r="C182" s="4"/>
@@ -3389,7 +3389,7 @@
       <c r="G182" s="4"/>
       <c r="H182" s="7"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A183" s="4"/>
       <c r="B183" s="5"/>
       <c r="C183" s="4"/>
@@ -3399,7 +3399,7 @@
       <c r="G183" s="4"/>
       <c r="H183" s="7"/>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A184" s="4"/>
       <c r="B184" s="5"/>
       <c r="C184" s="4"/>
@@ -3409,7 +3409,7 @@
       <c r="G184" s="4"/>
       <c r="H184" s="7"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A185" s="4"/>
       <c r="B185" s="5"/>
       <c r="C185" s="4"/>
@@ -3419,7 +3419,7 @@
       <c r="G185" s="4"/>
       <c r="H185" s="7"/>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A186" s="4"/>
       <c r="B186" s="5"/>
       <c r="C186" s="4"/>
@@ -3429,7 +3429,7 @@
       <c r="G186" s="4"/>
       <c r="H186" s="7"/>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A187" s="4"/>
       <c r="B187" s="5"/>
       <c r="C187" s="4"/>
@@ -3439,7 +3439,7 @@
       <c r="G187" s="4"/>
       <c r="H187" s="7"/>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A188" s="4"/>
       <c r="B188" s="5"/>
       <c r="C188" s="4"/>
@@ -3449,7 +3449,7 @@
       <c r="G188" s="4"/>
       <c r="H188" s="7"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A189" s="4"/>
       <c r="B189" s="5"/>
       <c r="C189" s="4"/>
@@ -3459,7 +3459,7 @@
       <c r="G189" s="4"/>
       <c r="H189" s="7"/>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A190" s="4"/>
       <c r="B190" s="5"/>
       <c r="C190" s="4"/>
@@ -3469,7 +3469,7 @@
       <c r="G190" s="4"/>
       <c r="H190" s="7"/>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A191" s="4"/>
       <c r="B191" s="5"/>
       <c r="C191" s="4"/>
@@ -3479,7 +3479,7 @@
       <c r="G191" s="4"/>
       <c r="H191" s="7"/>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A192" s="4"/>
       <c r="B192" s="5"/>
       <c r="C192" s="4"/>
@@ -3489,7 +3489,7 @@
       <c r="G192" s="4"/>
       <c r="H192" s="7"/>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A193" s="4"/>
       <c r="B193" s="5"/>
       <c r="C193" s="4"/>
@@ -3499,7 +3499,7 @@
       <c r="G193" s="4"/>
       <c r="H193" s="7"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A194" s="4"/>
       <c r="B194" s="5"/>
       <c r="C194" s="4"/>
@@ -3509,7 +3509,7 @@
       <c r="G194" s="4"/>
       <c r="H194" s="7"/>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A195" s="4"/>
       <c r="B195" s="5"/>
       <c r="C195" s="4"/>
@@ -3519,7 +3519,7 @@
       <c r="G195" s="4"/>
       <c r="H195" s="7"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A196" s="4"/>
       <c r="B196" s="5"/>
       <c r="C196" s="4"/>
@@ -3529,7 +3529,7 @@
       <c r="G196" s="4"/>
       <c r="H196" s="7"/>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A197" s="4"/>
       <c r="B197" s="5"/>
       <c r="C197" s="4"/>
@@ -3539,7 +3539,7 @@
       <c r="G197" s="4"/>
       <c r="H197" s="7"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A198" s="4"/>
       <c r="B198" s="5"/>
       <c r="C198" s="4"/>
@@ -3549,7 +3549,7 @@
       <c r="G198" s="4"/>
       <c r="H198" s="7"/>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A199" s="4"/>
       <c r="B199" s="5"/>
       <c r="C199" s="4"/>
@@ -3559,7 +3559,7 @@
       <c r="G199" s="8"/>
       <c r="H199" s="9"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A200" s="4"/>
       <c r="B200" s="5"/>
       <c r="C200" s="4"/>
@@ -3569,7 +3569,7 @@
       <c r="G200" s="4"/>
       <c r="H200" s="7"/>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A201" s="8"/>
       <c r="B201" s="17"/>
       <c r="C201" s="8"/>
@@ -3612,7 +3612,7 @@
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="25.75" style="18" customWidth="1"/>
     <col min="3" max="3" width="45.75" style="38" customWidth="1"/>
@@ -3623,7 +3623,7 @@
     <col min="8" max="8" width="45.75" style="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>8</v>
       </c>
@@ -3649,7 +3649,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="36"/>
       <c r="B2" s="11"/>
       <c r="C2" s="19"/>
@@ -3659,7 +3659,7 @@
       <c r="G2" s="5"/>
       <c r="H2" s="16"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="19"/>
@@ -3669,7 +3669,7 @@
       <c r="G3" s="5"/>
       <c r="H3" s="16"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="11"/>
       <c r="B4" s="11"/>
       <c r="C4" s="19"/>
@@ -3679,7 +3679,7 @@
       <c r="G4" s="5"/>
       <c r="H4" s="16"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="11"/>
       <c r="B5" s="11"/>
       <c r="C5" s="19"/>
@@ -3689,7 +3689,7 @@
       <c r="G5" s="5"/>
       <c r="H5" s="16"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="11"/>
       <c r="B6" s="11"/>
       <c r="C6" s="19"/>
@@ -3699,7 +3699,7 @@
       <c r="G6" s="4"/>
       <c r="H6" s="16"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="19"/>
@@ -3709,7 +3709,7 @@
       <c r="G7" s="4"/>
       <c r="H7" s="16"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="19"/>
@@ -3719,7 +3719,7 @@
       <c r="G8" s="4"/>
       <c r="H8" s="16"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="19"/>
@@ -3729,7 +3729,7 @@
       <c r="G9" s="4"/>
       <c r="H9" s="16"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="19"/>
@@ -3739,7 +3739,7 @@
       <c r="G10" s="4"/>
       <c r="H10" s="16"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="19"/>
@@ -3749,7 +3749,7 @@
       <c r="G11" s="4"/>
       <c r="H11" s="16"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="19"/>
@@ -3759,7 +3759,7 @@
       <c r="G12" s="4"/>
       <c r="H12" s="16"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="19"/>
@@ -3769,7 +3769,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="16"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="19"/>
@@ -3779,7 +3779,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="16"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="19"/>
@@ -3789,7 +3789,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="16"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="19"/>
@@ -3799,7 +3799,7 @@
       <c r="G16" s="4"/>
       <c r="H16" s="16"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="19"/>
@@ -3809,7 +3809,7 @@
       <c r="G17" s="4"/>
       <c r="H17" s="16"/>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="19"/>
@@ -3819,7 +3819,7 @@
       <c r="G18" s="4"/>
       <c r="H18" s="16"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="19"/>
@@ -3829,7 +3829,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="16"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="19"/>
@@ -3839,7 +3839,7 @@
       <c r="G20" s="4"/>
       <c r="H20" s="16"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="11"/>
       <c r="B21" s="11"/>
       <c r="C21" s="19"/>
@@ -3849,7 +3849,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="16"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="19"/>
@@ -3859,7 +3859,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="16"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="19"/>
@@ -3869,7 +3869,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="16"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="19"/>
@@ -3879,7 +3879,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="16"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="19"/>
@@ -3889,7 +3889,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="16"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="19"/>
@@ -3899,7 +3899,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="16"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="19"/>
@@ -3909,7 +3909,7 @@
       <c r="G27" s="4"/>
       <c r="H27" s="16"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="19"/>
@@ -3919,7 +3919,7 @@
       <c r="G28" s="4"/>
       <c r="H28" s="16"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="19"/>
@@ -3929,7 +3929,7 @@
       <c r="G29" s="4"/>
       <c r="H29" s="16"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="19"/>
@@ -3939,7 +3939,7 @@
       <c r="G30" s="4"/>
       <c r="H30" s="16"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="19"/>
@@ -3949,7 +3949,7 @@
       <c r="G31" s="4"/>
       <c r="H31" s="16"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="19"/>
@@ -3959,7 +3959,7 @@
       <c r="G32" s="4"/>
       <c r="H32" s="16"/>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="19"/>
@@ -3969,7 +3969,7 @@
       <c r="G33" s="4"/>
       <c r="H33" s="16"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="19"/>
@@ -3979,7 +3979,7 @@
       <c r="G34" s="4"/>
       <c r="H34" s="16"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="19"/>
@@ -3989,7 +3989,7 @@
       <c r="G35" s="4"/>
       <c r="H35" s="16"/>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="19"/>
@@ -3999,7 +3999,7 @@
       <c r="G36" s="4"/>
       <c r="H36" s="16"/>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="19"/>
@@ -4009,7 +4009,7 @@
       <c r="G37" s="4"/>
       <c r="H37" s="16"/>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="19"/>
@@ -4019,7 +4019,7 @@
       <c r="G38" s="4"/>
       <c r="H38" s="16"/>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="19"/>
@@ -4029,7 +4029,7 @@
       <c r="G39" s="4"/>
       <c r="H39" s="16"/>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="19"/>
@@ -4039,7 +4039,7 @@
       <c r="G40" s="4"/>
       <c r="H40" s="16"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="19"/>
@@ -4049,7 +4049,7 @@
       <c r="G41" s="4"/>
       <c r="H41" s="16"/>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="19"/>
@@ -4059,7 +4059,7 @@
       <c r="G42" s="4"/>
       <c r="H42" s="16"/>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="19"/>
@@ -4069,7 +4069,7 @@
       <c r="G43" s="4"/>
       <c r="H43" s="16"/>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="19"/>
@@ -4079,7 +4079,7 @@
       <c r="G44" s="4"/>
       <c r="H44" s="16"/>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="19"/>
@@ -4089,7 +4089,7 @@
       <c r="G45" s="4"/>
       <c r="H45" s="16"/>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="19"/>
@@ -4099,7 +4099,7 @@
       <c r="G46" s="4"/>
       <c r="H46" s="16"/>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="19"/>
@@ -4109,7 +4109,7 @@
       <c r="G47" s="4"/>
       <c r="H47" s="16"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="19"/>
@@ -4119,7 +4119,7 @@
       <c r="G48" s="4"/>
       <c r="H48" s="16"/>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="19"/>
@@ -4129,7 +4129,7 @@
       <c r="G49" s="4"/>
       <c r="H49" s="16"/>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="19"/>
@@ -4139,7 +4139,7 @@
       <c r="G50" s="4"/>
       <c r="H50" s="16"/>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="19"/>
@@ -4149,7 +4149,7 @@
       <c r="G51" s="4"/>
       <c r="H51" s="16"/>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="19"/>
@@ -4159,7 +4159,7 @@
       <c r="G52" s="4"/>
       <c r="H52" s="16"/>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="19"/>
@@ -4169,7 +4169,7 @@
       <c r="G53" s="4"/>
       <c r="H53" s="16"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="19"/>
@@ -4179,7 +4179,7 @@
       <c r="G54" s="4"/>
       <c r="H54" s="16"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="19"/>
@@ -4189,7 +4189,7 @@
       <c r="G55" s="4"/>
       <c r="H55" s="16"/>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="19"/>
@@ -4199,7 +4199,7 @@
       <c r="G56" s="4"/>
       <c r="H56" s="16"/>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="19"/>
@@ -4209,7 +4209,7 @@
       <c r="G57" s="4"/>
       <c r="H57" s="16"/>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="19"/>
@@ -4219,7 +4219,7 @@
       <c r="G58" s="4"/>
       <c r="H58" s="16"/>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="19"/>
@@ -4229,7 +4229,7 @@
       <c r="G59" s="4"/>
       <c r="H59" s="16"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="19"/>
@@ -4239,7 +4239,7 @@
       <c r="G60" s="4"/>
       <c r="H60" s="16"/>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="19"/>
@@ -4249,7 +4249,7 @@
       <c r="G61" s="4"/>
       <c r="H61" s="16"/>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="19"/>
@@ -4259,7 +4259,7 @@
       <c r="G62" s="4"/>
       <c r="H62" s="16"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="19"/>
@@ -4269,7 +4269,7 @@
       <c r="G63" s="4"/>
       <c r="H63" s="16"/>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="19"/>
@@ -4279,7 +4279,7 @@
       <c r="G64" s="4"/>
       <c r="H64" s="16"/>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="19"/>
@@ -4289,7 +4289,7 @@
       <c r="G65" s="4"/>
       <c r="H65" s="16"/>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="19"/>
@@ -4299,7 +4299,7 @@
       <c r="G66" s="4"/>
       <c r="H66" s="16"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="19"/>
@@ -4309,7 +4309,7 @@
       <c r="G67" s="4"/>
       <c r="H67" s="16"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="19"/>
@@ -4319,7 +4319,7 @@
       <c r="G68" s="4"/>
       <c r="H68" s="16"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="19"/>
@@ -4329,7 +4329,7 @@
       <c r="G69" s="4"/>
       <c r="H69" s="16"/>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="19"/>
@@ -4339,7 +4339,7 @@
       <c r="G70" s="4"/>
       <c r="H70" s="16"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="19"/>
@@ -4349,7 +4349,7 @@
       <c r="G71" s="4"/>
       <c r="H71" s="16"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="19"/>
@@ -4359,7 +4359,7 @@
       <c r="G72" s="4"/>
       <c r="H72" s="16"/>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="19"/>
@@ -4369,7 +4369,7 @@
       <c r="G73" s="4"/>
       <c r="H73" s="16"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="19"/>
@@ -4379,7 +4379,7 @@
       <c r="G74" s="4"/>
       <c r="H74" s="16"/>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="19"/>
@@ -4389,7 +4389,7 @@
       <c r="G75" s="4"/>
       <c r="H75" s="16"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="19"/>
@@ -4399,7 +4399,7 @@
       <c r="G76" s="4"/>
       <c r="H76" s="16"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="19"/>
@@ -4409,7 +4409,7 @@
       <c r="G77" s="4"/>
       <c r="H77" s="16"/>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="19"/>
@@ -4419,7 +4419,7 @@
       <c r="G78" s="4"/>
       <c r="H78" s="16"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="19"/>
@@ -4429,7 +4429,7 @@
       <c r="G79" s="4"/>
       <c r="H79" s="16"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="19"/>
@@ -4439,7 +4439,7 @@
       <c r="G80" s="4"/>
       <c r="H80" s="16"/>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="19"/>
@@ -4449,7 +4449,7 @@
       <c r="G81" s="4"/>
       <c r="H81" s="16"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="19"/>
@@ -4459,7 +4459,7 @@
       <c r="G82" s="4"/>
       <c r="H82" s="16"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="19"/>
@@ -4469,7 +4469,7 @@
       <c r="G83" s="4"/>
       <c r="H83" s="16"/>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="19"/>
@@ -4479,7 +4479,7 @@
       <c r="G84" s="4"/>
       <c r="H84" s="16"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="19"/>
@@ -4489,7 +4489,7 @@
       <c r="G85" s="4"/>
       <c r="H85" s="16"/>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="19"/>
@@ -4499,7 +4499,7 @@
       <c r="G86" s="4"/>
       <c r="H86" s="16"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="19"/>
@@ -4509,7 +4509,7 @@
       <c r="G87" s="4"/>
       <c r="H87" s="16"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="19"/>
@@ -4519,7 +4519,7 @@
       <c r="G88" s="4"/>
       <c r="H88" s="16"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="19"/>
@@ -4529,7 +4529,7 @@
       <c r="G89" s="4"/>
       <c r="H89" s="16"/>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="19"/>
@@ -4539,7 +4539,7 @@
       <c r="G90" s="4"/>
       <c r="H90" s="16"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="19"/>
@@ -4549,7 +4549,7 @@
       <c r="G91" s="4"/>
       <c r="H91" s="16"/>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="19"/>
@@ -4559,7 +4559,7 @@
       <c r="G92" s="4"/>
       <c r="H92" s="16"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="19"/>
@@ -4569,7 +4569,7 @@
       <c r="G93" s="4"/>
       <c r="H93" s="16"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="19"/>
@@ -4579,7 +4579,7 @@
       <c r="G94" s="4"/>
       <c r="H94" s="16"/>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="19"/>
@@ -4589,7 +4589,7 @@
       <c r="G95" s="4"/>
       <c r="H95" s="16"/>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="19"/>
@@ -4599,7 +4599,7 @@
       <c r="G96" s="4"/>
       <c r="H96" s="16"/>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="19"/>
@@ -4609,7 +4609,7 @@
       <c r="G97" s="4"/>
       <c r="H97" s="16"/>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="19"/>
@@ -4619,7 +4619,7 @@
       <c r="G98" s="4"/>
       <c r="H98" s="16"/>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="19"/>
@@ -4629,7 +4629,7 @@
       <c r="G99" s="4"/>
       <c r="H99" s="16"/>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="19"/>
@@ -4639,7 +4639,7 @@
       <c r="G100" s="4"/>
       <c r="H100" s="16"/>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="19"/>
@@ -4649,7 +4649,7 @@
       <c r="G101" s="4"/>
       <c r="H101" s="16"/>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="19"/>
@@ -4659,7 +4659,7 @@
       <c r="G102" s="4"/>
       <c r="H102" s="16"/>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="19"/>
@@ -4669,7 +4669,7 @@
       <c r="G103" s="4"/>
       <c r="H103" s="16"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="19"/>
@@ -4679,7 +4679,7 @@
       <c r="G104" s="4"/>
       <c r="H104" s="16"/>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="19"/>
@@ -4689,7 +4689,7 @@
       <c r="G105" s="4"/>
       <c r="H105" s="16"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="19"/>
@@ -4699,7 +4699,7 @@
       <c r="G106" s="4"/>
       <c r="H106" s="16"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="19"/>
@@ -4709,7 +4709,7 @@
       <c r="G107" s="4"/>
       <c r="H107" s="16"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="19"/>
@@ -4719,7 +4719,7 @@
       <c r="G108" s="4"/>
       <c r="H108" s="16"/>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="19"/>
@@ -4729,7 +4729,7 @@
       <c r="G109" s="4"/>
       <c r="H109" s="16"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="19"/>
@@ -4739,7 +4739,7 @@
       <c r="G110" s="4"/>
       <c r="H110" s="16"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="19"/>
@@ -4749,7 +4749,7 @@
       <c r="G111" s="4"/>
       <c r="H111" s="16"/>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="19"/>
@@ -4759,7 +4759,7 @@
       <c r="G112" s="4"/>
       <c r="H112" s="16"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="19"/>
@@ -4769,7 +4769,7 @@
       <c r="G113" s="4"/>
       <c r="H113" s="16"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="19"/>
@@ -4779,7 +4779,7 @@
       <c r="G114" s="4"/>
       <c r="H114" s="16"/>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="19"/>
@@ -4789,7 +4789,7 @@
       <c r="G115" s="4"/>
       <c r="H115" s="16"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="19"/>
@@ -4799,7 +4799,7 @@
       <c r="G116" s="4"/>
       <c r="H116" s="16"/>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="19"/>
@@ -4809,7 +4809,7 @@
       <c r="G117" s="4"/>
       <c r="H117" s="16"/>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="19"/>
@@ -4819,7 +4819,7 @@
       <c r="G118" s="4"/>
       <c r="H118" s="16"/>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="19"/>
@@ -4829,7 +4829,7 @@
       <c r="G119" s="4"/>
       <c r="H119" s="16"/>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="19"/>
@@ -4839,7 +4839,7 @@
       <c r="G120" s="4"/>
       <c r="H120" s="16"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="19"/>
@@ -4849,7 +4849,7 @@
       <c r="G121" s="4"/>
       <c r="H121" s="16"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="19"/>
@@ -4859,7 +4859,7 @@
       <c r="G122" s="4"/>
       <c r="H122" s="16"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="19"/>
@@ -4869,7 +4869,7 @@
       <c r="G123" s="4"/>
       <c r="H123" s="16"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="19"/>
@@ -4879,7 +4879,7 @@
       <c r="G124" s="4"/>
       <c r="H124" s="16"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="19"/>
@@ -4889,7 +4889,7 @@
       <c r="G125" s="4"/>
       <c r="H125" s="16"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="19"/>
@@ -4899,7 +4899,7 @@
       <c r="G126" s="4"/>
       <c r="H126" s="16"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="19"/>
@@ -4909,7 +4909,7 @@
       <c r="G127" s="4"/>
       <c r="H127" s="16"/>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="19"/>
@@ -4919,7 +4919,7 @@
       <c r="G128" s="4"/>
       <c r="H128" s="16"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="19"/>
@@ -4929,7 +4929,7 @@
       <c r="G129" s="4"/>
       <c r="H129" s="16"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="19"/>
@@ -4939,7 +4939,7 @@
       <c r="G130" s="4"/>
       <c r="H130" s="16"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="19"/>
@@ -4949,7 +4949,7 @@
       <c r="G131" s="4"/>
       <c r="H131" s="16"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="19"/>
@@ -4959,7 +4959,7 @@
       <c r="G132" s="4"/>
       <c r="H132" s="16"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="19"/>
@@ -4969,7 +4969,7 @@
       <c r="G133" s="4"/>
       <c r="H133" s="16"/>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="19"/>
@@ -4979,7 +4979,7 @@
       <c r="G134" s="4"/>
       <c r="H134" s="16"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="19"/>
@@ -4989,7 +4989,7 @@
       <c r="G135" s="4"/>
       <c r="H135" s="16"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
       <c r="C136" s="19"/>
@@ -4999,7 +4999,7 @@
       <c r="G136" s="4"/>
       <c r="H136" s="16"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A137" s="11"/>
       <c r="B137" s="11"/>
       <c r="C137" s="19"/>
@@ -5009,7 +5009,7 @@
       <c r="G137" s="4"/>
       <c r="H137" s="16"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="19"/>
@@ -5019,7 +5019,7 @@
       <c r="G138" s="4"/>
       <c r="H138" s="16"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="19"/>
@@ -5029,7 +5029,7 @@
       <c r="G139" s="4"/>
       <c r="H139" s="16"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A140" s="11"/>
       <c r="B140" s="11"/>
       <c r="C140" s="19"/>
@@ -5039,7 +5039,7 @@
       <c r="G140" s="4"/>
       <c r="H140" s="16"/>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A141" s="11"/>
       <c r="B141" s="11"/>
       <c r="C141" s="19"/>
@@ -5049,7 +5049,7 @@
       <c r="G141" s="4"/>
       <c r="H141" s="16"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A142" s="11"/>
       <c r="B142" s="11"/>
       <c r="C142" s="19"/>
@@ -5059,7 +5059,7 @@
       <c r="G142" s="4"/>
       <c r="H142" s="16"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A143" s="11"/>
       <c r="B143" s="11"/>
       <c r="C143" s="19"/>
@@ -5069,7 +5069,7 @@
       <c r="G143" s="4"/>
       <c r="H143" s="16"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A144" s="11"/>
       <c r="B144" s="11"/>
       <c r="C144" s="19"/>
@@ -5079,7 +5079,7 @@
       <c r="G144" s="4"/>
       <c r="H144" s="16"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A145" s="11"/>
       <c r="B145" s="11"/>
       <c r="C145" s="19"/>
@@ -5089,7 +5089,7 @@
       <c r="G145" s="4"/>
       <c r="H145" s="16"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A146" s="11"/>
       <c r="B146" s="11"/>
       <c r="C146" s="19"/>
@@ -5099,7 +5099,7 @@
       <c r="G146" s="4"/>
       <c r="H146" s="16"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="19"/>
@@ -5109,7 +5109,7 @@
       <c r="G147" s="4"/>
       <c r="H147" s="16"/>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A148" s="11"/>
       <c r="B148" s="11"/>
       <c r="C148" s="19"/>
@@ -5119,7 +5119,7 @@
       <c r="G148" s="4"/>
       <c r="H148" s="16"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="19"/>
@@ -5129,7 +5129,7 @@
       <c r="G149" s="4"/>
       <c r="H149" s="16"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="19"/>
@@ -5139,7 +5139,7 @@
       <c r="G150" s="4"/>
       <c r="H150" s="16"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A151" s="11"/>
       <c r="B151" s="11"/>
       <c r="C151" s="19"/>
@@ -5149,7 +5149,7 @@
       <c r="G151" s="4"/>
       <c r="H151" s="16"/>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="19"/>
@@ -5159,7 +5159,7 @@
       <c r="G152" s="4"/>
       <c r="H152" s="16"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A153" s="11"/>
       <c r="B153" s="11"/>
       <c r="C153" s="19"/>
@@ -5169,7 +5169,7 @@
       <c r="G153" s="4"/>
       <c r="H153" s="16"/>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="19"/>
@@ -5179,7 +5179,7 @@
       <c r="G154" s="4"/>
       <c r="H154" s="16"/>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="19"/>
@@ -5189,7 +5189,7 @@
       <c r="G155" s="4"/>
       <c r="H155" s="16"/>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="19"/>
@@ -5199,7 +5199,7 @@
       <c r="G156" s="4"/>
       <c r="H156" s="16"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="19"/>
@@ -5209,7 +5209,7 @@
       <c r="G157" s="4"/>
       <c r="H157" s="16"/>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="19"/>
@@ -5219,7 +5219,7 @@
       <c r="G158" s="4"/>
       <c r="H158" s="16"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="19"/>
@@ -5229,7 +5229,7 @@
       <c r="G159" s="4"/>
       <c r="H159" s="16"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="19"/>
@@ -5239,7 +5239,7 @@
       <c r="G160" s="4"/>
       <c r="H160" s="16"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="19"/>
@@ -5249,7 +5249,7 @@
       <c r="G161" s="4"/>
       <c r="H161" s="16"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
       <c r="C162" s="19"/>
@@ -5259,7 +5259,7 @@
       <c r="G162" s="4"/>
       <c r="H162" s="16"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
       <c r="C163" s="19"/>
@@ -5269,7 +5269,7 @@
       <c r="G163" s="4"/>
       <c r="H163" s="16"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
       <c r="C164" s="19"/>
@@ -5279,7 +5279,7 @@
       <c r="G164" s="4"/>
       <c r="H164" s="16"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A165" s="11"/>
       <c r="B165" s="11"/>
       <c r="C165" s="19"/>
@@ -5289,7 +5289,7 @@
       <c r="G165" s="4"/>
       <c r="H165" s="16"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A166" s="11"/>
       <c r="B166" s="11"/>
       <c r="C166" s="19"/>
@@ -5299,7 +5299,7 @@
       <c r="G166" s="4"/>
       <c r="H166" s="16"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A167" s="11"/>
       <c r="B167" s="11"/>
       <c r="C167" s="19"/>
@@ -5309,7 +5309,7 @@
       <c r="G167" s="4"/>
       <c r="H167" s="16"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A168" s="11"/>
       <c r="B168" s="11"/>
       <c r="C168" s="19"/>
@@ -5319,7 +5319,7 @@
       <c r="G168" s="4"/>
       <c r="H168" s="16"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A169" s="11"/>
       <c r="B169" s="11"/>
       <c r="C169" s="19"/>
@@ -5329,7 +5329,7 @@
       <c r="G169" s="4"/>
       <c r="H169" s="16"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A170" s="11"/>
       <c r="B170" s="11"/>
       <c r="C170" s="19"/>
@@ -5339,7 +5339,7 @@
       <c r="G170" s="4"/>
       <c r="H170" s="16"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
       <c r="C171" s="19"/>
@@ -5349,7 +5349,7 @@
       <c r="G171" s="4"/>
       <c r="H171" s="16"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A172" s="11"/>
       <c r="B172" s="11"/>
       <c r="C172" s="19"/>
@@ -5359,7 +5359,7 @@
       <c r="G172" s="4"/>
       <c r="H172" s="16"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A173" s="11"/>
       <c r="B173" s="11"/>
       <c r="C173" s="19"/>
@@ -5369,7 +5369,7 @@
       <c r="G173" s="4"/>
       <c r="H173" s="16"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A174" s="11"/>
       <c r="B174" s="11"/>
       <c r="C174" s="19"/>
@@ -5379,7 +5379,7 @@
       <c r="G174" s="4"/>
       <c r="H174" s="16"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="19"/>
@@ -5389,7 +5389,7 @@
       <c r="G175" s="4"/>
       <c r="H175" s="16"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A176" s="11"/>
       <c r="B176" s="11"/>
       <c r="C176" s="19"/>
@@ -5399,7 +5399,7 @@
       <c r="G176" s="4"/>
       <c r="H176" s="16"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A177" s="11"/>
       <c r="B177" s="11"/>
       <c r="C177" s="19"/>
@@ -5409,7 +5409,7 @@
       <c r="G177" s="4"/>
       <c r="H177" s="16"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A178" s="11"/>
       <c r="B178" s="11"/>
       <c r="C178" s="19"/>
@@ -5419,7 +5419,7 @@
       <c r="G178" s="4"/>
       <c r="H178" s="16"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A179" s="11"/>
       <c r="B179" s="11"/>
       <c r="C179" s="19"/>
@@ -5429,7 +5429,7 @@
       <c r="G179" s="4"/>
       <c r="H179" s="16"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A180" s="11"/>
       <c r="B180" s="11"/>
       <c r="C180" s="19"/>
@@ -5439,7 +5439,7 @@
       <c r="G180" s="4"/>
       <c r="H180" s="16"/>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A181" s="11"/>
       <c r="B181" s="11"/>
       <c r="C181" s="19"/>
@@ -5449,7 +5449,7 @@
       <c r="G181" s="4"/>
       <c r="H181" s="16"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A182" s="11"/>
       <c r="B182" s="11"/>
       <c r="C182" s="19"/>
@@ -5459,7 +5459,7 @@
       <c r="G182" s="4"/>
       <c r="H182" s="16"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A183" s="11"/>
       <c r="B183" s="11"/>
       <c r="C183" s="19"/>
@@ -5469,7 +5469,7 @@
       <c r="G183" s="4"/>
       <c r="H183" s="16"/>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A184" s="11"/>
       <c r="B184" s="11"/>
       <c r="C184" s="19"/>
@@ -5479,7 +5479,7 @@
       <c r="G184" s="4"/>
       <c r="H184" s="16"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A185" s="11"/>
       <c r="B185" s="11"/>
       <c r="C185" s="19"/>
@@ -5489,7 +5489,7 @@
       <c r="G185" s="4"/>
       <c r="H185" s="16"/>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A186" s="11"/>
       <c r="B186" s="11"/>
       <c r="C186" s="19"/>
@@ -5499,7 +5499,7 @@
       <c r="G186" s="4"/>
       <c r="H186" s="16"/>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A187" s="11"/>
       <c r="B187" s="11"/>
       <c r="C187" s="19"/>
@@ -5509,7 +5509,7 @@
       <c r="G187" s="4"/>
       <c r="H187" s="16"/>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A188" s="11"/>
       <c r="B188" s="11"/>
       <c r="C188" s="19"/>
@@ -5519,7 +5519,7 @@
       <c r="G188" s="4"/>
       <c r="H188" s="16"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A189" s="11"/>
       <c r="B189" s="11"/>
       <c r="C189" s="19"/>
@@ -5529,7 +5529,7 @@
       <c r="G189" s="4"/>
       <c r="H189" s="16"/>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A190" s="11"/>
       <c r="B190" s="11"/>
       <c r="C190" s="19"/>
@@ -5539,7 +5539,7 @@
       <c r="G190" s="4"/>
       <c r="H190" s="16"/>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A191" s="11"/>
       <c r="B191" s="11"/>
       <c r="C191" s="19"/>
@@ -5549,7 +5549,7 @@
       <c r="G191" s="4"/>
       <c r="H191" s="16"/>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A192" s="11"/>
       <c r="B192" s="11"/>
       <c r="C192" s="19"/>
@@ -5559,7 +5559,7 @@
       <c r="G192" s="4"/>
       <c r="H192" s="16"/>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A193" s="11"/>
       <c r="B193" s="11"/>
       <c r="C193" s="19"/>
@@ -5569,7 +5569,7 @@
       <c r="G193" s="4"/>
       <c r="H193" s="16"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A194" s="11"/>
       <c r="B194" s="11"/>
       <c r="C194" s="19"/>
@@ -5579,7 +5579,7 @@
       <c r="G194" s="4"/>
       <c r="H194" s="16"/>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A195" s="11"/>
       <c r="B195" s="11"/>
       <c r="C195" s="19"/>
@@ -5589,7 +5589,7 @@
       <c r="G195" s="4"/>
       <c r="H195" s="16"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A196" s="11"/>
       <c r="B196" s="11"/>
       <c r="C196" s="19"/>
@@ -5599,7 +5599,7 @@
       <c r="G196" s="4"/>
       <c r="H196" s="16"/>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A197" s="11"/>
       <c r="B197" s="11"/>
       <c r="C197" s="19"/>
@@ -5609,7 +5609,7 @@
       <c r="G197" s="4"/>
       <c r="H197" s="16"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A198" s="11"/>
       <c r="B198" s="11"/>
       <c r="C198" s="19"/>
@@ -5619,7 +5619,7 @@
       <c r="G198" s="4"/>
       <c r="H198" s="16"/>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A199" s="11"/>
       <c r="B199" s="11"/>
       <c r="C199" s="19"/>
@@ -5629,7 +5629,7 @@
       <c r="G199" s="4"/>
       <c r="H199" s="16"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A200" s="11"/>
       <c r="B200" s="11"/>
       <c r="C200" s="19"/>
@@ -5639,7 +5639,7 @@
       <c r="G200" s="4"/>
       <c r="H200" s="16"/>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A201" s="37"/>
       <c r="B201" s="37"/>
       <c r="C201" s="20"/>
@@ -5679,7 +5679,7 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="25.75" style="35" customWidth="1"/>
@@ -5688,7 +5688,7 @@
     <col min="5" max="5" width="45.75" style="35" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
@@ -5705,1400 +5705,1400 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="22"/>
       <c r="B2" s="36"/>
       <c r="C2" s="11"/>
       <c r="D2" s="19"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="10"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="19"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="10"/>
       <c r="B4" s="11"/>
       <c r="C4" s="11"/>
       <c r="D4" s="19"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="10"/>
       <c r="B5" s="11"/>
       <c r="C5" s="11"/>
       <c r="D5" s="19"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="10"/>
       <c r="B6" s="11"/>
       <c r="C6" s="11"/>
       <c r="D6" s="19"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="10"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="19"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="10"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="19"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="10"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="19"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="10"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="19"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="10"/>
       <c r="B11" s="11"/>
       <c r="C11" s="10"/>
       <c r="D11" s="19"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="10"/>
       <c r="B12" s="11"/>
       <c r="C12" s="10"/>
       <c r="D12" s="19"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="10"/>
       <c r="B13" s="11"/>
       <c r="C13" s="10"/>
       <c r="D13" s="19"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="10"/>
       <c r="B14" s="11"/>
       <c r="C14" s="10"/>
       <c r="D14" s="19"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="10"/>
       <c r="B15" s="11"/>
       <c r="C15" s="10"/>
       <c r="D15" s="19"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="10"/>
       <c r="B16" s="11"/>
       <c r="C16" s="10"/>
       <c r="D16" s="19"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="10"/>
       <c r="B17" s="11"/>
       <c r="C17" s="10"/>
       <c r="D17" s="19"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="10"/>
       <c r="B18" s="11"/>
       <c r="C18" s="10"/>
       <c r="D18" s="19"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="10"/>
       <c r="B19" s="11"/>
       <c r="C19" s="10"/>
       <c r="D19" s="19"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="10"/>
       <c r="B20" s="11"/>
       <c r="C20" s="10"/>
       <c r="D20" s="19"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="10"/>
       <c r="B21" s="11"/>
       <c r="C21" s="10"/>
       <c r="D21" s="19"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="10"/>
       <c r="B22" s="11"/>
       <c r="C22" s="10"/>
       <c r="D22" s="19"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="10"/>
       <c r="B23" s="11"/>
       <c r="C23" s="10"/>
       <c r="D23" s="19"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="10"/>
       <c r="B24" s="11"/>
       <c r="C24" s="10"/>
       <c r="D24" s="19"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="10"/>
       <c r="B25" s="11"/>
       <c r="C25" s="10"/>
       <c r="D25" s="19"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="10"/>
       <c r="B26" s="11"/>
       <c r="C26" s="10"/>
       <c r="D26" s="19"/>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="10"/>
       <c r="B27" s="11"/>
       <c r="C27" s="10"/>
       <c r="D27" s="19"/>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="10"/>
       <c r="B28" s="11"/>
       <c r="C28" s="10"/>
       <c r="D28" s="19"/>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="10"/>
       <c r="B29" s="11"/>
       <c r="C29" s="10"/>
       <c r="D29" s="19"/>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="10"/>
       <c r="B30" s="11"/>
       <c r="C30" s="10"/>
       <c r="D30" s="19"/>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="10"/>
       <c r="B31" s="11"/>
       <c r="C31" s="10"/>
       <c r="D31" s="19"/>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="10"/>
       <c r="B32" s="11"/>
       <c r="C32" s="10"/>
       <c r="D32" s="19"/>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="10"/>
       <c r="B33" s="11"/>
       <c r="C33" s="10"/>
       <c r="D33" s="19"/>
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="10"/>
       <c r="B34" s="11"/>
       <c r="C34" s="10"/>
       <c r="D34" s="19"/>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="10"/>
       <c r="B35" s="11"/>
       <c r="C35" s="10"/>
       <c r="D35" s="19"/>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="10"/>
       <c r="B36" s="11"/>
       <c r="C36" s="10"/>
       <c r="D36" s="19"/>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="10"/>
       <c r="B37" s="11"/>
       <c r="C37" s="10"/>
       <c r="D37" s="19"/>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="10"/>
       <c r="B38" s="11"/>
       <c r="C38" s="10"/>
       <c r="D38" s="19"/>
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="10"/>
       <c r="B39" s="11"/>
       <c r="C39" s="10"/>
       <c r="D39" s="19"/>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="10"/>
       <c r="B40" s="11"/>
       <c r="C40" s="10"/>
       <c r="D40" s="19"/>
       <c r="E40" s="5"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="10"/>
       <c r="B41" s="11"/>
       <c r="C41" s="10"/>
       <c r="D41" s="19"/>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="10"/>
       <c r="B42" s="11"/>
       <c r="C42" s="10"/>
       <c r="D42" s="19"/>
       <c r="E42" s="5"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="10"/>
       <c r="B43" s="11"/>
       <c r="C43" s="10"/>
       <c r="D43" s="19"/>
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="10"/>
       <c r="B44" s="11"/>
       <c r="C44" s="10"/>
       <c r="D44" s="19"/>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="10"/>
       <c r="B45" s="11"/>
       <c r="C45" s="10"/>
       <c r="D45" s="19"/>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="10"/>
       <c r="B46" s="11"/>
       <c r="C46" s="10"/>
       <c r="D46" s="19"/>
       <c r="E46" s="5"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="10"/>
       <c r="B47" s="11"/>
       <c r="C47" s="10"/>
       <c r="D47" s="19"/>
       <c r="E47" s="5"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="10"/>
       <c r="B48" s="11"/>
       <c r="C48" s="10"/>
       <c r="D48" s="19"/>
       <c r="E48" s="5"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="10"/>
       <c r="B49" s="11"/>
       <c r="C49" s="10"/>
       <c r="D49" s="19"/>
       <c r="E49" s="5"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="10"/>
       <c r="B50" s="11"/>
       <c r="C50" s="10"/>
       <c r="D50" s="19"/>
       <c r="E50" s="5"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="10"/>
       <c r="B51" s="11"/>
       <c r="C51" s="10"/>
       <c r="D51" s="19"/>
       <c r="E51" s="5"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" s="10"/>
       <c r="B52" s="11"/>
       <c r="C52" s="10"/>
       <c r="D52" s="19"/>
       <c r="E52" s="5"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" s="10"/>
       <c r="B53" s="11"/>
       <c r="C53" s="10"/>
       <c r="D53" s="19"/>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="10"/>
       <c r="B54" s="11"/>
       <c r="C54" s="10"/>
       <c r="D54" s="19"/>
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" s="10"/>
       <c r="B55" s="11"/>
       <c r="C55" s="10"/>
       <c r="D55" s="19"/>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" s="10"/>
       <c r="B56" s="11"/>
       <c r="C56" s="10"/>
       <c r="D56" s="19"/>
       <c r="E56" s="5"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" s="10"/>
       <c r="B57" s="11"/>
       <c r="C57" s="10"/>
       <c r="D57" s="19"/>
       <c r="E57" s="5"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" s="10"/>
       <c r="B58" s="11"/>
       <c r="C58" s="10"/>
       <c r="D58" s="19"/>
       <c r="E58" s="5"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" s="10"/>
       <c r="B59" s="11"/>
       <c r="C59" s="10"/>
       <c r="D59" s="19"/>
       <c r="E59" s="5"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" s="10"/>
       <c r="B60" s="11"/>
       <c r="C60" s="10"/>
       <c r="D60" s="19"/>
       <c r="E60" s="5"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" s="10"/>
       <c r="B61" s="11"/>
       <c r="C61" s="10"/>
       <c r="D61" s="19"/>
       <c r="E61" s="5"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" s="10"/>
       <c r="B62" s="11"/>
       <c r="C62" s="10"/>
       <c r="D62" s="19"/>
       <c r="E62" s="5"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" s="10"/>
       <c r="B63" s="11"/>
       <c r="C63" s="10"/>
       <c r="D63" s="19"/>
       <c r="E63" s="5"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" s="10"/>
       <c r="B64" s="11"/>
       <c r="C64" s="10"/>
       <c r="D64" s="19"/>
       <c r="E64" s="5"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" s="10"/>
       <c r="B65" s="11"/>
       <c r="C65" s="10"/>
       <c r="D65" s="19"/>
       <c r="E65" s="5"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" s="10"/>
       <c r="B66" s="11"/>
       <c r="C66" s="10"/>
       <c r="D66" s="19"/>
       <c r="E66" s="5"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" s="10"/>
       <c r="B67" s="11"/>
       <c r="C67" s="10"/>
       <c r="D67" s="19"/>
       <c r="E67" s="5"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" s="10"/>
       <c r="B68" s="11"/>
       <c r="C68" s="10"/>
       <c r="D68" s="19"/>
       <c r="E68" s="5"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" s="10"/>
       <c r="B69" s="11"/>
       <c r="C69" s="10"/>
       <c r="D69" s="19"/>
       <c r="E69" s="5"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" s="10"/>
       <c r="B70" s="11"/>
       <c r="C70" s="10"/>
       <c r="D70" s="19"/>
       <c r="E70" s="5"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" s="10"/>
       <c r="B71" s="11"/>
       <c r="C71" s="10"/>
       <c r="D71" s="19"/>
       <c r="E71" s="5"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" s="10"/>
       <c r="B72" s="11"/>
       <c r="C72" s="10"/>
       <c r="D72" s="19"/>
       <c r="E72" s="5"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" s="10"/>
       <c r="B73" s="11"/>
       <c r="C73" s="10"/>
       <c r="D73" s="19"/>
       <c r="E73" s="5"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" s="10"/>
       <c r="B74" s="11"/>
       <c r="C74" s="10"/>
       <c r="D74" s="19"/>
       <c r="E74" s="5"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" s="10"/>
       <c r="B75" s="11"/>
       <c r="C75" s="10"/>
       <c r="D75" s="19"/>
       <c r="E75" s="5"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" s="10"/>
       <c r="B76" s="11"/>
       <c r="C76" s="10"/>
       <c r="D76" s="19"/>
       <c r="E76" s="5"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" s="10"/>
       <c r="B77" s="11"/>
       <c r="C77" s="10"/>
       <c r="D77" s="19"/>
       <c r="E77" s="5"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" s="10"/>
       <c r="B78" s="11"/>
       <c r="C78" s="10"/>
       <c r="D78" s="19"/>
       <c r="E78" s="5"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" s="10"/>
       <c r="B79" s="11"/>
       <c r="C79" s="10"/>
       <c r="D79" s="19"/>
       <c r="E79" s="5"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80" s="10"/>
       <c r="B80" s="11"/>
       <c r="C80" s="10"/>
       <c r="D80" s="19"/>
       <c r="E80" s="5"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81" s="10"/>
       <c r="B81" s="11"/>
       <c r="C81" s="10"/>
       <c r="D81" s="11"/>
       <c r="E81" s="5"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" s="10"/>
       <c r="B82" s="11"/>
       <c r="C82" s="10"/>
       <c r="D82" s="11"/>
       <c r="E82" s="5"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" s="10"/>
       <c r="B83" s="11"/>
       <c r="C83" s="10"/>
       <c r="D83" s="11"/>
       <c r="E83" s="5"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84" s="10"/>
       <c r="B84" s="11"/>
       <c r="C84" s="10"/>
       <c r="D84" s="11"/>
       <c r="E84" s="5"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85" s="10"/>
       <c r="B85" s="11"/>
       <c r="C85" s="10"/>
       <c r="D85" s="11"/>
       <c r="E85" s="5"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86" s="10"/>
       <c r="B86" s="11"/>
       <c r="C86" s="10"/>
       <c r="D86" s="11"/>
       <c r="E86" s="5"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87" s="10"/>
       <c r="B87" s="11"/>
       <c r="C87" s="10"/>
       <c r="D87" s="11"/>
       <c r="E87" s="5"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88" s="10"/>
       <c r="B88" s="11"/>
       <c r="C88" s="10"/>
       <c r="D88" s="11"/>
       <c r="E88" s="5"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89" s="10"/>
       <c r="B89" s="11"/>
       <c r="C89" s="10"/>
       <c r="D89" s="11"/>
       <c r="E89" s="5"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90" s="10"/>
       <c r="B90" s="11"/>
       <c r="C90" s="10"/>
       <c r="D90" s="11"/>
       <c r="E90" s="5"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A91" s="10"/>
       <c r="B91" s="11"/>
       <c r="C91" s="10"/>
       <c r="D91" s="11"/>
       <c r="E91" s="5"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A92" s="10"/>
       <c r="B92" s="11"/>
       <c r="C92" s="10"/>
       <c r="D92" s="11"/>
       <c r="E92" s="5"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A93" s="10"/>
       <c r="B93" s="11"/>
       <c r="C93" s="10"/>
       <c r="D93" s="11"/>
       <c r="E93" s="5"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A94" s="10"/>
       <c r="B94" s="11"/>
       <c r="C94" s="10"/>
       <c r="D94" s="11"/>
       <c r="E94" s="5"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A95" s="10"/>
       <c r="B95" s="11"/>
       <c r="C95" s="10"/>
       <c r="D95" s="11"/>
       <c r="E95" s="5"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96" s="10"/>
       <c r="B96" s="11"/>
       <c r="C96" s="10"/>
       <c r="D96" s="11"/>
       <c r="E96" s="5"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97" s="10"/>
       <c r="B97" s="11"/>
       <c r="C97" s="10"/>
       <c r="D97" s="11"/>
       <c r="E97" s="5"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A98" s="10"/>
       <c r="B98" s="11"/>
       <c r="C98" s="10"/>
       <c r="D98" s="11"/>
       <c r="E98" s="5"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A99" s="10"/>
       <c r="B99" s="11"/>
       <c r="C99" s="10"/>
       <c r="D99" s="11"/>
       <c r="E99" s="5"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A100" s="10"/>
       <c r="B100" s="11"/>
       <c r="C100" s="10"/>
       <c r="D100" s="11"/>
       <c r="E100" s="5"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A101" s="10"/>
       <c r="B101" s="11"/>
       <c r="C101" s="10"/>
       <c r="D101" s="11"/>
       <c r="E101" s="5"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A102" s="10"/>
       <c r="B102" s="11"/>
       <c r="C102" s="10"/>
       <c r="D102" s="11"/>
       <c r="E102" s="5"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A103" s="10"/>
       <c r="B103" s="11"/>
       <c r="C103" s="10"/>
       <c r="D103" s="11"/>
       <c r="E103" s="5"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A104" s="10"/>
       <c r="B104" s="11"/>
       <c r="C104" s="10"/>
       <c r="D104" s="11"/>
       <c r="E104" s="5"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A105" s="10"/>
       <c r="B105" s="11"/>
       <c r="C105" s="10"/>
       <c r="D105" s="11"/>
       <c r="E105" s="5"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A106" s="10"/>
       <c r="B106" s="11"/>
       <c r="C106" s="10"/>
       <c r="D106" s="11"/>
       <c r="E106" s="5"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A107" s="10"/>
       <c r="B107" s="11"/>
       <c r="C107" s="10"/>
       <c r="D107" s="11"/>
       <c r="E107" s="5"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A108" s="10"/>
       <c r="B108" s="11"/>
       <c r="C108" s="10"/>
       <c r="D108" s="11"/>
       <c r="E108" s="5"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A109" s="10"/>
       <c r="B109" s="11"/>
       <c r="C109" s="10"/>
       <c r="D109" s="11"/>
       <c r="E109" s="5"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A110" s="10"/>
       <c r="B110" s="11"/>
       <c r="C110" s="10"/>
       <c r="D110" s="11"/>
       <c r="E110" s="5"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A111" s="10"/>
       <c r="B111" s="11"/>
       <c r="C111" s="10"/>
       <c r="D111" s="11"/>
       <c r="E111" s="5"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A112" s="10"/>
       <c r="B112" s="11"/>
       <c r="C112" s="10"/>
       <c r="D112" s="11"/>
       <c r="E112" s="5"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A113" s="10"/>
       <c r="B113" s="11"/>
       <c r="C113" s="10"/>
       <c r="D113" s="11"/>
       <c r="E113" s="5"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A114" s="10"/>
       <c r="B114" s="11"/>
       <c r="C114" s="10"/>
       <c r="D114" s="11"/>
       <c r="E114" s="5"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A115" s="10"/>
       <c r="B115" s="11"/>
       <c r="C115" s="10"/>
       <c r="D115" s="11"/>
       <c r="E115" s="5"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A116" s="10"/>
       <c r="B116" s="11"/>
       <c r="C116" s="10"/>
       <c r="D116" s="11"/>
       <c r="E116" s="5"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A117" s="10"/>
       <c r="B117" s="11"/>
       <c r="C117" s="10"/>
       <c r="D117" s="11"/>
       <c r="E117" s="5"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A118" s="10"/>
       <c r="B118" s="11"/>
       <c r="C118" s="10"/>
       <c r="D118" s="11"/>
       <c r="E118" s="5"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A119" s="10"/>
       <c r="B119" s="11"/>
       <c r="C119" s="10"/>
       <c r="D119" s="11"/>
       <c r="E119" s="5"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A120" s="10"/>
       <c r="B120" s="11"/>
       <c r="C120" s="10"/>
       <c r="D120" s="11"/>
       <c r="E120" s="5"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A121" s="10"/>
       <c r="B121" s="11"/>
       <c r="C121" s="10"/>
       <c r="D121" s="11"/>
       <c r="E121" s="5"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A122" s="10"/>
       <c r="B122" s="11"/>
       <c r="C122" s="10"/>
       <c r="D122" s="11"/>
       <c r="E122" s="5"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A123" s="10"/>
       <c r="B123" s="11"/>
       <c r="C123" s="10"/>
       <c r="D123" s="11"/>
       <c r="E123" s="5"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A124" s="10"/>
       <c r="B124" s="11"/>
       <c r="C124" s="10"/>
       <c r="D124" s="11"/>
       <c r="E124" s="5"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A125" s="10"/>
       <c r="B125" s="11"/>
       <c r="C125" s="10"/>
       <c r="D125" s="11"/>
       <c r="E125" s="5"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A126" s="10"/>
       <c r="B126" s="11"/>
       <c r="C126" s="10"/>
       <c r="D126" s="11"/>
       <c r="E126" s="5"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A127" s="10"/>
       <c r="B127" s="11"/>
       <c r="C127" s="10"/>
       <c r="D127" s="11"/>
       <c r="E127" s="5"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A128" s="10"/>
       <c r="B128" s="11"/>
       <c r="C128" s="10"/>
       <c r="D128" s="11"/>
       <c r="E128" s="5"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A129" s="10"/>
       <c r="B129" s="11"/>
       <c r="C129" s="10"/>
       <c r="D129" s="11"/>
       <c r="E129" s="5"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A130" s="10"/>
       <c r="B130" s="11"/>
       <c r="C130" s="10"/>
       <c r="D130" s="11"/>
       <c r="E130" s="5"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A131" s="10"/>
       <c r="B131" s="11"/>
       <c r="C131" s="10"/>
       <c r="D131" s="11"/>
       <c r="E131" s="5"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A132" s="10"/>
       <c r="B132" s="11"/>
       <c r="C132" s="10"/>
       <c r="D132" s="11"/>
       <c r="E132" s="5"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A133" s="10"/>
       <c r="B133" s="11"/>
       <c r="C133" s="10"/>
       <c r="D133" s="11"/>
       <c r="E133" s="5"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A134" s="10"/>
       <c r="B134" s="11"/>
       <c r="C134" s="10"/>
       <c r="D134" s="11"/>
       <c r="E134" s="5"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A135" s="10"/>
       <c r="B135" s="11"/>
       <c r="C135" s="10"/>
       <c r="D135" s="11"/>
       <c r="E135" s="5"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A136" s="10"/>
       <c r="B136" s="11"/>
       <c r="C136" s="10"/>
       <c r="D136" s="11"/>
       <c r="E136" s="5"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A137" s="10"/>
       <c r="B137" s="11"/>
       <c r="C137" s="10"/>
       <c r="D137" s="11"/>
       <c r="E137" s="5"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A138" s="10"/>
       <c r="B138" s="11"/>
       <c r="C138" s="10"/>
       <c r="D138" s="11"/>
       <c r="E138" s="5"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A139" s="10"/>
       <c r="B139" s="11"/>
       <c r="C139" s="10"/>
       <c r="D139" s="11"/>
       <c r="E139" s="5"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A140" s="10"/>
       <c r="B140" s="11"/>
       <c r="C140" s="10"/>
       <c r="D140" s="11"/>
       <c r="E140" s="5"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A141" s="10"/>
       <c r="B141" s="11"/>
       <c r="C141" s="10"/>
       <c r="D141" s="11"/>
       <c r="E141" s="5"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A142" s="10"/>
       <c r="B142" s="11"/>
       <c r="C142" s="10"/>
       <c r="D142" s="11"/>
       <c r="E142" s="5"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A143" s="10"/>
       <c r="B143" s="11"/>
       <c r="C143" s="10"/>
       <c r="D143" s="11"/>
       <c r="E143" s="5"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A144" s="10"/>
       <c r="B144" s="11"/>
       <c r="C144" s="10"/>
       <c r="D144" s="11"/>
       <c r="E144" s="5"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A145" s="10"/>
       <c r="B145" s="11"/>
       <c r="C145" s="10"/>
       <c r="D145" s="11"/>
       <c r="E145" s="5"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A146" s="10"/>
       <c r="B146" s="11"/>
       <c r="C146" s="10"/>
       <c r="D146" s="11"/>
       <c r="E146" s="5"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A147" s="10"/>
       <c r="B147" s="11"/>
       <c r="C147" s="10"/>
       <c r="D147" s="11"/>
       <c r="E147" s="5"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A148" s="10"/>
       <c r="B148" s="11"/>
       <c r="C148" s="10"/>
       <c r="D148" s="11"/>
       <c r="E148" s="5"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A149" s="10"/>
       <c r="B149" s="11"/>
       <c r="C149" s="10"/>
       <c r="D149" s="11"/>
       <c r="E149" s="5"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A150" s="10"/>
       <c r="B150" s="11"/>
       <c r="C150" s="10"/>
       <c r="D150" s="11"/>
       <c r="E150" s="5"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A151" s="10"/>
       <c r="B151" s="11"/>
       <c r="C151" s="10"/>
       <c r="D151" s="11"/>
       <c r="E151" s="5"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A152" s="10"/>
       <c r="B152" s="11"/>
       <c r="C152" s="10"/>
       <c r="D152" s="11"/>
       <c r="E152" s="5"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A153" s="10"/>
       <c r="B153" s="11"/>
       <c r="C153" s="10"/>
       <c r="D153" s="11"/>
       <c r="E153" s="5"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A154" s="10"/>
       <c r="B154" s="11"/>
       <c r="C154" s="10"/>
       <c r="D154" s="11"/>
       <c r="E154" s="5"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A155" s="10"/>
       <c r="B155" s="11"/>
       <c r="C155" s="10"/>
       <c r="D155" s="11"/>
       <c r="E155" s="5"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A156" s="10"/>
       <c r="B156" s="11"/>
       <c r="C156" s="10"/>
       <c r="D156" s="11"/>
       <c r="E156" s="5"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A157" s="10"/>
       <c r="B157" s="11"/>
       <c r="C157" s="10"/>
       <c r="D157" s="11"/>
       <c r="E157" s="5"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A158" s="10"/>
       <c r="B158" s="11"/>
       <c r="C158" s="10"/>
       <c r="D158" s="11"/>
       <c r="E158" s="5"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A159" s="10"/>
       <c r="B159" s="11"/>
       <c r="C159" s="10"/>
       <c r="D159" s="11"/>
       <c r="E159" s="5"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A160" s="10"/>
       <c r="B160" s="11"/>
       <c r="C160" s="10"/>
       <c r="D160" s="11"/>
       <c r="E160" s="5"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A161" s="10"/>
       <c r="B161" s="11"/>
       <c r="C161" s="10"/>
       <c r="D161" s="11"/>
       <c r="E161" s="5"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A162" s="10"/>
       <c r="B162" s="11"/>
       <c r="C162" s="10"/>
       <c r="D162" s="11"/>
       <c r="E162" s="5"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A163" s="10"/>
       <c r="B163" s="11"/>
       <c r="C163" s="10"/>
       <c r="D163" s="11"/>
       <c r="E163" s="5"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A164" s="10"/>
       <c r="B164" s="11"/>
       <c r="C164" s="10"/>
       <c r="D164" s="11"/>
       <c r="E164" s="5"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A165" s="10"/>
       <c r="B165" s="11"/>
       <c r="C165" s="10"/>
       <c r="D165" s="11"/>
       <c r="E165" s="5"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A166" s="10"/>
       <c r="B166" s="11"/>
       <c r="C166" s="10"/>
       <c r="D166" s="11"/>
       <c r="E166" s="5"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A167" s="10"/>
       <c r="B167" s="11"/>
       <c r="C167" s="10"/>
       <c r="D167" s="11"/>
       <c r="E167" s="5"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A168" s="10"/>
       <c r="B168" s="11"/>
       <c r="C168" s="10"/>
       <c r="D168" s="11"/>
       <c r="E168" s="5"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A169" s="10"/>
       <c r="B169" s="11"/>
       <c r="C169" s="10"/>
       <c r="D169" s="11"/>
       <c r="E169" s="5"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A170" s="10"/>
       <c r="B170" s="11"/>
       <c r="C170" s="10"/>
       <c r="D170" s="11"/>
       <c r="E170" s="5"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A171" s="10"/>
       <c r="B171" s="11"/>
       <c r="C171" s="10"/>
       <c r="D171" s="11"/>
       <c r="E171" s="5"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A172" s="10"/>
       <c r="B172" s="11"/>
       <c r="C172" s="10"/>
       <c r="D172" s="11"/>
       <c r="E172" s="5"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A173" s="10"/>
       <c r="B173" s="11"/>
       <c r="C173" s="10"/>
       <c r="D173" s="11"/>
       <c r="E173" s="5"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A174" s="10"/>
       <c r="B174" s="11"/>
       <c r="C174" s="10"/>
       <c r="D174" s="11"/>
       <c r="E174" s="5"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A175" s="10"/>
       <c r="B175" s="11"/>
       <c r="C175" s="10"/>
       <c r="D175" s="11"/>
       <c r="E175" s="5"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A176" s="10"/>
       <c r="B176" s="11"/>
       <c r="C176" s="10"/>
       <c r="D176" s="11"/>
       <c r="E176" s="5"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A177" s="10"/>
       <c r="B177" s="11"/>
       <c r="C177" s="10"/>
       <c r="D177" s="11"/>
       <c r="E177" s="5"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A178" s="10"/>
       <c r="B178" s="11"/>
       <c r="C178" s="10"/>
       <c r="D178" s="11"/>
       <c r="E178" s="5"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A179" s="10"/>
       <c r="B179" s="11"/>
       <c r="C179" s="10"/>
       <c r="D179" s="11"/>
       <c r="E179" s="5"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A180" s="10"/>
       <c r="B180" s="11"/>
       <c r="C180" s="10"/>
       <c r="D180" s="11"/>
       <c r="E180" s="5"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A181" s="10"/>
       <c r="B181" s="11"/>
       <c r="C181" s="10"/>
       <c r="D181" s="11"/>
       <c r="E181" s="5"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A182" s="10"/>
       <c r="B182" s="11"/>
       <c r="C182" s="10"/>
       <c r="D182" s="11"/>
       <c r="E182" s="5"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A183" s="10"/>
       <c r="B183" s="11"/>
       <c r="C183" s="10"/>
       <c r="D183" s="11"/>
       <c r="E183" s="5"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A184" s="10"/>
       <c r="B184" s="11"/>
       <c r="C184" s="10"/>
       <c r="D184" s="11"/>
       <c r="E184" s="5"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A185" s="10"/>
       <c r="B185" s="11"/>
       <c r="C185" s="10"/>
       <c r="D185" s="11"/>
       <c r="E185" s="5"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A186" s="10"/>
       <c r="B186" s="11"/>
       <c r="C186" s="10"/>
       <c r="D186" s="11"/>
       <c r="E186" s="5"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A187" s="10"/>
       <c r="B187" s="11"/>
       <c r="C187" s="10"/>
       <c r="D187" s="11"/>
       <c r="E187" s="5"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A188" s="10"/>
       <c r="B188" s="11"/>
       <c r="C188" s="10"/>
       <c r="D188" s="11"/>
       <c r="E188" s="5"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A189" s="10"/>
       <c r="B189" s="11"/>
       <c r="C189" s="10"/>
       <c r="D189" s="11"/>
       <c r="E189" s="5"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A190" s="10"/>
       <c r="B190" s="11"/>
       <c r="C190" s="10"/>
       <c r="D190" s="11"/>
       <c r="E190" s="5"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A191" s="10"/>
       <c r="B191" s="11"/>
       <c r="C191" s="10"/>
       <c r="D191" s="11"/>
       <c r="E191" s="5"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A192" s="10"/>
       <c r="B192" s="11"/>
       <c r="C192" s="10"/>
       <c r="D192" s="11"/>
       <c r="E192" s="5"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A193" s="10"/>
       <c r="B193" s="11"/>
       <c r="C193" s="10"/>
       <c r="D193" s="11"/>
       <c r="E193" s="5"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A194" s="10"/>
       <c r="B194" s="11"/>
       <c r="C194" s="10"/>
       <c r="D194" s="11"/>
       <c r="E194" s="5"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A195" s="10"/>
       <c r="B195" s="11"/>
       <c r="C195" s="10"/>
       <c r="D195" s="11"/>
       <c r="E195" s="5"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A196" s="10"/>
       <c r="B196" s="11"/>
       <c r="C196" s="10"/>
       <c r="D196" s="11"/>
       <c r="E196" s="5"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A197" s="10"/>
       <c r="B197" s="11"/>
       <c r="C197" s="10"/>
       <c r="D197" s="11"/>
       <c r="E197" s="5"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A198" s="10"/>
       <c r="B198" s="11"/>
       <c r="C198" s="10"/>
       <c r="D198" s="11"/>
       <c r="E198" s="5"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A199" s="10"/>
       <c r="B199" s="11"/>
       <c r="C199" s="10"/>
       <c r="D199" s="11"/>
       <c r="E199" s="5"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A200" s="10"/>
       <c r="B200" s="11"/>
       <c r="C200" s="10"/>
       <c r="D200" s="11"/>
       <c r="E200" s="5"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A201" s="14"/>
       <c r="B201" s="37"/>
       <c r="C201" s="14"/>
@@ -7132,14 +7132,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="25.75" customWidth="1"/>
     <col min="3" max="4" width="45.75" customWidth="1"/>
-    <col min="5" max="5" width="11.4140625" customWidth="1"/>
+    <col min="5" max="5" width="11.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
@@ -7153,1201 +7153,1201 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="29"/>
       <c r="D2" s="30"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A3" s="25"/>
       <c r="B3" s="25"/>
       <c r="C3" s="29"/>
       <c r="D3" s="30"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A4" s="25"/>
       <c r="B4" s="25"/>
       <c r="C4" s="29"/>
       <c r="D4" s="30"/>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A5" s="25"/>
       <c r="B5" s="25"/>
       <c r="C5" s="29"/>
       <c r="D5" s="30"/>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="29"/>
       <c r="D6" s="30"/>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A7" s="25"/>
       <c r="B7" s="25"/>
       <c r="C7" s="29"/>
       <c r="D7" s="30"/>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="C8" s="29"/>
       <c r="D8" s="30"/>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A9" s="25"/>
       <c r="B9" s="25"/>
       <c r="C9" s="29"/>
       <c r="D9" s="30"/>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="C10" s="29"/>
       <c r="D10" s="30"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A11" s="25"/>
       <c r="B11" s="25"/>
       <c r="C11" s="26"/>
       <c r="D11" s="30"/>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="26"/>
       <c r="D12" s="30"/>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A13" s="25"/>
       <c r="B13" s="25"/>
       <c r="C13" s="26"/>
       <c r="D13" s="30"/>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
       <c r="C14" s="26"/>
       <c r="D14" s="30"/>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="26"/>
       <c r="D15" s="30"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
       <c r="C16" s="26"/>
       <c r="D16" s="30"/>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="26"/>
       <c r="D17" s="30"/>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="26"/>
       <c r="D18" s="30"/>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A19" s="25"/>
       <c r="B19" s="25"/>
       <c r="C19" s="26"/>
       <c r="D19" s="30"/>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A20" s="25"/>
       <c r="B20" s="25"/>
       <c r="C20" s="26"/>
       <c r="D20" s="30"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A21" s="25"/>
       <c r="B21" s="25"/>
       <c r="C21" s="26"/>
       <c r="D21" s="30"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A22" s="25"/>
       <c r="B22" s="25"/>
       <c r="C22" s="26"/>
       <c r="D22" s="30"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="26"/>
       <c r="D23" s="30"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A24" s="25"/>
       <c r="B24" s="25"/>
       <c r="C24" s="26"/>
       <c r="D24" s="30"/>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A25" s="25"/>
       <c r="B25" s="25"/>
       <c r="C25" s="26"/>
       <c r="D25" s="30"/>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A26" s="25"/>
       <c r="B26" s="25"/>
       <c r="C26" s="26"/>
       <c r="D26" s="30"/>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A27" s="25"/>
       <c r="B27" s="25"/>
       <c r="C27" s="26"/>
       <c r="D27" s="30"/>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A28" s="25"/>
       <c r="B28" s="25"/>
       <c r="C28" s="26"/>
       <c r="D28" s="30"/>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A29" s="25"/>
       <c r="B29" s="25"/>
       <c r="C29" s="26"/>
       <c r="D29" s="30"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A30" s="25"/>
       <c r="B30" s="25"/>
       <c r="C30" s="26"/>
       <c r="D30" s="30"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A31" s="25"/>
       <c r="B31" s="25"/>
       <c r="C31" s="26"/>
       <c r="D31" s="30"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A32" s="25"/>
       <c r="B32" s="25"/>
       <c r="C32" s="26"/>
       <c r="D32" s="30"/>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A33" s="25"/>
       <c r="B33" s="25"/>
       <c r="C33" s="26"/>
       <c r="D33" s="30"/>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A34" s="25"/>
       <c r="B34" s="25"/>
       <c r="C34" s="26"/>
       <c r="D34" s="30"/>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A35" s="25"/>
       <c r="B35" s="25"/>
       <c r="C35" s="26"/>
       <c r="D35" s="30"/>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A36" s="25"/>
       <c r="B36" s="25"/>
       <c r="C36" s="26"/>
       <c r="D36" s="30"/>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A37" s="25"/>
       <c r="B37" s="25"/>
       <c r="C37" s="26"/>
       <c r="D37" s="30"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A38" s="25"/>
       <c r="B38" s="25"/>
       <c r="C38" s="26"/>
       <c r="D38" s="30"/>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A39" s="25"/>
       <c r="B39" s="25"/>
       <c r="C39" s="26"/>
       <c r="D39" s="30"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A40" s="25"/>
       <c r="B40" s="25"/>
       <c r="C40" s="26"/>
       <c r="D40" s="30"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A41" s="25"/>
       <c r="B41" s="25"/>
       <c r="C41" s="26"/>
       <c r="D41" s="30"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A42" s="25"/>
       <c r="B42" s="25"/>
       <c r="C42" s="26"/>
       <c r="D42" s="30"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A43" s="25"/>
       <c r="B43" s="25"/>
       <c r="C43" s="26"/>
       <c r="D43" s="30"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A44" s="25"/>
       <c r="B44" s="25"/>
       <c r="C44" s="26"/>
       <c r="D44" s="30"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A45" s="25"/>
       <c r="B45" s="25"/>
       <c r="C45" s="26"/>
       <c r="D45" s="30"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A46" s="25"/>
       <c r="B46" s="25"/>
       <c r="C46" s="26"/>
       <c r="D46" s="30"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A47" s="25"/>
       <c r="B47" s="25"/>
       <c r="C47" s="26"/>
       <c r="D47" s="30"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A48" s="25"/>
       <c r="B48" s="25"/>
       <c r="C48" s="26"/>
       <c r="D48" s="30"/>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A49" s="25"/>
       <c r="B49" s="25"/>
       <c r="C49" s="26"/>
       <c r="D49" s="30"/>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A50" s="25"/>
       <c r="B50" s="25"/>
       <c r="C50" s="26"/>
       <c r="D50" s="30"/>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A51" s="25"/>
       <c r="B51" s="25"/>
       <c r="C51" s="26"/>
       <c r="D51" s="30"/>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A52" s="25"/>
       <c r="B52" s="25"/>
       <c r="C52" s="26"/>
       <c r="D52" s="30"/>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A53" s="25"/>
       <c r="B53" s="25"/>
       <c r="C53" s="26"/>
       <c r="D53" s="30"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A54" s="25"/>
       <c r="B54" s="25"/>
       <c r="C54" s="26"/>
       <c r="D54" s="30"/>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A55" s="25"/>
       <c r="B55" s="25"/>
       <c r="C55" s="26"/>
       <c r="D55" s="30"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A56" s="25"/>
       <c r="B56" s="25"/>
       <c r="C56" s="26"/>
       <c r="D56" s="30"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A57" s="25"/>
       <c r="B57" s="25"/>
       <c r="C57" s="26"/>
       <c r="D57" s="30"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A58" s="25"/>
       <c r="B58" s="25"/>
       <c r="C58" s="26"/>
       <c r="D58" s="30"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A59" s="25"/>
       <c r="B59" s="25"/>
       <c r="C59" s="26"/>
       <c r="D59" s="30"/>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A60" s="25"/>
       <c r="B60" s="25"/>
       <c r="C60" s="26"/>
       <c r="D60" s="30"/>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A61" s="25"/>
       <c r="B61" s="25"/>
       <c r="C61" s="26"/>
       <c r="D61" s="30"/>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A62" s="25"/>
       <c r="B62" s="25"/>
       <c r="C62" s="26"/>
       <c r="D62" s="30"/>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A63" s="25"/>
       <c r="B63" s="25"/>
       <c r="C63" s="26"/>
       <c r="D63" s="30"/>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A64" s="25"/>
       <c r="B64" s="25"/>
       <c r="C64" s="26"/>
       <c r="D64" s="30"/>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A65" s="25"/>
       <c r="B65" s="25"/>
       <c r="C65" s="26"/>
       <c r="D65" s="30"/>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A66" s="25"/>
       <c r="B66" s="25"/>
       <c r="C66" s="26"/>
       <c r="D66" s="30"/>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A67" s="25"/>
       <c r="B67" s="25"/>
       <c r="C67" s="26"/>
       <c r="D67" s="30"/>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A68" s="25"/>
       <c r="B68" s="25"/>
       <c r="C68" s="26"/>
       <c r="D68" s="30"/>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A69" s="25"/>
       <c r="B69" s="25"/>
       <c r="C69" s="26"/>
       <c r="D69" s="30"/>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A70" s="25"/>
       <c r="B70" s="25"/>
       <c r="C70" s="26"/>
       <c r="D70" s="30"/>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A71" s="25"/>
       <c r="B71" s="25"/>
       <c r="C71" s="26"/>
       <c r="D71" s="30"/>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A72" s="25"/>
       <c r="B72" s="25"/>
       <c r="C72" s="26"/>
       <c r="D72" s="30"/>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A73" s="25"/>
       <c r="B73" s="25"/>
       <c r="C73" s="26"/>
       <c r="D73" s="30"/>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A74" s="25"/>
       <c r="B74" s="25"/>
       <c r="C74" s="26"/>
       <c r="D74" s="30"/>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A75" s="25"/>
       <c r="B75" s="25"/>
       <c r="C75" s="26"/>
       <c r="D75" s="30"/>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A76" s="25"/>
       <c r="B76" s="25"/>
       <c r="C76" s="26"/>
       <c r="D76" s="30"/>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A77" s="25"/>
       <c r="B77" s="25"/>
       <c r="C77" s="26"/>
       <c r="D77" s="30"/>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A78" s="25"/>
       <c r="B78" s="25"/>
       <c r="C78" s="26"/>
       <c r="D78" s="30"/>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A79" s="25"/>
       <c r="B79" s="25"/>
       <c r="C79" s="26"/>
       <c r="D79" s="30"/>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A80" s="25"/>
       <c r="B80" s="25"/>
       <c r="C80" s="26"/>
       <c r="D80" s="30"/>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A81" s="25"/>
       <c r="B81" s="25"/>
       <c r="C81" s="26"/>
       <c r="D81" s="30"/>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A82" s="25"/>
       <c r="B82" s="25"/>
       <c r="C82" s="26"/>
       <c r="D82" s="30"/>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A83" s="25"/>
       <c r="B83" s="25"/>
       <c r="C83" s="26"/>
       <c r="D83" s="30"/>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A84" s="25"/>
       <c r="B84" s="25"/>
       <c r="C84" s="26"/>
       <c r="D84" s="30"/>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A85" s="25"/>
       <c r="B85" s="25"/>
       <c r="C85" s="26"/>
       <c r="D85" s="30"/>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A86" s="25"/>
       <c r="B86" s="25"/>
       <c r="C86" s="26"/>
       <c r="D86" s="30"/>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A87" s="25"/>
       <c r="B87" s="25"/>
       <c r="C87" s="26"/>
       <c r="D87" s="30"/>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A88" s="25"/>
       <c r="B88" s="25"/>
       <c r="C88" s="26"/>
       <c r="D88" s="30"/>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A89" s="25"/>
       <c r="B89" s="25"/>
       <c r="C89" s="26"/>
       <c r="D89" s="30"/>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A90" s="25"/>
       <c r="B90" s="25"/>
       <c r="C90" s="26"/>
       <c r="D90" s="30"/>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A91" s="25"/>
       <c r="B91" s="25"/>
       <c r="C91" s="26"/>
       <c r="D91" s="30"/>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A92" s="25"/>
       <c r="B92" s="25"/>
       <c r="C92" s="26"/>
       <c r="D92" s="30"/>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A93" s="25"/>
       <c r="B93" s="25"/>
       <c r="C93" s="26"/>
       <c r="D93" s="30"/>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A94" s="25"/>
       <c r="B94" s="25"/>
       <c r="C94" s="26"/>
       <c r="D94" s="30"/>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A95" s="25"/>
       <c r="B95" s="25"/>
       <c r="C95" s="26"/>
       <c r="D95" s="30"/>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A96" s="25"/>
       <c r="B96" s="25"/>
       <c r="C96" s="26"/>
       <c r="D96" s="30"/>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A97" s="25"/>
       <c r="B97" s="25"/>
       <c r="C97" s="26"/>
       <c r="D97" s="30"/>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A98" s="25"/>
       <c r="B98" s="25"/>
       <c r="C98" s="26"/>
       <c r="D98" s="30"/>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A99" s="25"/>
       <c r="B99" s="25"/>
       <c r="C99" s="26"/>
       <c r="D99" s="30"/>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A100" s="25"/>
       <c r="B100" s="25"/>
       <c r="C100" s="26"/>
       <c r="D100" s="30"/>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A101" s="25"/>
       <c r="B101" s="25"/>
       <c r="C101" s="26"/>
       <c r="D101" s="30"/>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A102" s="25"/>
       <c r="B102" s="25"/>
       <c r="C102" s="26"/>
       <c r="D102" s="30"/>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A103" s="25"/>
       <c r="B103" s="25"/>
       <c r="C103" s="26"/>
       <c r="D103" s="30"/>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A104" s="25"/>
       <c r="B104" s="25"/>
       <c r="C104" s="26"/>
       <c r="D104" s="30"/>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A105" s="25"/>
       <c r="B105" s="25"/>
       <c r="C105" s="26"/>
       <c r="D105" s="30"/>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A106" s="25"/>
       <c r="B106" s="25"/>
       <c r="C106" s="26"/>
       <c r="D106" s="30"/>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A107" s="25"/>
       <c r="B107" s="25"/>
       <c r="C107" s="26"/>
       <c r="D107" s="30"/>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A108" s="25"/>
       <c r="B108" s="25"/>
       <c r="C108" s="26"/>
       <c r="D108" s="30"/>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A109" s="25"/>
       <c r="B109" s="25"/>
       <c r="C109" s="26"/>
       <c r="D109" s="30"/>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A110" s="25"/>
       <c r="B110" s="25"/>
       <c r="C110" s="26"/>
       <c r="D110" s="30"/>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A111" s="25"/>
       <c r="B111" s="25"/>
       <c r="C111" s="26"/>
       <c r="D111" s="30"/>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A112" s="25"/>
       <c r="B112" s="25"/>
       <c r="C112" s="26"/>
       <c r="D112" s="30"/>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A113" s="25"/>
       <c r="B113" s="25"/>
       <c r="C113" s="26"/>
       <c r="D113" s="30"/>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A114" s="25"/>
       <c r="B114" s="25"/>
       <c r="C114" s="26"/>
       <c r="D114" s="30"/>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A115" s="25"/>
       <c r="B115" s="25"/>
       <c r="C115" s="26"/>
       <c r="D115" s="30"/>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A116" s="25"/>
       <c r="B116" s="25"/>
       <c r="C116" s="26"/>
       <c r="D116" s="30"/>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A117" s="25"/>
       <c r="B117" s="25"/>
       <c r="C117" s="26"/>
       <c r="D117" s="30"/>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A118" s="25"/>
       <c r="B118" s="25"/>
       <c r="C118" s="26"/>
       <c r="D118" s="30"/>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A119" s="25"/>
       <c r="B119" s="25"/>
       <c r="C119" s="26"/>
       <c r="D119" s="30"/>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A120" s="25"/>
       <c r="B120" s="25"/>
       <c r="C120" s="26"/>
       <c r="D120" s="30"/>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A121" s="25"/>
       <c r="B121" s="25"/>
       <c r="C121" s="26"/>
       <c r="D121" s="30"/>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A122" s="25"/>
       <c r="B122" s="25"/>
       <c r="C122" s="26"/>
       <c r="D122" s="30"/>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A123" s="25"/>
       <c r="B123" s="25"/>
       <c r="C123" s="26"/>
       <c r="D123" s="30"/>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A124" s="25"/>
       <c r="B124" s="25"/>
       <c r="C124" s="26"/>
       <c r="D124" s="30"/>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A125" s="25"/>
       <c r="B125" s="25"/>
       <c r="C125" s="26"/>
       <c r="D125" s="30"/>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A126" s="25"/>
       <c r="B126" s="25"/>
       <c r="C126" s="26"/>
       <c r="D126" s="30"/>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A127" s="25"/>
       <c r="B127" s="25"/>
       <c r="C127" s="26"/>
       <c r="D127" s="30"/>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A128" s="25"/>
       <c r="B128" s="25"/>
       <c r="C128" s="26"/>
       <c r="D128" s="30"/>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A129" s="25"/>
       <c r="B129" s="25"/>
       <c r="C129" s="26"/>
       <c r="D129" s="30"/>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A130" s="25"/>
       <c r="B130" s="25"/>
       <c r="C130" s="26"/>
       <c r="D130" s="30"/>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A131" s="25"/>
       <c r="B131" s="25"/>
       <c r="C131" s="26"/>
       <c r="D131" s="30"/>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A132" s="25"/>
       <c r="B132" s="25"/>
       <c r="C132" s="26"/>
       <c r="D132" s="30"/>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A133" s="25"/>
       <c r="B133" s="25"/>
       <c r="C133" s="26"/>
       <c r="D133" s="30"/>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A134" s="25"/>
       <c r="B134" s="25"/>
       <c r="C134" s="26"/>
       <c r="D134" s="30"/>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A135" s="25"/>
       <c r="B135" s="25"/>
       <c r="C135" s="26"/>
       <c r="D135" s="30"/>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A136" s="25"/>
       <c r="B136" s="25"/>
       <c r="C136" s="26"/>
       <c r="D136" s="30"/>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A137" s="25"/>
       <c r="B137" s="25"/>
       <c r="C137" s="26"/>
       <c r="D137" s="30"/>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A138" s="25"/>
       <c r="B138" s="25"/>
       <c r="C138" s="26"/>
       <c r="D138" s="30"/>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A139" s="25"/>
       <c r="B139" s="25"/>
       <c r="C139" s="26"/>
       <c r="D139" s="30"/>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A140" s="25"/>
       <c r="B140" s="25"/>
       <c r="C140" s="26"/>
       <c r="D140" s="30"/>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A141" s="25"/>
       <c r="B141" s="25"/>
       <c r="C141" s="26"/>
       <c r="D141" s="30"/>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A142" s="25"/>
       <c r="B142" s="25"/>
       <c r="C142" s="26"/>
       <c r="D142" s="30"/>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A143" s="25"/>
       <c r="B143" s="25"/>
       <c r="C143" s="26"/>
       <c r="D143" s="30"/>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A144" s="25"/>
       <c r="B144" s="25"/>
       <c r="C144" s="26"/>
       <c r="D144" s="30"/>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A145" s="25"/>
       <c r="B145" s="25"/>
       <c r="C145" s="26"/>
       <c r="D145" s="30"/>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A146" s="25"/>
       <c r="B146" s="25"/>
       <c r="C146" s="26"/>
       <c r="D146" s="30"/>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A147" s="25"/>
       <c r="B147" s="25"/>
       <c r="C147" s="26"/>
       <c r="D147" s="30"/>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A148" s="25"/>
       <c r="B148" s="25"/>
       <c r="C148" s="26"/>
       <c r="D148" s="30"/>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A149" s="25"/>
       <c r="B149" s="25"/>
       <c r="C149" s="26"/>
       <c r="D149" s="30"/>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A150" s="25"/>
       <c r="B150" s="25"/>
       <c r="C150" s="26"/>
       <c r="D150" s="30"/>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A151" s="25"/>
       <c r="B151" s="25"/>
       <c r="C151" s="26"/>
       <c r="D151" s="30"/>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A152" s="25"/>
       <c r="B152" s="25"/>
       <c r="C152" s="26"/>
       <c r="D152" s="30"/>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A153" s="25"/>
       <c r="B153" s="25"/>
       <c r="C153" s="26"/>
       <c r="D153" s="30"/>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A154" s="25"/>
       <c r="B154" s="25"/>
       <c r="C154" s="26"/>
       <c r="D154" s="30"/>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A155" s="25"/>
       <c r="B155" s="25"/>
       <c r="C155" s="26"/>
       <c r="D155" s="30"/>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A156" s="25"/>
       <c r="B156" s="25"/>
       <c r="C156" s="26"/>
       <c r="D156" s="30"/>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A157" s="25"/>
       <c r="B157" s="25"/>
       <c r="C157" s="26"/>
       <c r="D157" s="30"/>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A158" s="25"/>
       <c r="B158" s="25"/>
       <c r="C158" s="26"/>
       <c r="D158" s="30"/>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A159" s="25"/>
       <c r="B159" s="25"/>
       <c r="C159" s="26"/>
       <c r="D159" s="30"/>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A160" s="25"/>
       <c r="B160" s="25"/>
       <c r="C160" s="26"/>
       <c r="D160" s="30"/>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A161" s="25"/>
       <c r="B161" s="25"/>
       <c r="C161" s="26"/>
       <c r="D161" s="30"/>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A162" s="25"/>
       <c r="B162" s="25"/>
       <c r="C162" s="26"/>
       <c r="D162" s="30"/>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A163" s="25"/>
       <c r="B163" s="25"/>
       <c r="C163" s="26"/>
       <c r="D163" s="30"/>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A164" s="25"/>
       <c r="B164" s="25"/>
       <c r="C164" s="26"/>
       <c r="D164" s="30"/>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A165" s="25"/>
       <c r="B165" s="25"/>
       <c r="C165" s="26"/>
       <c r="D165" s="30"/>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A166" s="25"/>
       <c r="B166" s="25"/>
       <c r="C166" s="26"/>
       <c r="D166" s="30"/>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A167" s="25"/>
       <c r="B167" s="25"/>
       <c r="C167" s="26"/>
       <c r="D167" s="30"/>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A168" s="25"/>
       <c r="B168" s="25"/>
       <c r="C168" s="26"/>
       <c r="D168" s="30"/>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A169" s="25"/>
       <c r="B169" s="25"/>
       <c r="C169" s="26"/>
       <c r="D169" s="30"/>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A170" s="25"/>
       <c r="B170" s="25"/>
       <c r="C170" s="26"/>
       <c r="D170" s="30"/>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A171" s="25"/>
       <c r="B171" s="25"/>
       <c r="C171" s="26"/>
       <c r="D171" s="30"/>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A172" s="25"/>
       <c r="B172" s="25"/>
       <c r="C172" s="26"/>
       <c r="D172" s="30"/>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A173" s="25"/>
       <c r="B173" s="25"/>
       <c r="C173" s="26"/>
       <c r="D173" s="30"/>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A174" s="25"/>
       <c r="B174" s="25"/>
       <c r="C174" s="26"/>
       <c r="D174" s="30"/>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A175" s="25"/>
       <c r="B175" s="25"/>
       <c r="C175" s="26"/>
       <c r="D175" s="30"/>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A176" s="25"/>
       <c r="B176" s="25"/>
       <c r="C176" s="26"/>
       <c r="D176" s="30"/>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A177" s="25"/>
       <c r="B177" s="25"/>
       <c r="C177" s="26"/>
       <c r="D177" s="30"/>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A178" s="25"/>
       <c r="B178" s="25"/>
       <c r="C178" s="26"/>
       <c r="D178" s="30"/>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A179" s="25"/>
       <c r="B179" s="25"/>
       <c r="C179" s="26"/>
       <c r="D179" s="30"/>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A180" s="25"/>
       <c r="B180" s="25"/>
       <c r="C180" s="26"/>
       <c r="D180" s="30"/>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A181" s="25"/>
       <c r="B181" s="25"/>
       <c r="C181" s="26"/>
       <c r="D181" s="30"/>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A182" s="25"/>
       <c r="B182" s="25"/>
       <c r="C182" s="26"/>
       <c r="D182" s="30"/>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A183" s="25"/>
       <c r="B183" s="25"/>
       <c r="C183" s="26"/>
       <c r="D183" s="30"/>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A184" s="25"/>
       <c r="B184" s="25"/>
       <c r="C184" s="26"/>
       <c r="D184" s="30"/>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A185" s="25"/>
       <c r="B185" s="25"/>
       <c r="C185" s="26"/>
       <c r="D185" s="30"/>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A186" s="25"/>
       <c r="B186" s="25"/>
       <c r="C186" s="26"/>
       <c r="D186" s="30"/>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A187" s="25"/>
       <c r="B187" s="25"/>
       <c r="C187" s="26"/>
       <c r="D187" s="30"/>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A188" s="25"/>
       <c r="B188" s="25"/>
       <c r="C188" s="26"/>
       <c r="D188" s="30"/>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A189" s="25"/>
       <c r="B189" s="25"/>
       <c r="C189" s="26"/>
       <c r="D189" s="30"/>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A190" s="25"/>
       <c r="B190" s="25"/>
       <c r="C190" s="26"/>
       <c r="D190" s="30"/>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A191" s="25"/>
       <c r="B191" s="25"/>
       <c r="C191" s="26"/>
       <c r="D191" s="30"/>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A192" s="25"/>
       <c r="B192" s="25"/>
       <c r="C192" s="26"/>
       <c r="D192" s="30"/>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A193" s="25"/>
       <c r="B193" s="25"/>
       <c r="C193" s="26"/>
       <c r="D193" s="30"/>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A194" s="25"/>
       <c r="B194" s="25"/>
       <c r="C194" s="26"/>
       <c r="D194" s="30"/>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A195" s="25"/>
       <c r="B195" s="25"/>
       <c r="C195" s="26"/>
       <c r="D195" s="30"/>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A196" s="25"/>
       <c r="B196" s="25"/>
       <c r="C196" s="26"/>
       <c r="D196" s="30"/>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A197" s="25"/>
       <c r="B197" s="25"/>
       <c r="C197" s="26"/>
       <c r="D197" s="30"/>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A198" s="25"/>
       <c r="B198" s="25"/>
       <c r="C198" s="26"/>
       <c r="D198" s="30"/>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A199" s="25"/>
       <c r="B199" s="25"/>
       <c r="C199" s="26"/>
       <c r="D199" s="30"/>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A200" s="25"/>
       <c r="B200" s="25"/>
       <c r="C200" s="26"/>
       <c r="D200" s="30"/>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.4">
       <c r="A201" s="31"/>
       <c r="B201" s="31"/>
       <c r="C201" s="32"/>
@@ -8372,15 +8372,15 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="25.75" customWidth="1"/>
     <col min="3" max="3" width="45.75" customWidth="1"/>
-    <col min="4" max="4" width="24.4140625" customWidth="1"/>
+    <col min="4" max="4" width="24.375" customWidth="1"/>
     <col min="5" max="5" width="45.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="25" t="s">
         <v>1</v>
       </c>
@@ -8397,1400 +8397,1400 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="28"/>
       <c r="B2" s="28"/>
       <c r="C2" s="33"/>
       <c r="D2" s="29"/>
       <c r="E2" s="30"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="25"/>
       <c r="B3" s="25"/>
       <c r="C3" s="26"/>
       <c r="D3" s="29"/>
       <c r="E3" s="30"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="25"/>
       <c r="B4" s="25"/>
       <c r="C4" s="26"/>
       <c r="D4" s="29"/>
       <c r="E4" s="30"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="25"/>
       <c r="B5" s="25"/>
       <c r="C5" s="26"/>
       <c r="D5" s="29"/>
       <c r="E5" s="30"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="25"/>
       <c r="B6" s="25"/>
       <c r="C6" s="26"/>
       <c r="D6" s="29"/>
       <c r="E6" s="30"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="25"/>
       <c r="B7" s="25"/>
       <c r="C7" s="26"/>
       <c r="D7" s="29"/>
       <c r="E7" s="30"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="25"/>
       <c r="B8" s="25"/>
       <c r="C8" s="26"/>
       <c r="D8" s="29"/>
       <c r="E8" s="30"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="25"/>
       <c r="B9" s="25"/>
       <c r="C9" s="26"/>
       <c r="D9" s="29"/>
       <c r="E9" s="30"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="25"/>
       <c r="B10" s="25"/>
       <c r="C10" s="26"/>
       <c r="D10" s="29"/>
       <c r="E10" s="30"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="25"/>
       <c r="B11" s="25"/>
       <c r="C11" s="26"/>
       <c r="D11" s="26"/>
       <c r="E11" s="30"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="25"/>
       <c r="B12" s="25"/>
       <c r="C12" s="26"/>
       <c r="D12" s="26"/>
       <c r="E12" s="30"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="25"/>
       <c r="B13" s="25"/>
       <c r="C13" s="26"/>
       <c r="D13" s="26"/>
       <c r="E13" s="30"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="25"/>
       <c r="B14" s="25"/>
       <c r="C14" s="26"/>
       <c r="D14" s="26"/>
       <c r="E14" s="30"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="25"/>
       <c r="B15" s="25"/>
       <c r="C15" s="26"/>
       <c r="D15" s="26"/>
       <c r="E15" s="30"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="25"/>
       <c r="B16" s="25"/>
       <c r="C16" s="26"/>
       <c r="D16" s="26"/>
       <c r="E16" s="30"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="25"/>
       <c r="B17" s="25"/>
       <c r="C17" s="26"/>
       <c r="D17" s="26"/>
       <c r="E17" s="30"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="25"/>
       <c r="B18" s="25"/>
       <c r="C18" s="26"/>
       <c r="D18" s="26"/>
       <c r="E18" s="30"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="25"/>
       <c r="B19" s="25"/>
       <c r="C19" s="26"/>
       <c r="D19" s="26"/>
       <c r="E19" s="30"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="25"/>
       <c r="B20" s="25"/>
       <c r="C20" s="26"/>
       <c r="D20" s="26"/>
       <c r="E20" s="30"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="25"/>
       <c r="B21" s="25"/>
       <c r="C21" s="26"/>
       <c r="D21" s="26"/>
       <c r="E21" s="30"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="25"/>
       <c r="B22" s="25"/>
       <c r="C22" s="26"/>
       <c r="D22" s="26"/>
       <c r="E22" s="30"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="25"/>
       <c r="B23" s="25"/>
       <c r="C23" s="26"/>
       <c r="D23" s="26"/>
       <c r="E23" s="30"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="25"/>
       <c r="B24" s="25"/>
       <c r="C24" s="26"/>
       <c r="D24" s="26"/>
       <c r="E24" s="30"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="25"/>
       <c r="B25" s="25"/>
       <c r="C25" s="26"/>
       <c r="D25" s="26"/>
       <c r="E25" s="30"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="25"/>
       <c r="B26" s="25"/>
       <c r="C26" s="26"/>
       <c r="D26" s="26"/>
       <c r="E26" s="30"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="25"/>
       <c r="B27" s="25"/>
       <c r="C27" s="26"/>
       <c r="D27" s="26"/>
       <c r="E27" s="30"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="25"/>
       <c r="B28" s="25"/>
       <c r="C28" s="26"/>
       <c r="D28" s="26"/>
       <c r="E28" s="30"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="25"/>
       <c r="B29" s="25"/>
       <c r="C29" s="26"/>
       <c r="D29" s="26"/>
       <c r="E29" s="30"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="25"/>
       <c r="B30" s="25"/>
       <c r="C30" s="26"/>
       <c r="D30" s="26"/>
       <c r="E30" s="30"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="25"/>
       <c r="B31" s="25"/>
       <c r="C31" s="26"/>
       <c r="D31" s="26"/>
       <c r="E31" s="30"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="25"/>
       <c r="B32" s="25"/>
       <c r="C32" s="26"/>
       <c r="D32" s="26"/>
       <c r="E32" s="30"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="25"/>
       <c r="B33" s="25"/>
       <c r="C33" s="26"/>
       <c r="D33" s="26"/>
       <c r="E33" s="30"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="25"/>
       <c r="B34" s="25"/>
       <c r="C34" s="26"/>
       <c r="D34" s="26"/>
       <c r="E34" s="30"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="25"/>
       <c r="B35" s="25"/>
       <c r="C35" s="26"/>
       <c r="D35" s="26"/>
       <c r="E35" s="30"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="25"/>
       <c r="B36" s="25"/>
       <c r="C36" s="26"/>
       <c r="D36" s="26"/>
       <c r="E36" s="30"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="25"/>
       <c r="B37" s="25"/>
       <c r="C37" s="26"/>
       <c r="D37" s="26"/>
       <c r="E37" s="30"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="25"/>
       <c r="B38" s="25"/>
       <c r="C38" s="26"/>
       <c r="D38" s="26"/>
       <c r="E38" s="30"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="25"/>
       <c r="B39" s="25"/>
       <c r="C39" s="26"/>
       <c r="D39" s="26"/>
       <c r="E39" s="30"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="25"/>
       <c r="B40" s="25"/>
       <c r="C40" s="26"/>
       <c r="D40" s="26"/>
       <c r="E40" s="30"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="25"/>
       <c r="B41" s="25"/>
       <c r="C41" s="26"/>
       <c r="D41" s="26"/>
       <c r="E41" s="30"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="25"/>
       <c r="B42" s="25"/>
       <c r="C42" s="26"/>
       <c r="D42" s="26"/>
       <c r="E42" s="30"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="25"/>
       <c r="B43" s="25"/>
       <c r="C43" s="26"/>
       <c r="D43" s="26"/>
       <c r="E43" s="30"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="25"/>
       <c r="B44" s="25"/>
       <c r="C44" s="26"/>
       <c r="D44" s="26"/>
       <c r="E44" s="30"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="25"/>
       <c r="B45" s="25"/>
       <c r="C45" s="26"/>
       <c r="D45" s="26"/>
       <c r="E45" s="30"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="25"/>
       <c r="B46" s="25"/>
       <c r="C46" s="26"/>
       <c r="D46" s="26"/>
       <c r="E46" s="30"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="25"/>
       <c r="B47" s="25"/>
       <c r="C47" s="26"/>
       <c r="D47" s="26"/>
       <c r="E47" s="30"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="25"/>
       <c r="B48" s="25"/>
       <c r="C48" s="26"/>
       <c r="D48" s="26"/>
       <c r="E48" s="30"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="25"/>
       <c r="B49" s="25"/>
       <c r="C49" s="26"/>
       <c r="D49" s="26"/>
       <c r="E49" s="30"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="25"/>
       <c r="B50" s="25"/>
       <c r="C50" s="26"/>
       <c r="D50" s="26"/>
       <c r="E50" s="30"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="25"/>
       <c r="B51" s="25"/>
       <c r="C51" s="26"/>
       <c r="D51" s="26"/>
       <c r="E51" s="30"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" s="25"/>
       <c r="B52" s="25"/>
       <c r="C52" s="26"/>
       <c r="D52" s="26"/>
       <c r="E52" s="30"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" s="25"/>
       <c r="B53" s="25"/>
       <c r="C53" s="26"/>
       <c r="D53" s="26"/>
       <c r="E53" s="30"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="25"/>
       <c r="B54" s="25"/>
       <c r="C54" s="26"/>
       <c r="D54" s="26"/>
       <c r="E54" s="30"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" s="25"/>
       <c r="B55" s="25"/>
       <c r="C55" s="26"/>
       <c r="D55" s="26"/>
       <c r="E55" s="30"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" s="25"/>
       <c r="B56" s="25"/>
       <c r="C56" s="26"/>
       <c r="D56" s="26"/>
       <c r="E56" s="30"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" s="25"/>
       <c r="B57" s="25"/>
       <c r="C57" s="26"/>
       <c r="D57" s="26"/>
       <c r="E57" s="30"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" s="25"/>
       <c r="B58" s="25"/>
       <c r="C58" s="26"/>
       <c r="D58" s="26"/>
       <c r="E58" s="30"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" s="25"/>
       <c r="B59" s="25"/>
       <c r="C59" s="26"/>
       <c r="D59" s="26"/>
       <c r="E59" s="30"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" s="25"/>
       <c r="B60" s="25"/>
       <c r="C60" s="26"/>
       <c r="D60" s="26"/>
       <c r="E60" s="30"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" s="25"/>
       <c r="B61" s="25"/>
       <c r="C61" s="26"/>
       <c r="D61" s="26"/>
       <c r="E61" s="30"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" s="25"/>
       <c r="B62" s="25"/>
       <c r="C62" s="26"/>
       <c r="D62" s="26"/>
       <c r="E62" s="30"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" s="25"/>
       <c r="B63" s="25"/>
       <c r="C63" s="26"/>
       <c r="D63" s="26"/>
       <c r="E63" s="30"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" s="25"/>
       <c r="B64" s="25"/>
       <c r="C64" s="26"/>
       <c r="D64" s="26"/>
       <c r="E64" s="30"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" s="25"/>
       <c r="B65" s="25"/>
       <c r="C65" s="26"/>
       <c r="D65" s="26"/>
       <c r="E65" s="30"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" s="25"/>
       <c r="B66" s="25"/>
       <c r="C66" s="26"/>
       <c r="D66" s="26"/>
       <c r="E66" s="30"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" s="25"/>
       <c r="B67" s="25"/>
       <c r="C67" s="26"/>
       <c r="D67" s="26"/>
       <c r="E67" s="30"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" s="25"/>
       <c r="B68" s="25"/>
       <c r="C68" s="26"/>
       <c r="D68" s="26"/>
       <c r="E68" s="30"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" s="25"/>
       <c r="B69" s="25"/>
       <c r="C69" s="26"/>
       <c r="D69" s="26"/>
       <c r="E69" s="30"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" s="25"/>
       <c r="B70" s="25"/>
       <c r="C70" s="26"/>
       <c r="D70" s="26"/>
       <c r="E70" s="30"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" s="25"/>
       <c r="B71" s="25"/>
       <c r="C71" s="26"/>
       <c r="D71" s="26"/>
       <c r="E71" s="30"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" s="25"/>
       <c r="B72" s="25"/>
       <c r="C72" s="26"/>
       <c r="D72" s="26"/>
       <c r="E72" s="30"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" s="25"/>
       <c r="B73" s="25"/>
       <c r="C73" s="26"/>
       <c r="D73" s="26"/>
       <c r="E73" s="30"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" s="25"/>
       <c r="B74" s="25"/>
       <c r="C74" s="26"/>
       <c r="D74" s="26"/>
       <c r="E74" s="30"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" s="25"/>
       <c r="B75" s="25"/>
       <c r="C75" s="26"/>
       <c r="D75" s="26"/>
       <c r="E75" s="30"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" s="25"/>
       <c r="B76" s="25"/>
       <c r="C76" s="26"/>
       <c r="D76" s="26"/>
       <c r="E76" s="30"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" s="25"/>
       <c r="B77" s="25"/>
       <c r="C77" s="26"/>
       <c r="D77" s="26"/>
       <c r="E77" s="30"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" s="25"/>
       <c r="B78" s="25"/>
       <c r="C78" s="26"/>
       <c r="D78" s="26"/>
       <c r="E78" s="30"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" s="25"/>
       <c r="B79" s="25"/>
       <c r="C79" s="26"/>
       <c r="D79" s="26"/>
       <c r="E79" s="30"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80" s="25"/>
       <c r="B80" s="25"/>
       <c r="C80" s="26"/>
       <c r="D80" s="26"/>
       <c r="E80" s="30"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81" s="25"/>
       <c r="B81" s="25"/>
       <c r="C81" s="26"/>
       <c r="D81" s="26"/>
       <c r="E81" s="30"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" s="25"/>
       <c r="B82" s="25"/>
       <c r="C82" s="26"/>
       <c r="D82" s="26"/>
       <c r="E82" s="30"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" s="25"/>
       <c r="B83" s="25"/>
       <c r="C83" s="26"/>
       <c r="D83" s="26"/>
       <c r="E83" s="30"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84" s="25"/>
       <c r="B84" s="25"/>
       <c r="C84" s="26"/>
       <c r="D84" s="26"/>
       <c r="E84" s="30"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85" s="25"/>
       <c r="B85" s="25"/>
       <c r="C85" s="26"/>
       <c r="D85" s="26"/>
       <c r="E85" s="30"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86" s="25"/>
       <c r="B86" s="25"/>
       <c r="C86" s="26"/>
       <c r="D86" s="26"/>
       <c r="E86" s="30"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87" s="25"/>
       <c r="B87" s="25"/>
       <c r="C87" s="26"/>
       <c r="D87" s="26"/>
       <c r="E87" s="30"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88" s="25"/>
       <c r="B88" s="25"/>
       <c r="C88" s="26"/>
       <c r="D88" s="26"/>
       <c r="E88" s="30"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89" s="25"/>
       <c r="B89" s="25"/>
       <c r="C89" s="26"/>
       <c r="D89" s="26"/>
       <c r="E89" s="30"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90" s="25"/>
       <c r="B90" s="25"/>
       <c r="C90" s="26"/>
       <c r="D90" s="26"/>
       <c r="E90" s="30"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A91" s="25"/>
       <c r="B91" s="25"/>
       <c r="C91" s="26"/>
       <c r="D91" s="26"/>
       <c r="E91" s="30"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A92" s="25"/>
       <c r="B92" s="25"/>
       <c r="C92" s="26"/>
       <c r="D92" s="26"/>
       <c r="E92" s="30"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A93" s="25"/>
       <c r="B93" s="25"/>
       <c r="C93" s="26"/>
       <c r="D93" s="26"/>
       <c r="E93" s="30"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A94" s="25"/>
       <c r="B94" s="25"/>
       <c r="C94" s="26"/>
       <c r="D94" s="26"/>
       <c r="E94" s="30"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A95" s="25"/>
       <c r="B95" s="25"/>
       <c r="C95" s="26"/>
       <c r="D95" s="26"/>
       <c r="E95" s="30"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96" s="25"/>
       <c r="B96" s="25"/>
       <c r="C96" s="26"/>
       <c r="D96" s="26"/>
       <c r="E96" s="30"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97" s="25"/>
       <c r="B97" s="25"/>
       <c r="C97" s="26"/>
       <c r="D97" s="26"/>
       <c r="E97" s="30"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A98" s="25"/>
       <c r="B98" s="25"/>
       <c r="C98" s="26"/>
       <c r="D98" s="26"/>
       <c r="E98" s="30"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A99" s="25"/>
       <c r="B99" s="25"/>
       <c r="C99" s="26"/>
       <c r="D99" s="26"/>
       <c r="E99" s="30"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A100" s="25"/>
       <c r="B100" s="25"/>
       <c r="C100" s="26"/>
       <c r="D100" s="26"/>
       <c r="E100" s="30"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A101" s="25"/>
       <c r="B101" s="25"/>
       <c r="C101" s="26"/>
       <c r="D101" s="26"/>
       <c r="E101" s="30"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A102" s="25"/>
       <c r="B102" s="25"/>
       <c r="C102" s="26"/>
       <c r="D102" s="26"/>
       <c r="E102" s="30"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A103" s="25"/>
       <c r="B103" s="25"/>
       <c r="C103" s="26"/>
       <c r="D103" s="26"/>
       <c r="E103" s="30"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A104" s="25"/>
       <c r="B104" s="25"/>
       <c r="C104" s="26"/>
       <c r="D104" s="26"/>
       <c r="E104" s="30"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A105" s="25"/>
       <c r="B105" s="25"/>
       <c r="C105" s="26"/>
       <c r="D105" s="26"/>
       <c r="E105" s="30"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A106" s="25"/>
       <c r="B106" s="25"/>
       <c r="C106" s="26"/>
       <c r="D106" s="26"/>
       <c r="E106" s="30"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A107" s="25"/>
       <c r="B107" s="25"/>
       <c r="C107" s="26"/>
       <c r="D107" s="26"/>
       <c r="E107" s="30"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A108" s="25"/>
       <c r="B108" s="25"/>
       <c r="C108" s="26"/>
       <c r="D108" s="26"/>
       <c r="E108" s="30"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A109" s="25"/>
       <c r="B109" s="25"/>
       <c r="C109" s="26"/>
       <c r="D109" s="26"/>
       <c r="E109" s="30"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A110" s="25"/>
       <c r="B110" s="25"/>
       <c r="C110" s="26"/>
       <c r="D110" s="26"/>
       <c r="E110" s="30"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A111" s="25"/>
       <c r="B111" s="25"/>
       <c r="C111" s="26"/>
       <c r="D111" s="26"/>
       <c r="E111" s="30"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A112" s="25"/>
       <c r="B112" s="25"/>
       <c r="C112" s="26"/>
       <c r="D112" s="26"/>
       <c r="E112" s="30"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A113" s="25"/>
       <c r="B113" s="25"/>
       <c r="C113" s="26"/>
       <c r="D113" s="26"/>
       <c r="E113" s="30"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A114" s="25"/>
       <c r="B114" s="25"/>
       <c r="C114" s="26"/>
       <c r="D114" s="26"/>
       <c r="E114" s="30"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A115" s="25"/>
       <c r="B115" s="25"/>
       <c r="C115" s="26"/>
       <c r="D115" s="26"/>
       <c r="E115" s="30"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A116" s="25"/>
       <c r="B116" s="25"/>
       <c r="C116" s="26"/>
       <c r="D116" s="26"/>
       <c r="E116" s="30"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A117" s="25"/>
       <c r="B117" s="25"/>
       <c r="C117" s="26"/>
       <c r="D117" s="26"/>
       <c r="E117" s="30"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A118" s="25"/>
       <c r="B118" s="25"/>
       <c r="C118" s="26"/>
       <c r="D118" s="26"/>
       <c r="E118" s="30"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A119" s="25"/>
       <c r="B119" s="25"/>
       <c r="C119" s="26"/>
       <c r="D119" s="26"/>
       <c r="E119" s="30"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A120" s="25"/>
       <c r="B120" s="25"/>
       <c r="C120" s="26"/>
       <c r="D120" s="26"/>
       <c r="E120" s="30"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A121" s="25"/>
       <c r="B121" s="25"/>
       <c r="C121" s="26"/>
       <c r="D121" s="26"/>
       <c r="E121" s="30"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A122" s="25"/>
       <c r="B122" s="25"/>
       <c r="C122" s="26"/>
       <c r="D122" s="26"/>
       <c r="E122" s="30"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A123" s="25"/>
       <c r="B123" s="25"/>
       <c r="C123" s="26"/>
       <c r="D123" s="26"/>
       <c r="E123" s="30"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A124" s="25"/>
       <c r="B124" s="25"/>
       <c r="C124" s="26"/>
       <c r="D124" s="26"/>
       <c r="E124" s="30"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A125" s="25"/>
       <c r="B125" s="25"/>
       <c r="C125" s="26"/>
       <c r="D125" s="26"/>
       <c r="E125" s="30"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A126" s="25"/>
       <c r="B126" s="25"/>
       <c r="C126" s="26"/>
       <c r="D126" s="26"/>
       <c r="E126" s="30"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A127" s="25"/>
       <c r="B127" s="25"/>
       <c r="C127" s="26"/>
       <c r="D127" s="26"/>
       <c r="E127" s="30"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A128" s="25"/>
       <c r="B128" s="25"/>
       <c r="C128" s="26"/>
       <c r="D128" s="26"/>
       <c r="E128" s="30"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A129" s="25"/>
       <c r="B129" s="25"/>
       <c r="C129" s="26"/>
       <c r="D129" s="26"/>
       <c r="E129" s="30"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A130" s="25"/>
       <c r="B130" s="25"/>
       <c r="C130" s="26"/>
       <c r="D130" s="26"/>
       <c r="E130" s="30"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A131" s="25"/>
       <c r="B131" s="25"/>
       <c r="C131" s="26"/>
       <c r="D131" s="26"/>
       <c r="E131" s="30"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A132" s="25"/>
       <c r="B132" s="25"/>
       <c r="C132" s="26"/>
       <c r="D132" s="26"/>
       <c r="E132" s="30"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A133" s="25"/>
       <c r="B133" s="25"/>
       <c r="C133" s="26"/>
       <c r="D133" s="26"/>
       <c r="E133" s="30"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A134" s="25"/>
       <c r="B134" s="25"/>
       <c r="C134" s="26"/>
       <c r="D134" s="26"/>
       <c r="E134" s="30"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A135" s="25"/>
       <c r="B135" s="25"/>
       <c r="C135" s="26"/>
       <c r="D135" s="26"/>
       <c r="E135" s="30"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A136" s="25"/>
       <c r="B136" s="25"/>
       <c r="C136" s="26"/>
       <c r="D136" s="26"/>
       <c r="E136" s="30"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A137" s="25"/>
       <c r="B137" s="25"/>
       <c r="C137" s="26"/>
       <c r="D137" s="26"/>
       <c r="E137" s="30"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A138" s="25"/>
       <c r="B138" s="25"/>
       <c r="C138" s="26"/>
       <c r="D138" s="26"/>
       <c r="E138" s="30"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A139" s="25"/>
       <c r="B139" s="25"/>
       <c r="C139" s="26"/>
       <c r="D139" s="26"/>
       <c r="E139" s="30"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A140" s="25"/>
       <c r="B140" s="25"/>
       <c r="C140" s="26"/>
       <c r="D140" s="26"/>
       <c r="E140" s="30"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A141" s="25"/>
       <c r="B141" s="25"/>
       <c r="C141" s="26"/>
       <c r="D141" s="26"/>
       <c r="E141" s="30"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A142" s="25"/>
       <c r="B142" s="25"/>
       <c r="C142" s="26"/>
       <c r="D142" s="26"/>
       <c r="E142" s="30"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A143" s="25"/>
       <c r="B143" s="25"/>
       <c r="C143" s="26"/>
       <c r="D143" s="26"/>
       <c r="E143" s="30"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A144" s="25"/>
       <c r="B144" s="25"/>
       <c r="C144" s="26"/>
       <c r="D144" s="26"/>
       <c r="E144" s="30"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A145" s="25"/>
       <c r="B145" s="25"/>
       <c r="C145" s="26"/>
       <c r="D145" s="26"/>
       <c r="E145" s="30"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A146" s="25"/>
       <c r="B146" s="25"/>
       <c r="C146" s="26"/>
       <c r="D146" s="26"/>
       <c r="E146" s="30"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A147" s="25"/>
       <c r="B147" s="25"/>
       <c r="C147" s="26"/>
       <c r="D147" s="26"/>
       <c r="E147" s="30"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A148" s="25"/>
       <c r="B148" s="25"/>
       <c r="C148" s="26"/>
       <c r="D148" s="26"/>
       <c r="E148" s="30"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A149" s="25"/>
       <c r="B149" s="25"/>
       <c r="C149" s="26"/>
       <c r="D149" s="26"/>
       <c r="E149" s="30"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A150" s="25"/>
       <c r="B150" s="25"/>
       <c r="C150" s="26"/>
       <c r="D150" s="26"/>
       <c r="E150" s="30"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A151" s="25"/>
       <c r="B151" s="25"/>
       <c r="C151" s="26"/>
       <c r="D151" s="26"/>
       <c r="E151" s="30"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A152" s="25"/>
       <c r="B152" s="25"/>
       <c r="C152" s="26"/>
       <c r="D152" s="26"/>
       <c r="E152" s="30"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A153" s="25"/>
       <c r="B153" s="25"/>
       <c r="C153" s="26"/>
       <c r="D153" s="26"/>
       <c r="E153" s="30"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A154" s="25"/>
       <c r="B154" s="25"/>
       <c r="C154" s="26"/>
       <c r="D154" s="26"/>
       <c r="E154" s="30"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A155" s="25"/>
       <c r="B155" s="25"/>
       <c r="C155" s="26"/>
       <c r="D155" s="26"/>
       <c r="E155" s="30"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A156" s="25"/>
       <c r="B156" s="25"/>
       <c r="C156" s="26"/>
       <c r="D156" s="26"/>
       <c r="E156" s="30"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A157" s="25"/>
       <c r="B157" s="25"/>
       <c r="C157" s="26"/>
       <c r="D157" s="26"/>
       <c r="E157" s="30"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A158" s="25"/>
       <c r="B158" s="25"/>
       <c r="C158" s="26"/>
       <c r="D158" s="26"/>
       <c r="E158" s="30"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A159" s="25"/>
       <c r="B159" s="25"/>
       <c r="C159" s="26"/>
       <c r="D159" s="26"/>
       <c r="E159" s="30"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A160" s="25"/>
       <c r="B160" s="25"/>
       <c r="C160" s="26"/>
       <c r="D160" s="26"/>
       <c r="E160" s="30"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A161" s="25"/>
       <c r="B161" s="25"/>
       <c r="C161" s="26"/>
       <c r="D161" s="26"/>
       <c r="E161" s="30"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A162" s="25"/>
       <c r="B162" s="25"/>
       <c r="C162" s="26"/>
       <c r="D162" s="26"/>
       <c r="E162" s="30"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A163" s="25"/>
       <c r="B163" s="25"/>
       <c r="C163" s="26"/>
       <c r="D163" s="26"/>
       <c r="E163" s="30"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A164" s="25"/>
       <c r="B164" s="25"/>
       <c r="C164" s="26"/>
       <c r="D164" s="26"/>
       <c r="E164" s="30"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A165" s="25"/>
       <c r="B165" s="25"/>
       <c r="C165" s="26"/>
       <c r="D165" s="26"/>
       <c r="E165" s="30"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A166" s="25"/>
       <c r="B166" s="25"/>
       <c r="C166" s="26"/>
       <c r="D166" s="26"/>
       <c r="E166" s="30"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A167" s="25"/>
       <c r="B167" s="25"/>
       <c r="C167" s="26"/>
       <c r="D167" s="26"/>
       <c r="E167" s="30"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A168" s="25"/>
       <c r="B168" s="25"/>
       <c r="C168" s="26"/>
       <c r="D168" s="26"/>
       <c r="E168" s="30"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A169" s="25"/>
       <c r="B169" s="25"/>
       <c r="C169" s="26"/>
       <c r="D169" s="26"/>
       <c r="E169" s="30"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A170" s="25"/>
       <c r="B170" s="25"/>
       <c r="C170" s="26"/>
       <c r="D170" s="26"/>
       <c r="E170" s="30"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A171" s="25"/>
       <c r="B171" s="25"/>
       <c r="C171" s="26"/>
       <c r="D171" s="26"/>
       <c r="E171" s="30"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A172" s="25"/>
       <c r="B172" s="25"/>
       <c r="C172" s="26"/>
       <c r="D172" s="26"/>
       <c r="E172" s="30"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A173" s="25"/>
       <c r="B173" s="25"/>
       <c r="C173" s="26"/>
       <c r="D173" s="26"/>
       <c r="E173" s="30"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A174" s="25"/>
       <c r="B174" s="25"/>
       <c r="C174" s="26"/>
       <c r="D174" s="26"/>
       <c r="E174" s="30"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A175" s="25"/>
       <c r="B175" s="25"/>
       <c r="C175" s="26"/>
       <c r="D175" s="26"/>
       <c r="E175" s="30"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A176" s="25"/>
       <c r="B176" s="25"/>
       <c r="C176" s="26"/>
       <c r="D176" s="26"/>
       <c r="E176" s="30"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A177" s="25"/>
       <c r="B177" s="25"/>
       <c r="C177" s="26"/>
       <c r="D177" s="26"/>
       <c r="E177" s="30"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A178" s="25"/>
       <c r="B178" s="25"/>
       <c r="C178" s="26"/>
       <c r="D178" s="26"/>
       <c r="E178" s="30"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A179" s="25"/>
       <c r="B179" s="25"/>
       <c r="C179" s="26"/>
       <c r="D179" s="26"/>
       <c r="E179" s="30"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A180" s="25"/>
       <c r="B180" s="25"/>
       <c r="C180" s="26"/>
       <c r="D180" s="26"/>
       <c r="E180" s="30"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A181" s="25"/>
       <c r="B181" s="25"/>
       <c r="C181" s="26"/>
       <c r="D181" s="26"/>
       <c r="E181" s="30"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A182" s="25"/>
       <c r="B182" s="25"/>
       <c r="C182" s="26"/>
       <c r="D182" s="26"/>
       <c r="E182" s="30"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A183" s="25"/>
       <c r="B183" s="25"/>
       <c r="C183" s="26"/>
       <c r="D183" s="26"/>
       <c r="E183" s="30"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A184" s="25"/>
       <c r="B184" s="25"/>
       <c r="C184" s="26"/>
       <c r="D184" s="26"/>
       <c r="E184" s="30"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A185" s="25"/>
       <c r="B185" s="25"/>
       <c r="C185" s="26"/>
       <c r="D185" s="26"/>
       <c r="E185" s="30"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A186" s="25"/>
       <c r="B186" s="25"/>
       <c r="C186" s="26"/>
       <c r="D186" s="26"/>
       <c r="E186" s="30"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A187" s="25"/>
       <c r="B187" s="25"/>
       <c r="C187" s="26"/>
       <c r="D187" s="26"/>
       <c r="E187" s="30"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A188" s="25"/>
       <c r="B188" s="25"/>
       <c r="C188" s="26"/>
       <c r="D188" s="26"/>
       <c r="E188" s="30"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A189" s="25"/>
       <c r="B189" s="25"/>
       <c r="C189" s="26"/>
       <c r="D189" s="26"/>
       <c r="E189" s="30"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A190" s="25"/>
       <c r="B190" s="25"/>
       <c r="C190" s="26"/>
       <c r="D190" s="26"/>
       <c r="E190" s="30"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A191" s="25"/>
       <c r="B191" s="25"/>
       <c r="C191" s="26"/>
       <c r="D191" s="26"/>
       <c r="E191" s="30"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A192" s="25"/>
       <c r="B192" s="25"/>
       <c r="C192" s="26"/>
       <c r="D192" s="26"/>
       <c r="E192" s="30"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A193" s="25"/>
       <c r="B193" s="25"/>
       <c r="C193" s="26"/>
       <c r="D193" s="26"/>
       <c r="E193" s="30"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A194" s="25"/>
       <c r="B194" s="25"/>
       <c r="C194" s="26"/>
       <c r="D194" s="26"/>
       <c r="E194" s="30"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A195" s="25"/>
       <c r="B195" s="25"/>
       <c r="C195" s="26"/>
       <c r="D195" s="26"/>
       <c r="E195" s="30"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A196" s="25"/>
       <c r="B196" s="25"/>
       <c r="C196" s="26"/>
       <c r="D196" s="26"/>
       <c r="E196" s="30"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A197" s="25"/>
       <c r="B197" s="25"/>
       <c r="C197" s="26"/>
       <c r="D197" s="26"/>
       <c r="E197" s="30"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A198" s="25"/>
       <c r="B198" s="25"/>
       <c r="C198" s="26"/>
       <c r="D198" s="26"/>
       <c r="E198" s="30"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A199" s="25"/>
       <c r="B199" s="25"/>
       <c r="C199" s="26"/>
       <c r="D199" s="26"/>
       <c r="E199" s="30"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A200" s="25"/>
       <c r="B200" s="25"/>
       <c r="C200" s="26"/>
       <c r="D200" s="26"/>
       <c r="E200" s="30"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A201" s="31"/>
       <c r="B201" s="31"/>
       <c r="C201" s="32"/>

--- a/Workbooks/JA/キュー.xlsx
+++ b/Workbooks/JA/キュー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2065C92-A05A-40FB-94E9-BC6F90419669}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C59365-98B7-400A-8DA1-C7DBBAABE94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8550" yWindow="2430" windowWidth="28800" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5925" yWindow="1335" windowWidth="30510" windowHeight="10200" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/キュー.xlsx
+++ b/Workbooks/JA/キュー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58C59365-98B7-400A-8DA1-C7DBBAABE94F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC9CDBC-03FC-4270-A8CB-970CFF69C28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5925" yWindow="1335" windowWidth="30510" windowHeight="10200" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9375" yWindow="1275" windowWidth="30510" windowHeight="10200" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/キュー.xlsx
+++ b/Workbooks/JA/キュー.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC9CDBC-03FC-4270-A8CB-970CFF69C28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266F3CCA-2FCD-43AA-AE37-0B8730234292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9375" yWindow="1275" windowWidth="30510" windowHeight="10200" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9000" yWindow="1335" windowWidth="28800" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/キュー.xlsx
+++ b/Workbooks/JA/キュー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{266F3CCA-2FCD-43AA-AE37-0B8730234292}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C57479-9DE0-4EA3-86F2-A18F23644A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9000" yWindow="1335" windowWidth="28800" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23780" yWindow="9920" windowWidth="19200" windowHeight="4750" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="削除" sheetId="2" r:id="rId3"/>
     <sheet name="キュー アイテムをダウンロード" sheetId="5" r:id="rId4"/>
     <sheet name="キュー アイテムをアップロード" sheetId="6" r:id="rId5"/>
+    <sheet name="リンクを作成または削除" sheetId="8" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="22">
   <si>
     <t>フォルダーID</t>
     <phoneticPr fontId="2"/>
@@ -116,6 +117,14 @@
   </si>
   <si>
     <t>コミットの種類</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キュー ID</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>リンクを作成または削除</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -294,7 +303,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -365,11 +374,99 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="32">
+  <dxfs count="36">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -1197,17 +1294,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:H201" headerRowDxfId="31" dataDxfId="30">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:H201" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="A1:H201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{74C6F987-536B-46B5-AFA6-A7F27476553A}" name="フォルダーID" dataDxfId="29"/>
-    <tableColumn id="7" xr3:uid="{C8277EF1-3260-4C74-8C12-2B8EFAF635A0}" name="フォルダー名" dataDxfId="28"/>
-    <tableColumn id="6" xr3:uid="{22E1BA7C-1596-4556-9F97-A21C0B7470BC}" name="キューID" dataDxfId="27"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="キュー名" totalsRowLabel="Total" dataDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="説明" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="一意の参照" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{EA8DF354-2F10-4E45-801A-56D5F80552D8}" name="自動リトライ" dataDxfId="23"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="最大リトライ回数" totalsRowFunction="count" dataDxfId="22"/>
+    <tableColumn id="8" xr3:uid="{74C6F987-536B-46B5-AFA6-A7F27476553A}" name="フォルダーID" dataDxfId="33"/>
+    <tableColumn id="7" xr3:uid="{C8277EF1-3260-4C74-8C12-2B8EFAF635A0}" name="フォルダー名" dataDxfId="32"/>
+    <tableColumn id="6" xr3:uid="{22E1BA7C-1596-4556-9F97-A21C0B7470BC}" name="キューID" dataDxfId="31"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="キュー名" totalsRowLabel="Total" dataDxfId="30"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="説明" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="一意の参照" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{EA8DF354-2F10-4E45-801A-56D5F80552D8}" name="自動リトライ" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="最大リトライ回数" totalsRowFunction="count" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1217,14 +1314,14 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:H201" totalsRowShown="0">
   <autoFilter ref="A1:H201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="8">
-    <tableColumn id="8" xr3:uid="{A7178589-1B6B-47CF-BAAC-D2F2E4BB9988}" name="フォルダー名" dataDxfId="21"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="キュー名" dataDxfId="20"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="説明" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{4D652F4A-5125-4BA7-BCE0-BCD13A330E29}" name="一意の参照" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{07A3D78A-00F5-4019-BC61-B83E2CEDEEA5}" name="自動リトライ" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{5CA1824C-85AD-40DB-A0CE-9853C443448E}" name="最大リトライ回数" dataDxfId="16"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="15"/>
-    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="14"/>
+    <tableColumn id="8" xr3:uid="{A7178589-1B6B-47CF-BAAC-D2F2E4BB9988}" name="フォルダー名" dataDxfId="25"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="キュー名" dataDxfId="24"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="説明" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{4D652F4A-5125-4BA7-BCE0-BCD13A330E29}" name="一意の参照" dataDxfId="22"/>
+    <tableColumn id="7" xr3:uid="{07A3D78A-00F5-4019-BC61-B83E2CEDEEA5}" name="自動リトライ" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{5CA1824C-85AD-40DB-A0CE-9853C443448E}" name="最大リトライ回数" dataDxfId="20"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="ID" dataDxfId="19"/>
+    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="18"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1234,11 +1331,11 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:E201" totalsRowShown="0">
   <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="5" xr3:uid="{FC48162A-FC37-4E8B-A499-5A38EF9C6126}" name="フォルダーID" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{5376A05A-37AF-4421-8DB1-36A26B07A3C8}" name="フォルダー名" dataDxfId="12"/>
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="キューID" dataDxfId="11"/>
-    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="キュー名" dataDxfId="10"/>
-    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="9"/>
+    <tableColumn id="5" xr3:uid="{FC48162A-FC37-4E8B-A499-5A38EF9C6126}" name="フォルダーID" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{5376A05A-37AF-4421-8DB1-36A26B07A3C8}" name="フォルダー名" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="キューID" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="キュー名" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1248,10 +1345,10 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BBB7F12E-D263-4590-BCE2-61D82D618DB1}" name="Table135" displayName="Table135" ref="A1:D201" totalsRowShown="0">
   <autoFilter ref="A1:D201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="4" xr3:uid="{A0F02CF9-2422-4237-BCF2-7AC4FEA2A0E5}" name="フォルダー名" dataDxfId="8"/>
-    <tableColumn id="5" xr3:uid="{C64A64C1-6175-416D-A899-A6A78F2BCFFD}" name="キュー名" dataDxfId="7"/>
-    <tableColumn id="1" xr3:uid="{37F9878F-61EF-41DF-82D6-B66A203E99DE}" name="保存フォルダーパス" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{4B37078C-0815-4876-9483-02F0C251D161}" name="結果" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{A0F02CF9-2422-4237-BCF2-7AC4FEA2A0E5}" name="フォルダー名" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{C64A64C1-6175-416D-A899-A6A78F2BCFFD}" name="キュー名" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{37F9878F-61EF-41DF-82D6-B66A203E99DE}" name="保存フォルダーパス" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{4B37078C-0815-4876-9483-02F0C251D161}" name="結果" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1261,11 +1358,24 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{BCB67D51-E017-4B9D-B6B1-7213CB9837F8}" name="Table1356" displayName="Table1356" ref="A1:E201" totalsRowShown="0">
   <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="4" xr3:uid="{DA48F80D-A0D8-4817-A87A-D1562C993C3C}" name="フォルダー名" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{C59AF576-8586-407D-B9AB-05ACA94BF07F}" name="キュー名" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{E4F8EBBA-8809-4C1B-AE66-772B45052FD0}" name="キューアイテム一覧のファイルパス" dataDxfId="2"/>
-    <tableColumn id="1" xr3:uid="{CD3F8AA2-6168-4A6C-A422-84C3410D9128}" name="コミットの種類" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{844BAEE1-D0DF-4267-935C-6B2CC0F525CC}" name="結果" dataDxfId="0"/>
+    <tableColumn id="4" xr3:uid="{DA48F80D-A0D8-4817-A87A-D1562C993C3C}" name="フォルダー名" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{C59AF576-8586-407D-B9AB-05ACA94BF07F}" name="キュー名" dataDxfId="7"/>
+    <tableColumn id="6" xr3:uid="{E4F8EBBA-8809-4C1B-AE66-772B45052FD0}" name="キューアイテム一覧のファイルパス" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{CD3F8AA2-6168-4A6C-A422-84C3410D9128}" name="コミットの種類" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{844BAEE1-D0DF-4267-935C-6B2CC0F525CC}" name="結果" dataDxfId="4"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{6B34A2BE-98C4-4DCB-8E16-38D785A18EDA}" name="Table19" displayName="Table19" ref="A1:D200" totalsRowShown="0">
+  <autoFilter ref="A1:D200" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{B1735495-4382-41CE-B614-26EEDAEC79EF}" name="キュー ID" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{11E257AA-B996-4B45-B609-C77D731E54F9}" name="フォルダー名" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{042D8595-EEE4-422A-A17E-28BB97D36587}" name="リンクを作成または削除" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{7615EC38-0CD5-4C02-9BC5-4B1EF9999EE2}" name="結果" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -8368,7 +8478,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:E201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -9810,4 +9920,1044 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A7F41D4-4C27-491C-874E-31104119C844}">
+  <sheetPr codeName="Sheet6"/>
+  <dimension ref="A1:D200"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="20.875" customWidth="1"/>
+    <col min="2" max="3" width="36.75" customWidth="1"/>
+    <col min="4" max="4" width="45.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A1" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="D2" s="40"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A3" s="25"/>
+      <c r="B3" s="25"/>
+      <c r="D3" s="40"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="D4" s="40"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A5" s="25"/>
+      <c r="B5" s="25"/>
+      <c r="D5" s="40"/>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="D6" s="40"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="25"/>
+      <c r="B7" s="25"/>
+      <c r="D7" s="40"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A8" s="25"/>
+      <c r="B8" s="25"/>
+      <c r="D8" s="40"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="D9" s="40"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="25"/>
+      <c r="B10" s="25"/>
+      <c r="D10" s="40"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A11" s="25"/>
+      <c r="B11" s="25"/>
+      <c r="D11" s="40"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A12" s="25"/>
+      <c r="B12" s="25"/>
+      <c r="D12" s="40"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A13" s="25"/>
+      <c r="B13" s="25"/>
+      <c r="D13" s="40"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A14" s="25"/>
+      <c r="B14" s="25"/>
+      <c r="D14" s="40"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A15" s="25"/>
+      <c r="B15" s="25"/>
+      <c r="D15" s="40"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="D16" s="40"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A17" s="25"/>
+      <c r="B17" s="25"/>
+      <c r="D17" s="40"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A18" s="25"/>
+      <c r="B18" s="25"/>
+      <c r="D18" s="40"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A19" s="25"/>
+      <c r="B19" s="25"/>
+      <c r="D19" s="40"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A20" s="25"/>
+      <c r="B20" s="25"/>
+      <c r="D20" s="40"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A21" s="25"/>
+      <c r="B21" s="25"/>
+      <c r="D21" s="40"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A22" s="25"/>
+      <c r="B22" s="25"/>
+      <c r="D22" s="40"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A23" s="25"/>
+      <c r="B23" s="25"/>
+      <c r="D23" s="40"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A24" s="25"/>
+      <c r="B24" s="25"/>
+      <c r="D24" s="40"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A25" s="25"/>
+      <c r="B25" s="25"/>
+      <c r="D25" s="40"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A26" s="25"/>
+      <c r="B26" s="25"/>
+      <c r="D26" s="40"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A27" s="25"/>
+      <c r="B27" s="25"/>
+      <c r="D27" s="40"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A28" s="25"/>
+      <c r="B28" s="25"/>
+      <c r="D28" s="40"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A29" s="25"/>
+      <c r="B29" s="25"/>
+      <c r="D29" s="40"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A30" s="25"/>
+      <c r="B30" s="25"/>
+      <c r="D30" s="40"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A31" s="25"/>
+      <c r="B31" s="25"/>
+      <c r="D31" s="40"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A32" s="25"/>
+      <c r="B32" s="25"/>
+      <c r="D32" s="40"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A33" s="25"/>
+      <c r="B33" s="25"/>
+      <c r="D33" s="40"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A34" s="25"/>
+      <c r="B34" s="25"/>
+      <c r="D34" s="40"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A35" s="25"/>
+      <c r="B35" s="25"/>
+      <c r="D35" s="40"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A36" s="25"/>
+      <c r="B36" s="25"/>
+      <c r="D36" s="40"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A37" s="25"/>
+      <c r="B37" s="25"/>
+      <c r="D37" s="40"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A38" s="25"/>
+      <c r="B38" s="25"/>
+      <c r="D38" s="40"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A39" s="25"/>
+      <c r="B39" s="25"/>
+      <c r="D39" s="40"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A40" s="25"/>
+      <c r="B40" s="25"/>
+      <c r="D40" s="40"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A41" s="25"/>
+      <c r="B41" s="25"/>
+      <c r="D41" s="40"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A42" s="25"/>
+      <c r="B42" s="25"/>
+      <c r="D42" s="40"/>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="D43" s="40"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A44" s="25"/>
+      <c r="B44" s="25"/>
+      <c r="D44" s="40"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A45" s="25"/>
+      <c r="B45" s="25"/>
+      <c r="D45" s="40"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A46" s="25"/>
+      <c r="B46" s="25"/>
+      <c r="D46" s="40"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A47" s="25"/>
+      <c r="B47" s="25"/>
+      <c r="D47" s="40"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A48" s="25"/>
+      <c r="B48" s="25"/>
+      <c r="D48" s="40"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A49" s="25"/>
+      <c r="B49" s="25"/>
+      <c r="D49" s="40"/>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A50" s="25"/>
+      <c r="B50" s="25"/>
+      <c r="D50" s="40"/>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A51" s="25"/>
+      <c r="B51" s="25"/>
+      <c r="D51" s="40"/>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A52" s="25"/>
+      <c r="B52" s="25"/>
+      <c r="D52" s="40"/>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A53" s="25"/>
+      <c r="B53" s="25"/>
+      <c r="D53" s="40"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A54" s="25"/>
+      <c r="B54" s="25"/>
+      <c r="D54" s="40"/>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A55" s="25"/>
+      <c r="B55" s="25"/>
+      <c r="D55" s="40"/>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A56" s="25"/>
+      <c r="B56" s="25"/>
+      <c r="D56" s="40"/>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A57" s="25"/>
+      <c r="B57" s="25"/>
+      <c r="D57" s="40"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A58" s="25"/>
+      <c r="B58" s="25"/>
+      <c r="D58" s="40"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A59" s="25"/>
+      <c r="B59" s="25"/>
+      <c r="D59" s="40"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A60" s="25"/>
+      <c r="B60" s="25"/>
+      <c r="D60" s="40"/>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A61" s="25"/>
+      <c r="B61" s="25"/>
+      <c r="D61" s="40"/>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A62" s="25"/>
+      <c r="B62" s="25"/>
+      <c r="D62" s="40"/>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A63" s="25"/>
+      <c r="B63" s="25"/>
+      <c r="D63" s="40"/>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A64" s="25"/>
+      <c r="B64" s="25"/>
+      <c r="D64" s="40"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A65" s="25"/>
+      <c r="B65" s="25"/>
+      <c r="D65" s="40"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A66" s="25"/>
+      <c r="B66" s="25"/>
+      <c r="D66" s="40"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A67" s="25"/>
+      <c r="B67" s="25"/>
+      <c r="D67" s="40"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A68" s="25"/>
+      <c r="B68" s="25"/>
+      <c r="D68" s="40"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A69" s="25"/>
+      <c r="B69" s="25"/>
+      <c r="D69" s="40"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A70" s="25"/>
+      <c r="B70" s="25"/>
+      <c r="D70" s="40"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A71" s="25"/>
+      <c r="B71" s="25"/>
+      <c r="D71" s="40"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A72" s="25"/>
+      <c r="B72" s="25"/>
+      <c r="D72" s="40"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A73" s="25"/>
+      <c r="B73" s="25"/>
+      <c r="D73" s="40"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A74" s="25"/>
+      <c r="B74" s="25"/>
+      <c r="D74" s="40"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A75" s="25"/>
+      <c r="B75" s="25"/>
+      <c r="D75" s="40"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A76" s="25"/>
+      <c r="B76" s="25"/>
+      <c r="D76" s="40"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A77" s="25"/>
+      <c r="B77" s="25"/>
+      <c r="D77" s="40"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A78" s="25"/>
+      <c r="B78" s="25"/>
+      <c r="D78" s="40"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A79" s="25"/>
+      <c r="B79" s="25"/>
+      <c r="D79" s="40"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A80" s="25"/>
+      <c r="B80" s="25"/>
+      <c r="D80" s="40"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A81" s="25"/>
+      <c r="B81" s="25"/>
+      <c r="D81" s="40"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A82" s="25"/>
+      <c r="B82" s="25"/>
+      <c r="D82" s="40"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A83" s="25"/>
+      <c r="B83" s="25"/>
+      <c r="D83" s="40"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A84" s="25"/>
+      <c r="B84" s="25"/>
+      <c r="D84" s="40"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A85" s="25"/>
+      <c r="B85" s="25"/>
+      <c r="D85" s="40"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A86" s="25"/>
+      <c r="B86" s="25"/>
+      <c r="D86" s="40"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A87" s="25"/>
+      <c r="B87" s="25"/>
+      <c r="D87" s="40"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A88" s="25"/>
+      <c r="B88" s="25"/>
+      <c r="D88" s="40"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A89" s="25"/>
+      <c r="B89" s="25"/>
+      <c r="D89" s="40"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A90" s="25"/>
+      <c r="B90" s="25"/>
+      <c r="D90" s="40"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A91" s="25"/>
+      <c r="B91" s="25"/>
+      <c r="D91" s="40"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A92" s="25"/>
+      <c r="B92" s="25"/>
+      <c r="D92" s="40"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A93" s="25"/>
+      <c r="B93" s="25"/>
+      <c r="D93" s="40"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A94" s="25"/>
+      <c r="B94" s="25"/>
+      <c r="D94" s="40"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A95" s="25"/>
+      <c r="B95" s="25"/>
+      <c r="D95" s="40"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A96" s="25"/>
+      <c r="B96" s="25"/>
+      <c r="D96" s="40"/>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A97" s="25"/>
+      <c r="B97" s="25"/>
+      <c r="D97" s="40"/>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A98" s="25"/>
+      <c r="B98" s="25"/>
+      <c r="D98" s="40"/>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A99" s="25"/>
+      <c r="B99" s="25"/>
+      <c r="D99" s="40"/>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A100" s="25"/>
+      <c r="B100" s="25"/>
+      <c r="D100" s="40"/>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A101" s="25"/>
+      <c r="B101" s="25"/>
+      <c r="D101" s="40"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A102" s="25"/>
+      <c r="B102" s="25"/>
+      <c r="D102" s="40"/>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A103" s="25"/>
+      <c r="B103" s="25"/>
+      <c r="D103" s="40"/>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A104" s="25"/>
+      <c r="B104" s="25"/>
+      <c r="D104" s="40"/>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A105" s="25"/>
+      <c r="B105" s="25"/>
+      <c r="D105" s="40"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A106" s="25"/>
+      <c r="B106" s="25"/>
+      <c r="D106" s="40"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A107" s="25"/>
+      <c r="B107" s="25"/>
+      <c r="D107" s="40"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A108" s="25"/>
+      <c r="B108" s="25"/>
+      <c r="D108" s="40"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A109" s="25"/>
+      <c r="B109" s="25"/>
+      <c r="D109" s="40"/>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A110" s="25"/>
+      <c r="B110" s="25"/>
+      <c r="D110" s="40"/>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A111" s="25"/>
+      <c r="B111" s="25"/>
+      <c r="D111" s="40"/>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A112" s="25"/>
+      <c r="B112" s="25"/>
+      <c r="D112" s="40"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A113" s="25"/>
+      <c r="B113" s="25"/>
+      <c r="D113" s="40"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A114" s="25"/>
+      <c r="B114" s="25"/>
+      <c r="D114" s="40"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A115" s="25"/>
+      <c r="B115" s="25"/>
+      <c r="D115" s="40"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A116" s="25"/>
+      <c r="B116" s="25"/>
+      <c r="D116" s="40"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A117" s="25"/>
+      <c r="B117" s="25"/>
+      <c r="D117" s="40"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A118" s="25"/>
+      <c r="B118" s="25"/>
+      <c r="D118" s="40"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A119" s="25"/>
+      <c r="B119" s="25"/>
+      <c r="D119" s="40"/>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A120" s="25"/>
+      <c r="B120" s="25"/>
+      <c r="D120" s="40"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A121" s="25"/>
+      <c r="B121" s="25"/>
+      <c r="D121" s="40"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A122" s="25"/>
+      <c r="B122" s="25"/>
+      <c r="D122" s="40"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A123" s="25"/>
+      <c r="B123" s="25"/>
+      <c r="D123" s="40"/>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A124" s="25"/>
+      <c r="B124" s="25"/>
+      <c r="D124" s="40"/>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A125" s="25"/>
+      <c r="B125" s="25"/>
+      <c r="D125" s="40"/>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A126" s="25"/>
+      <c r="B126" s="25"/>
+      <c r="D126" s="40"/>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A127" s="25"/>
+      <c r="B127" s="25"/>
+      <c r="D127" s="40"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A128" s="25"/>
+      <c r="B128" s="25"/>
+      <c r="D128" s="40"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A129" s="25"/>
+      <c r="B129" s="25"/>
+      <c r="D129" s="40"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A130" s="25"/>
+      <c r="B130" s="25"/>
+      <c r="D130" s="40"/>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A131" s="25"/>
+      <c r="B131" s="25"/>
+      <c r="D131" s="40"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A132" s="25"/>
+      <c r="B132" s="25"/>
+      <c r="D132" s="40"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A133" s="25"/>
+      <c r="B133" s="25"/>
+      <c r="D133" s="40"/>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A134" s="25"/>
+      <c r="B134" s="25"/>
+      <c r="D134" s="40"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A135" s="25"/>
+      <c r="B135" s="25"/>
+      <c r="D135" s="40"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A136" s="25"/>
+      <c r="B136" s="25"/>
+      <c r="D136" s="40"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A137" s="25"/>
+      <c r="B137" s="25"/>
+      <c r="D137" s="40"/>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A138" s="25"/>
+      <c r="B138" s="25"/>
+      <c r="D138" s="40"/>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A139" s="25"/>
+      <c r="B139" s="25"/>
+      <c r="D139" s="40"/>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A140" s="25"/>
+      <c r="B140" s="25"/>
+      <c r="D140" s="40"/>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A141" s="25"/>
+      <c r="B141" s="25"/>
+      <c r="D141" s="40"/>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A142" s="25"/>
+      <c r="B142" s="25"/>
+      <c r="D142" s="40"/>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A143" s="25"/>
+      <c r="B143" s="25"/>
+      <c r="D143" s="40"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A144" s="25"/>
+      <c r="B144" s="25"/>
+      <c r="D144" s="40"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A145" s="25"/>
+      <c r="B145" s="25"/>
+      <c r="D145" s="40"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A146" s="25"/>
+      <c r="B146" s="25"/>
+      <c r="D146" s="40"/>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A147" s="25"/>
+      <c r="B147" s="25"/>
+      <c r="D147" s="40"/>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A148" s="25"/>
+      <c r="B148" s="25"/>
+      <c r="D148" s="40"/>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A149" s="25"/>
+      <c r="B149" s="25"/>
+      <c r="D149" s="40"/>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A150" s="25"/>
+      <c r="B150" s="25"/>
+      <c r="D150" s="40"/>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A151" s="25"/>
+      <c r="B151" s="25"/>
+      <c r="D151" s="40"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A152" s="25"/>
+      <c r="B152" s="25"/>
+      <c r="D152" s="40"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A153" s="25"/>
+      <c r="B153" s="25"/>
+      <c r="D153" s="40"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A154" s="25"/>
+      <c r="B154" s="25"/>
+      <c r="D154" s="40"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A155" s="25"/>
+      <c r="B155" s="25"/>
+      <c r="D155" s="40"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A156" s="25"/>
+      <c r="B156" s="25"/>
+      <c r="D156" s="40"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A157" s="25"/>
+      <c r="B157" s="25"/>
+      <c r="D157" s="40"/>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A158" s="25"/>
+      <c r="B158" s="25"/>
+      <c r="D158" s="40"/>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A159" s="25"/>
+      <c r="B159" s="25"/>
+      <c r="D159" s="40"/>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A160" s="25"/>
+      <c r="B160" s="25"/>
+      <c r="D160" s="40"/>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A161" s="25"/>
+      <c r="B161" s="25"/>
+      <c r="D161" s="40"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A162" s="25"/>
+      <c r="B162" s="25"/>
+      <c r="D162" s="40"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A163" s="25"/>
+      <c r="B163" s="25"/>
+      <c r="D163" s="40"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A164" s="25"/>
+      <c r="B164" s="25"/>
+      <c r="D164" s="40"/>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A165" s="25"/>
+      <c r="B165" s="25"/>
+      <c r="D165" s="40"/>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A166" s="25"/>
+      <c r="B166" s="25"/>
+      <c r="D166" s="40"/>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A167" s="25"/>
+      <c r="B167" s="25"/>
+      <c r="D167" s="40"/>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A168" s="25"/>
+      <c r="B168" s="25"/>
+      <c r="D168" s="40"/>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A169" s="25"/>
+      <c r="B169" s="25"/>
+      <c r="D169" s="40"/>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A170" s="25"/>
+      <c r="B170" s="25"/>
+      <c r="D170" s="40"/>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A171" s="25"/>
+      <c r="B171" s="25"/>
+      <c r="D171" s="40"/>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A172" s="25"/>
+      <c r="B172" s="25"/>
+      <c r="D172" s="40"/>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A173" s="25"/>
+      <c r="B173" s="25"/>
+      <c r="D173" s="40"/>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A174" s="25"/>
+      <c r="B174" s="25"/>
+      <c r="D174" s="40"/>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A175" s="25"/>
+      <c r="B175" s="25"/>
+      <c r="D175" s="40"/>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A176" s="25"/>
+      <c r="B176" s="25"/>
+      <c r="D176" s="40"/>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A177" s="25"/>
+      <c r="B177" s="25"/>
+      <c r="D177" s="40"/>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A178" s="25"/>
+      <c r="B178" s="25"/>
+      <c r="D178" s="40"/>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A179" s="25"/>
+      <c r="B179" s="25"/>
+      <c r="D179" s="40"/>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A180" s="25"/>
+      <c r="B180" s="25"/>
+      <c r="D180" s="40"/>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A181" s="25"/>
+      <c r="B181" s="25"/>
+      <c r="D181" s="40"/>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A182" s="25"/>
+      <c r="B182" s="25"/>
+      <c r="D182" s="40"/>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A183" s="25"/>
+      <c r="B183" s="25"/>
+      <c r="D183" s="40"/>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A184" s="25"/>
+      <c r="B184" s="25"/>
+      <c r="D184" s="40"/>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A185" s="25"/>
+      <c r="B185" s="25"/>
+      <c r="D185" s="40"/>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A186" s="25"/>
+      <c r="B186" s="25"/>
+      <c r="D186" s="40"/>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A187" s="25"/>
+      <c r="B187" s="25"/>
+      <c r="D187" s="40"/>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A188" s="25"/>
+      <c r="B188" s="25"/>
+      <c r="D188" s="40"/>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A189" s="25"/>
+      <c r="B189" s="25"/>
+      <c r="D189" s="40"/>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A190" s="25"/>
+      <c r="B190" s="25"/>
+      <c r="D190" s="40"/>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A191" s="25"/>
+      <c r="B191" s="25"/>
+      <c r="D191" s="40"/>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A192" s="25"/>
+      <c r="B192" s="25"/>
+      <c r="D192" s="40"/>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A193" s="25"/>
+      <c r="B193" s="25"/>
+      <c r="D193" s="40"/>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A194" s="25"/>
+      <c r="B194" s="25"/>
+      <c r="D194" s="40"/>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A195" s="25"/>
+      <c r="B195" s="25"/>
+      <c r="D195" s="40"/>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A196" s="25"/>
+      <c r="B196" s="25"/>
+      <c r="D196" s="40"/>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A197" s="25"/>
+      <c r="B197" s="25"/>
+      <c r="D197" s="40"/>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A198" s="25"/>
+      <c r="B198" s="25"/>
+      <c r="D198" s="40"/>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A199" s="25"/>
+      <c r="B199" s="25"/>
+      <c r="D199" s="40"/>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A200" s="31"/>
+      <c r="B200" s="31"/>
+      <c r="D200" s="40"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C1048576" xr:uid="{826D0BB5-094A-476F-A226-BC6A7E2F9136}">
+      <formula1>"Link,Unlink"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Workbooks/JA/キュー.xlsx
+++ b/Workbooks/JA/キュー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5C57479-9DE0-4EA3-86F2-A18F23644A5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCBCE35-B847-4142-B812-E1CE77EC75D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23780" yWindow="9920" windowWidth="19200" windowHeight="4750" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="29745" windowHeight="12540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/キュー.xlsx
+++ b/Workbooks/JA/キュー.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BCBCE35-B847-4142-B812-E1CE77EC75D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A5E199-CC77-40CC-B7C8-301433EF2A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="29745" windowHeight="12540" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8100" yWindow="885" windowWidth="27225" windowHeight="11940" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/キュー.xlsx
+++ b/Workbooks/JA/キュー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A5E199-CC77-40CC-B7C8-301433EF2A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA88173F-1209-42E9-841E-1B7931BC85B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="885" windowWidth="27225" windowHeight="11940" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7185" yWindow="3600" windowWidth="21375" windowHeight="9990" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
